--- a/x_template.xlsx
+++ b/x_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF82F6E-0D5D-4D30-87CA-68DC9030C5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82B0C0A-5F37-4C95-B269-7ED10C1D33AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="Catalysts" sheetId="4" r:id="rId4"/>
     <sheet name="DoR" sheetId="5" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Model!$A$26</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Model!$A$27</definedName>
@@ -65,7 +68,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Simon Burghardt:</t>
         </r>
@@ -74,7 +77,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 =Total Debt / Shareholders Equity
@@ -91,7 +94,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Simon Burghardt:</t>
         </r>
@@ -100,7 +103,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 EBIT (before Interest &amp; D&amp;A) / Interest Expense
@@ -117,7 +120,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Simon Burghardt:</t>
         </r>
@@ -126,7 +129,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 = Current Assets / Current Liabilities
@@ -143,7 +146,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Simon Burghardt:</t>
         </r>
@@ -152,7 +155,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 = Cash + Marketable Securities + AR / Current Liabilities or
@@ -168,7 +171,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Simon Burghardt:</t>
         </r>
@@ -177,7 +180,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Working Capital = Current Assets - Current Liabilities
@@ -196,7 +199,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Simon Burghardt:</t>
         </r>
@@ -205,7 +208,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 BVPS = Stockholders Equity $ - Preffered Stock $ / Average Shares Outstanding
@@ -221,7 +224,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Simon Burghardt:</t>
         </r>
@@ -230,7 +233,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 = Net Sales / Average Total Assets
@@ -246,7 +249,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Simon Burghardt:</t>
         </r>
@@ -255,7 +258,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 = Net Income / Total Assets</t>
@@ -270,7 +273,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Simon Burghardt:</t>
         </r>
@@ -279,7 +282,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 = Net Income / Shareholders Equity $</t>
@@ -294,7 +297,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Simon Burghardt:</t>
         </r>
@@ -303,7 +306,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 = Last Annual Free Cash Flow per Share / Current Market Stock Price
@@ -317,7 +320,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="166">
   <si>
     <t>Price</t>
   </si>
@@ -697,19 +700,137 @@
     <t>FCF Yield</t>
   </si>
   <si>
-    <t>IGT</t>
+    <t>w/w</t>
+  </si>
+  <si>
+    <t>Close to Close Weekly returns</t>
+  </si>
+  <si>
+    <t>Intervals</t>
+  </si>
+  <si>
+    <t>Bin</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>Cumulative Percentage</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Sample Variance</t>
+  </si>
+  <si>
+    <t>Kurtosis</t>
+  </si>
+  <si>
+    <t>Skewness</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Average Returns</t>
+  </si>
+  <si>
+    <t>Frequency %</t>
+  </si>
+  <si>
+    <t>Frequency Adjusted Return</t>
+  </si>
+  <si>
+    <t>Positive Data Points</t>
+  </si>
+  <si>
+    <t>Negative Data Points</t>
+  </si>
+  <si>
+    <t>Zero</t>
+  </si>
+  <si>
+    <t>Std Dev</t>
+  </si>
+  <si>
+    <t>Upper Bound</t>
+  </si>
+  <si>
+    <t>Lower Bound</t>
+  </si>
+  <si>
+    <t>Actual Count</t>
+  </si>
+  <si>
+    <t>Actual % Count</t>
+  </si>
+  <si>
+    <t>Normal % Count</t>
+  </si>
+  <si>
+    <t>Percentiles</t>
+  </si>
+  <si>
+    <t>Stop %</t>
+  </si>
+  <si>
+    <t>Target %</t>
+  </si>
+  <si>
+    <t>Current Price</t>
+  </si>
+  <si>
+    <t>Stop Price</t>
+  </si>
+  <si>
+    <t>Target Price</t>
+  </si>
+  <si>
+    <t>Descriptive Statistics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -773,17 +894,51 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -832,8 +987,25 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -921,13 +1093,470 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1046,9 +1675,117 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="11" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="11" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="11" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="11" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="11" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="14" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="14" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="12" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="11" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="11" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="11" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="11" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="14" fillId="11" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="10" fillId="9" borderId="23" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="10" fillId="9" borderId="29" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="9" borderId="23" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="12" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -4365,7 +5102,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Stock Price LNW</a:t>
+              <a:t>Stock Price</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4578,6 +5315,347 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="693983327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]DoR!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frequency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]DoR!$J$4:$J$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Less than -30,20%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-30,20% to -23,95%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-23,95% to -17,70%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-17,70% to -11,46%</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-11,46% to -5,21%</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5,21% to 1,03%</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1,03% to 7,28%</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7,28% to 13,52%</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13,52% to 19,77%</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19,77% to 26,02%</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26,02% to 32,26%</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Greater than 32,26%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]DoR!$I$4:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1F3C-452E-9D52-EA2888DEE33A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="30"/>
+        <c:axId val="1429205823"/>
+        <c:axId val="1429206303"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1429205823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1429206303"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1429206303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1429205823"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4846,6 +5924,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5717,6 +6835,514 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -10277,8 +11903,173 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>195261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1438274</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C95CA4EB-70F8-44F6-BB23-9B1648AFD932}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Model-graph"/>
+      <sheetName val="Catalysts"/>
+      <sheetName val="DoR"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="3">
+          <cell r="I3" t="str">
+            <v>Frequency</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="I4">
+            <v>0</v>
+          </cell>
+          <cell r="J4" t="str">
+            <v>Less than -30,20%</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="I5">
+            <v>0</v>
+          </cell>
+          <cell r="J5" t="str">
+            <v>-30,20% to -23,95%</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="I6">
+            <v>0</v>
+          </cell>
+          <cell r="J6" t="str">
+            <v>-23,95% to -17,70%</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="I7">
+            <v>18</v>
+          </cell>
+          <cell r="J7" t="str">
+            <v>-17,70% to -11,46%</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="I8">
+            <v>33</v>
+          </cell>
+          <cell r="J8" t="str">
+            <v>-11,46% to -5,21%</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="I9">
+            <v>44</v>
+          </cell>
+          <cell r="J9" t="str">
+            <v>-5,21% to 1,03%</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="I10">
+            <v>51</v>
+          </cell>
+          <cell r="J10" t="str">
+            <v>1,03% to 7,28%</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="I11">
+            <v>21</v>
+          </cell>
+          <cell r="J11" t="str">
+            <v>7,28% to 13,52%</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="I12">
+            <v>5</v>
+          </cell>
+          <cell r="J12" t="str">
+            <v>13,52% to 19,77%</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="I13">
+            <v>4</v>
+          </cell>
+          <cell r="J13" t="str">
+            <v>19,77% to 26,02%</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="I14">
+            <v>2</v>
+          </cell>
+          <cell r="J14" t="str">
+            <v>26,02% to 32,26%</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="I15">
+            <v>3</v>
+          </cell>
+          <cell r="J15" t="str">
+            <v>Greater than 32,26%</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10546,8 +12337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10567,9 +12358,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="34" t="s">
-        <v>126</v>
-      </c>
+      <c r="B2" s="34"/>
       <c r="C2" s="19"/>
       <c r="E2" s="24" t="s">
         <v>53</v>
@@ -13422,7 +15211,7 @@
   <dimension ref="A1:L2067"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21747,14 +23536,1105 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366AC5E7-7FF6-4287-9F23-7D3A6FE15A5F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="82" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="84"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="85"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="87"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="88" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="89" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3" s="90" t="s">
+        <v>130</v>
+      </c>
+      <c r="J3" s="91" t="s">
+        <v>131</v>
+      </c>
+      <c r="K3" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="L3" s="92" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G4" s="93" t="e">
+        <f>$H$19-3*$H$23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H4" s="94" t="e">
+        <f>G4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I4" s="95">
+        <f>COUNTIF(C:C,"&lt;="&amp;G4)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="95" t="e">
+        <f>"Less than "&amp;TEXT(G4,"0,00%")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K4" s="96" t="e">
+        <f>I4/$H$31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L4" s="97" t="e">
+        <f>K4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G5" s="98" t="e">
+        <f>$H$19-2.4*$H$23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H5" s="99" t="e">
+        <f>G5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I5" s="100">
+        <f>COUNTIFS(C:C,"&lt;="&amp;G5,C:C,"&gt;"&amp;G4)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="101" t="e">
+        <f>TEXT(G4,"0,00%")&amp;" to "&amp;TEXT(G5,"0,00%")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K5" s="102" t="e">
+        <f>I5/$H$31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L5" s="103" t="e">
+        <f>L4+K5</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G6" s="98" t="e">
+        <f>$H$19-1.8*$H$23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H6" s="99" t="e">
+        <f t="shared" ref="H6:H14" si="0">G6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I6" s="100">
+        <f t="shared" ref="I6:I14" si="1">COUNTIFS(C:C,"&lt;="&amp;G6,C:C,"&gt;"&amp;G5)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="101" t="e">
+        <f>TEXT(G5,"0,00%")&amp;" to "&amp;TEXT(G6,"0,00%")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K6" s="102" t="e">
+        <f t="shared" ref="K6:K15" si="2">I6/$H$31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L6" s="103" t="e">
+        <f t="shared" ref="L6:L15" si="3">L5+K6</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G7" s="98" t="e">
+        <f>$H$19-1.2*$H$23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H7" s="99" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I7" s="100">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="101" t="e">
+        <f>TEXT(G6,"0,00%")&amp;" to "&amp;TEXT(G7,"0,00%")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K7" s="102" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L7" s="103" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G8" s="98" t="e">
+        <f>$H$19-0.6*$H$23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H8" s="99" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I8" s="100">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="101" t="e">
+        <f>TEXT(G7,"0,00%")&amp;" to "&amp;TEXT(G8,"0,00%")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K8" s="102" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L8" s="103" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G9" s="98" t="e">
+        <f>$H$19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H9" s="99" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I9" s="100">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="101" t="e">
+        <f>TEXT(G8,"0,00%")&amp;" to "&amp;TEXT(G9,"0,00%")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K9" s="102" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L9" s="103" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G10" s="98" t="e">
+        <f>$H$19+0.6*$H$23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H10" s="99" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10" s="100">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="101" t="e">
+        <f>TEXT(G9,"0,00%")&amp;" to "&amp;TEXT(G10,"0,00%")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K10" s="102" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L10" s="103" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G11" s="98" t="e">
+        <f>$H$19+1.2*$H$23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H11" s="99" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I11" s="100">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="101" t="e">
+        <f>TEXT(G10,"0,00%")&amp;" to "&amp;TEXT(G11,"0,00%")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K11" s="102" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L11" s="103" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G12" s="98" t="e">
+        <f>$H$19+1.8*$H$23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H12" s="99" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I12" s="100">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="101" t="e">
+        <f>TEXT(G11,"0,00%")&amp;" to "&amp;TEXT(G12,"0,00%")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K12" s="102" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L12" s="103" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G13" s="98" t="e">
+        <f>$H$19+2.4*$H$23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H13" s="99" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I13" s="100">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="101" t="e">
+        <f>TEXT(G12,"0,00%")&amp;" to "&amp;TEXT(G13,"0,00%")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K13" s="102" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L13" s="103" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G14" s="98" t="e">
+        <f>$H$19+3*$H$23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H14" s="99" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I14" s="100">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="101" t="e">
+        <f>TEXT(G13,"0,00%")&amp;" to "&amp;TEXT(G14,"0,00%")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K14" s="102" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L14" s="103" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G15" s="104"/>
+      <c r="H15" s="105" t="s">
+        <v>134</v>
+      </c>
+      <c r="I15" s="105">
+        <f>COUNTIF(C:C,"&gt;"&amp;G14)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="105" t="e">
+        <f>"Greater than "&amp;TEXT(G14,"0,00%")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K15" s="106" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L15" s="106" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="107"/>
+      <c r="L16" s="108"/>
+    </row>
+    <row r="17" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G17" s="109" t="s">
+        <v>165</v>
+      </c>
+      <c r="H17" s="110"/>
+      <c r="L17" s="108"/>
+    </row>
+    <row r="18" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G18" s="111"/>
+      <c r="H18" s="112"/>
+      <c r="L18" s="108"/>
+    </row>
+    <row r="19" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G19" s="113" t="s">
+        <v>135</v>
+      </c>
+      <c r="H19" s="151" t="e">
+        <f>AVERAGE(C:C)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L19" s="108"/>
+    </row>
+    <row r="20" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G20" s="113" t="s">
+        <v>136</v>
+      </c>
+      <c r="H20" s="151" t="e">
+        <f>_xlfn.STDEV.S(C:C)/SQRT(COUNT(C:C))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L20" s="108"/>
+    </row>
+    <row r="21" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G21" s="113" t="s">
+        <v>137</v>
+      </c>
+      <c r="H21" s="151" t="e">
+        <f>MEDIAN(C:C)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="L21" s="108"/>
+    </row>
+    <row r="22" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G22" s="113" t="s">
+        <v>138</v>
+      </c>
+      <c r="H22" s="151" t="e">
+        <f>MODE(C:C)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L22" s="108"/>
+    </row>
+    <row r="23" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G23" s="113" t="s">
+        <v>139</v>
+      </c>
+      <c r="H23" s="151" t="e">
+        <f>_xlfn.STDEV.S(C:C)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L23" s="108"/>
+    </row>
+    <row r="24" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G24" s="113" t="s">
+        <v>140</v>
+      </c>
+      <c r="H24" s="151" t="e">
+        <f>_xlfn.VAR.S(C:C)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L24" s="108"/>
+    </row>
+    <row r="25" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G25" s="113" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" s="152" t="e">
+        <f>KURT(C:C)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L25" s="108"/>
+    </row>
+    <row r="26" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G26" s="113" t="s">
+        <v>142</v>
+      </c>
+      <c r="H26" s="152" t="e">
+        <f>SKEW(C:C)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L26" s="108"/>
+    </row>
+    <row r="27" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G27" s="113" t="s">
+        <v>131</v>
+      </c>
+      <c r="H27" s="151">
+        <f>H29-H28</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="108"/>
+    </row>
+    <row r="28" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G28" s="113" t="s">
+        <v>143</v>
+      </c>
+      <c r="H28" s="151">
+        <f>MIN(C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="108"/>
+    </row>
+    <row r="29" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G29" s="113" t="s">
+        <v>144</v>
+      </c>
+      <c r="H29" s="151">
+        <f>MAX(C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="108"/>
+    </row>
+    <row r="30" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G30" s="113" t="s">
+        <v>145</v>
+      </c>
+      <c r="H30" s="152">
+        <f>SUM(C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="108"/>
+    </row>
+    <row r="31" spans="7:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G31" s="114" t="s">
+        <v>146</v>
+      </c>
+      <c r="H31" s="86">
+        <f>COUNT(C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="108"/>
+    </row>
+    <row r="32" spans="7:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G32" s="116"/>
+      <c r="L32" s="108"/>
+    </row>
+    <row r="33" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G33" s="117"/>
+      <c r="H33" s="118" t="s">
+        <v>147</v>
+      </c>
+      <c r="I33" s="118" t="s">
+        <v>146</v>
+      </c>
+      <c r="J33" s="118" t="s">
+        <v>148</v>
+      </c>
+      <c r="K33" s="119" t="s">
+        <v>149</v>
+      </c>
+      <c r="L33" s="108"/>
+    </row>
+    <row r="34" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G34" s="120" t="s">
+        <v>150</v>
+      </c>
+      <c r="H34" s="102" t="e">
+        <f>AVERAGEIF(C:C,"&gt;0")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I34" s="100">
+        <f>COUNTIF(C:C,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="102" t="e">
+        <f>I34/$H$31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K34" s="103" t="e">
+        <f>J34*H34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L34" s="108"/>
+    </row>
+    <row r="35" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G35" s="120" t="s">
+        <v>151</v>
+      </c>
+      <c r="H35" s="102" t="e">
+        <f>AVERAGEIF(C:C,"&lt;0")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I35" s="100">
+        <f>COUNTIF(C:C,"&lt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="102" t="e">
+        <f>I35/$H$31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K35" s="103" t="e">
+        <f t="shared" ref="K35:K36" si="4">J35*H35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L35" s="108"/>
+    </row>
+    <row r="36" spans="7:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G36" s="121" t="s">
+        <v>152</v>
+      </c>
+      <c r="H36" s="105">
+        <v>0</v>
+      </c>
+      <c r="I36" s="105">
+        <f>COUNTIF(C:C,"0")</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="122" t="e">
+        <f>I36/$H$31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K36" s="106" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L36" s="108"/>
+    </row>
+    <row r="37" spans="7:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G37" s="116"/>
+      <c r="H37" s="123"/>
+      <c r="I37" s="123"/>
+      <c r="J37" s="123"/>
+      <c r="K37" s="123"/>
+      <c r="L37" s="108"/>
+    </row>
+    <row r="38" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G38" s="93" t="s">
+        <v>153</v>
+      </c>
+      <c r="H38" s="118" t="s">
+        <v>154</v>
+      </c>
+      <c r="I38" s="118" t="s">
+        <v>155</v>
+      </c>
+      <c r="J38" s="118" t="s">
+        <v>156</v>
+      </c>
+      <c r="K38" s="118" t="s">
+        <v>157</v>
+      </c>
+      <c r="L38" s="119" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G39" s="124">
+        <v>1</v>
+      </c>
+      <c r="H39" s="102" t="e">
+        <f>$H$19+($G39*$H$23)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I39" s="102" t="e">
+        <f>$H$19-($G39*$H$23)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J39" s="100">
+        <f>COUNTIFS(C:C,"&lt;"&amp;H39,C:C,"&gt;"&amp;I39)</f>
+        <v>0</v>
+      </c>
+      <c r="K39" s="102" t="e">
+        <f>J39/$H$31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L39" s="103">
+        <v>0.68269999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G40" s="124">
+        <v>2</v>
+      </c>
+      <c r="H40" s="102" t="e">
+        <f>$H$19+($G40*$H$23)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I40" s="102" t="e">
+        <f>$H$19-($G40*$H$23)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J40" s="100">
+        <f>COUNTIFS(C:C,"&lt;"&amp;H40,C:C,"&gt;"&amp;I40)</f>
+        <v>0</v>
+      </c>
+      <c r="K40" s="102" t="e">
+        <f>J40/$H$31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L40" s="103">
+        <v>0.95450000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G41" s="124">
+        <v>3</v>
+      </c>
+      <c r="H41" s="102" t="e">
+        <f>$H$19+($G41*$H$23)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I41" s="102" t="e">
+        <f>$H$19-($G41*$H$23)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J41" s="100">
+        <f>COUNTIFS(C:C,"&lt;"&amp;H41,C:C,"&gt;"&amp;I41)</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="102" t="e">
+        <f>J41/$H$31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L41" s="125">
+        <v>0.99729999999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="7:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G42" s="98"/>
+      <c r="L42" s="125"/>
+    </row>
+    <row r="43" spans="7:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G43" s="126" t="s">
+        <v>159</v>
+      </c>
+      <c r="H43" s="127"/>
+      <c r="I43" s="127"/>
+      <c r="J43" s="127"/>
+      <c r="K43" s="127"/>
+      <c r="L43" s="128"/>
+    </row>
+    <row r="44" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G44" s="129">
+        <v>0.01</v>
+      </c>
+      <c r="H44" s="130" t="e">
+        <f>_xlfn.PERCENTILE.INC(C:C,G44)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="I44" s="131">
+        <v>0.2</v>
+      </c>
+      <c r="J44" s="130" t="e">
+        <f>_xlfn.PERCENTILE.INC(C:C,I44)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K44" s="131">
+        <v>0.85</v>
+      </c>
+      <c r="L44" s="132" t="e">
+        <f>_xlfn.PERCENTILE.INC(C:C,K44)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="45" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G45" s="133">
+        <v>0.02</v>
+      </c>
+      <c r="H45" s="134" t="e">
+        <f>_xlfn.PERCENTILE.INC(C:C,G45)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="I45" s="135">
+        <v>0.25</v>
+      </c>
+      <c r="J45" s="134" t="e">
+        <f>_xlfn.PERCENTILE.INC(C:C,I45)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K45" s="135">
+        <v>0.86</v>
+      </c>
+      <c r="L45" s="136" t="e">
+        <f>_xlfn.PERCENTILE.INC(C:C,K45)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="46" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G46" s="133">
+        <v>0.03</v>
+      </c>
+      <c r="H46" s="134" t="e">
+        <f>_xlfn.PERCENTILE.INC(C:C,G46)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="I46" s="135">
+        <v>0.3</v>
+      </c>
+      <c r="J46" s="134" t="e">
+        <f>_xlfn.PERCENTILE.INC(C:C,I46)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K46" s="135">
+        <v>0.87</v>
+      </c>
+      <c r="L46" s="136" t="e">
+        <f>_xlfn.PERCENTILE.INC(C:C,K46)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="47" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G47" s="133">
+        <v>0.04</v>
+      </c>
+      <c r="H47" s="134" t="e">
+        <f>_xlfn.PERCENTILE.INC(C:C,G47)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="I47" s="135">
+        <v>0.35</v>
+      </c>
+      <c r="J47" s="134" t="e">
+        <f>_xlfn.PERCENTILE.INC(C:C,I47)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K47" s="135">
+        <v>0.88</v>
+      </c>
+      <c r="L47" s="136" t="e">
+        <f>_xlfn.PERCENTILE.INC(C:C,K47)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="48" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G48" s="133">
+        <v>0.05</v>
+      </c>
+      <c r="H48" s="134" t="e">
+        <f>_xlfn.PERCENTILE.INC(C:C,G48)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="I48" s="135">
+        <v>0.4</v>
+      </c>
+      <c r="J48" s="134" t="e">
+        <f>_xlfn.PERCENTILE.INC(C:C,I48)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K48" s="135">
+        <v>0.89</v>
+      </c>
+      <c r="L48" s="136" t="e">
+        <f>_xlfn.PERCENTILE.INC(C:C,K48)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="49" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G49" s="133">
+        <v>0.06</v>
+      </c>
+      <c r="H49" s="134" t="e">
+        <f>_xlfn.PERCENTILE.INC(C:C,G49)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="I49" s="135">
+        <v>0.45</v>
+      </c>
+      <c r="J49" s="134" t="e">
+        <f>_xlfn.PERCENTILE.INC(C:C,I49)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K49" s="135">
+        <v>0.9</v>
+      </c>
+      <c r="L49" s="136" t="e">
+        <f>_xlfn.PERCENTILE.INC(C:C,K49)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="50" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G50" s="133">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H50" s="134" t="e">
+        <f>_xlfn.PERCENTILE.INC(C:C,G50)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="I50" s="135">
+        <v>0.5</v>
+      </c>
+      <c r="J50" s="134" t="e">
+        <f>_xlfn.PERCENTILE.INC(C:C,I50)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K50" s="135">
+        <v>0.91</v>
+      </c>
+      <c r="L50" s="136" t="e">
+        <f>_xlfn.PERCENTILE.INC(C:C,K50)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="51" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G51" s="133">
+        <v>0.08</v>
+      </c>
+      <c r="H51" s="134" t="e">
+        <f>_xlfn.PERCENTILE.INC(C:C,G51)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="I51" s="135">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J51" s="134" t="e">
+        <f>_xlfn.PERCENTILE.INC(C:C,I51)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K51" s="135">
+        <v>0.92</v>
+      </c>
+      <c r="L51" s="136" t="e">
+        <f>_xlfn.PERCENTILE.INC(C:C,K51)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="52" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G52" s="133">
+        <v>0.09</v>
+      </c>
+      <c r="H52" s="134" t="e">
+        <f>_xlfn.PERCENTILE.INC(C:C,G52)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="I52" s="135">
+        <v>0.6</v>
+      </c>
+      <c r="J52" s="134" t="e">
+        <f>_xlfn.PERCENTILE.INC(C:C,I52)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K52" s="135">
+        <v>0.93</v>
+      </c>
+      <c r="L52" s="136" t="e">
+        <f>_xlfn.PERCENTILE.INC(C:C,K52)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="53" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G53" s="133">
+        <v>0.1</v>
+      </c>
+      <c r="H53" s="134" t="e">
+        <f>_xlfn.PERCENTILE.INC(C:C,G53)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="I53" s="135">
+        <v>0.65</v>
+      </c>
+      <c r="J53" s="134" t="e">
+        <f>_xlfn.PERCENTILE.INC(C:C,I53)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K53" s="135">
+        <v>0.94</v>
+      </c>
+      <c r="L53" s="136" t="e">
+        <f>_xlfn.PERCENTILE.INC(C:C,K53)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="54" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G54" s="133">
+        <v>0.11</v>
+      </c>
+      <c r="H54" s="134" t="e">
+        <f>_xlfn.PERCENTILE.INC(C:C,G54)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="I54" s="135">
+        <v>0.7</v>
+      </c>
+      <c r="J54" s="134" t="e">
+        <f>_xlfn.PERCENTILE.INC(C:C,I54)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K54" s="135">
+        <v>0.95</v>
+      </c>
+      <c r="L54" s="136" t="e">
+        <f>_xlfn.PERCENTILE.INC(C:C,K54)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="55" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G55" s="133">
+        <v>0.12</v>
+      </c>
+      <c r="H55" s="134" t="e">
+        <f>_xlfn.PERCENTILE.INC(C:C,G55)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="I55" s="135">
+        <v>0.75</v>
+      </c>
+      <c r="J55" s="134" t="e">
+        <f>_xlfn.PERCENTILE.INC(C:C,I55)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K55" s="135">
+        <v>0.96</v>
+      </c>
+      <c r="L55" s="136" t="e">
+        <f>_xlfn.PERCENTILE.INC(C:C,K55)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="56" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G56" s="133">
+        <v>0.13</v>
+      </c>
+      <c r="H56" s="134" t="e">
+        <f>_xlfn.PERCENTILE.INC(C:C,G56)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="I56" s="135">
+        <v>0.8</v>
+      </c>
+      <c r="J56" s="134" t="e">
+        <f>_xlfn.PERCENTILE.INC(C:C,I56)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K56" s="135">
+        <v>0.97</v>
+      </c>
+      <c r="L56" s="136" t="e">
+        <f>_xlfn.PERCENTILE.INC(C:C,K56)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="57" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G57" s="133">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H57" s="134" t="e">
+        <f>_xlfn.PERCENTILE.INC(C:C,G57)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="I57" s="135"/>
+      <c r="J57" s="134"/>
+      <c r="K57" s="135">
+        <v>0.98</v>
+      </c>
+      <c r="L57" s="136" t="e">
+        <f>_xlfn.PERCENTILE.INC(C:C,K57)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="58" spans="7:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G58" s="137">
+        <v>0.15</v>
+      </c>
+      <c r="H58" s="138" t="e">
+        <f>_xlfn.PERCENTILE.INC(C:C,G58)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="I58" s="139"/>
+      <c r="J58" s="115"/>
+      <c r="K58" s="140">
+        <v>0.99</v>
+      </c>
+      <c r="L58" s="141" t="e">
+        <f>_xlfn.PERCENTILE.INC(C:C,K58)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="59" spans="7:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G60" s="142" t="s">
+        <v>160</v>
+      </c>
+      <c r="H60" s="143"/>
+    </row>
+    <row r="61" spans="7:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G61" s="144" t="s">
+        <v>161</v>
+      </c>
+      <c r="H61" s="145"/>
+    </row>
+    <row r="62" spans="7:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G62" s="146"/>
+    </row>
+    <row r="63" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G63" s="142" t="s">
+        <v>162</v>
+      </c>
+      <c r="H63" s="147"/>
+    </row>
+    <row r="64" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G64" s="148" t="s">
+        <v>163</v>
+      </c>
+      <c r="H64" s="149">
+        <f>H63*(1-H60)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="7:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G65" s="144" t="s">
+        <v>164</v>
+      </c>
+      <c r="H65" s="150">
+        <f>H63*(1+H61)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G43:L43"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/x_template.xlsx
+++ b/x_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82B0C0A-5F37-4C95-B269-7ED10C1D33AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A54378-BDD8-4C74-8E5F-E8CAF0FCCC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -23,16 +23,16 @@
     <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$A$26</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$A$27</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$K$26:$W$26</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$K$27:$W$27</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$K$2:$W$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$A$6</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$A$7</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$K$2:$W$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$K$6:$W$6</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$K$7:$W$7</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$A$6</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$A$7</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$K$2:$W$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$K$6:$W$6</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$K$7:$W$7</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$A$25</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$A$26</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$K$25:$W$25</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$K$26:$W$26</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$K$2:$W$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -320,7 +320,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="165">
   <si>
     <t>Price</t>
   </si>
@@ -565,37 +565,10 @@
     <t>EV/EBITDA</t>
   </si>
   <si>
-    <t>COGS Service</t>
-  </si>
-  <si>
-    <t>COGS Product</t>
-  </si>
-  <si>
-    <t>COGS Instant</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>Instant</t>
-  </si>
-  <si>
     <t>R&amp;D</t>
   </si>
   <si>
-    <t>Restructuring</t>
-  </si>
-  <si>
     <t>NI Noncontrolling Interest</t>
-  </si>
-  <si>
-    <t>Service y/y</t>
-  </si>
-  <si>
-    <t>Product y/y</t>
   </si>
   <si>
     <t>Notes</t>
@@ -619,13 +592,7 @@
     <t>Intangible Asset</t>
   </si>
   <si>
-    <t>Softeware net</t>
-  </si>
-  <si>
     <t>Deffered Income Tax</t>
-  </si>
-  <si>
-    <t>Other asset</t>
   </si>
   <si>
     <t>Long term debt</t>
@@ -653,9 +620,6 @@
   </si>
   <si>
     <t>Liab Business for Sale</t>
-  </si>
-  <si>
-    <t>Liab B4S</t>
   </si>
   <si>
     <t>Inventories</t>
@@ -819,15 +783,47 @@
   <si>
     <t>Descriptive Statistics</t>
   </si>
+  <si>
+    <t>Prod1</t>
+  </si>
+  <si>
+    <t>Prod2</t>
+  </si>
+  <si>
+    <t>Prod3</t>
+  </si>
+  <si>
+    <t>COGS Prod1</t>
+  </si>
+  <si>
+    <t>COGS Prod3</t>
+  </si>
+  <si>
+    <t>COGS Prod2</t>
+  </si>
+  <si>
+    <t>Prod1 y/y</t>
+  </si>
+  <si>
+    <t>Prod2 y/y</t>
+  </si>
+  <si>
+    <t>R&amp;D / REV</t>
+  </si>
+  <si>
+    <t>G&amp;A / REV</t>
+  </si>
+  <si>
+    <t>G&amp;A</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
-    <numFmt numFmtId="166" formatCode="#,##0.000"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
@@ -1611,8 +1607,6 @@
     <xf numFmtId="9" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1648,6 +1642,83 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="11" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="11" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="11" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="14" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="14" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="12" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="14" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="11" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="11" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="11" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="11" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="14" fillId="11" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="10" fillId="9" borderId="23" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="10" fillId="9" borderId="29" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="9" borderId="23" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="12" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1684,34 +1755,6 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="12" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="12" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="12" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="12" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="12" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="12" fillId="11" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="12" fillId="11" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="12" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="12" fillId="11" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="12" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="12" fillId="11" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1724,19 +1767,6 @@
     <xf numFmtId="167" fontId="12" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="12" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="12" fillId="11" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="12" fillId="11" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="14" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="14" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="12" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="12" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="12" fillId="11" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1746,42 +1776,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="11" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="11" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="11" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="11" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="14" fillId="11" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="10" fillId="9" borderId="23" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="10" fillId="9" borderId="29" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="10" fillId="9" borderId="23" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="12" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2080,7 +2076,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$A$30</c:f>
+              <c:f>Model!$A$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2157,7 +2153,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$30:$W$30</c:f>
+              <c:f>Model!$K$29:$W$29</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2717,7 +2713,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$A$30</c:f>
+              <c:f>Model!$A$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2804,7 +2800,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$B$30:$G$30</c:f>
+              <c:f>Model!$B$29:$G$29</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3165,7 +3161,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$A$24</c:f>
+              <c:f>Model!$A$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3328,7 +3324,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$24:$W$24</c:f>
+              <c:f>Model!$K$23:$W$23</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3401,7 +3397,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$A$28</c:f>
+              <c:f>Model!$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3478,7 +3474,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$28:$W$28</c:f>
+              <c:f>Model!$K$27:$W$27</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3860,7 +3856,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$A$24</c:f>
+              <c:f>Model!$A$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3960,10 +3956,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$B$24:$G$24</c:f>
+              <c:f>Model!$B$23:$G$23</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3994,7 +4005,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$A$34</c:f>
+              <c:f>Model!$A$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4069,7 +4080,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$B$34:$G$34</c:f>
+              <c:f>Model!$B$35:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4370,6 +4381,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Cost / REV</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4401,7 +4437,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.7122703412073491E-2"/>
+          <c:y val="0.12459829594160773"/>
+          <c:w val="0.87232174103237092"/>
+          <c:h val="0.70470173386291823"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -4410,7 +4456,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$A$31</c:f>
+              <c:f>Model!$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4548,11 +4594,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Model!$K$31:$U$31</c15:sqref>
+                    <c15:sqref>Model!$K$30:$U$30</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Model!$M$31:$U$31</c:f>
+              <c:f>Model!$M$30:$U$30</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4722,6 +4768,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -5716,18 +5793,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5771,7 +5848,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5791,7 +5868,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5822,18 +5899,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5877,7 +5954,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5897,7 +5974,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -11639,8 +11716,8 @@
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11960,10 +12037,10 @@
       <sheetName val="DoR"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4">
         <row r="3">
           <cell r="I3" t="str">
@@ -12337,8 +12414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N54"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12363,7 +12440,7 @@
       <c r="E2" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="70" t="s">
         <v>54</v>
       </c>
       <c r="G2" s="25"/>
@@ -12450,7 +12527,10 @@
       <c r="B8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="15">
+        <f>C6*C7</f>
+        <v>0</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="28"/>
       <c r="I8" s="10"/>
@@ -12462,7 +12542,10 @@
       <c r="B9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="15"/>
+      <c r="C9" s="15" t="e">
+        <f>Model!E28</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="28"/>
       <c r="I9" s="10"/>
@@ -12474,7 +12557,10 @@
       <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="15">
+        <f>Model!E41+Model!E45</f>
+        <v>0</v>
+      </c>
       <c r="E10" s="5"/>
       <c r="F10" s="28"/>
       <c r="I10" s="10"/>
@@ -12486,7 +12572,10 @@
       <c r="B11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="15" t="e">
+        <f>C9-C10</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="28"/>
       <c r="I11" s="10"/>
@@ -12498,7 +12587,10 @@
       <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="15"/>
+      <c r="C12" s="15" t="e">
+        <f>C8-C9+C10</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="28"/>
       <c r="J12" s="13"/>
@@ -12509,7 +12601,10 @@
       <c r="B13" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="36"/>
+      <c r="C13" s="36" t="e">
+        <f>C6/Model!#REF!</f>
+        <v>#REF!</v>
+      </c>
       <c r="E13" s="5"/>
       <c r="J13" s="13"/>
       <c r="L13" s="5"/>
@@ -12519,7 +12614,10 @@
       <c r="B14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="36"/>
+      <c r="C14" s="36" t="e">
+        <f>C6/Model!F16</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="E14" s="22"/>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
@@ -12534,267 +12632,330 @@
       <c r="B15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="36"/>
+      <c r="C15" s="36" t="e">
+        <f>C6/Model!G16</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="6"/>
+      <c r="C16" s="6" t="e">
+        <f>Model!F16/Model!#REF!-1</f>
+        <v>#REF!</v>
+      </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="C17" s="6" t="e">
+        <f>Model!G16/Model!F16-1</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="E17" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="L17" s="73"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="75"/>
+      <c r="L17" s="132"/>
+      <c r="M17" s="133"/>
+      <c r="N17" s="134"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="77"/>
-      <c r="N18" s="78"/>
+      <c r="C18" s="55" t="e">
+        <f>C14/C16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L18" s="135"/>
+      <c r="M18" s="136"/>
+      <c r="N18" s="137"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="57"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="78"/>
+      <c r="C19" s="55" t="e">
+        <f>C15/C17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L19" s="135"/>
+      <c r="M19" s="136"/>
+      <c r="N19" s="137"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="78"/>
+        <v>102</v>
+      </c>
+      <c r="C20" s="6" t="e">
+        <f>Model!F4/Model!E3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L20" s="135"/>
+      <c r="M20" s="136"/>
+      <c r="N20" s="137"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="L21" s="76"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="78"/>
+        <v>103</v>
+      </c>
+      <c r="C21" s="6" t="e">
+        <f>Model!G4/Model!F4-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L21" s="135"/>
+      <c r="M21" s="136"/>
+      <c r="N21" s="137"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="78"/>
+      <c r="C22" s="15">
+        <f>Model!E12+Model!E10</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="135"/>
+      <c r="M22" s="136"/>
+      <c r="N22" s="137"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="77"/>
-      <c r="N23" s="78"/>
+      <c r="C23" s="15">
+        <f>Model!E12</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="135"/>
+      <c r="M23" s="136"/>
+      <c r="N23" s="137"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="77"/>
-      <c r="N24" s="78"/>
+      <c r="C24" s="7">
+        <f>Model!E17</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="135"/>
+      <c r="M24" s="136"/>
+      <c r="N24" s="137"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="L25" s="76"/>
-      <c r="M25" s="77"/>
-      <c r="N25" s="78"/>
+      <c r="C25" s="7">
+        <f>Model!E18</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="135"/>
+      <c r="M25" s="136"/>
+      <c r="N25" s="137"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="77"/>
-      <c r="N26" s="78"/>
+      <c r="C26" s="36" t="e">
+        <f>C12/C23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L26" s="135"/>
+      <c r="M26" s="136"/>
+      <c r="N26" s="137"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C27" s="13"/>
+        <v>104</v>
+      </c>
+      <c r="C27" s="151" t="e">
+        <f>Model!P45/Model!P50</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="E27" t="s">
-        <v>92</v>
-      </c>
-      <c r="L27" s="76"/>
-      <c r="M27" s="77"/>
-      <c r="N27" s="78"/>
+        <v>83</v>
+      </c>
+      <c r="L27" s="135"/>
+      <c r="M27" s="136"/>
+      <c r="N27" s="137"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="L28" s="79"/>
-      <c r="M28" s="80"/>
-      <c r="N28" s="81"/>
+        <v>105</v>
+      </c>
+      <c r="C28" s="36" t="e">
+        <f>C22/-Model!E10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L28" s="138"/>
+      <c r="M28" s="139"/>
+      <c r="N28" s="140"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" s="13"/>
+        <v>106</v>
+      </c>
+      <c r="C29" s="36" t="e">
+        <f>Model!P34/Model!P44</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" s="13"/>
+        <v>107</v>
+      </c>
+      <c r="C30" s="36" t="e">
+        <f>(Model!P28+Model!P29)/Model!P44</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31" s="13"/>
+        <v>108</v>
+      </c>
+      <c r="C31" s="6" t="e">
+        <f>(Model!P34-Model!P44)/Model!P40</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" s="13"/>
+        <v>109</v>
+      </c>
+      <c r="C32" s="36" t="e">
+        <f>(Model!P40-Model!P49)/Main!C7</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C33" s="13"/>
+        <v>110</v>
+      </c>
+      <c r="C33" s="36" t="e">
+        <f>Model!P3/Model!P40</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C34" s="13"/>
+        <v>111</v>
+      </c>
+      <c r="C34" s="39" t="e">
+        <f>Model!P14/Model!P40</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C35" s="13"/>
+        <v>112</v>
+      </c>
+      <c r="C35" s="39" t="e">
+        <f>Model!P14/Model!P50</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="22" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C36" s="23"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E41" s="68"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="71"/>
-      <c r="I41" s="71"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="69"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E42" s="68"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="71"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="69"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E43" s="68"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="71"/>
-      <c r="I43" s="71"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="69"/>
+      <c r="H43" s="69"/>
+      <c r="I43" s="69"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E44" s="68"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="71"/>
-      <c r="I44" s="71"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="69"/>
+      <c r="I44" s="69"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E45" s="68"/>
-      <c r="F45" s="68"/>
-      <c r="G45" s="71"/>
-      <c r="H45" s="71"/>
-      <c r="I45" s="71"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="69"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="69"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E46" s="68"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="71"/>
-      <c r="I46" s="71"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="69"/>
+      <c r="H46" s="69"/>
+      <c r="I46" s="69"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E47" s="68"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="71"/>
-      <c r="I47" s="71"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="69"/>
+      <c r="H47" s="69"/>
+      <c r="I47" s="69"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E48" s="68"/>
-      <c r="F48" s="68"/>
-      <c r="G48" s="71"/>
-      <c r="H48" s="71"/>
-      <c r="I48" s="71"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="69"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="69"/>
     </row>
     <row r="49" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="71"/>
-      <c r="H49" s="71"/>
-      <c r="I49" s="71"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="69"/>
     </row>
     <row r="50" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E50" s="68"/>
-      <c r="F50" s="68"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="71"/>
-      <c r="I50" s="71"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="69"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="69"/>
     </row>
     <row r="51" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E51" s="68"/>
-      <c r="F51" s="68"/>
-      <c r="G51" s="71"/>
-      <c r="H51" s="71"/>
-      <c r="I51" s="71"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="69"/>
     </row>
     <row r="52" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E52" s="69"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="70"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="68"/>
+      <c r="G52" s="68"/>
     </row>
     <row r="53" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E53" s="69"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="68"/>
     </row>
     <row r="54" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E54" s="69"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="70"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="68"/>
+      <c r="G54" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12807,13 +12968,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
-  <dimension ref="A1:X91"/>
+  <dimension ref="A1:X87"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I72" sqref="I72"/>
+      <selection pane="bottomRight" activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12895,21 +13056,21 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>84</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="56"/>
+        <v>156</v>
+      </c>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="54"/>
     </row>
     <row r="6" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -12979,7 +13140,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -13005,7 +13166,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -13031,7 +13192,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -13080,11 +13241,11 @@
         <v>0</v>
       </c>
       <c r="G11" s="44">
-        <f>G7*(1-G28)</f>
+        <f>G7*(1-G27)</f>
         <v>0</v>
       </c>
       <c r="H11" s="44">
-        <f>H7*(1-H28)</f>
+        <f>H7*(1-H27)</f>
         <v>0</v>
       </c>
       <c r="K11" s="11"/>
@@ -13126,7 +13287,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -13174,7 +13335,7 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>164</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -13196,114 +13357,117 @@
       <c r="U15" s="10"/>
       <c r="V15" s="15"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="15"/>
-    </row>
-    <row r="17" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="16" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="11">
-        <f>B6-B11-B12-B13-B14-B15-B16</f>
+      <c r="B16" s="11">
+        <f>B6-B11-B12-B13-B14-B15</f>
         <v>0</v>
       </c>
-      <c r="C17" s="11">
-        <f>C6-C11-C12-C13-C14-C15-C16</f>
+      <c r="C16" s="11">
+        <f>C6-C11-C12-C13-C14-C15</f>
         <v>0</v>
       </c>
-      <c r="D17" s="11">
-        <f>D6-D11-D12-D13-D14-D15-D16</f>
+      <c r="D16" s="11">
+        <f>D6-D11-D12-D13-D14-D15</f>
         <v>0</v>
       </c>
-      <c r="E17" s="11">
-        <f>E6-E11-E12-E13-E14-E15-E16</f>
+      <c r="E16" s="11">
+        <f>E6-E11-E12-E13-E14-E15</f>
         <v>0</v>
       </c>
-      <c r="F17" s="14">
-        <f>F6-F11-F12-F13-F14-F15-F16</f>
+      <c r="F16" s="14">
+        <f t="shared" ref="F16:V16" si="0">F6-F11-F12-F13-F14-F15</f>
         <v>0</v>
       </c>
-      <c r="G17" s="44">
-        <f>G7-G11-G12-G13-G14-G15-G16</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="44">
-        <f>H7-H11-H12-H13-H14-H15-H16</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="11">
-        <f t="shared" ref="K17:V17" si="0">K6-K11-K12-K13-K16</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="11">
+      <c r="G16" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M17" s="11">
+      <c r="H16" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N17" s="11">
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O17" s="11">
+      <c r="L16" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P17" s="11">
+      <c r="M16" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="11">
+      <c r="N16" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R17" s="11">
+      <c r="O16" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S17" s="11">
+      <c r="P16" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T17" s="11">
+      <c r="Q16" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U17" s="11">
+      <c r="R16" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V17" s="14">
+      <c r="S16" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="T16" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="11"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="15"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -13327,7 +13491,7 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -13349,114 +13513,114 @@
       <c r="U19" s="10"/>
       <c r="V19" s="15"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="15"/>
-    </row>
-    <row r="21" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="20" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="11">
-        <f t="shared" ref="B21:H21" si="1">B17+B18+B19+B20</f>
+      <c r="B20" s="11">
+        <f t="shared" ref="B20:H20" si="1">B16+B17+B18+B19</f>
         <v>0</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C20" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D20" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E20" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F20" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G20" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H20" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K21" s="11">
-        <f t="shared" ref="K21:S21" si="2">K17+K18+K19</f>
+      <c r="K20" s="11">
+        <f t="shared" ref="K20:S20" si="2">K16+K17+K18</f>
         <v>0</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L20" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M21" s="11">
+      <c r="M20" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N21" s="11">
+      <c r="N20" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O21" s="11">
+      <c r="O20" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P21" s="11">
+      <c r="P20" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="11">
+      <c r="Q20" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R21" s="11">
+      <c r="R20" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S21" s="11">
+      <c r="S20" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T21" s="11">
-        <f>T17+T18+T19</f>
+      <c r="T20" s="11">
+        <f>T16+T17+T18</f>
         <v>0</v>
       </c>
-      <c r="U21" s="11">
-        <f>U17+U18+U19</f>
+      <c r="U20" s="11">
+        <f>U16+U17+U18</f>
         <v>0</v>
       </c>
-      <c r="V21" s="14">
-        <f>V17+V18+V19</f>
+      <c r="V20" s="14">
+        <f>V16+V17+V18</f>
         <v>0</v>
       </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="15"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -13478,548 +13642,657 @@
       <c r="U22" s="10"/>
       <c r="V22" s="15"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>89</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="15"/>
-    </row>
-    <row r="24" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="23" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="K24" s="11">
-        <f>K21-K22-K23</f>
+      <c r="B23" s="11">
+        <f>B20-B21-B22</f>
         <v>0</v>
       </c>
-      <c r="L24" s="11">
-        <f>L21-L22-L23</f>
+      <c r="C23" s="11">
+        <f t="shared" ref="C23:F23" si="3">C20-C21-C22</f>
         <v>0</v>
       </c>
-      <c r="M24" s="11">
-        <f>M21-M22-M23</f>
-        <v>0</v>
-      </c>
-      <c r="N24" s="11">
-        <f t="shared" ref="N24:R24" si="3">N21+N22+N23</f>
-        <v>0</v>
-      </c>
-      <c r="O24" s="11">
+      <c r="D23" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P24" s="11">
-        <f>P21-P22-P23</f>
+      <c r="E23" s="11">
+        <f>E20-E21-E22</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="11">
-        <f>Q21-Q22-Q23</f>
-        <v>0</v>
-      </c>
-      <c r="R24" s="11">
+      <c r="F23" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S24" s="11">
-        <f>S21-S22-S23</f>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="K23" s="11">
+        <f>K20-K21-K22</f>
         <v>0</v>
       </c>
-      <c r="T24" s="11">
-        <f>T21-T22-T23</f>
+      <c r="L23" s="11">
+        <f>L20-L21-L22</f>
         <v>0</v>
       </c>
-      <c r="U24" s="11">
-        <f>U21-U22-U23</f>
+      <c r="M23" s="11">
+        <f>M20-M21-M22</f>
         <v>0</v>
       </c>
-      <c r="V24" s="14">
-        <f>V21-V22-V23</f>
+      <c r="N23" s="11">
+        <f t="shared" ref="N23:R23" si="4">N20+N21+N22</f>
         <v>0</v>
       </c>
-      <c r="W24" s="11">
-        <f>W25*W27</f>
+      <c r="O23" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X24" s="11"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="P23" s="11">
+        <f>P20-P21-P22</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="11">
+        <f>Q20-Q21-Q22</f>
+        <v>0</v>
+      </c>
+      <c r="R23" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S23" s="11">
+        <f>S20-S21-S22</f>
+        <v>0</v>
+      </c>
+      <c r="T23" s="11">
+        <f>T20-T21-T22</f>
+        <v>0</v>
+      </c>
+      <c r="U23" s="11">
+        <f>U20-U21-U22</f>
+        <v>0</v>
+      </c>
+      <c r="V23" s="14">
+        <f>V20-V21-V22</f>
+        <v>0</v>
+      </c>
+      <c r="W23" s="11">
+        <f>W24*W26</f>
+        <v>0</v>
+      </c>
+      <c r="X23" s="11"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="10"/>
-      <c r="X25" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+    </row>
+    <row r="25" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2" t="e">
+        <f>B23/B24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C25" s="2" t="e">
+        <f>C23/C24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D25" s="2" t="e">
+        <f>D23/D24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" s="2" t="e">
+        <f>E23/E24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" s="61" t="e">
+        <f>F23/F24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="62"/>
+      <c r="H25" s="63"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="50"/>
+      <c r="W25" s="51"/>
+      <c r="X25" s="51"/>
     </row>
     <row r="26" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="2" t="e">
-        <f>B24/B25</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C26" s="2" t="e">
-        <f>C24/C25</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D26" s="2" t="e">
-        <f>D24/D25</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E26" s="2" t="e">
-        <f>E24/E25</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F26" s="63" t="e">
-        <f>F24/F25</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G26" s="64"/>
-      <c r="H26" s="65"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="53"/>
-      <c r="X26" s="53"/>
+      <c r="A26" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="46"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="52"/>
+      <c r="U26" s="52"/>
+      <c r="V26" s="50"/>
+      <c r="W26" s="51"/>
+      <c r="X26" s="51"/>
     </row>
     <row r="27" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="46"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="54"/>
-      <c r="S27" s="54"/>
-      <c r="T27" s="54"/>
-      <c r="U27" s="54"/>
-      <c r="V27" s="52"/>
-      <c r="W27" s="53"/>
-      <c r="X27" s="53"/>
-    </row>
-    <row r="28" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A27" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="3" t="e">
+      <c r="B27" s="3" t="e">
         <f>1-B11/B6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C28" s="3" t="e">
+      <c r="C27" s="3" t="e">
         <f>1-C11/C6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D28" s="3" t="e">
+      <c r="D27" s="3" t="e">
         <f>1-D11/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E28" s="3" t="e">
+      <c r="E27" s="3" t="e">
         <f>1-E11/E6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F28" s="6" t="e">
+      <c r="F27" s="6" t="e">
         <f>1-F11/F6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="K28" s="3" t="e">
-        <f t="shared" ref="K28:V28" si="4">1-K11/K6</f>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="K27" s="3" t="e">
+        <f>1-K11/K6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L28" s="3" t="e">
-        <f t="shared" si="4"/>
+      <c r="L27" s="3" t="e">
+        <f>1-L11/L6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M28" s="3" t="e">
-        <f t="shared" si="4"/>
+      <c r="M27" s="3" t="e">
+        <f>1-M11/M6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N28" s="3" t="e">
-        <f t="shared" si="4"/>
+      <c r="N27" s="3" t="e">
+        <f>1-N11/N6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O28" s="3" t="e">
-        <f t="shared" si="4"/>
+      <c r="O27" s="3" t="e">
+        <f>1-O11/O6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P28" s="3" t="e">
-        <f t="shared" si="4"/>
+      <c r="P27" s="3" t="e">
+        <f>1-P11/P6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q28" s="3" t="e">
-        <f t="shared" si="4"/>
+      <c r="Q27" s="3" t="e">
+        <f>1-Q11/Q6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R28" s="3" t="e">
-        <f t="shared" si="4"/>
+      <c r="R27" s="3" t="e">
+        <f>1-R11/R6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S28" s="3" t="e">
-        <f t="shared" si="4"/>
+      <c r="S27" s="3" t="e">
+        <f>1-S11/S6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T28" s="3" t="e">
-        <f t="shared" si="4"/>
+      <c r="T27" s="3" t="e">
+        <f>1-T11/T6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U28" s="3" t="e">
-        <f t="shared" si="4"/>
+      <c r="U27" s="3" t="e">
+        <f>1-U11/U6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V28" s="6" t="e">
-        <f t="shared" si="4"/>
+      <c r="V27" s="6" t="e">
+        <f>1-V11/V6</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="4" t="e">
+        <f>B23/B6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C28" s="4" t="e">
+        <f>C23/C6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D28" s="4" t="e">
+        <f>D23/D6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E28" s="4" t="e">
+        <f>E23/E6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F28" s="7" t="e">
+        <f>F23/F6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G28" s="48" t="e">
+        <f>G23/G7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H28" s="48" t="e">
+        <f>H23/H7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K28" s="4" t="e">
+        <f>K23/K6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L28" s="4" t="e">
+        <f>L23/L6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M28" s="4" t="e">
+        <f>M23/M6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N28" s="4" t="e">
+        <f>N23/N6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O28" s="4" t="e">
+        <f>O23/O6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P28" s="4" t="e">
+        <f>P23/P6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q28" s="4" t="e">
+        <f>Q23/Q6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R28" s="4" t="e">
+        <f>R23/R6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S28" s="4" t="e">
+        <f>S23/S6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T28" s="4" t="e">
+        <f>T23/T6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U28" s="4" t="e">
+        <f>U23/U6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V28" s="7" t="e">
+        <f>V23/V6</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="4" t="e">
-        <f>B24/B6</f>
+        <v>35</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="e">
+        <f>C6/B6-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C29" s="4" t="e">
-        <f>C24/C6</f>
+      <c r="D29" s="3" t="e">
+        <f>D6/C6-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D29" s="4" t="e">
-        <f>D24/D6</f>
+      <c r="E29" s="40" t="e">
+        <f>E6/D6-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E29" s="4" t="e">
-        <f>E24/E6</f>
+      <c r="F29" s="6" t="e">
+        <f>F6/E6-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F29" s="7" t="e">
-        <f>F24/F6</f>
+      <c r="G29" s="49" t="e">
+        <f>G7/F6-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G29" s="48" t="e">
-        <f>G24/G7</f>
+      <c r="H29" s="49" t="e">
+        <f>H7/G7-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="48" t="e">
-        <f>H24/H7</f>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4" t="e">
+        <f>O6/K6-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K29" s="4" t="e">
-        <f t="shared" ref="K29:V29" si="5">K24/K6</f>
+      <c r="P29" s="4" t="e">
+        <f>P6/L6-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L29" s="4" t="e">
+      <c r="Q29" s="4" t="e">
+        <f>Q6/M6-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R29" s="4" t="e">
+        <f>R6/N6-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S29" s="4" t="e">
+        <f>S6/O6-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T29" s="4" t="e">
+        <f>T6/P6-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U29" s="4" t="e">
+        <f>U6/Q6-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V29" s="7" t="e">
+        <f>V6/R6-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W29" s="37" t="e">
+        <f>W7/S6-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X29" s="37" t="e">
+        <f>X7/T6-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="4" t="e">
+        <f>B12/B6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C30" s="4" t="e">
+        <f>C12/C6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D30" s="4" t="e">
+        <f>D12/D6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E30" s="4" t="e">
+        <f>E12/E6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F30" s="7" t="e">
+        <f>F12/F6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G30" s="152"/>
+      <c r="H30" s="152"/>
+      <c r="K30" s="4" t="e">
+        <f>K12/K6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L30" s="4" t="e">
+        <f>L12/L6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M30" s="4" t="e">
+        <f>M12/M6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N30" s="4" t="e">
+        <f>N12/N6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O30" s="4" t="e">
+        <f>O12/O6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P30" s="4" t="e">
+        <f>P12/P6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q30" s="4" t="e">
+        <f>Q12/Q6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R30" s="4" t="e">
+        <f>R12/R6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S30" s="4" t="e">
+        <f>S12/S6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T30" s="4" t="e">
+        <f>T12/T6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U30" s="4" t="e">
+        <f>U12/U6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V30" s="7" t="e">
+        <f>V12/V6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W30" s="4"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>162</v>
+      </c>
+      <c r="B31" s="4" t="e">
+        <f t="shared" ref="B31:E31" si="5">B13/B6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C31" s="4" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M29" s="4" t="e">
+      <c r="D31" s="4" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N29" s="4" t="e">
+      <c r="E31" s="4" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O29" s="4" t="e">
-        <f t="shared" si="5"/>
+      <c r="F31" s="7" t="e">
+        <f>F13/F6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P29" s="4" t="e">
-        <f t="shared" si="5"/>
+      <c r="G31" s="152"/>
+      <c r="H31" s="152"/>
+      <c r="K31" s="4" t="e">
+        <f t="shared" ref="K31:V31" si="6">K13/K6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q29" s="4" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R29" s="4" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S29" s="4" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T29" s="4" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U29" s="4" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V29" s="7" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3" t="e">
-        <f>C6/B6-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D30" s="3" t="e">
-        <f>D6/C6-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E30" s="40" t="e">
-        <f>E6/D6-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F30" s="6" t="e">
-        <f>F6/E6-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G30" s="49" t="e">
-        <f>G7/F6-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H30" s="49" t="e">
-        <f>H7/G7-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4" t="e">
-        <f t="shared" ref="O30:V30" si="6">O6/K6-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P30" s="4" t="e">
+      <c r="L31" s="4" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q30" s="4" t="e">
+      <c r="M31" s="4" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R30" s="4" t="e">
+      <c r="N31" s="4" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S30" s="4" t="e">
+      <c r="O31" s="4" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T30" s="4" t="e">
+      <c r="P31" s="4" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U30" s="4" t="e">
+      <c r="Q31" s="4" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V30" s="7" t="e">
+      <c r="R31" s="4" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W30" s="37" t="e">
-        <f>W7/S6-1</f>
+      <c r="S31" s="4" t="e">
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X30" s="37" t="e">
-        <f>X7/T6-1</f>
+      <c r="T31" s="4" t="e">
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" s="4" t="e">
-        <f>B12/B6</f>
+      <c r="U31" s="4" t="e">
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C31" s="4" t="e">
-        <f>C12/C6</f>
+      <c r="V31" s="7" t="e">
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D31" s="4" t="e">
-        <f>D12/D6</f>
+      <c r="W31" s="4"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>163</v>
+      </c>
+      <c r="B32" s="4" t="e">
+        <f>B15/B6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E31" s="4" t="e">
-        <f>E12/E6</f>
+      <c r="C32" s="4" t="e">
+        <f>C15/C6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F31" s="4" t="e">
-        <f>F12/F6</f>
+      <c r="D32" s="4" t="e">
+        <f>D15/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G31" s="50"/>
-      <c r="H31" s="49"/>
-      <c r="K31" s="4" t="e">
-        <f t="shared" ref="K31:V31" si="7">K12/K6</f>
+      <c r="E32" s="4" t="e">
+        <f>E15/E6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L31" s="4" t="e">
+      <c r="F32" s="7" t="e">
+        <f>F15/F6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G32" s="152"/>
+      <c r="H32" s="152"/>
+      <c r="K32" s="4" t="e">
+        <f t="shared" ref="K32:V32" si="7">K15/K6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L32" s="4" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M31" s="4" t="e">
+      <c r="M32" s="4" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N31" s="4" t="e">
+      <c r="N32" s="4" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O31" s="4" t="e">
+      <c r="O32" s="4" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P31" s="4" t="e">
+      <c r="P32" s="4" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q31" s="4" t="e">
+      <c r="Q32" s="4" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R31" s="4" t="e">
+      <c r="R32" s="4" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S31" s="4" t="e">
+      <c r="S32" s="4" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T31" s="4" t="e">
+      <c r="T32" s="4" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U31" s="4" t="e">
+      <c r="U32" s="4" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V31" s="7" t="e">
+      <c r="V32" s="7" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W31" s="4"/>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4" t="e">
-        <f t="shared" ref="D32:F33" si="8">D3/C3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E32" s="4" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F32" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="7"/>
       <c r="W32" s="4"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f>D3/C3-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E33" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f>E3/D3-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F33" s="7" t="e">
-        <f t="shared" si="8"/>
+        <f>F3/E3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
+      <c r="G33" s="152"/>
+      <c r="H33" s="152"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
@@ -14036,150 +14309,138 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3" t="e">
-        <f>-(C24/B24-1)</f>
+        <v>161</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4" t="e">
+        <f>D4/C4-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D34" s="3" t="e">
-        <f>-(D24/C24-1)</f>
+      <c r="E34" s="4" t="e">
+        <f>E4/D4-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E34" s="40" t="e">
-        <f>E24/D24-1</f>
+      <c r="F34" s="7" t="e">
+        <f>F4/E4-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F34" s="6" t="e">
-        <f>F24/E24-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G34" s="66" t="e">
-        <f>G26/F26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H34" s="66" t="e">
-        <f>H26/G26</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G34" s="152"/>
+      <c r="H34" s="152"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
-      <c r="O34" s="4" t="e">
-        <f t="shared" ref="O34:W34" si="9">O24/K24-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P34" s="4" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q34" s="4" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R34" s="4" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S34" s="4" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T34" s="4" t="e">
-        <f>T24/P24-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U34" s="4" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V34" s="7" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W34" s="4" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="4"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>107</v>
-      </c>
-      <c r="B35" s="58" t="e">
-        <f t="shared" ref="B35:E35" si="10">B18/B6</f>
+        <v>39</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="e">
+        <f>-(C23/B23-1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C35" s="58" t="e">
-        <f t="shared" si="10"/>
+      <c r="D35" s="3" t="e">
+        <f>-(D23/C23-1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D35" s="58" t="e">
-        <f t="shared" si="10"/>
+      <c r="E35" s="40" t="e">
+        <f>E23/D23-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E35" s="58" t="e">
-        <f t="shared" si="10"/>
+      <c r="F35" s="6" t="e">
+        <f>F23/E23-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F35" s="59" t="e">
-        <f>F18/F6</f>
+      <c r="G35" s="64" t="e">
+        <f>G25/F25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G35" s="58" t="e">
-        <f>G18/G7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H35" s="58" t="e">
-        <f>H18/H7</f>
+      <c r="H35" s="64" t="e">
+        <f>H25/G25</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="7"/>
-      <c r="W35" s="4"/>
+      <c r="O35" s="4" t="e">
+        <f t="shared" ref="O35:W35" si="8">O23/K23-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P35" s="4" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q35" s="4" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R35" s="4" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S35" s="4" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T35" s="4" t="e">
+        <f>T23/P23-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U35" s="4" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V35" s="7" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W35" s="4" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>108</v>
-      </c>
-      <c r="B36" s="60" t="e">
-        <f>-B18/B17</f>
+        <v>96</v>
+      </c>
+      <c r="B36" s="56" t="e">
+        <f>B17/B6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C36" s="60" t="e">
-        <f t="shared" ref="C36:H36" si="11">-C18/C17</f>
+      <c r="C36" s="56" t="e">
+        <f>C17/C6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D36" s="60" t="e">
-        <f t="shared" si="11"/>
+      <c r="D36" s="56" t="e">
+        <f>D17/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E36" s="60" t="e">
-        <f t="shared" si="11"/>
+      <c r="E36" s="56" t="e">
+        <f>E17/E6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F36" s="59" t="e">
-        <f t="shared" si="11"/>
+      <c r="F36" s="57" t="e">
+        <f>F17/F6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G36" s="58" t="e">
-        <f t="shared" si="11"/>
+      <c r="G36" s="56" t="e">
+        <f>G17/G7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H36" s="58" t="e">
-        <f t="shared" si="11"/>
+      <c r="H36" s="56" t="e">
+        <f>H17/H7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K36" s="4"/>
@@ -14196,104 +14457,128 @@
       <c r="V36" s="7"/>
       <c r="W36" s="4"/>
     </row>
-    <row r="39" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="58" t="e">
+        <f>-B17/B16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C37" s="58" t="e">
+        <f t="shared" ref="C37:H37" si="9">-C17/C16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D37" s="58" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E37" s="58" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F37" s="57" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G37" s="56" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H37" s="56" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="4"/>
+    </row>
+    <row r="40" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="11">
-        <f>B40+B42-B58-B59-B66-B68</f>
+      <c r="B40" s="11">
+        <f>B41+B43-B55-B56-B63</f>
         <v>0</v>
       </c>
-      <c r="C39" s="11">
-        <f>C40+C42-C58-C59-C66-C68</f>
+      <c r="C40" s="11">
+        <f t="shared" ref="C40:F40" si="10">C41+C43-C55-C56-C63</f>
         <v>0</v>
       </c>
-      <c r="D39" s="11">
-        <f>D40+D42-D58-D59-D66-D68</f>
+      <c r="D40" s="11">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E39" s="11">
-        <f>E40+E42-E58-E59-E66-E68</f>
+      <c r="E40" s="11">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F39" s="14">
-        <f>F40+F42-F58-F59-F66-F68</f>
+      <c r="F40" s="14">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K39" s="11" t="e">
-        <f>K40+K41+K42-K58-K59-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L39" s="11" t="e">
-        <f>L40+L41+L42-L58-L59-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M39" s="11" t="e">
-        <f>M40+M41+M42-M58-M59-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N39" s="11" t="e">
-        <f>N40+N41+N42-N58-N59-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O39" s="11" t="e">
-        <f>O40+O41+O42-O58-O59-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P39" s="11" t="e">
-        <f>P40+P41+P42-P58-P59-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q39" s="11" t="e">
-        <f>Q40+Q41+Q42-Q58-Q59-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R39" s="11" t="e">
-        <f>R40+R41+R42-R58-R59-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S39" s="11" t="e">
-        <f>S40+S41+S42-S58-S59-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T39" s="11" t="e">
-        <f>T40+T41+T42-T58-T59-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U39" s="11" t="e">
-        <f>U40+U41+U42-U58-U59-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V39" s="14" t="e">
-        <f>V40+V41+V42-V58-V59-#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="15"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="10"/>
-      <c r="V40" s="15"/>
+      <c r="K40" s="11">
+        <f t="shared" ref="K40" si="11">K41+K43-K55-K56-K63</f>
+        <v>0</v>
+      </c>
+      <c r="L40" s="11">
+        <f t="shared" ref="L40" si="12">L41+L43-L55-L56-L63</f>
+        <v>0</v>
+      </c>
+      <c r="M40" s="11">
+        <f t="shared" ref="M40" si="13">M41+M43-M55-M56-M63</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="11">
+        <f t="shared" ref="N40" si="14">N41+N43-N55-N56-N63</f>
+        <v>0</v>
+      </c>
+      <c r="O40" s="11">
+        <f t="shared" ref="O40" si="15">O41+O43-O55-O56-O63</f>
+        <v>0</v>
+      </c>
+      <c r="P40" s="11">
+        <f t="shared" ref="P40" si="16">P41+P43-P55-P56-P63</f>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="11">
+        <f t="shared" ref="Q40" si="17">Q41+Q43-Q55-Q56-Q63</f>
+        <v>0</v>
+      </c>
+      <c r="R40" s="11">
+        <f t="shared" ref="R40" si="18">R41+R43-R55-R56-R63</f>
+        <v>0</v>
+      </c>
+      <c r="S40" s="11">
+        <f t="shared" ref="S40" si="19">S41+S43-S55-S56-S63</f>
+        <v>0</v>
+      </c>
+      <c r="T40" s="11">
+        <f t="shared" ref="T40" si="20">T41+T43-T55-T56-T63</f>
+        <v>0</v>
+      </c>
+      <c r="U40" s="11">
+        <f t="shared" ref="U40" si="21">U41+U43-U55-U56-U63</f>
+        <v>0</v>
+      </c>
+      <c r="V40" s="14">
+        <f t="shared" ref="V40" si="22">V41+V43-V55-V56-V63</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -14315,7 +14600,7 @@
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -14337,7 +14622,7 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -14359,7 +14644,7 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -14381,7 +14666,7 @@
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -14401,104 +14686,104 @@
       <c r="U45" s="10"/>
       <c r="V45" s="15"/>
     </row>
-    <row r="46" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="15"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="15"/>
+    </row>
+    <row r="47" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B46" s="11">
-        <f t="shared" ref="B46:C46" si="12">SUM(B40:B45)</f>
+      <c r="B47" s="11">
+        <f t="shared" ref="B47:C47" si="23">SUM(B41:B46)</f>
         <v>0</v>
       </c>
-      <c r="C46" s="11">
-        <f t="shared" si="12"/>
+      <c r="C47" s="11">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="D46" s="11">
-        <f>SUM(D40:D45)</f>
+      <c r="D47" s="11">
+        <f>SUM(D41:D46)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="11">
-        <f t="shared" ref="E46:F46" si="13">SUM(E40:E45)</f>
+      <c r="E47" s="11">
+        <f t="shared" ref="E47:F47" si="24">SUM(E41:E46)</f>
         <v>0</v>
       </c>
-      <c r="F46" s="14">
-        <f t="shared" si="13"/>
+      <c r="F47" s="14">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K46" s="11">
-        <f t="shared" ref="K46:V46" si="14">SUM(K40:K45)</f>
+      <c r="K47" s="11">
+        <f t="shared" ref="K47:V47" si="25">SUM(K41:K46)</f>
         <v>0</v>
       </c>
-      <c r="L46" s="11">
-        <f t="shared" si="14"/>
+      <c r="L47" s="11">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="M46" s="11">
-        <f t="shared" si="14"/>
+      <c r="M47" s="11">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N46" s="11">
-        <f t="shared" si="14"/>
+      <c r="N47" s="11">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="O46" s="11">
-        <f t="shared" si="14"/>
+      <c r="O47" s="11">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="P46" s="11">
-        <f t="shared" si="14"/>
+      <c r="P47" s="11">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="Q46" s="11">
-        <f t="shared" si="14"/>
+      <c r="Q47" s="11">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="R46" s="11">
-        <f t="shared" si="14"/>
+      <c r="R47" s="11">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="S46" s="11">
-        <f t="shared" si="14"/>
+      <c r="S47" s="11">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="T46" s="11">
-        <f t="shared" si="14"/>
+      <c r="T47" s="11">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="U46" s="11">
-        <f t="shared" si="14"/>
+      <c r="U47" s="11">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="V46" s="14">
-        <f t="shared" si="14"/>
+      <c r="V47" s="14">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>96</v>
-      </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="15"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="10"/>
-      <c r="T47" s="10"/>
-      <c r="U47" s="10"/>
-      <c r="V47" s="15"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -14520,7 +14805,7 @@
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -14542,7 +14827,7 @@
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -14562,9 +14847,9 @@
       <c r="U50" s="10"/>
       <c r="V50" s="15"/>
     </row>
-    <row r="51" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -14586,7 +14871,7 @@
     </row>
     <row r="52" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -14608,7 +14893,7 @@
     </row>
     <row r="53" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -14628,31 +14913,82 @@
       <c r="U53" s="10"/>
       <c r="V53" s="15"/>
     </row>
-    <row r="54" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>100</v>
-      </c>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="15"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="10"/>
-      <c r="R54" s="10"/>
-      <c r="S54" s="10"/>
-      <c r="T54" s="10"/>
-      <c r="U54" s="10"/>
-      <c r="V54" s="15"/>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B54" s="11">
+        <f>SUM(B47:B53)</f>
+        <v>0</v>
+      </c>
+      <c r="C54" s="11">
+        <f>SUM(C47:C53)</f>
+        <v>0</v>
+      </c>
+      <c r="D54" s="11">
+        <f>SUM(D47:D53)</f>
+        <v>0</v>
+      </c>
+      <c r="E54" s="11">
+        <f>SUM(E47:E53)</f>
+        <v>0</v>
+      </c>
+      <c r="F54" s="14">
+        <f>SUM(F47:F53)</f>
+        <v>0</v>
+      </c>
+      <c r="K54" s="11">
+        <f>SUM(K47:K53)</f>
+        <v>0</v>
+      </c>
+      <c r="L54" s="11">
+        <f>SUM(L47:L53)</f>
+        <v>0</v>
+      </c>
+      <c r="M54" s="11">
+        <f>SUM(M47:M53)</f>
+        <v>0</v>
+      </c>
+      <c r="N54" s="11">
+        <f>SUM(N47:N53)</f>
+        <v>0</v>
+      </c>
+      <c r="O54" s="11">
+        <f>SUM(O47:O53)</f>
+        <v>0</v>
+      </c>
+      <c r="P54" s="11">
+        <f>SUM(P47:P53)</f>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="11">
+        <f>SUM(Q47:Q53)</f>
+        <v>0</v>
+      </c>
+      <c r="R54" s="11">
+        <f>SUM(R47:R53)</f>
+        <v>0</v>
+      </c>
+      <c r="S54" s="11">
+        <f>SUM(S47:S53)</f>
+        <v>0</v>
+      </c>
+      <c r="T54" s="11">
+        <f>SUM(T47:T53)</f>
+        <v>0</v>
+      </c>
+      <c r="U54" s="11">
+        <f>SUM(U47:U53)</f>
+        <v>0</v>
+      </c>
+      <c r="V54" s="14">
+        <f>SUM(V47:V53)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -14674,7 +15010,7 @@
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -14695,81 +15031,30 @@
       <c r="V56" s="15"/>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B57" s="11">
-        <f t="shared" ref="B57:C57" si="15">SUM(B46:B56)</f>
-        <v>0</v>
-      </c>
-      <c r="C57" s="11">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="D57" s="11">
-        <f>SUM(D46:D56)</f>
-        <v>0</v>
-      </c>
-      <c r="E57" s="11">
-        <f t="shared" ref="E57:F57" si="16">SUM(E46:E56)</f>
-        <v>0</v>
-      </c>
-      <c r="F57" s="14">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K57" s="11">
-        <f t="shared" ref="K57:V57" si="17">SUM(K46:K55)</f>
-        <v>0</v>
-      </c>
-      <c r="L57" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M57" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="N57" s="11">
-        <f>SUM(N46:N55)</f>
-        <v>0</v>
-      </c>
-      <c r="O57" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="P57" s="11">
-        <f>SUM(P46:P55)</f>
-        <v>0</v>
-      </c>
-      <c r="Q57" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="R57" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="S57" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="T57" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="U57" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="V57" s="14">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
+      <c r="A57" t="s">
+        <v>92</v>
+      </c>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="15"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
+      <c r="R57" s="10"/>
+      <c r="S57" s="10"/>
+      <c r="T57" s="10"/>
+      <c r="U57" s="10"/>
+      <c r="V57" s="15"/>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -14791,7 +15076,7 @@
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -14811,31 +15096,84 @@
       <c r="U59" s="10"/>
       <c r="V59" s="15"/>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>103</v>
-      </c>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="15"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
-      <c r="Q60" s="10"/>
-      <c r="R60" s="10"/>
-      <c r="S60" s="10"/>
-      <c r="T60" s="10"/>
-      <c r="U60" s="10"/>
-      <c r="V60" s="15"/>
+    <row r="60" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" s="11">
+        <f>SUM(B55:B59)</f>
+        <v>0</v>
+      </c>
+      <c r="C60" s="11">
+        <f>SUM(C55:C59)</f>
+        <v>0</v>
+      </c>
+      <c r="D60" s="11">
+        <f>SUM(D55:D59)</f>
+        <v>0</v>
+      </c>
+      <c r="E60" s="11">
+        <f>SUM(E55:E59)</f>
+        <v>0</v>
+      </c>
+      <c r="F60" s="14">
+        <f>SUM(F55:F59)</f>
+        <v>0</v>
+      </c>
+      <c r="K60" s="11">
+        <f t="shared" ref="K60:V60" si="26">SUM(K55:K59)</f>
+        <v>0</v>
+      </c>
+      <c r="L60" s="11">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="11">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N60" s="11">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O60" s="11">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="P60" s="11">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Q60" s="11">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="R60" s="11">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S60" s="11">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="T60" s="11">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="U60" s="11">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="V60" s="14">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W60" s="11"/>
+      <c r="X60" s="11"/>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -14857,7 +15195,7 @@
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -14877,84 +15215,31 @@
       <c r="U62" s="10"/>
       <c r="V62" s="15"/>
     </row>
-    <row r="63" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B63" s="11">
-        <f>SUM(B58:B62)</f>
-        <v>0</v>
-      </c>
-      <c r="C63" s="11">
-        <f>SUM(C58:C62)</f>
-        <v>0</v>
-      </c>
-      <c r="D63" s="11">
-        <f>SUM(D58:D62)</f>
-        <v>0</v>
-      </c>
-      <c r="E63" s="11">
-        <f>SUM(E58:E62)</f>
-        <v>0</v>
-      </c>
-      <c r="F63" s="14">
-        <f>SUM(F58:F62)</f>
-        <v>0</v>
-      </c>
-      <c r="K63" s="11">
-        <f t="shared" ref="K63:V63" si="18">SUM(K58:K62)</f>
-        <v>0</v>
-      </c>
-      <c r="L63" s="11">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="M63" s="11">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N63" s="11">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="O63" s="11">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="P63" s="11">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="Q63" s="11">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="R63" s="11">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="S63" s="11">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="T63" s="11">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="U63" s="11">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="V63" s="14">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="W63" s="11"/>
-      <c r="X63" s="11"/>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>29</v>
+      </c>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="15"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="10"/>
+      <c r="Q63" s="10"/>
+      <c r="R63" s="10"/>
+      <c r="S63" s="10"/>
+      <c r="T63" s="10"/>
+      <c r="U63" s="10"/>
+      <c r="V63" s="15"/>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -14975,208 +15260,120 @@
       <c r="V64" s="15"/>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>69</v>
-      </c>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="15"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="10"/>
-      <c r="O65" s="10"/>
-      <c r="P65" s="10"/>
-      <c r="Q65" s="10"/>
-      <c r="R65" s="10"/>
-      <c r="S65" s="10"/>
-      <c r="T65" s="10"/>
-      <c r="U65" s="10"/>
-      <c r="V65" s="15"/>
+      <c r="A65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65" s="11">
+        <f>SUM(B60:B64)</f>
+        <v>0</v>
+      </c>
+      <c r="C65" s="11">
+        <f>SUM(C60:C64)</f>
+        <v>0</v>
+      </c>
+      <c r="D65" s="11">
+        <f>SUM(D60:D64)</f>
+        <v>0</v>
+      </c>
+      <c r="E65" s="11">
+        <f>SUM(E60:E64)</f>
+        <v>0</v>
+      </c>
+      <c r="F65" s="14">
+        <f>SUM(F60:F64)</f>
+        <v>0</v>
+      </c>
+      <c r="K65" s="11">
+        <f>SUM(K60:K64)</f>
+        <v>0</v>
+      </c>
+      <c r="L65" s="11">
+        <f>SUM(L60:L64)</f>
+        <v>0</v>
+      </c>
+      <c r="M65" s="11">
+        <f>SUM(M60:M64)</f>
+        <v>0</v>
+      </c>
+      <c r="N65" s="11">
+        <f>SUM(N60:N64)</f>
+        <v>0</v>
+      </c>
+      <c r="O65" s="11">
+        <f>SUM(O60:O64)</f>
+        <v>0</v>
+      </c>
+      <c r="P65" s="11">
+        <f>SUM(P60:P64)</f>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="11">
+        <f>SUM(Q60:Q64)</f>
+        <v>0</v>
+      </c>
+      <c r="R65" s="11">
+        <f>SUM(R60:R64)</f>
+        <v>0</v>
+      </c>
+      <c r="S65" s="11">
+        <f>SUM(S60:S64)</f>
+        <v>0</v>
+      </c>
+      <c r="T65" s="11">
+        <f>SUM(T60:T64)</f>
+        <v>0</v>
+      </c>
+      <c r="U65" s="11">
+        <f>SUM(U60:U64)</f>
+        <v>0</v>
+      </c>
+      <c r="V65" s="14">
+        <f>SUM(V60:V64)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
       <c r="E66" s="10"/>
-      <c r="F66" s="15"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="10"/>
-      <c r="O66" s="10"/>
-      <c r="P66" s="10"/>
-      <c r="Q66" s="10"/>
-      <c r="R66" s="10"/>
-      <c r="S66" s="10"/>
-      <c r="T66" s="10"/>
-      <c r="U66" s="10"/>
-      <c r="V66" s="15"/>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>102</v>
-      </c>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="15"/>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="10"/>
-      <c r="O67" s="10"/>
-      <c r="P67" s="10"/>
-      <c r="Q67" s="10"/>
-      <c r="R67" s="10"/>
-      <c r="S67" s="10"/>
-      <c r="T67" s="10"/>
-      <c r="U67" s="10"/>
-      <c r="V67" s="15"/>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>111</v>
-      </c>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="15"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="10"/>
-      <c r="P68" s="10"/>
-      <c r="Q68" s="10"/>
-      <c r="R68" s="10"/>
-      <c r="S68" s="10"/>
-      <c r="T68" s="10"/>
-      <c r="U68" s="10"/>
-      <c r="V68" s="15"/>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B69" s="11">
-        <f>SUM(B63:B68)</f>
-        <v>0</v>
-      </c>
-      <c r="C69" s="11">
-        <f t="shared" ref="C69:F69" si="19">SUM(C63:C68)</f>
-        <v>0</v>
-      </c>
-      <c r="D69" s="11">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E69" s="11">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="F69" s="14">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="K69" s="11">
-        <f t="shared" ref="K69:U69" si="20">SUM(K63:K68)</f>
-        <v>0</v>
-      </c>
-      <c r="L69" s="11">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="M69" s="11">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="N69" s="11">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="O69" s="11">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="P69" s="11">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Q69" s="11">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="R69" s="11">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S69" s="11">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="T69" s="11">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="U69" s="11">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="V69" s="14">
-        <f>SUM(V63:V68)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>104</v>
-      </c>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-    </row>
-    <row r="72" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B72" s="61" t="e">
-        <f>-B18/(B67+B58)</f>
+    </row>
+    <row r="68" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B68" s="59" t="e">
+        <f>-B17/(B64+B55)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C72" s="61" t="e">
-        <f t="shared" ref="C72:F72" si="21">-C18/(C67+C58)</f>
+      <c r="C68" s="59" t="e">
+        <f>-C17/(C64+C55)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D72" s="61" t="e">
-        <f t="shared" si="21"/>
+      <c r="D68" s="59" t="e">
+        <f>-D17/(D64+D55)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E72" s="61" t="e">
-        <f>-E18/(E67+E58)</f>
+      <c r="E68" s="59" t="e">
+        <f>-E17/(E64+E55)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F72" s="62" t="e">
-        <f t="shared" si="21"/>
+      <c r="F68" s="60" t="e">
+        <f>-F17/(F64+F55)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V72" s="16"/>
-    </row>
-    <row r="90" spans="6:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F90" s="42"/>
-      <c r="V90" s="42"/>
-    </row>
-    <row r="91" spans="6:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F91" s="16"/>
-      <c r="V91" s="16"/>
+      <c r="V68" s="16"/>
+    </row>
+    <row r="86" spans="6:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F86" s="42"/>
+      <c r="V86" s="42"/>
+    </row>
+    <row r="87" spans="6:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F87" s="16"/>
+      <c r="V87" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -15186,7 +15383,7 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B63" formula="1"/>
+    <ignoredError sqref="B60" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -15195,8 +15392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48E03BE-2423-4BDB-9A98-002F9CED8953}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="X45" sqref="X45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X22" sqref="X22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23538,7 +23735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366AC5E7-7FF6-4287-9F23-7D3A6FE15A5F}">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -23560,1069 +23757,1069 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G1" s="82" t="s">
-        <v>127</v>
-      </c>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="84"/>
+        <v>114</v>
+      </c>
+      <c r="G1" s="141" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="143"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="85"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="87"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="73"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="88" t="s">
-        <v>128</v>
-      </c>
-      <c r="H3" s="89" t="s">
-        <v>129</v>
-      </c>
-      <c r="I3" s="90" t="s">
-        <v>130</v>
-      </c>
-      <c r="J3" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="K3" s="91" t="s">
-        <v>132</v>
-      </c>
-      <c r="L3" s="92" t="s">
-        <v>133</v>
+      <c r="G3" s="74" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="I3" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="J3" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="K3" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="L3" s="78" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G4" s="93" t="e">
+      <c r="G4" s="79" t="e">
         <f>$H$19-3*$H$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H4" s="94" t="e">
+      <c r="H4" s="80" t="e">
         <f>G4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I4" s="95">
+      <c r="I4" s="81">
         <f>COUNTIF(C:C,"&lt;="&amp;G4)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="95" t="e">
+      <c r="J4" s="81" t="e">
         <f>"Less than "&amp;TEXT(G4,"0,00%")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="96" t="e">
+      <c r="K4" s="82" t="e">
         <f>I4/$H$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="97" t="e">
+      <c r="L4" s="83" t="e">
         <f>K4</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G5" s="98" t="e">
+      <c r="G5" s="84" t="e">
         <f>$H$19-2.4*$H$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H5" s="99" t="e">
+      <c r="H5" s="85" t="e">
         <f>G5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I5" s="100">
+      <c r="I5" s="86">
         <f>COUNTIFS(C:C,"&lt;="&amp;G5,C:C,"&gt;"&amp;G4)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="101" t="e">
-        <f>TEXT(G4,"0,00%")&amp;" to "&amp;TEXT(G5,"0,00%")</f>
+      <c r="J5" s="87" t="e">
+        <f t="shared" ref="J5:J14" si="0">TEXT(G4,"0,00%")&amp;" to "&amp;TEXT(G5,"0,00%")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="102" t="e">
+      <c r="K5" s="88" t="e">
         <f>I5/$H$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="103" t="e">
+      <c r="L5" s="89" t="e">
         <f>L4+K5</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G6" s="98" t="e">
+      <c r="G6" s="84" t="e">
         <f>$H$19-1.8*$H$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H6" s="99" t="e">
-        <f t="shared" ref="H6:H14" si="0">G6</f>
+      <c r="H6" s="85" t="e">
+        <f t="shared" ref="H6:H14" si="1">G6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I6" s="100">
-        <f t="shared" ref="I6:I14" si="1">COUNTIFS(C:C,"&lt;="&amp;G6,C:C,"&gt;"&amp;G5)</f>
+      <c r="I6" s="86">
+        <f t="shared" ref="I6:I14" si="2">COUNTIFS(C:C,"&lt;="&amp;G6,C:C,"&gt;"&amp;G5)</f>
         <v>0</v>
       </c>
-      <c r="J6" s="101" t="e">
-        <f>TEXT(G5,"0,00%")&amp;" to "&amp;TEXT(G6,"0,00%")</f>
+      <c r="J6" s="87" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="102" t="e">
-        <f t="shared" ref="K6:K15" si="2">I6/$H$31</f>
+      <c r="K6" s="88" t="e">
+        <f t="shared" ref="K6:K15" si="3">I6/$H$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="103" t="e">
-        <f t="shared" ref="L6:L15" si="3">L5+K6</f>
+      <c r="L6" s="89" t="e">
+        <f t="shared" ref="L6:L15" si="4">L5+K6</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G7" s="98" t="e">
+      <c r="G7" s="84" t="e">
         <f>$H$19-1.2*$H$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H7" s="99" t="e">
+      <c r="H7" s="85" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I7" s="86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="87" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I7" s="100">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="101" t="e">
-        <f>TEXT(G6,"0,00%")&amp;" to "&amp;TEXT(G7,"0,00%")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K7" s="102" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L7" s="103" t="e">
+      <c r="K7" s="88" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="L7" s="89" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G8" s="98" t="e">
+      <c r="G8" s="84" t="e">
         <f>$H$19-0.6*$H$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H8" s="99" t="e">
+      <c r="H8" s="85" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I8" s="86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="87" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I8" s="100">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="101" t="e">
-        <f>TEXT(G7,"0,00%")&amp;" to "&amp;TEXT(G8,"0,00%")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K8" s="102" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L8" s="103" t="e">
+      <c r="K8" s="88" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="L8" s="89" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G9" s="98" t="e">
+      <c r="G9" s="84" t="e">
         <f>$H$19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H9" s="99" t="e">
+      <c r="H9" s="85" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I9" s="86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="87" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9" s="100">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="101" t="e">
-        <f>TEXT(G8,"0,00%")&amp;" to "&amp;TEXT(G9,"0,00%")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K9" s="102" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L9" s="103" t="e">
+      <c r="K9" s="88" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="L9" s="89" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G10" s="98" t="e">
+      <c r="G10" s="84" t="e">
         <f>$H$19+0.6*$H$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H10" s="99" t="e">
+      <c r="H10" s="85" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10" s="86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="87" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="100">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="101" t="e">
-        <f>TEXT(G9,"0,00%")&amp;" to "&amp;TEXT(G10,"0,00%")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K10" s="102" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L10" s="103" t="e">
+      <c r="K10" s="88" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="L10" s="89" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G11" s="98" t="e">
+      <c r="G11" s="84" t="e">
         <f>$H$19+1.2*$H$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H11" s="99" t="e">
+      <c r="H11" s="85" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I11" s="86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="87" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="100">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="101" t="e">
-        <f>TEXT(G10,"0,00%")&amp;" to "&amp;TEXT(G11,"0,00%")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K11" s="102" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L11" s="103" t="e">
+      <c r="K11" s="88" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="L11" s="89" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G12" s="98" t="e">
+      <c r="G12" s="84" t="e">
         <f>$H$19+1.8*$H$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="99" t="e">
+      <c r="H12" s="85" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I12" s="86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="87" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="100">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="101" t="e">
-        <f>TEXT(G11,"0,00%")&amp;" to "&amp;TEXT(G12,"0,00%")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K12" s="102" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L12" s="103" t="e">
+      <c r="K12" s="88" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="L12" s="89" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G13" s="98" t="e">
+      <c r="G13" s="84" t="e">
         <f>$H$19+2.4*$H$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="99" t="e">
+      <c r="H13" s="85" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I13" s="86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="87" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="100">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="101" t="e">
-        <f>TEXT(G12,"0,00%")&amp;" to "&amp;TEXT(G13,"0,00%")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K13" s="102" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L13" s="103" t="e">
+      <c r="K13" s="88" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="L13" s="89" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G14" s="98" t="e">
+      <c r="G14" s="84" t="e">
         <f>$H$19+3*$H$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="99" t="e">
+      <c r="H14" s="85" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I14" s="86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="87" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="100">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="101" t="e">
-        <f>TEXT(G13,"0,00%")&amp;" to "&amp;TEXT(G14,"0,00%")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K14" s="102" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L14" s="103" t="e">
+      <c r="K14" s="88" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="L14" s="89" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G15" s="104"/>
-      <c r="H15" s="105" t="s">
-        <v>134</v>
-      </c>
-      <c r="I15" s="105">
+      <c r="G15" s="90"/>
+      <c r="H15" s="91" t="s">
+        <v>122</v>
+      </c>
+      <c r="I15" s="91">
         <f>COUNTIF(C:C,"&gt;"&amp;G14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="105" t="e">
+      <c r="J15" s="91" t="e">
         <f>"Greater than "&amp;TEXT(G14,"0,00%")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K15" s="106" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L15" s="106" t="e">
+      <c r="K15" s="92" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="L15" s="92" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="107"/>
-      <c r="L16" s="108"/>
+      <c r="G16" s="93"/>
+      <c r="L16" s="94"/>
     </row>
     <row r="17" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G17" s="109" t="s">
-        <v>165</v>
-      </c>
-      <c r="H17" s="110"/>
-      <c r="L17" s="108"/>
+      <c r="G17" s="144" t="s">
+        <v>153</v>
+      </c>
+      <c r="H17" s="145"/>
+      <c r="L17" s="94"/>
     </row>
     <row r="18" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G18" s="111"/>
-      <c r="H18" s="112"/>
-      <c r="L18" s="108"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="147"/>
+      <c r="L18" s="94"/>
     </row>
     <row r="19" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G19" s="113" t="s">
-        <v>135</v>
-      </c>
-      <c r="H19" s="151" t="e">
+      <c r="G19" s="95" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" s="130" t="e">
         <f>AVERAGE(C:C)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L19" s="108"/>
+      <c r="L19" s="94"/>
     </row>
     <row r="20" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G20" s="113" t="s">
-        <v>136</v>
-      </c>
-      <c r="H20" s="151" t="e">
+      <c r="G20" s="95" t="s">
+        <v>124</v>
+      </c>
+      <c r="H20" s="130" t="e">
         <f>_xlfn.STDEV.S(C:C)/SQRT(COUNT(C:C))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L20" s="108"/>
+      <c r="L20" s="94"/>
     </row>
     <row r="21" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G21" s="113" t="s">
-        <v>137</v>
-      </c>
-      <c r="H21" s="151" t="e">
+      <c r="G21" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="H21" s="130" t="e">
         <f>MEDIAN(C:C)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L21" s="108"/>
+      <c r="L21" s="94"/>
     </row>
     <row r="22" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G22" s="113" t="s">
-        <v>138</v>
-      </c>
-      <c r="H22" s="151" t="e">
+      <c r="G22" s="95" t="s">
+        <v>126</v>
+      </c>
+      <c r="H22" s="130" t="e">
         <f>MODE(C:C)</f>
         <v>#N/A</v>
       </c>
-      <c r="L22" s="108"/>
+      <c r="L22" s="94"/>
     </row>
     <row r="23" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G23" s="113" t="s">
-        <v>139</v>
-      </c>
-      <c r="H23" s="151" t="e">
+      <c r="G23" s="95" t="s">
+        <v>127</v>
+      </c>
+      <c r="H23" s="130" t="e">
         <f>_xlfn.STDEV.S(C:C)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L23" s="108"/>
+      <c r="L23" s="94"/>
     </row>
     <row r="24" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G24" s="113" t="s">
-        <v>140</v>
-      </c>
-      <c r="H24" s="151" t="e">
+      <c r="G24" s="95" t="s">
+        <v>128</v>
+      </c>
+      <c r="H24" s="130" t="e">
         <f>_xlfn.VAR.S(C:C)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L24" s="108"/>
+      <c r="L24" s="94"/>
     </row>
     <row r="25" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G25" s="113" t="s">
-        <v>141</v>
-      </c>
-      <c r="H25" s="152" t="e">
+      <c r="G25" s="95" t="s">
+        <v>129</v>
+      </c>
+      <c r="H25" s="131" t="e">
         <f>KURT(C:C)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L25" s="108"/>
+      <c r="L25" s="94"/>
     </row>
     <row r="26" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G26" s="113" t="s">
-        <v>142</v>
-      </c>
-      <c r="H26" s="152" t="e">
+      <c r="G26" s="95" t="s">
+        <v>130</v>
+      </c>
+      <c r="H26" s="131" t="e">
         <f>SKEW(C:C)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L26" s="108"/>
+      <c r="L26" s="94"/>
     </row>
     <row r="27" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G27" s="113" t="s">
-        <v>131</v>
-      </c>
-      <c r="H27" s="151">
+      <c r="G27" s="95" t="s">
+        <v>119</v>
+      </c>
+      <c r="H27" s="130">
         <f>H29-H28</f>
         <v>0</v>
       </c>
-      <c r="L27" s="108"/>
+      <c r="L27" s="94"/>
     </row>
     <row r="28" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G28" s="113" t="s">
-        <v>143</v>
-      </c>
-      <c r="H28" s="151">
+      <c r="G28" s="95" t="s">
+        <v>131</v>
+      </c>
+      <c r="H28" s="130">
         <f>MIN(C:C)</f>
         <v>0</v>
       </c>
-      <c r="L28" s="108"/>
+      <c r="L28" s="94"/>
     </row>
     <row r="29" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G29" s="113" t="s">
-        <v>144</v>
-      </c>
-      <c r="H29" s="151">
+      <c r="G29" s="95" t="s">
+        <v>132</v>
+      </c>
+      <c r="H29" s="130">
         <f>MAX(C:C)</f>
         <v>0</v>
       </c>
-      <c r="L29" s="108"/>
+      <c r="L29" s="94"/>
     </row>
     <row r="30" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G30" s="113" t="s">
-        <v>145</v>
-      </c>
-      <c r="H30" s="152">
+      <c r="G30" s="95" t="s">
+        <v>133</v>
+      </c>
+      <c r="H30" s="131">
         <f>SUM(C:C)</f>
         <v>0</v>
       </c>
-      <c r="L30" s="108"/>
+      <c r="L30" s="94"/>
     </row>
     <row r="31" spans="7:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G31" s="114" t="s">
-        <v>146</v>
-      </c>
-      <c r="H31" s="86">
+      <c r="G31" s="96" t="s">
+        <v>134</v>
+      </c>
+      <c r="H31" s="72">
         <f>COUNT(C:C)</f>
         <v>0</v>
       </c>
-      <c r="L31" s="108"/>
+      <c r="L31" s="94"/>
     </row>
     <row r="32" spans="7:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G32" s="116"/>
-      <c r="L32" s="108"/>
+      <c r="G32" s="98"/>
+      <c r="L32" s="94"/>
     </row>
     <row r="33" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G33" s="117"/>
-      <c r="H33" s="118" t="s">
-        <v>147</v>
-      </c>
-      <c r="I33" s="118" t="s">
-        <v>146</v>
-      </c>
-      <c r="J33" s="118" t="s">
-        <v>148</v>
-      </c>
-      <c r="K33" s="119" t="s">
-        <v>149</v>
-      </c>
-      <c r="L33" s="108"/>
+      <c r="G33" s="99"/>
+      <c r="H33" s="100" t="s">
+        <v>135</v>
+      </c>
+      <c r="I33" s="100" t="s">
+        <v>134</v>
+      </c>
+      <c r="J33" s="100" t="s">
+        <v>136</v>
+      </c>
+      <c r="K33" s="101" t="s">
+        <v>137</v>
+      </c>
+      <c r="L33" s="94"/>
     </row>
     <row r="34" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G34" s="120" t="s">
-        <v>150</v>
-      </c>
-      <c r="H34" s="102" t="e">
+      <c r="G34" s="102" t="s">
+        <v>138</v>
+      </c>
+      <c r="H34" s="88" t="e">
         <f>AVERAGEIF(C:C,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I34" s="100">
+      <c r="I34" s="86">
         <f>COUNTIF(C:C,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="J34" s="102" t="e">
+      <c r="J34" s="88" t="e">
         <f>I34/$H$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K34" s="103" t="e">
+      <c r="K34" s="89" t="e">
         <f>J34*H34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L34" s="108"/>
+      <c r="L34" s="94"/>
     </row>
     <row r="35" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G35" s="120" t="s">
-        <v>151</v>
-      </c>
-      <c r="H35" s="102" t="e">
+      <c r="G35" s="102" t="s">
+        <v>139</v>
+      </c>
+      <c r="H35" s="88" t="e">
         <f>AVERAGEIF(C:C,"&lt;0")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I35" s="100">
+      <c r="I35" s="86">
         <f>COUNTIF(C:C,"&lt;0")</f>
         <v>0</v>
       </c>
-      <c r="J35" s="102" t="e">
+      <c r="J35" s="88" t="e">
         <f>I35/$H$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K35" s="103" t="e">
-        <f t="shared" ref="K35:K36" si="4">J35*H35</f>
+      <c r="K35" s="89" t="e">
+        <f t="shared" ref="K35:K36" si="5">J35*H35</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L35" s="108"/>
+      <c r="L35" s="94"/>
     </row>
     <row r="36" spans="7:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G36" s="121" t="s">
-        <v>152</v>
-      </c>
-      <c r="H36" s="105">
+      <c r="G36" s="103" t="s">
+        <v>140</v>
+      </c>
+      <c r="H36" s="91">
         <v>0</v>
       </c>
-      <c r="I36" s="105">
+      <c r="I36" s="91">
         <f>COUNTIF(C:C,"0")</f>
         <v>0</v>
       </c>
-      <c r="J36" s="122" t="e">
+      <c r="J36" s="104" t="e">
         <f>I36/$H$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K36" s="106" t="e">
-        <f t="shared" si="4"/>
+      <c r="K36" s="92" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L36" s="108"/>
+      <c r="L36" s="94"/>
     </row>
     <row r="37" spans="7:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G37" s="116"/>
-      <c r="H37" s="123"/>
-      <c r="I37" s="123"/>
-      <c r="J37" s="123"/>
-      <c r="K37" s="123"/>
-      <c r="L37" s="108"/>
+      <c r="G37" s="98"/>
+      <c r="H37" s="105"/>
+      <c r="I37" s="105"/>
+      <c r="J37" s="105"/>
+      <c r="K37" s="105"/>
+      <c r="L37" s="94"/>
     </row>
     <row r="38" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G38" s="93" t="s">
-        <v>153</v>
-      </c>
-      <c r="H38" s="118" t="s">
-        <v>154</v>
-      </c>
-      <c r="I38" s="118" t="s">
-        <v>155</v>
-      </c>
-      <c r="J38" s="118" t="s">
-        <v>156</v>
-      </c>
-      <c r="K38" s="118" t="s">
-        <v>157</v>
-      </c>
-      <c r="L38" s="119" t="s">
-        <v>158</v>
+      <c r="G38" s="79" t="s">
+        <v>141</v>
+      </c>
+      <c r="H38" s="100" t="s">
+        <v>142</v>
+      </c>
+      <c r="I38" s="100" t="s">
+        <v>143</v>
+      </c>
+      <c r="J38" s="100" t="s">
+        <v>144</v>
+      </c>
+      <c r="K38" s="100" t="s">
+        <v>145</v>
+      </c>
+      <c r="L38" s="101" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G39" s="124">
+      <c r="G39" s="106">
         <v>1</v>
       </c>
-      <c r="H39" s="102" t="e">
+      <c r="H39" s="88" t="e">
         <f>$H$19+($G39*$H$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="102" t="e">
+      <c r="I39" s="88" t="e">
         <f>$H$19-($G39*$H$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J39" s="100">
+      <c r="J39" s="86">
         <f>COUNTIFS(C:C,"&lt;"&amp;H39,C:C,"&gt;"&amp;I39)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="102" t="e">
+      <c r="K39" s="88" t="e">
         <f>J39/$H$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L39" s="103">
+      <c r="L39" s="89">
         <v>0.68269999999999997</v>
       </c>
     </row>
     <row r="40" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G40" s="124">
+      <c r="G40" s="106">
         <v>2</v>
       </c>
-      <c r="H40" s="102" t="e">
+      <c r="H40" s="88" t="e">
         <f>$H$19+($G40*$H$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="102" t="e">
+      <c r="I40" s="88" t="e">
         <f>$H$19-($G40*$H$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J40" s="100">
+      <c r="J40" s="86">
         <f>COUNTIFS(C:C,"&lt;"&amp;H40,C:C,"&gt;"&amp;I40)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="102" t="e">
+      <c r="K40" s="88" t="e">
         <f>J40/$H$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L40" s="103">
+      <c r="L40" s="89">
         <v>0.95450000000000002</v>
       </c>
     </row>
     <row r="41" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G41" s="124">
+      <c r="G41" s="106">
         <v>3</v>
       </c>
-      <c r="H41" s="102" t="e">
+      <c r="H41" s="88" t="e">
         <f>$H$19+($G41*$H$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="102" t="e">
+      <c r="I41" s="88" t="e">
         <f>$H$19-($G41*$H$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J41" s="100">
+      <c r="J41" s="86">
         <f>COUNTIFS(C:C,"&lt;"&amp;H41,C:C,"&gt;"&amp;I41)</f>
         <v>0</v>
       </c>
-      <c r="K41" s="102" t="e">
+      <c r="K41" s="88" t="e">
         <f>J41/$H$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L41" s="125">
+      <c r="L41" s="107">
         <v>0.99729999999999996</v>
       </c>
     </row>
     <row r="42" spans="7:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G42" s="98"/>
-      <c r="L42" s="125"/>
+      <c r="G42" s="84"/>
+      <c r="L42" s="107"/>
     </row>
     <row r="43" spans="7:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G43" s="126" t="s">
-        <v>159</v>
-      </c>
-      <c r="H43" s="127"/>
-      <c r="I43" s="127"/>
-      <c r="J43" s="127"/>
-      <c r="K43" s="127"/>
-      <c r="L43" s="128"/>
+      <c r="G43" s="148" t="s">
+        <v>147</v>
+      </c>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="150"/>
     </row>
     <row r="44" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G44" s="129">
+      <c r="G44" s="108">
         <v>0.01</v>
       </c>
-      <c r="H44" s="130" t="e">
-        <f>_xlfn.PERCENTILE.INC(C:C,G44)</f>
+      <c r="H44" s="109" t="e">
+        <f t="shared" ref="H44:H58" si="6">_xlfn.PERCENTILE.INC(C:C,G44)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I44" s="131">
+      <c r="I44" s="110">
         <v>0.2</v>
       </c>
-      <c r="J44" s="130" t="e">
-        <f>_xlfn.PERCENTILE.INC(C:C,I44)</f>
+      <c r="J44" s="109" t="e">
+        <f t="shared" ref="J44:J56" si="7">_xlfn.PERCENTILE.INC(C:C,I44)</f>
         <v>#NUM!</v>
       </c>
-      <c r="K44" s="131">
+      <c r="K44" s="110">
         <v>0.85</v>
       </c>
-      <c r="L44" s="132" t="e">
-        <f>_xlfn.PERCENTILE.INC(C:C,K44)</f>
+      <c r="L44" s="111" t="e">
+        <f t="shared" ref="L44:L58" si="8">_xlfn.PERCENTILE.INC(C:C,K44)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="45" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G45" s="133">
+      <c r="G45" s="112">
         <v>0.02</v>
       </c>
-      <c r="H45" s="134" t="e">
-        <f>_xlfn.PERCENTILE.INC(C:C,G45)</f>
+      <c r="H45" s="113" t="e">
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="I45" s="135">
+      <c r="I45" s="114">
         <v>0.25</v>
       </c>
-      <c r="J45" s="134" t="e">
-        <f>_xlfn.PERCENTILE.INC(C:C,I45)</f>
+      <c r="J45" s="113" t="e">
+        <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="K45" s="135">
+      <c r="K45" s="114">
         <v>0.86</v>
       </c>
-      <c r="L45" s="136" t="e">
-        <f>_xlfn.PERCENTILE.INC(C:C,K45)</f>
+      <c r="L45" s="115" t="e">
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="46" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G46" s="133">
+      <c r="G46" s="112">
         <v>0.03</v>
       </c>
-      <c r="H46" s="134" t="e">
-        <f>_xlfn.PERCENTILE.INC(C:C,G46)</f>
+      <c r="H46" s="113" t="e">
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="I46" s="135">
+      <c r="I46" s="114">
         <v>0.3</v>
       </c>
-      <c r="J46" s="134" t="e">
-        <f>_xlfn.PERCENTILE.INC(C:C,I46)</f>
+      <c r="J46" s="113" t="e">
+        <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="K46" s="135">
+      <c r="K46" s="114">
         <v>0.87</v>
       </c>
-      <c r="L46" s="136" t="e">
-        <f>_xlfn.PERCENTILE.INC(C:C,K46)</f>
+      <c r="L46" s="115" t="e">
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="47" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G47" s="133">
+      <c r="G47" s="112">
         <v>0.04</v>
       </c>
-      <c r="H47" s="134" t="e">
-        <f>_xlfn.PERCENTILE.INC(C:C,G47)</f>
+      <c r="H47" s="113" t="e">
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="I47" s="135">
+      <c r="I47" s="114">
         <v>0.35</v>
       </c>
-      <c r="J47" s="134" t="e">
-        <f>_xlfn.PERCENTILE.INC(C:C,I47)</f>
+      <c r="J47" s="113" t="e">
+        <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="K47" s="135">
+      <c r="K47" s="114">
         <v>0.88</v>
       </c>
-      <c r="L47" s="136" t="e">
-        <f>_xlfn.PERCENTILE.INC(C:C,K47)</f>
+      <c r="L47" s="115" t="e">
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="48" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G48" s="133">
+      <c r="G48" s="112">
         <v>0.05</v>
       </c>
-      <c r="H48" s="134" t="e">
-        <f>_xlfn.PERCENTILE.INC(C:C,G48)</f>
+      <c r="H48" s="113" t="e">
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="I48" s="135">
+      <c r="I48" s="114">
         <v>0.4</v>
       </c>
-      <c r="J48" s="134" t="e">
-        <f>_xlfn.PERCENTILE.INC(C:C,I48)</f>
+      <c r="J48" s="113" t="e">
+        <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="K48" s="135">
+      <c r="K48" s="114">
         <v>0.89</v>
       </c>
-      <c r="L48" s="136" t="e">
-        <f>_xlfn.PERCENTILE.INC(C:C,K48)</f>
+      <c r="L48" s="115" t="e">
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="49" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G49" s="133">
+      <c r="G49" s="112">
         <v>0.06</v>
       </c>
-      <c r="H49" s="134" t="e">
-        <f>_xlfn.PERCENTILE.INC(C:C,G49)</f>
+      <c r="H49" s="113" t="e">
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="I49" s="135">
+      <c r="I49" s="114">
         <v>0.45</v>
       </c>
-      <c r="J49" s="134" t="e">
-        <f>_xlfn.PERCENTILE.INC(C:C,I49)</f>
+      <c r="J49" s="113" t="e">
+        <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="K49" s="135">
+      <c r="K49" s="114">
         <v>0.9</v>
       </c>
-      <c r="L49" s="136" t="e">
-        <f>_xlfn.PERCENTILE.INC(C:C,K49)</f>
+      <c r="L49" s="115" t="e">
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="50" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G50" s="133">
+      <c r="G50" s="112">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H50" s="134" t="e">
-        <f>_xlfn.PERCENTILE.INC(C:C,G50)</f>
+      <c r="H50" s="113" t="e">
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="I50" s="135">
+      <c r="I50" s="114">
         <v>0.5</v>
       </c>
-      <c r="J50" s="134" t="e">
-        <f>_xlfn.PERCENTILE.INC(C:C,I50)</f>
+      <c r="J50" s="113" t="e">
+        <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="K50" s="135">
+      <c r="K50" s="114">
         <v>0.91</v>
       </c>
-      <c r="L50" s="136" t="e">
-        <f>_xlfn.PERCENTILE.INC(C:C,K50)</f>
+      <c r="L50" s="115" t="e">
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="51" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G51" s="133">
+      <c r="G51" s="112">
         <v>0.08</v>
       </c>
-      <c r="H51" s="134" t="e">
-        <f>_xlfn.PERCENTILE.INC(C:C,G51)</f>
+      <c r="H51" s="113" t="e">
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="I51" s="135">
+      <c r="I51" s="114">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J51" s="134" t="e">
-        <f>_xlfn.PERCENTILE.INC(C:C,I51)</f>
+      <c r="J51" s="113" t="e">
+        <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="K51" s="135">
+      <c r="K51" s="114">
         <v>0.92</v>
       </c>
-      <c r="L51" s="136" t="e">
-        <f>_xlfn.PERCENTILE.INC(C:C,K51)</f>
+      <c r="L51" s="115" t="e">
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="52" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G52" s="133">
+      <c r="G52" s="112">
         <v>0.09</v>
       </c>
-      <c r="H52" s="134" t="e">
-        <f>_xlfn.PERCENTILE.INC(C:C,G52)</f>
+      <c r="H52" s="113" t="e">
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="I52" s="135">
+      <c r="I52" s="114">
         <v>0.6</v>
       </c>
-      <c r="J52" s="134" t="e">
-        <f>_xlfn.PERCENTILE.INC(C:C,I52)</f>
+      <c r="J52" s="113" t="e">
+        <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="K52" s="135">
+      <c r="K52" s="114">
         <v>0.93</v>
       </c>
-      <c r="L52" s="136" t="e">
-        <f>_xlfn.PERCENTILE.INC(C:C,K52)</f>
+      <c r="L52" s="115" t="e">
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="53" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G53" s="133">
+      <c r="G53" s="112">
         <v>0.1</v>
       </c>
-      <c r="H53" s="134" t="e">
-        <f>_xlfn.PERCENTILE.INC(C:C,G53)</f>
+      <c r="H53" s="113" t="e">
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="I53" s="135">
+      <c r="I53" s="114">
         <v>0.65</v>
       </c>
-      <c r="J53" s="134" t="e">
-        <f>_xlfn.PERCENTILE.INC(C:C,I53)</f>
+      <c r="J53" s="113" t="e">
+        <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="K53" s="135">
+      <c r="K53" s="114">
         <v>0.94</v>
       </c>
-      <c r="L53" s="136" t="e">
-        <f>_xlfn.PERCENTILE.INC(C:C,K53)</f>
+      <c r="L53" s="115" t="e">
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="54" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G54" s="133">
+      <c r="G54" s="112">
         <v>0.11</v>
       </c>
-      <c r="H54" s="134" t="e">
-        <f>_xlfn.PERCENTILE.INC(C:C,G54)</f>
+      <c r="H54" s="113" t="e">
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="I54" s="135">
+      <c r="I54" s="114">
         <v>0.7</v>
       </c>
-      <c r="J54" s="134" t="e">
-        <f>_xlfn.PERCENTILE.INC(C:C,I54)</f>
+      <c r="J54" s="113" t="e">
+        <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="K54" s="135">
+      <c r="K54" s="114">
         <v>0.95</v>
       </c>
-      <c r="L54" s="136" t="e">
-        <f>_xlfn.PERCENTILE.INC(C:C,K54)</f>
+      <c r="L54" s="115" t="e">
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="55" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G55" s="133">
+      <c r="G55" s="112">
         <v>0.12</v>
       </c>
-      <c r="H55" s="134" t="e">
-        <f>_xlfn.PERCENTILE.INC(C:C,G55)</f>
+      <c r="H55" s="113" t="e">
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="I55" s="135">
+      <c r="I55" s="114">
         <v>0.75</v>
       </c>
-      <c r="J55" s="134" t="e">
-        <f>_xlfn.PERCENTILE.INC(C:C,I55)</f>
+      <c r="J55" s="113" t="e">
+        <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="K55" s="135">
+      <c r="K55" s="114">
         <v>0.96</v>
       </c>
-      <c r="L55" s="136" t="e">
-        <f>_xlfn.PERCENTILE.INC(C:C,K55)</f>
+      <c r="L55" s="115" t="e">
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="56" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G56" s="133">
+      <c r="G56" s="112">
         <v>0.13</v>
       </c>
-      <c r="H56" s="134" t="e">
-        <f>_xlfn.PERCENTILE.INC(C:C,G56)</f>
+      <c r="H56" s="113" t="e">
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="I56" s="135">
+      <c r="I56" s="114">
         <v>0.8</v>
       </c>
-      <c r="J56" s="134" t="e">
-        <f>_xlfn.PERCENTILE.INC(C:C,I56)</f>
+      <c r="J56" s="113" t="e">
+        <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="K56" s="135">
+      <c r="K56" s="114">
         <v>0.97</v>
       </c>
-      <c r="L56" s="136" t="e">
-        <f>_xlfn.PERCENTILE.INC(C:C,K56)</f>
+      <c r="L56" s="115" t="e">
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="57" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G57" s="133">
+      <c r="G57" s="112">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H57" s="134" t="e">
-        <f>_xlfn.PERCENTILE.INC(C:C,G57)</f>
+      <c r="H57" s="113" t="e">
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="I57" s="135"/>
-      <c r="J57" s="134"/>
-      <c r="K57" s="135">
+      <c r="I57" s="114"/>
+      <c r="J57" s="113"/>
+      <c r="K57" s="114">
         <v>0.98</v>
       </c>
-      <c r="L57" s="136" t="e">
-        <f>_xlfn.PERCENTILE.INC(C:C,K57)</f>
+      <c r="L57" s="115" t="e">
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="58" spans="7:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G58" s="137">
+      <c r="G58" s="116">
         <v>0.15</v>
       </c>
-      <c r="H58" s="138" t="e">
-        <f>_xlfn.PERCENTILE.INC(C:C,G58)</f>
+      <c r="H58" s="117" t="e">
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="I58" s="139"/>
-      <c r="J58" s="115"/>
-      <c r="K58" s="140">
+      <c r="I58" s="118"/>
+      <c r="J58" s="97"/>
+      <c r="K58" s="119">
         <v>0.99</v>
       </c>
-      <c r="L58" s="141" t="e">
-        <f>_xlfn.PERCENTILE.INC(C:C,K58)</f>
+      <c r="L58" s="120" t="e">
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="59" spans="7:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G60" s="142" t="s">
-        <v>160</v>
-      </c>
-      <c r="H60" s="143"/>
+      <c r="G60" s="121" t="s">
+        <v>148</v>
+      </c>
+      <c r="H60" s="122"/>
     </row>
     <row r="61" spans="7:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G61" s="144" t="s">
-        <v>161</v>
-      </c>
-      <c r="H61" s="145"/>
+      <c r="G61" s="123" t="s">
+        <v>149</v>
+      </c>
+      <c r="H61" s="124"/>
     </row>
     <row r="62" spans="7:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G62" s="146"/>
+      <c r="G62" s="125"/>
     </row>
     <row r="63" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G63" s="142" t="s">
-        <v>162</v>
-      </c>
-      <c r="H63" s="147"/>
+      <c r="G63" s="121" t="s">
+        <v>150</v>
+      </c>
+      <c r="H63" s="126"/>
     </row>
     <row r="64" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G64" s="148" t="s">
-        <v>163</v>
-      </c>
-      <c r="H64" s="149">
+      <c r="G64" s="127" t="s">
+        <v>151</v>
+      </c>
+      <c r="H64" s="128">
         <f>H63*(1-H60)</f>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="7:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G65" s="144" t="s">
-        <v>164</v>
-      </c>
-      <c r="H65" s="150">
+      <c r="G65" s="123" t="s">
+        <v>152</v>
+      </c>
+      <c r="H65" s="129">
         <f>H63*(1+H61)</f>
         <v>0</v>
       </c>

--- a/x_template.xlsx
+++ b/x_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05974FC7-A200-4568-B133-4C2DDE54F638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C244C0-F561-40F9-8D77-6734A8C7880A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="1050" windowWidth="14085" windowHeight="15150" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -19,20 +19,17 @@
     <sheet name="Catalysts" sheetId="4" r:id="rId4"/>
     <sheet name="DoR" sheetId="5" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$25</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$26</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$25:$X$25</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$26:$X$26</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$2:$X$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$6</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$7</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$2:$X$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$6:$X$6</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$7:$X$7</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$6</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$7</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$2:$X$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$6:$X$6</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$7:$X$7</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$25</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$26</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$25:$X$25</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$26:$X$26</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$2:$X$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4878,307 +4875,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Stock Price LNW</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Catalysts!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Close</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="85000"/>
-                  <a:lumOff val="15000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Catalysts!$B$2:$B$10000</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="9999"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Catalysts!$C$2:$C$10000</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="9999"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-131E-4DBD-9840-358B77AFB12C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="693983327"/>
-        <c:axId val="737522224"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="693983327"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="737522224"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="737522224"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="693983327"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
               <a:t>Stock Price</a:t>
             </a:r>
           </a:p>
@@ -5340,9 +5036,8 @@
       <c:valAx>
         <c:axId val="737522224"/>
         <c:scaling>
-          <c:logBase val="5"/>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:min val="5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5447,7 +5142,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5794,18 +5489,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5849,7 +5544,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5869,7 +5564,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5900,18 +5595,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5955,7 +5650,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5975,7 +5670,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6002,46 +5697,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6917,514 +6572,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -11040,7 +10187,7 @@
 </file>
 
 <file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -11051,7 +10198,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -11074,7 +10221,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -11097,7 +10244,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="1000"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -11105,11 +10252,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -11134,14 +10281,14 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -11156,7 +10303,7 @@
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -11173,7 +10320,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -11188,10 +10335,8 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -11204,7 +10349,7 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -11214,13 +10359,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -11239,18 +10384,16 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -11321,12 +10464,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -11358,8 +10495,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -11414,7 +10551,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:legend>
   <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -11442,7 +10579,18 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
   </cs:seriesAxis>
   <cs:seriesLine>
     <cs:lnRef idx="0"/>
@@ -11452,12 +10600,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
+          <a:srgbClr val="D9D9D9"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -11473,7 +10618,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -11489,7 +10634,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -11503,7 +10648,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -11536,7 +10681,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -11545,12 +10690,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -11907,42 +11046,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>352424</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E8C129C-DBE3-1F2F-B16B-A26ABC76A929}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -11972,7 +11075,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12022,132 +11125,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Model-graph"/>
-      <sheetName val="Catalysts"/>
-      <sheetName val="DoR"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
-        <row r="3">
-          <cell r="I3" t="str">
-            <v>Frequency</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="I4">
-            <v>0</v>
-          </cell>
-          <cell r="J4" t="str">
-            <v>Less than -30,20%</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="I5">
-            <v>0</v>
-          </cell>
-          <cell r="J5" t="str">
-            <v>-30,20% to -23,95%</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="I6">
-            <v>0</v>
-          </cell>
-          <cell r="J6" t="str">
-            <v>-23,95% to -17,70%</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="I7">
-            <v>18</v>
-          </cell>
-          <cell r="J7" t="str">
-            <v>-17,70% to -11,46%</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="I8">
-            <v>33</v>
-          </cell>
-          <cell r="J8" t="str">
-            <v>-11,46% to -5,21%</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="I9">
-            <v>44</v>
-          </cell>
-          <cell r="J9" t="str">
-            <v>-5,21% to 1,03%</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="I10">
-            <v>51</v>
-          </cell>
-          <cell r="J10" t="str">
-            <v>1,03% to 7,28%</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="I11">
-            <v>21</v>
-          </cell>
-          <cell r="J11" t="str">
-            <v>7,28% to 13,52%</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="I12">
-            <v>5</v>
-          </cell>
-          <cell r="J12" t="str">
-            <v>13,52% to 19,77%</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="I13">
-            <v>4</v>
-          </cell>
-          <cell r="J13" t="str">
-            <v>19,77% to 26,02%</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="I14">
-            <v>2</v>
-          </cell>
-          <cell r="J14" t="str">
-            <v>26,02% to 32,26%</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="I15">
-            <v>3</v>
-          </cell>
-          <cell r="J15" t="str">
-            <v>Greater than 32,26%</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12415,8 +11392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12971,11 +11948,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
   <dimension ref="A1:Y87"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13223,45 +12200,89 @@
         <v>64</v>
       </c>
       <c r="C11" s="11">
-        <f>C8+C9+C10</f>
+        <f>SUM(C8:C10)</f>
         <v>0</v>
       </c>
       <c r="D11" s="11">
-        <f>D8+D9+D10</f>
+        <f t="shared" ref="D11:I11" si="0">SUM(D8:D10)</f>
         <v>0</v>
       </c>
       <c r="E11" s="11">
-        <f>E8+E9+E10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F11" s="11">
-        <f>F8+F9+F10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G11" s="14">
-        <f>G8+G9+G10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11" s="44">
-        <f>H7*(1-H27)</f>
+      <c r="H11" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="44">
-        <f>I7*(1-I27)</f>
+      <c r="I11" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="14"/>
+      <c r="L11" s="11">
+        <f t="shared" ref="L11" si="1">SUM(L8:L10)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <f t="shared" ref="M11" si="2">SUM(M8:M10)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
+        <f t="shared" ref="N11" si="3">SUM(N8:N10)</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="11">
+        <f t="shared" ref="O11" si="4">SUM(O8:O10)</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="11">
+        <f t="shared" ref="P11" si="5">SUM(P8:P10)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="11">
+        <f t="shared" ref="Q11" si="6">SUM(Q8:Q10)</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="11">
+        <f t="shared" ref="R11" si="7">SUM(R8:R10)</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="11">
+        <f t="shared" ref="S11" si="8">SUM(S8:S10)</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="11">
+        <f t="shared" ref="T11" si="9">SUM(T8:T10)</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="11">
+        <f t="shared" ref="U11" si="10">SUM(U8:U10)</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="11">
+        <f t="shared" ref="V11" si="11">SUM(V8:V10)</f>
+        <v>0</v>
+      </c>
+      <c r="W11" s="14">
+        <f t="shared" ref="W11" si="12">SUM(W8:W10)</f>
+        <v>0</v>
+      </c>
+      <c r="X11" s="11">
+        <f t="shared" ref="X11" si="13">SUM(X8:X10)</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="11">
+        <f t="shared" ref="Y11" si="14">SUM(Y8:Y10)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -13364,84 +12385,91 @@
         <v>23</v>
       </c>
       <c r="C16" s="11">
-        <f>C6-C11-C12-C13-C14-C15</f>
+        <f>C6-SUM(C11:C15)</f>
         <v>0</v>
       </c>
       <c r="D16" s="11">
-        <f>D6-D11-D12-D13-D14-D15</f>
+        <f t="shared" ref="D16:I16" si="15">D6-SUM(D11:D15)</f>
         <v>0</v>
       </c>
       <c r="E16" s="11">
-        <f>E6-E11-E12-E13-E14-E15</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F16" s="11">
-        <f>F6-F11-F12-F13-F14-F15</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G16" s="14">
-        <f t="shared" ref="G16:W16" si="0">G6-G11-G12-G13-G14-G15</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L16" si="16">L6-SUM(L11:L15)</f>
         <v>0</v>
       </c>
       <c r="M16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M16" si="17">M6-SUM(M11:M15)</f>
         <v>0</v>
       </c>
       <c r="N16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="N16" si="18">N6-SUM(N11:N15)</f>
         <v>0</v>
       </c>
       <c r="O16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="O16" si="19">O6-SUM(O11:O15)</f>
         <v>0</v>
       </c>
       <c r="P16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="P16" si="20">P6-SUM(P11:P15)</f>
         <v>0</v>
       </c>
       <c r="Q16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="Q16" si="21">Q6-SUM(Q11:Q15)</f>
         <v>0</v>
       </c>
       <c r="R16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="R16" si="22">R6-SUM(R11:R15)</f>
         <v>0</v>
       </c>
       <c r="S16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="S16" si="23">S6-SUM(S11:S15)</f>
         <v>0</v>
       </c>
       <c r="T16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="T16" si="24">T6-SUM(T11:T15)</f>
         <v>0</v>
       </c>
       <c r="U16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="U16" si="25">U6-SUM(U11:U15)</f>
         <v>0</v>
       </c>
       <c r="V16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="V16" si="26">V6-SUM(V11:V15)</f>
         <v>0</v>
       </c>
       <c r="W16" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="W16" si="27">W6-SUM(W11:W15)</f>
         <v>0</v>
       </c>
-      <c r="X16" s="11"/>
+      <c r="X16" s="11">
+        <f t="shared" ref="X16" si="28">X6-SUM(X11:X15)</f>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="11">
+        <f t="shared" ref="Y16" si="29">Y6-SUM(Y11:Y15)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
@@ -13520,79 +12548,87 @@
         <v>19</v>
       </c>
       <c r="C20" s="11">
-        <f t="shared" ref="C20:I20" si="1">C16+C17+C18+C19</f>
+        <f>C16+SUM(C17:C19)</f>
         <v>0</v>
       </c>
       <c r="D20" s="11">
-        <f t="shared" si="1"/>
+        <f>D16+SUM(D17:D19)</f>
         <v>0</v>
       </c>
       <c r="E20" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E20:I20" si="30">E16+SUM(E17:E19)</f>
         <v>0</v>
       </c>
       <c r="F20" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="G20" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="H20" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="I20" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="L20" s="11">
-        <f t="shared" ref="L20:T20" si="2">L16+L17+L18</f>
+        <f t="shared" ref="L20" si="31">L16+SUM(L17:L19)</f>
         <v>0</v>
       </c>
       <c r="M20" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="M20" si="32">M16+SUM(M17:M19)</f>
         <v>0</v>
       </c>
       <c r="N20" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="N20" si="33">N16+SUM(N17:N19)</f>
         <v>0</v>
       </c>
       <c r="O20" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="O20" si="34">O16+SUM(O17:O19)</f>
         <v>0</v>
       </c>
       <c r="P20" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="P20" si="35">P16+SUM(P17:P19)</f>
         <v>0</v>
       </c>
       <c r="Q20" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="Q20" si="36">Q16+SUM(Q17:Q19)</f>
         <v>0</v>
       </c>
       <c r="R20" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="R20" si="37">R16+SUM(R17:R19)</f>
         <v>0</v>
       </c>
       <c r="S20" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="S20" si="38">S16+SUM(S17:S19)</f>
         <v>0</v>
       </c>
       <c r="T20" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="T20" si="39">T16+SUM(T17:T19)</f>
         <v>0</v>
       </c>
       <c r="U20" s="11">
-        <f>U16+U17+U18</f>
+        <f t="shared" ref="U20" si="40">U16+SUM(U17:U19)</f>
         <v>0</v>
       </c>
       <c r="V20" s="11">
-        <f>V16+V17+V18</f>
+        <f t="shared" ref="V20" si="41">V16+SUM(V17:V19)</f>
         <v>0</v>
       </c>
       <c r="W20" s="14">
-        <f>W16+W17+W18</f>
+        <f t="shared" ref="W20" si="42">W16+SUM(W17:W19)</f>
+        <v>0</v>
+      </c>
+      <c r="X20" s="11">
+        <f t="shared" ref="X20" si="43">X16+SUM(X17:X19)</f>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="11">
+        <f t="shared" ref="Y20" si="44">Y16+SUM(Y17:Y19)</f>
         <v>0</v>
       </c>
     </row>
@@ -13649,80 +12685,83 @@
         <v>21</v>
       </c>
       <c r="C23" s="11">
-        <f>C20-C21-C22</f>
+        <f>C20-SUM(C21:C22)</f>
         <v>0</v>
       </c>
       <c r="D23" s="11">
-        <f t="shared" ref="D23:G23" si="3">D20-D21-D22</f>
+        <f t="shared" ref="D23:G23" si="45">D20-SUM(D21:D22)</f>
         <v>0</v>
       </c>
       <c r="E23" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="F23" s="11">
-        <f>F20-F21-F22</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="G23" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="H23" s="65"/>
       <c r="I23" s="65"/>
       <c r="L23" s="11">
-        <f>L20-L21-L22</f>
+        <f t="shared" ref="L23" si="46">L20-SUM(L21:L22)</f>
         <v>0</v>
       </c>
       <c r="M23" s="11">
-        <f>M20-M21-M22</f>
+        <f t="shared" ref="M23" si="47">M20-SUM(M21:M22)</f>
         <v>0</v>
       </c>
       <c r="N23" s="11">
-        <f>N20-N21-N22</f>
+        <f t="shared" ref="N23" si="48">N20-SUM(N21:N22)</f>
         <v>0</v>
       </c>
       <c r="O23" s="11">
-        <f t="shared" ref="O23:S23" si="4">O20+O21+O22</f>
+        <f t="shared" ref="O23" si="49">O20-SUM(O21:O22)</f>
         <v>0</v>
       </c>
       <c r="P23" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="P23" si="50">P20-SUM(P21:P22)</f>
         <v>0</v>
       </c>
       <c r="Q23" s="11">
-        <f>Q20-Q21-Q22</f>
+        <f t="shared" ref="Q23" si="51">Q20-SUM(Q21:Q22)</f>
         <v>0</v>
       </c>
       <c r="R23" s="11">
-        <f>R20-R21-R22</f>
+        <f t="shared" ref="R23" si="52">R20-SUM(R21:R22)</f>
         <v>0</v>
       </c>
       <c r="S23" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="S23" si="53">S20-SUM(S21:S22)</f>
         <v>0</v>
       </c>
       <c r="T23" s="11">
-        <f>T20-T21-T22</f>
+        <f t="shared" ref="T23" si="54">T20-SUM(T21:T22)</f>
         <v>0</v>
       </c>
       <c r="U23" s="11">
-        <f>U20-U21-U22</f>
+        <f t="shared" ref="U23" si="55">U20-SUM(U21:U22)</f>
         <v>0</v>
       </c>
       <c r="V23" s="11">
-        <f>V20-V21-V22</f>
+        <f t="shared" ref="V23" si="56">V20-SUM(V21:V22)</f>
         <v>0</v>
       </c>
       <c r="W23" s="14">
-        <f>W20-W21-W22</f>
+        <f t="shared" ref="W23" si="57">W20-SUM(W21:W22)</f>
         <v>0</v>
       </c>
       <c r="X23" s="11">
-        <f>X24*X26</f>
+        <f t="shared" ref="X23" si="58">X20-SUM(X21:X22)</f>
         <v>0</v>
       </c>
-      <c r="Y23" s="11"/>
+      <c r="Y23" s="11">
+        <f t="shared" ref="Y23" si="59">Y20-SUM(Y21:Y22)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
@@ -13844,51 +12883,51 @@
       <c r="H27" s="47"/>
       <c r="I27" s="47"/>
       <c r="L27" s="3" t="e">
-        <f t="shared" ref="L27:W27" si="5">1-L11/L6</f>
+        <f t="shared" ref="L27:W27" si="60">1-L11/L6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M27" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N27" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O27" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P27" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q27" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R27" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S27" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T27" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U27" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V27" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W27" s="6" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13925,51 +12964,51 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L28" s="4" t="e">
-        <f t="shared" ref="L28:W28" si="6">L23/L6</f>
+        <f t="shared" ref="L28:W28" si="61">L23/L6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M28" s="4" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N28" s="4" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O28" s="4" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P28" s="4" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q28" s="4" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R28" s="4" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S28" s="4" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T28" s="4" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U28" s="4" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V28" s="4" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W28" s="7" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14007,35 +13046,35 @@
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4" t="e">
-        <f t="shared" ref="P29:W29" si="7">P6/L6-1</f>
+        <f t="shared" ref="P29:W29" si="62">P6/L6-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q29" s="4" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R29" s="4" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S29" s="4" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T29" s="4" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U29" s="4" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V29" s="4" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W29" s="7" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X29" s="37" t="e">
@@ -14074,51 +13113,51 @@
       <c r="H30" s="133"/>
       <c r="I30" s="133"/>
       <c r="L30" s="4" t="e">
-        <f t="shared" ref="L30:W30" si="8">L12/L6</f>
+        <f t="shared" ref="L30:W30" si="63">L12/L6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M30" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N30" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O30" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P30" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q30" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R30" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S30" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T30" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U30" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V30" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W30" s="7" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X30" s="4"/>
@@ -14128,19 +13167,19 @@
         <v>162</v>
       </c>
       <c r="C31" s="4" t="e">
-        <f t="shared" ref="C31:F31" si="9">C13/C6</f>
+        <f t="shared" ref="C31:F31" si="64">C13/C6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D31" s="4" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E31" s="4" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F31" s="4" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G31" s="7" t="e">
@@ -14150,51 +13189,51 @@
       <c r="H31" s="133"/>
       <c r="I31" s="133"/>
       <c r="L31" s="4" t="e">
-        <f t="shared" ref="L31:W31" si="10">L13/L6</f>
+        <f t="shared" ref="L31:W31" si="65">L13/L6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M31" s="4" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N31" s="4" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O31" s="4" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P31" s="4" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q31" s="4" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R31" s="4" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S31" s="4" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T31" s="4" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U31" s="4" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V31" s="4" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W31" s="7" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X31" s="4"/>
@@ -14226,51 +13265,51 @@
       <c r="H32" s="133"/>
       <c r="I32" s="133"/>
       <c r="L32" s="4" t="e">
-        <f t="shared" ref="L32:W32" si="11">L15/L6</f>
+        <f t="shared" ref="L32:W32" si="66">L15/L6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M32" s="4" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N32" s="4" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O32" s="4" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P32" s="4" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q32" s="4" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R32" s="4" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S32" s="4" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T32" s="4" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U32" s="4" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V32" s="4" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W32" s="7" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X32" s="4"/>
@@ -14282,15 +13321,15 @@
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="e">
-        <f t="shared" ref="E33:G34" si="12">E3/D3-1</f>
+        <f t="shared" ref="E33:G34" si="67">E3/D3-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F33" s="4" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G33" s="7" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H33" s="133"/>
@@ -14316,15 +13355,15 @@
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F34" s="4" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G34" s="7" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H34" s="133"/>
@@ -14377,23 +13416,23 @@
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
       <c r="P35" s="4" t="e">
-        <f t="shared" ref="P35:X35" si="13">P23/L23-1</f>
+        <f t="shared" ref="P35:X35" si="68">P23/L23-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q35" s="4" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R35" s="4" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S35" s="4" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T35" s="4" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U35" s="4" t="e">
@@ -14401,15 +13440,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="V35" s="4" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W35" s="7" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X35" s="4" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14468,27 +13507,27 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D37" s="58" t="e">
-        <f t="shared" ref="D37:I37" si="14">-D17/D16</f>
+        <f t="shared" ref="D37:I37" si="69">-D17/D16</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E37" s="58" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F37" s="58" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G37" s="57" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H37" s="56" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I37" s="56" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L37" s="4"/>
@@ -14514,67 +13553,67 @@
         <v>0</v>
       </c>
       <c r="D40" s="11">
-        <f t="shared" ref="D40:G40" si="15">D41+D43-D55-D56-D63</f>
+        <f t="shared" ref="D40:G40" si="70">D41+D43-D55-D56-D63</f>
         <v>0</v>
       </c>
       <c r="E40" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="F40" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="G40" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="L40" s="11">
-        <f t="shared" ref="L40" si="16">L41+L43-L55-L56-L63</f>
+        <f t="shared" ref="L40" si="71">L41+L43-L55-L56-L63</f>
         <v>0</v>
       </c>
       <c r="M40" s="11">
-        <f t="shared" ref="M40" si="17">M41+M43-M55-M56-M63</f>
+        <f t="shared" ref="M40" si="72">M41+M43-M55-M56-M63</f>
         <v>0</v>
       </c>
       <c r="N40" s="11">
-        <f t="shared" ref="N40" si="18">N41+N43-N55-N56-N63</f>
+        <f t="shared" ref="N40" si="73">N41+N43-N55-N56-N63</f>
         <v>0</v>
       </c>
       <c r="O40" s="11">
-        <f t="shared" ref="O40" si="19">O41+O43-O55-O56-O63</f>
+        <f t="shared" ref="O40" si="74">O41+O43-O55-O56-O63</f>
         <v>0</v>
       </c>
       <c r="P40" s="11">
-        <f t="shared" ref="P40" si="20">P41+P43-P55-P56-P63</f>
+        <f t="shared" ref="P40" si="75">P41+P43-P55-P56-P63</f>
         <v>0</v>
       </c>
       <c r="Q40" s="11">
-        <f t="shared" ref="Q40" si="21">Q41+Q43-Q55-Q56-Q63</f>
+        <f t="shared" ref="Q40" si="76">Q41+Q43-Q55-Q56-Q63</f>
         <v>0</v>
       </c>
       <c r="R40" s="11">
-        <f t="shared" ref="R40" si="22">R41+R43-R55-R56-R63</f>
+        <f t="shared" ref="R40" si="77">R41+R43-R55-R56-R63</f>
         <v>0</v>
       </c>
       <c r="S40" s="11">
-        <f t="shared" ref="S40" si="23">S41+S43-S55-S56-S63</f>
+        <f t="shared" ref="S40" si="78">S41+S43-S55-S56-S63</f>
         <v>0</v>
       </c>
       <c r="T40" s="11">
-        <f t="shared" ref="T40" si="24">T41+T43-T55-T56-T63</f>
+        <f t="shared" ref="T40" si="79">T41+T43-T55-T56-T63</f>
         <v>0</v>
       </c>
       <c r="U40" s="11">
-        <f t="shared" ref="U40" si="25">U41+U43-U55-U56-U63</f>
+        <f t="shared" ref="U40" si="80">U41+U43-U55-U56-U63</f>
         <v>0</v>
       </c>
       <c r="V40" s="11">
-        <f t="shared" ref="V40" si="26">V41+V43-V55-V56-V63</f>
+        <f t="shared" ref="V40" si="81">V41+V43-V55-V56-V63</f>
         <v>0</v>
       </c>
       <c r="W40" s="14">
-        <f t="shared" ref="W40" si="27">W41+W43-W55-W56-W63</f>
+        <f t="shared" ref="W40" si="82">W41+W43-W55-W56-W63</f>
         <v>0</v>
       </c>
     </row>
@@ -14715,11 +13754,11 @@
         <v>66</v>
       </c>
       <c r="C47" s="11">
-        <f t="shared" ref="C47:D47" si="28">SUM(C41:C46)</f>
+        <f t="shared" ref="C47:D47" si="83">SUM(C41:C46)</f>
         <v>0</v>
       </c>
       <c r="D47" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="E47" s="11">
@@ -14727,59 +13766,59 @@
         <v>0</v>
       </c>
       <c r="F47" s="11">
-        <f t="shared" ref="F47:G47" si="29">SUM(F41:F46)</f>
+        <f t="shared" ref="F47:G47" si="84">SUM(F41:F46)</f>
         <v>0</v>
       </c>
       <c r="G47" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="L47" s="11">
-        <f t="shared" ref="L47:W47" si="30">SUM(L41:L46)</f>
+        <f t="shared" ref="L47:W47" si="85">SUM(L41:L46)</f>
         <v>0</v>
       </c>
       <c r="M47" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="N47" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="O47" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="P47" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="Q47" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="R47" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="S47" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="T47" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="U47" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="V47" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="W47" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
     </row>
@@ -14940,51 +13979,51 @@
         <v>0</v>
       </c>
       <c r="L54" s="11">
-        <f t="shared" ref="L54:W54" si="31">SUM(L47:L53)</f>
+        <f t="shared" ref="L54:W54" si="86">SUM(L47:L53)</f>
         <v>0</v>
       </c>
       <c r="M54" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="N54" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="O54" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="P54" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="Q54" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="R54" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="S54" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="T54" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="U54" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="V54" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="W54" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
     </row>
@@ -15123,51 +14162,51 @@
         <v>0</v>
       </c>
       <c r="L60" s="11">
-        <f t="shared" ref="L60:W60" si="32">SUM(L55:L59)</f>
+        <f t="shared" ref="L60:W60" si="87">SUM(L55:L59)</f>
         <v>0</v>
       </c>
       <c r="M60" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="N60" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="O60" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="P60" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="Q60" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="R60" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="S60" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="T60" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="U60" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="V60" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="W60" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="X60" s="11"/>
@@ -15286,51 +14325,51 @@
         <v>0</v>
       </c>
       <c r="L65" s="11">
-        <f t="shared" ref="L65:W65" si="33">SUM(L60:L64)</f>
+        <f t="shared" ref="L65:W65" si="88">SUM(L60:L64)</f>
         <v>0</v>
       </c>
       <c r="M65" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="N65" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="O65" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="P65" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="Q65" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="R65" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="S65" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="T65" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="U65" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="V65" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="W65" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
     </row>
@@ -15419,7 +14458,7 @@
   <dimension ref="A1:M2067"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/x_template.xlsx
+++ b/x_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C244C0-F561-40F9-8D77-6734A8C7880A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A554CFC-C1ED-4557-8E01-AC4A44304B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="1050" windowWidth="14085" windowHeight="15150" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="960" windowWidth="15135" windowHeight="15240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -11949,10 +11949,10 @@
   <dimension ref="A1:Y87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13404,11 +13404,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H35" s="64" t="e">
-        <f>H25/G25</f>
+        <f>H25/G25-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I35" s="64" t="e">
-        <f>I25/H25</f>
+        <f>I25/H25-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L35" s="4"/>

--- a/x_template.xlsx
+++ b/x_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A554CFC-C1ED-4557-8E01-AC4A44304B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB383ABA-A1C1-41F8-B449-3F21E3596F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="960" windowWidth="15135" windowHeight="15240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -20,16 +20,16 @@
     <sheet name="DoR" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$6</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$7</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$2:$X$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$6:$X$6</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$7:$X$7</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$25</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$26</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$25:$X$25</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$26:$X$26</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$2:$X$2</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$25</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$26</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$25:$X$25</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$26:$X$26</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$2:$X$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$6</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$7</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$2:$X$2</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$6:$X$6</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$7:$X$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -998,7 +998,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1403,19 +1403,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1540,6 +1527,30 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1667,11 +1678,11 @@
     <xf numFmtId="10" fontId="12" fillId="11" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="12" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="12" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="11" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="12" fillId="11" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="11" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="14" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1679,16 +1690,16 @@
     <xf numFmtId="10" fontId="12" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="12" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="12" fillId="11" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="14" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="11" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="11" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="14" fillId="11" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="11" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="14" fillId="11" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -1697,11 +1708,11 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="9" fontId="14" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="11" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="14" fillId="11" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="14" fillId="11" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -1714,8 +1725,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="12" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1760,21 +1769,23 @@
     <xf numFmtId="166" fontId="12" fillId="11" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="11" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="11" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="12" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -5269,40 +5280,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5489,18 +5500,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5544,7 +5555,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5564,7 +5575,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5595,18 +5606,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5650,7 +5661,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5670,7 +5681,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -11089,7 +11100,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>195261</xdr:rowOff>
     </xdr:from>
@@ -11635,9 +11646,9 @@
       <c r="E17" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="L17" s="134"/>
-      <c r="M17" s="135"/>
-      <c r="N17" s="136"/>
+      <c r="L17" s="132"/>
+      <c r="M17" s="133"/>
+      <c r="N17" s="134"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
@@ -11647,9 +11658,9 @@
         <f>C14/C16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L18" s="137"/>
-      <c r="M18" s="138"/>
-      <c r="N18" s="139"/>
+      <c r="L18" s="135"/>
+      <c r="M18" s="136"/>
+      <c r="N18" s="137"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
@@ -11659,9 +11670,9 @@
         <f>C15/C17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L19" s="137"/>
-      <c r="M19" s="138"/>
-      <c r="N19" s="139"/>
+      <c r="L19" s="135"/>
+      <c r="M19" s="136"/>
+      <c r="N19" s="137"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
@@ -11671,9 +11682,9 @@
         <f>Model!G4/Model!F3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L20" s="137"/>
-      <c r="M20" s="138"/>
-      <c r="N20" s="139"/>
+      <c r="L20" s="135"/>
+      <c r="M20" s="136"/>
+      <c r="N20" s="137"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
@@ -11683,9 +11694,9 @@
         <f>Model!H4/Model!G4-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L21" s="137"/>
-      <c r="M21" s="138"/>
-      <c r="N21" s="139"/>
+      <c r="L21" s="135"/>
+      <c r="M21" s="136"/>
+      <c r="N21" s="137"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
@@ -11695,9 +11706,9 @@
         <f>Model!F12+Model!F10</f>
         <v>0</v>
       </c>
-      <c r="L22" s="137"/>
-      <c r="M22" s="138"/>
-      <c r="N22" s="139"/>
+      <c r="L22" s="135"/>
+      <c r="M22" s="136"/>
+      <c r="N22" s="137"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
@@ -11707,9 +11718,9 @@
         <f>Model!F12</f>
         <v>0</v>
       </c>
-      <c r="L23" s="137"/>
-      <c r="M23" s="138"/>
-      <c r="N23" s="139"/>
+      <c r="L23" s="135"/>
+      <c r="M23" s="136"/>
+      <c r="N23" s="137"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
@@ -11719,9 +11730,9 @@
         <f>Model!F17</f>
         <v>0</v>
       </c>
-      <c r="L24" s="137"/>
-      <c r="M24" s="138"/>
-      <c r="N24" s="139"/>
+      <c r="L24" s="135"/>
+      <c r="M24" s="136"/>
+      <c r="N24" s="137"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
@@ -11731,9 +11742,9 @@
         <f>Model!F18</f>
         <v>0</v>
       </c>
-      <c r="L25" s="137"/>
-      <c r="M25" s="138"/>
-      <c r="N25" s="139"/>
+      <c r="L25" s="135"/>
+      <c r="M25" s="136"/>
+      <c r="N25" s="137"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
@@ -11743,24 +11754,24 @@
         <f>C12/C23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L26" s="137"/>
-      <c r="M26" s="138"/>
-      <c r="N26" s="139"/>
+      <c r="L26" s="135"/>
+      <c r="M26" s="136"/>
+      <c r="N26" s="137"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="132" t="e">
+      <c r="C27" s="130" t="e">
         <f>Model!Q45/Model!Q50</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E27" t="s">
         <v>83</v>
       </c>
-      <c r="L27" s="137"/>
-      <c r="M27" s="138"/>
-      <c r="N27" s="139"/>
+      <c r="L27" s="135"/>
+      <c r="M27" s="136"/>
+      <c r="N27" s="137"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
@@ -11770,9 +11781,9 @@
         <f>C22/-Model!F10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L28" s="140"/>
-      <c r="M28" s="141"/>
-      <c r="N28" s="142"/>
+      <c r="L28" s="138"/>
+      <c r="M28" s="139"/>
+      <c r="N28" s="140"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
@@ -11948,7 +11959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
   <dimension ref="A1:Y87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -13110,8 +13121,8 @@
         <f>G12/G6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="133"/>
-      <c r="I30" s="133"/>
+      <c r="H30" s="131"/>
+      <c r="I30" s="131"/>
       <c r="L30" s="4" t="e">
         <f t="shared" ref="L30:W30" si="63">L12/L6</f>
         <v>#DIV/0!</v>
@@ -13186,8 +13197,8 @@
         <f>G13/G6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="133"/>
-      <c r="I31" s="133"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="131"/>
       <c r="L31" s="4" t="e">
         <f t="shared" ref="L31:W31" si="65">L13/L6</f>
         <v>#DIV/0!</v>
@@ -13262,8 +13273,8 @@
         <f>G15/G6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="133"/>
-      <c r="I32" s="133"/>
+      <c r="H32" s="131"/>
+      <c r="I32" s="131"/>
       <c r="L32" s="4" t="e">
         <f t="shared" ref="L32:W32" si="66">L15/L6</f>
         <v>#DIV/0!</v>
@@ -13332,8 +13343,8 @@
         <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="133"/>
-      <c r="I33" s="133"/>
+      <c r="H33" s="131"/>
+      <c r="I33" s="131"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
@@ -13366,8 +13377,8 @@
         <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="133"/>
-      <c r="I34" s="133"/>
+      <c r="H34" s="131"/>
+      <c r="I34" s="131"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
@@ -22790,9 +22801,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366AC5E7-7FF6-4287-9F23-7D3A6FE15A5F}">
-  <dimension ref="A1:M65"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -22818,16 +22831,20 @@
       <c r="D1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="143" t="s">
+      <c r="H1" s="141" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="144"/>
-      <c r="M1" s="145"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="143"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" t="e">
+        <f>C2/C3-1</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H2" s="71"/>
       <c r="I2" s="72"/>
       <c r="J2" s="72"/>
@@ -22836,6 +22853,10 @@
       <c r="M2" s="73"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" t="e">
+        <f t="shared" ref="D3:D66" si="0">C3/C4-1</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H3" s="74" t="s">
         <v>116</v>
       </c>
@@ -22856,6 +22877,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H4" s="79" t="e">
         <f>$I$19-3*$I$23</f>
         <v>#DIV/0!</v>
@@ -22866,7 +22891,7 @@
       </c>
       <c r="J4" s="81">
         <f>COUNTIF(D:D,"&lt;="&amp;H4)</f>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K4" s="81" t="e">
         <f>"Less than "&amp;TEXT(H4,"0,00%")</f>
@@ -22882,6 +22907,10 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H5" s="84" t="e">
         <f>$I$19-2.4*$I$23</f>
         <v>#DIV/0!</v>
@@ -22892,10 +22921,10 @@
       </c>
       <c r="J5" s="86">
         <f>COUNTIFS(D:D,"&lt;="&amp;H5,D:D,"&gt;"&amp;H4)</f>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K5" s="87" t="e">
-        <f t="shared" ref="K5:K14" si="0">TEXT(H4,"0,00%")&amp;" to "&amp;TEXT(H5,"0,00%")</f>
+        <f t="shared" ref="K5:K14" si="1">TEXT(H4,"0,00%")&amp;" to "&amp;TEXT(H5,"0,00%")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L5" s="88" t="e">
@@ -22908,412 +22937,524 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H6" s="84" t="e">
         <f>$I$19-1.8*$I$23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I6" s="85" t="e">
-        <f t="shared" ref="I6:I14" si="1">H6</f>
+        <f t="shared" ref="I6:I14" si="2">H6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J6" s="86">
-        <f t="shared" ref="J6:J14" si="2">COUNTIFS(D:D,"&lt;="&amp;H6,D:D,"&gt;"&amp;H5)</f>
-        <v>0</v>
+        <f t="shared" ref="J6:J14" si="3">COUNTIFS(D:D,"&lt;="&amp;H6,D:D,"&gt;"&amp;H5)</f>
+        <v>67</v>
       </c>
       <c r="K6" s="87" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L6" s="88" t="e">
+        <f t="shared" ref="L6:L15" si="4">J6/$I$31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M6" s="89" t="e">
+        <f t="shared" ref="M6:M15" si="5">M5+L6</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D7" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="88" t="e">
-        <f t="shared" ref="L6:L15" si="3">J6/$I$31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M6" s="89" t="e">
-        <f t="shared" ref="M6:M15" si="4">M5+L6</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H7" s="84" t="e">
         <f>$I$19-1.2*$I$23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I7" s="85" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J7" s="86">
+        <f t="shared" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="K7" s="87" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="86">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="87" t="e">
+      <c r="L7" s="88" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M7" s="89" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="88" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M7" s="89" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H8" s="84" t="e">
         <f>$I$19-0.6*$I$23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I8" s="85" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J8" s="86">
+        <f t="shared" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="K8" s="87" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J8" s="86">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="87" t="e">
+      <c r="L8" s="88" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M8" s="89" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="88" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M8" s="89" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H9" s="84" t="e">
         <f>$I$19</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I9" s="85" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J9" s="86">
+        <f t="shared" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="K9" s="87" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J9" s="86">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="87" t="e">
+      <c r="L9" s="88" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M9" s="89" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="88" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M9" s="89" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H10" s="84" t="e">
         <f>$I$19+0.6*$I$23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I10" s="85" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J10" s="86">
+        <f t="shared" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="K10" s="87" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J10" s="86">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="87" t="e">
+      <c r="L10" s="88" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M10" s="89" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D11" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="88" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M10" s="89" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H11" s="84" t="e">
         <f>$I$19+1.2*$I$23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I11" s="85" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J11" s="86">
+        <f t="shared" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="K11" s="87" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J11" s="86">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="87" t="e">
+      <c r="L11" s="88" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M11" s="89" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="88" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M11" s="89" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H12" s="84" t="e">
         <f>$I$19+1.8*$I$23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I12" s="85" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J12" s="86">
+        <f t="shared" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="K12" s="87" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J12" s="86">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="87" t="e">
+      <c r="L12" s="88" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M12" s="89" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L12" s="88" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M12" s="89" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H13" s="84" t="e">
         <f>$I$19+2.4*$I$23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I13" s="85" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J13" s="86">
+        <f t="shared" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="K13" s="87" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J13" s="86">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="87" t="e">
+      <c r="L13" s="88" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M13" s="89" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L13" s="88" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M13" s="89" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H14" s="84" t="e">
         <f>$I$19+3*$I$23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I14" s="85" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J14" s="86">
+        <f t="shared" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="K14" s="87" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J14" s="86">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="87" t="e">
+      <c r="L14" s="88" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M14" s="89" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L14" s="88" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M14" s="89" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H15" s="90"/>
       <c r="I15" s="91" t="s">
         <v>122</v>
       </c>
       <c r="J15" s="91">
         <f>COUNTIF(D:D,"&gt;"&amp;H14)</f>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K15" s="91" t="e">
         <f>"Greater than "&amp;TEXT(H14,"0,00%")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L15" s="92" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M15" s="92" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H16" s="93"/>
       <c r="M16" s="94"/>
     </row>
-    <row r="17" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H17" s="146" t="s">
+    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D17" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H17" s="144" t="s">
         <v>153</v>
       </c>
-      <c r="I17" s="147"/>
+      <c r="I17" s="149"/>
       <c r="M17" s="94"/>
     </row>
-    <row r="18" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H18" s="148"/>
-      <c r="I18" s="149"/>
+    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D18" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H18" s="145"/>
+      <c r="I18" s="150"/>
       <c r="M18" s="94"/>
     </row>
-    <row r="19" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D19" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H19" s="95" t="s">
         <v>123</v>
       </c>
-      <c r="I19" s="130" t="e">
+      <c r="I19" s="151" t="e">
         <f>AVERAGE(D:D)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M19" s="94"/>
     </row>
-    <row r="20" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D20" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H20" s="95" t="s">
         <v>124</v>
       </c>
-      <c r="I20" s="130" t="e">
+      <c r="I20" s="151" t="e">
         <f>_xlfn.STDEV.S(D:D)/SQRT(COUNT(D:D))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M20" s="94"/>
     </row>
-    <row r="21" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H21" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="I21" s="130" t="e">
+      <c r="I21" s="151" t="e">
         <f>MEDIAN(D:D)</f>
-        <v>#NUM!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M21" s="94"/>
     </row>
-    <row r="22" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H22" s="95" t="s">
         <v>126</v>
       </c>
-      <c r="I22" s="130" t="e">
+      <c r="I22" s="151" t="e">
         <f>MODE(D:D)</f>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M22" s="94"/>
     </row>
-    <row r="23" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H23" s="95" t="s">
         <v>127</v>
       </c>
-      <c r="I23" s="130" t="e">
+      <c r="I23" s="151" t="e">
         <f>_xlfn.STDEV.S(D:D)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M23" s="94"/>
     </row>
-    <row r="24" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D24" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H24" s="95" t="s">
         <v>128</v>
       </c>
-      <c r="I24" s="130" t="e">
+      <c r="I24" s="151" t="e">
         <f>_xlfn.VAR.S(D:D)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M24" s="94"/>
     </row>
-    <row r="25" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D25" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H25" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="I25" s="131" t="e">
+      <c r="I25" s="152" t="e">
         <f>KURT(D:D)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M25" s="94"/>
     </row>
-    <row r="26" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D26" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H26" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="I26" s="131" t="e">
+      <c r="I26" s="152" t="e">
         <f>SKEW(D:D)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M26" s="94"/>
     </row>
-    <row r="27" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D27" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H27" s="95" t="s">
         <v>119</v>
       </c>
-      <c r="I27" s="130">
+      <c r="I27" s="151" t="e">
         <f>I29-I28</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M27" s="94"/>
     </row>
-    <row r="28" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D28" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H28" s="95" t="s">
         <v>131</v>
       </c>
-      <c r="I28" s="130">
+      <c r="I28" s="151" t="e">
         <f>MIN(D:D)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M28" s="94"/>
     </row>
-    <row r="29" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D29" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H29" s="95" t="s">
         <v>132</v>
       </c>
-      <c r="I29" s="130">
+      <c r="I29" s="151" t="e">
         <f>MAX(D:D)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M29" s="94"/>
     </row>
-    <row r="30" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D30" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H30" s="95" t="s">
         <v>133</v>
       </c>
-      <c r="I30" s="131">
+      <c r="I30" s="152" t="e">
         <f>SUM(D:D)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M30" s="94"/>
     </row>
-    <row r="31" spans="8:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D31" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H31" s="96" t="s">
         <v>134</v>
       </c>
-      <c r="I31" s="72">
+      <c r="I31" s="73">
         <f>COUNT(D:D)</f>
         <v>0</v>
       </c>
       <c r="M31" s="94"/>
     </row>
-    <row r="32" spans="8:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D32" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H32" s="98"/>
       <c r="M32" s="94"/>
     </row>
-    <row r="33" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D33" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H33" s="99"/>
       <c r="I33" s="100" t="s">
         <v>135</v>
@@ -23329,7 +23470,11 @@
       </c>
       <c r="M33" s="94"/>
     </row>
-    <row r="34" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H34" s="102" t="s">
         <v>138</v>
       </c>
@@ -23351,7 +23496,11 @@
       </c>
       <c r="M34" s="94"/>
     </row>
-    <row r="35" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D35" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H35" s="102" t="s">
         <v>139</v>
       </c>
@@ -23368,12 +23517,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L35" s="89" t="e">
-        <f t="shared" ref="L35:L36" si="5">K35*I35</f>
+        <f t="shared" ref="L35:L36" si="6">K35*I35</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M35" s="94"/>
     </row>
-    <row r="36" spans="8:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H36" s="103" t="s">
         <v>140</v>
       </c>
@@ -23389,12 +23542,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L36" s="92" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M36" s="94"/>
     </row>
-    <row r="37" spans="8:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H37" s="98"/>
       <c r="I37" s="105"/>
       <c r="J37" s="105"/>
@@ -23402,7 +23559,11 @@
       <c r="L37" s="105"/>
       <c r="M37" s="94"/>
     </row>
-    <row r="38" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D38" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H38" s="79" t="s">
         <v>141</v>
       </c>
@@ -23422,7 +23583,11 @@
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D39" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H39" s="106">
         <v>1</v>
       </c>
@@ -23436,7 +23601,7 @@
       </c>
       <c r="K39" s="86">
         <f>COUNTIFS(D:D,"&lt;"&amp;I39,D:D,"&gt;"&amp;J39)</f>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="L39" s="88" t="e">
         <f>K39/$I$31</f>
@@ -23446,7 +23611,11 @@
         <v>0.68269999999999997</v>
       </c>
     </row>
-    <row r="40" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H40" s="106">
         <v>2</v>
       </c>
@@ -23460,7 +23629,7 @@
       </c>
       <c r="K40" s="86">
         <f>COUNTIFS(D:D,"&lt;"&amp;I40,D:D,"&gt;"&amp;J40)</f>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="L40" s="88" t="e">
         <f>K40/$I$31</f>
@@ -23470,7 +23639,11 @@
         <v>0.95450000000000002</v>
       </c>
     </row>
-    <row r="41" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D41" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H41" s="106">
         <v>3</v>
       </c>
@@ -23484,7 +23657,7 @@
       </c>
       <c r="K41" s="86">
         <f>COUNTIFS(D:D,"&lt;"&amp;I41,D:D,"&gt;"&amp;J41)</f>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="L41" s="88" t="e">
         <f>K41/$I$31</f>
@@ -23494,326 +23667,390 @@
         <v>0.99729999999999996</v>
       </c>
     </row>
-    <row r="42" spans="8:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D42" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H42" s="84"/>
       <c r="M42" s="107"/>
     </row>
-    <row r="43" spans="8:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H43" s="150" t="s">
+    <row r="43" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D43" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H43" s="146" t="s">
         <v>147</v>
       </c>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="152"/>
-    </row>
-    <row r="44" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="I43" s="147"/>
+      <c r="J43" s="147"/>
+      <c r="K43" s="147"/>
+      <c r="L43" s="147"/>
+      <c r="M43" s="148"/>
+    </row>
+    <row r="44" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D44" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H44" s="108">
         <v>0.01</v>
       </c>
       <c r="I44" s="109" t="e">
-        <f t="shared" ref="I44:I58" si="6">_xlfn.PERCENTILE.INC(D:D,H44)</f>
-        <v>#NUM!</v>
+        <f t="shared" ref="I44:I58" si="7">_xlfn.PERCENTILE.INC(D:D,H44)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="J44" s="110">
         <v>0.2</v>
       </c>
       <c r="K44" s="109" t="e">
-        <f t="shared" ref="K44:K56" si="7">_xlfn.PERCENTILE.INC(D:D,J44)</f>
-        <v>#NUM!</v>
+        <f t="shared" ref="K44:K56" si="8">_xlfn.PERCENTILE.INC(D:D,J44)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="L44" s="110">
         <v>0.85</v>
       </c>
       <c r="M44" s="111" t="e">
-        <f t="shared" ref="M44:M58" si="8">_xlfn.PERCENTILE.INC(D:D,L44)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="45" spans="8:13" x14ac:dyDescent="0.25">
+        <f t="shared" ref="M44:M58" si="9">_xlfn.PERCENTILE.INC(D:D,L44)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D45" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H45" s="112">
         <v>0.02</v>
       </c>
       <c r="I45" s="113" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J45" s="114">
         <v>0.25</v>
       </c>
       <c r="K45" s="113" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="L45" s="114">
         <v>0.86</v>
       </c>
       <c r="M45" s="115" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="46" spans="8:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D46" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H46" s="112">
         <v>0.03</v>
       </c>
       <c r="I46" s="113" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J46" s="114">
         <v>0.3</v>
       </c>
       <c r="K46" s="113" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="L46" s="114">
         <v>0.87</v>
       </c>
       <c r="M46" s="115" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="47" spans="8:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D47" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H47" s="112">
         <v>0.04</v>
       </c>
       <c r="I47" s="113" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J47" s="114">
         <v>0.35</v>
       </c>
       <c r="K47" s="113" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="L47" s="114">
         <v>0.88</v>
       </c>
       <c r="M47" s="115" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="48" spans="8:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D48" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H48" s="112">
         <v>0.05</v>
       </c>
       <c r="I48" s="113" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J48" s="114">
         <v>0.4</v>
       </c>
       <c r="K48" s="113" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="L48" s="114">
         <v>0.89</v>
       </c>
       <c r="M48" s="115" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="49" spans="8:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D49" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H49" s="112">
         <v>0.06</v>
       </c>
       <c r="I49" s="113" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J49" s="114">
         <v>0.45</v>
       </c>
       <c r="K49" s="113" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="L49" s="114">
         <v>0.9</v>
       </c>
       <c r="M49" s="115" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="50" spans="8:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D50" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H50" s="112">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I50" s="113" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J50" s="114">
         <v>0.5</v>
       </c>
       <c r="K50" s="113" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="L50" s="114">
         <v>0.91</v>
       </c>
       <c r="M50" s="115" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="51" spans="8:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D51" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H51" s="112">
         <v>0.08</v>
       </c>
       <c r="I51" s="113" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J51" s="114">
         <v>0.55000000000000004</v>
       </c>
       <c r="K51" s="113" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="L51" s="114">
         <v>0.92</v>
       </c>
       <c r="M51" s="115" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="52" spans="8:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D52" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H52" s="112">
         <v>0.09</v>
       </c>
       <c r="I52" s="113" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J52" s="114">
         <v>0.6</v>
       </c>
       <c r="K52" s="113" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="L52" s="114">
         <v>0.93</v>
       </c>
       <c r="M52" s="115" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="53" spans="8:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D53" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H53" s="112">
         <v>0.1</v>
       </c>
       <c r="I53" s="113" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J53" s="114">
         <v>0.65</v>
       </c>
       <c r="K53" s="113" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="L53" s="114">
         <v>0.94</v>
       </c>
       <c r="M53" s="115" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="54" spans="8:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D54" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H54" s="112">
         <v>0.11</v>
       </c>
       <c r="I54" s="113" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J54" s="114">
         <v>0.7</v>
       </c>
       <c r="K54" s="113" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="L54" s="114">
         <v>0.95</v>
       </c>
       <c r="M54" s="115" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="55" spans="8:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D55" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H55" s="112">
         <v>0.12</v>
       </c>
       <c r="I55" s="113" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J55" s="114">
         <v>0.75</v>
       </c>
       <c r="K55" s="113" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="L55" s="114">
         <v>0.96</v>
       </c>
       <c r="M55" s="115" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="56" spans="8:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="56" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D56" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H56" s="112">
         <v>0.13</v>
       </c>
       <c r="I56" s="113" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J56" s="114">
         <v>0.8</v>
       </c>
       <c r="K56" s="113" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="L56" s="114">
         <v>0.97</v>
       </c>
       <c r="M56" s="115" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="57" spans="8:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="57" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D57" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H57" s="112">
         <v>0.14000000000000001</v>
       </c>
       <c r="I57" s="113" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J57" s="114"/>
       <c r="K57" s="113"/>
@@ -23821,17 +24058,21 @@
         <v>0.98</v>
       </c>
       <c r="M57" s="115" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="58" spans="8:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="58" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D58" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H58" s="116">
         <v>0.15</v>
       </c>
       <c r="I58" s="117" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J58" s="118"/>
       <c r="K58" s="97"/>
@@ -23839,33 +24080,58 @@
         <v>0.99</v>
       </c>
       <c r="M58" s="120" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="59" spans="8:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="8:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="59" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D59" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="60" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D60" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H60" s="121" t="s">
         <v>148</v>
       </c>
       <c r="I60" s="122"/>
     </row>
-    <row r="61" spans="8:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D61" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H61" s="123" t="s">
         <v>149</v>
       </c>
       <c r="I61" s="124"/>
     </row>
-    <row r="62" spans="8:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D62" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H62" s="125"/>
     </row>
-    <row r="63" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D63" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H63" s="121" t="s">
         <v>150</v>
       </c>
       <c r="I63" s="126"/>
     </row>
-    <row r="64" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D64" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H64" s="127" t="s">
         <v>151</v>
       </c>
@@ -23874,13 +24140,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D65" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H65" s="123" t="s">
         <v>152</v>
       </c>
       <c r="I65" s="129">
         <f>I63*(1+I61)</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D66" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="67" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D67" t="e">
+        <f t="shared" ref="D67:D68" si="10">C67/C68-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="68" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D68" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/x_template.xlsx
+++ b/x_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0F5B55-E8DC-4678-B802-5538B9BF89AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A58470C-6505-4403-9DD0-B1C079B7B481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3225" yWindow="945" windowWidth="14940" windowHeight="13455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,16 @@
     <sheet name="DoR" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$25</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$26</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$25:$X$25</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$26:$X$26</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$2:$X$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$6</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$7</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$2:$X$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$6:$X$6</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$7:$X$7</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$6</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$7</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$2:$X$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$6:$X$6</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$7:$X$7</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$25</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$26</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$25:$X$25</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$26:$X$26</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$2:$X$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4558,41 +4558,40 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Model!$L$2:$V$2</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Model!$N$2:$V$2</c:f>
+              <c:f>Model!$L$2:$V$2</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>Q121</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q221</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Q321</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>Q421</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>Q122</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>Q222</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>Q322</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>Q422</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Q123</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Q223</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>Q323</c:v>
                 </c:pt>
               </c:strCache>
@@ -4600,17 +4599,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Model!$L$30:$V$30</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Model!$N$30:$V$30</c:f>
+              <c:f>Model!$L$30:$V$30</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4638,6 +4630,12 @@
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4645,6 +4643,302 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-35FE-4BEB-944F-3D772460C6A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Model!$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R&amp;D / REV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Model!$L$31:$W$31</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1CAA-4791-8C2B-1B9112E1C867}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Model!$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>G&amp;A / REV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Model!$L$32:$W$32</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1CAA-4791-8C2B-1B9112E1C867}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4853,6 +5147,745 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Cost / REV</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.7122703412073491E-2"/>
+          <c:y val="0.12459829594160773"/>
+          <c:w val="0.87232174103237092"/>
+          <c:h val="0.70470173386291823"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Model!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sales &amp; Marketing / REV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Model!$C$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>FY19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FY20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FY21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FY22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FY23</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Model!$C$30:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E79C-46D7-BBD0-0EABFCB1E143}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Model!$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R&amp;D / REV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Model!$C$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>FY19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FY20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FY21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FY22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FY23</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Model!$C$31:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E79C-46D7-BBD0-0EABFCB1E143}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Model!$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>G&amp;A / REV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Model!$C$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>FY19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FY20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FY21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FY22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FY23</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Model!$C$32:$G$32</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E79C-46D7-BBD0-0EABFCB1E143}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="612211264"/>
+        <c:axId val="675465584"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="612211264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="675465584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="675465584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="612211264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5154,7 +6187,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5501,18 +6534,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5556,7 +6589,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5576,7 +6609,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5607,18 +6640,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5662,7 +6695,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5682,7 +6715,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5709,6 +6742,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6584,6 +7657,514 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -10199,7 +11780,7 @@
 </file>
 
 <file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -10210,7 +11791,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -10233,7 +11814,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -10256,7 +11837,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -10264,11 +11845,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -10293,14 +11874,14 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -10315,7 +11896,7 @@
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -10332,7 +11913,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -10347,8 +11928,10 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -10361,7 +11944,7 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -10371,13 +11954,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -10396,16 +11979,18 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -10476,6 +12061,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -10507,8 +12098,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -10563,7 +12154,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
   <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -10591,30 +12182,22 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -10630,7 +12213,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -10646,7 +12229,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -10660,7 +12243,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -10693,7 +12276,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -10702,6 +12285,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -10860,16 +12449,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10898,14 +12487,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>100013</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -10941,7 +12530,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="819150" y="5762625"/>
+              <a:off x="819150" y="8963025"/>
               <a:ext cx="5876925" cy="3290888"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -10976,14 +12565,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>100013</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -11019,7 +12608,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6734175" y="5762625"/>
+              <a:off x="6734175" y="8963025"/>
               <a:ext cx="5876925" cy="3290888"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -11048,6 +12637,44 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95AB5FA5-CC68-4269-BD2C-424BEF61D26A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -11404,8 +13031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11656,7 +13283,7 @@
         <v>77</v>
       </c>
       <c r="C18" s="55" t="e">
-        <f>C14/C16</f>
+        <f>C14/(C16*100)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L18" s="137"/>
@@ -11668,7 +13295,7 @@
         <v>78</v>
       </c>
       <c r="C19" s="55" t="e">
-        <f>C15/C17</f>
+        <f>C15/(C17*100)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L19" s="137"/>
@@ -11692,7 +13319,7 @@
         <v>103</v>
       </c>
       <c r="C21" s="6" t="e">
-        <f>Model!H4/Model!G4-1</f>
+        <f>Model!G5/Model!F4-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L21" s="137"/>
@@ -11961,7 +13588,7 @@
   <dimension ref="A1:Y87"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="I36" sqref="I36"/>
@@ -14446,7 +16073,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="X38" sqref="X38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/x_template.xlsx
+++ b/x_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D65DF11-52B6-4798-B708-2ABE27C95C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813F20EA-E460-4FC8-8BBF-E35EC9176504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,16 @@
     <sheet name="DoR" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$6</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$7</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$2:$X$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$6:$X$6</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$7:$X$7</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$25</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$26</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$25:$X$25</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$26:$X$26</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$2:$X$2</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$25</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$26</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$25:$X$25</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$26:$X$26</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$2:$X$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$6</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$7</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$2:$X$2</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$6:$X$6</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$7:$X$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -6546,18 +6546,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6601,7 +6601,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6621,7 +6621,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6652,18 +6652,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6707,7 +6707,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6727,7 +6727,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -13599,11 +13599,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
   <dimension ref="A1:Y87"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I36" sqref="I36"/>
+      <selection pane="bottomRight" activeCell="AB66" sqref="AB66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16028,35 +16028,84 @@
       <c r="B66" t="s">
         <v>93</v>
       </c>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
+      <c r="C66" s="10">
+        <f t="shared" ref="C66:E66" si="89">C54-C65</f>
+        <v>0</v>
+      </c>
+      <c r="D66" s="10">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="E66" s="10">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="F66" s="10">
+        <f>F54-F65</f>
+        <v>0</v>
+      </c>
+      <c r="G66" s="15">
+        <f>G54-G65</f>
+        <v>0</v>
+      </c>
+      <c r="L66" s="10">
+        <f t="shared" ref="L66:W66" si="90">L54-L65</f>
+        <v>0</v>
+      </c>
+      <c r="M66" s="10">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="N66" s="10">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="O66" s="10">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="P66" s="10">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="10">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="R66" s="10">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="S66" s="10">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="T66" s="10">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="U66" s="10">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="V66" s="10">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="W66" s="15">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C68" s="59" t="e">
-        <f>-C17/(C64+C55)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D68" s="59" t="e">
-        <f>-D17/(D64+D55)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E68" s="59" t="e">
-        <f>-E17/(E64+E55)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F68" s="59" t="e">
-        <f>-F17/(F64+F55)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G68" s="60" t="e">
-        <f>-G17/(G64+G55)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="C68" s="59"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="59"/>
+      <c r="F68" s="59"/>
+      <c r="G68" s="60"/>
       <c r="W68" s="16"/>
     </row>
     <row r="86" spans="7:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -16084,7 +16133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48E03BE-2423-4BDB-9A98-002F9CED8953}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>

--- a/x_template.xlsx
+++ b/x_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813F20EA-E460-4FC8-8BBF-E35EC9176504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC38C05F-856E-4752-88F3-29C741C3ACB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1350" yWindow="180" windowWidth="14550" windowHeight="15300" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -13599,7 +13599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
   <dimension ref="A1:Y87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -24506,13 +24506,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366AC5E7-7FF6-4287-9F23-7D3A6FE15A5F}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
     <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>

--- a/x_template.xlsx
+++ b/x_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC38C05F-856E-4752-88F3-29C741C3ACB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A59902-05C7-4AA6-AF43-6DE56CB3A427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="180" windowWidth="14550" windowHeight="15300" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -318,7 +318,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="166">
   <si>
     <t>Price</t>
   </si>
@@ -813,6 +813,9 @@
   </si>
   <si>
     <t>G&amp;A</t>
+  </si>
+  <si>
+    <t>Net Income before Tax</t>
   </si>
 </sst>
 </file>
@@ -13599,11 +13602,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
   <dimension ref="A1:Y87"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AB66" sqref="AB66"/>
+      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14196,7 +14199,7 @@
     </row>
     <row r="20" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="C20" s="11">
         <f>C16+SUM(C17:C19)</f>
@@ -24506,7 +24509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366AC5E7-7FF6-4287-9F23-7D3A6FE15A5F}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>

--- a/x_template.xlsx
+++ b/x_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A59902-05C7-4AA6-AF43-6DE56CB3A427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDCA572-9B5A-44BC-A720-A8C2E362E3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,16 +21,16 @@
     <sheet name="DoR" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$25</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$26</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$25:$X$25</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$26:$X$26</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$2:$X$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$6</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$7</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$2:$X$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$6:$X$6</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$7:$X$7</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$6</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$7</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$2:$X$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$6:$X$6</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$7:$X$7</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$25</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$26</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$25:$X$25</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$26:$X$26</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$2:$X$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2058,6 +2058,45 @@
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6549,18 +6588,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6604,7 +6643,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6624,7 +6663,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6655,18 +6694,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6710,7 +6749,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6730,7 +6769,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -13603,10 +13642,10 @@
   <dimension ref="A1:Y87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13731,19 +13770,62 @@
       </c>
       <c r="H6" s="44"/>
       <c r="I6" s="44"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="11"/>
+      <c r="L6" s="11">
+        <f>SUM(L3:L5)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="11">
+        <f t="shared" ref="M6:Y6" si="0">SUM(M3:M5)</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
@@ -13858,83 +13940,83 @@
         <v>0</v>
       </c>
       <c r="D11" s="11">
-        <f t="shared" ref="D11:I11" si="0">SUM(D8:D10)</f>
+        <f t="shared" ref="D11:I11" si="1">SUM(D8:D10)</f>
         <v>0</v>
       </c>
       <c r="E11" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F11" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G11" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H11" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L11" s="11">
-        <f t="shared" ref="L11" si="1">SUM(L8:L10)</f>
+        <f t="shared" ref="L11" si="2">SUM(L8:L10)</f>
         <v>0</v>
       </c>
       <c r="M11" s="11">
-        <f t="shared" ref="M11" si="2">SUM(M8:M10)</f>
+        <f t="shared" ref="M11" si="3">SUM(M8:M10)</f>
         <v>0</v>
       </c>
       <c r="N11" s="11">
-        <f t="shared" ref="N11" si="3">SUM(N8:N10)</f>
+        <f t="shared" ref="N11" si="4">SUM(N8:N10)</f>
         <v>0</v>
       </c>
       <c r="O11" s="11">
-        <f t="shared" ref="O11" si="4">SUM(O8:O10)</f>
+        <f t="shared" ref="O11" si="5">SUM(O8:O10)</f>
         <v>0</v>
       </c>
       <c r="P11" s="11">
-        <f t="shared" ref="P11" si="5">SUM(P8:P10)</f>
+        <f t="shared" ref="P11" si="6">SUM(P8:P10)</f>
         <v>0</v>
       </c>
       <c r="Q11" s="11">
-        <f t="shared" ref="Q11" si="6">SUM(Q8:Q10)</f>
+        <f t="shared" ref="Q11" si="7">SUM(Q8:Q10)</f>
         <v>0</v>
       </c>
       <c r="R11" s="11">
-        <f t="shared" ref="R11" si="7">SUM(R8:R10)</f>
+        <f t="shared" ref="R11" si="8">SUM(R8:R10)</f>
         <v>0</v>
       </c>
       <c r="S11" s="11">
-        <f t="shared" ref="S11" si="8">SUM(S8:S10)</f>
+        <f t="shared" ref="S11" si="9">SUM(S8:S10)</f>
         <v>0</v>
       </c>
       <c r="T11" s="11">
-        <f t="shared" ref="T11" si="9">SUM(T8:T10)</f>
+        <f t="shared" ref="T11" si="10">SUM(T8:T10)</f>
         <v>0</v>
       </c>
       <c r="U11" s="11">
-        <f t="shared" ref="U11" si="10">SUM(U8:U10)</f>
+        <f t="shared" ref="U11" si="11">SUM(U8:U10)</f>
         <v>0</v>
       </c>
       <c r="V11" s="11">
-        <f t="shared" ref="V11" si="11">SUM(V8:V10)</f>
+        <f t="shared" ref="V11" si="12">SUM(V8:V10)</f>
         <v>0</v>
       </c>
       <c r="W11" s="14">
-        <f t="shared" ref="W11" si="12">SUM(W8:W10)</f>
+        <f t="shared" ref="W11" si="13">SUM(W8:W10)</f>
         <v>0</v>
       </c>
       <c r="X11" s="11">
-        <f t="shared" ref="X11" si="13">SUM(X8:X10)</f>
+        <f t="shared" ref="X11" si="14">SUM(X8:X10)</f>
         <v>0</v>
       </c>
       <c r="Y11" s="11">
-        <f t="shared" ref="Y11" si="14">SUM(Y8:Y10)</f>
+        <f t="shared" ref="Y11" si="15">SUM(Y8:Y10)</f>
         <v>0</v>
       </c>
     </row>
@@ -14043,85 +14125,85 @@
         <v>0</v>
       </c>
       <c r="D16" s="11">
-        <f t="shared" ref="D16:I16" si="15">D6-SUM(D11:D15)</f>
+        <f t="shared" ref="D16:I16" si="16">D6-SUM(D11:D15)</f>
         <v>0</v>
       </c>
       <c r="E16" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F16" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G16" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H16" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I16" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="11">
-        <f t="shared" ref="L16" si="16">L6-SUM(L11:L15)</f>
+        <f t="shared" ref="L16" si="17">L6-SUM(L11:L15)</f>
         <v>0</v>
       </c>
       <c r="M16" s="11">
-        <f t="shared" ref="M16" si="17">M6-SUM(M11:M15)</f>
+        <f t="shared" ref="M16" si="18">M6-SUM(M11:M15)</f>
         <v>0</v>
       </c>
       <c r="N16" s="11">
-        <f t="shared" ref="N16" si="18">N6-SUM(N11:N15)</f>
+        <f t="shared" ref="N16" si="19">N6-SUM(N11:N15)</f>
         <v>0</v>
       </c>
       <c r="O16" s="11">
-        <f t="shared" ref="O16" si="19">O6-SUM(O11:O15)</f>
+        <f t="shared" ref="O16" si="20">O6-SUM(O11:O15)</f>
         <v>0</v>
       </c>
       <c r="P16" s="11">
-        <f t="shared" ref="P16" si="20">P6-SUM(P11:P15)</f>
+        <f t="shared" ref="P16" si="21">P6-SUM(P11:P15)</f>
         <v>0</v>
       </c>
       <c r="Q16" s="11">
-        <f t="shared" ref="Q16" si="21">Q6-SUM(Q11:Q15)</f>
+        <f t="shared" ref="Q16" si="22">Q6-SUM(Q11:Q15)</f>
         <v>0</v>
       </c>
       <c r="R16" s="11">
-        <f t="shared" ref="R16" si="22">R6-SUM(R11:R15)</f>
+        <f t="shared" ref="R16" si="23">R6-SUM(R11:R15)</f>
         <v>0</v>
       </c>
       <c r="S16" s="11">
-        <f t="shared" ref="S16" si="23">S6-SUM(S11:S15)</f>
+        <f t="shared" ref="S16" si="24">S6-SUM(S11:S15)</f>
         <v>0</v>
       </c>
       <c r="T16" s="11">
-        <f t="shared" ref="T16" si="24">T6-SUM(T11:T15)</f>
+        <f t="shared" ref="T16" si="25">T6-SUM(T11:T15)</f>
         <v>0</v>
       </c>
       <c r="U16" s="11">
-        <f t="shared" ref="U16" si="25">U6-SUM(U11:U15)</f>
+        <f t="shared" ref="U16" si="26">U6-SUM(U11:U15)</f>
         <v>0</v>
       </c>
       <c r="V16" s="11">
-        <f t="shared" ref="V16" si="26">V6-SUM(V11:V15)</f>
+        <f t="shared" ref="V16" si="27">V6-SUM(V11:V15)</f>
         <v>0</v>
       </c>
       <c r="W16" s="14">
-        <f t="shared" ref="W16" si="27">W6-SUM(W11:W15)</f>
+        <f t="shared" ref="W16" si="28">W6-SUM(W11:W15)</f>
         <v>0</v>
       </c>
       <c r="X16" s="11">
-        <f t="shared" ref="X16" si="28">X6-SUM(X11:X15)</f>
+        <f t="shared" ref="X16" si="29">X6-SUM(X11:X15)</f>
         <v>0</v>
       </c>
       <c r="Y16" s="11">
-        <f t="shared" ref="Y16" si="29">Y6-SUM(Y11:Y15)</f>
+        <f t="shared" ref="Y16" si="30">Y6-SUM(Y11:Y15)</f>
         <v>0</v>
       </c>
     </row>
@@ -14210,79 +14292,79 @@
         <v>0</v>
       </c>
       <c r="E20" s="11">
-        <f t="shared" ref="E20:I20" si="30">E16+SUM(E17:E19)</f>
+        <f t="shared" ref="E20:I20" si="31">E16+SUM(E17:E19)</f>
         <v>0</v>
       </c>
       <c r="F20" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="G20" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H20" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="I20" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="L20" s="11">
-        <f t="shared" ref="L20" si="31">L16+SUM(L17:L19)</f>
+        <f t="shared" ref="L20" si="32">L16+SUM(L17:L19)</f>
         <v>0</v>
       </c>
       <c r="M20" s="11">
-        <f t="shared" ref="M20" si="32">M16+SUM(M17:M19)</f>
+        <f t="shared" ref="M20" si="33">M16+SUM(M17:M19)</f>
         <v>0</v>
       </c>
       <c r="N20" s="11">
-        <f t="shared" ref="N20" si="33">N16+SUM(N17:N19)</f>
+        <f t="shared" ref="N20" si="34">N16+SUM(N17:N19)</f>
         <v>0</v>
       </c>
       <c r="O20" s="11">
-        <f t="shared" ref="O20" si="34">O16+SUM(O17:O19)</f>
+        <f t="shared" ref="O20" si="35">O16+SUM(O17:O19)</f>
         <v>0</v>
       </c>
       <c r="P20" s="11">
-        <f t="shared" ref="P20" si="35">P16+SUM(P17:P19)</f>
+        <f t="shared" ref="P20" si="36">P16+SUM(P17:P19)</f>
         <v>0</v>
       </c>
       <c r="Q20" s="11">
-        <f t="shared" ref="Q20" si="36">Q16+SUM(Q17:Q19)</f>
+        <f t="shared" ref="Q20" si="37">Q16+SUM(Q17:Q19)</f>
         <v>0</v>
       </c>
       <c r="R20" s="11">
-        <f t="shared" ref="R20" si="37">R16+SUM(R17:R19)</f>
+        <f t="shared" ref="R20" si="38">R16+SUM(R17:R19)</f>
         <v>0</v>
       </c>
       <c r="S20" s="11">
-        <f t="shared" ref="S20" si="38">S16+SUM(S17:S19)</f>
+        <f t="shared" ref="S20" si="39">S16+SUM(S17:S19)</f>
         <v>0</v>
       </c>
       <c r="T20" s="11">
-        <f t="shared" ref="T20" si="39">T16+SUM(T17:T19)</f>
+        <f t="shared" ref="T20" si="40">T16+SUM(T17:T19)</f>
         <v>0</v>
       </c>
       <c r="U20" s="11">
-        <f t="shared" ref="U20" si="40">U16+SUM(U17:U19)</f>
+        <f t="shared" ref="U20" si="41">U16+SUM(U17:U19)</f>
         <v>0</v>
       </c>
       <c r="V20" s="11">
-        <f t="shared" ref="V20" si="41">V16+SUM(V17:V19)</f>
+        <f t="shared" ref="V20" si="42">V16+SUM(V17:V19)</f>
         <v>0</v>
       </c>
       <c r="W20" s="14">
-        <f t="shared" ref="W20" si="42">W16+SUM(W17:W19)</f>
+        <f t="shared" ref="W20" si="43">W16+SUM(W17:W19)</f>
         <v>0</v>
       </c>
       <c r="X20" s="11">
-        <f t="shared" ref="X20" si="43">X16+SUM(X17:X19)</f>
+        <f t="shared" ref="X20" si="44">X16+SUM(X17:X19)</f>
         <v>0</v>
       </c>
       <c r="Y20" s="11">
-        <f t="shared" ref="Y20" si="44">Y16+SUM(Y17:Y19)</f>
+        <f t="shared" ref="Y20" si="45">Y16+SUM(Y17:Y19)</f>
         <v>0</v>
       </c>
     </row>
@@ -14343,77 +14425,77 @@
         <v>0</v>
       </c>
       <c r="D23" s="11">
-        <f t="shared" ref="D23:G23" si="45">D20-SUM(D21:D22)</f>
+        <f t="shared" ref="D23:G23" si="46">D20-SUM(D21:D22)</f>
         <v>0</v>
       </c>
       <c r="E23" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="F23" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="G23" s="14">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="H23" s="65"/>
       <c r="I23" s="65"/>
       <c r="L23" s="11">
-        <f t="shared" ref="L23" si="46">L20-SUM(L21:L22)</f>
+        <f t="shared" ref="L23" si="47">L20-SUM(L21:L22)</f>
         <v>0</v>
       </c>
       <c r="M23" s="11">
-        <f t="shared" ref="M23" si="47">M20-SUM(M21:M22)</f>
+        <f t="shared" ref="M23" si="48">M20-SUM(M21:M22)</f>
         <v>0</v>
       </c>
       <c r="N23" s="11">
-        <f t="shared" ref="N23" si="48">N20-SUM(N21:N22)</f>
+        <f t="shared" ref="N23" si="49">N20-SUM(N21:N22)</f>
         <v>0</v>
       </c>
       <c r="O23" s="11">
-        <f t="shared" ref="O23" si="49">O20-SUM(O21:O22)</f>
+        <f t="shared" ref="O23" si="50">O20-SUM(O21:O22)</f>
         <v>0</v>
       </c>
       <c r="P23" s="11">
-        <f t="shared" ref="P23" si="50">P20-SUM(P21:P22)</f>
+        <f t="shared" ref="P23" si="51">P20-SUM(P21:P22)</f>
         <v>0</v>
       </c>
       <c r="Q23" s="11">
-        <f t="shared" ref="Q23" si="51">Q20-SUM(Q21:Q22)</f>
+        <f t="shared" ref="Q23" si="52">Q20-SUM(Q21:Q22)</f>
         <v>0</v>
       </c>
       <c r="R23" s="11">
-        <f t="shared" ref="R23" si="52">R20-SUM(R21:R22)</f>
+        <f t="shared" ref="R23" si="53">R20-SUM(R21:R22)</f>
         <v>0</v>
       </c>
       <c r="S23" s="11">
-        <f t="shared" ref="S23" si="53">S20-SUM(S21:S22)</f>
+        <f t="shared" ref="S23" si="54">S20-SUM(S21:S22)</f>
         <v>0</v>
       </c>
       <c r="T23" s="11">
-        <f t="shared" ref="T23" si="54">T20-SUM(T21:T22)</f>
+        <f t="shared" ref="T23" si="55">T20-SUM(T21:T22)</f>
         <v>0</v>
       </c>
       <c r="U23" s="11">
-        <f t="shared" ref="U23" si="55">U20-SUM(U21:U22)</f>
+        <f t="shared" ref="U23" si="56">U20-SUM(U21:U22)</f>
         <v>0</v>
       </c>
       <c r="V23" s="11">
-        <f t="shared" ref="V23" si="56">V20-SUM(V21:V22)</f>
+        <f t="shared" ref="V23" si="57">V20-SUM(V21:V22)</f>
         <v>0</v>
       </c>
       <c r="W23" s="14">
-        <f t="shared" ref="W23" si="57">W20-SUM(W21:W22)</f>
+        <f t="shared" ref="W23" si="58">W20-SUM(W21:W22)</f>
         <v>0</v>
       </c>
       <c r="X23" s="11">
-        <f t="shared" ref="X23" si="58">X20-SUM(X21:X22)</f>
+        <f t="shared" ref="X23" si="59">X20-SUM(X21:X22)</f>
         <v>0</v>
       </c>
       <c r="Y23" s="11">
-        <f t="shared" ref="Y23" si="59">Y20-SUM(Y21:Y22)</f>
+        <f t="shared" ref="Y23" si="60">Y20-SUM(Y21:Y22)</f>
         <v>0</v>
       </c>
     </row>
@@ -14469,20 +14551,62 @@
       </c>
       <c r="H25" s="62"/>
       <c r="I25" s="63"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="50"/>
-      <c r="X25" s="51"/>
-      <c r="Y25" s="51"/>
+      <c r="L25" s="2" t="e">
+        <f>L23/L24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M25" s="2" t="e">
+        <f t="shared" ref="M25:Y25" si="61">M23/M24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N25" s="2" t="e">
+        <f t="shared" si="61"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O25" s="2" t="e">
+        <f t="shared" si="61"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P25" s="2" t="e">
+        <f t="shared" si="61"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q25" s="2" t="e">
+        <f t="shared" si="61"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R25" s="2" t="e">
+        <f t="shared" si="61"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S25" s="2" t="e">
+        <f t="shared" si="61"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T25" s="2" t="e">
+        <f t="shared" si="61"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U25" s="2" t="e">
+        <f t="shared" si="61"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V25" s="2" t="e">
+        <f t="shared" si="61"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W25" s="2" t="e">
+        <f t="shared" si="61"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X25" s="2" t="e">
+        <f t="shared" si="61"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y25" s="2" t="e">
+        <f t="shared" si="61"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="26" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
@@ -14537,51 +14661,51 @@
       <c r="H27" s="47"/>
       <c r="I27" s="47"/>
       <c r="L27" s="3" t="e">
-        <f t="shared" ref="L27:W27" si="60">1-L11/L6</f>
+        <f t="shared" ref="L27:W27" si="62">1-L11/L6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M27" s="3" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N27" s="3" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O27" s="3" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P27" s="3" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q27" s="3" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R27" s="3" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S27" s="3" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T27" s="3" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U27" s="3" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V27" s="3" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W27" s="6" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14618,51 +14742,51 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L28" s="4" t="e">
-        <f t="shared" ref="L28:W28" si="61">L23/L6</f>
+        <f t="shared" ref="L28:W28" si="63">L23/L6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M28" s="4" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N28" s="4" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O28" s="4" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P28" s="4" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q28" s="4" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R28" s="4" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S28" s="4" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T28" s="4" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U28" s="4" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V28" s="4" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W28" s="7" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14700,35 +14824,35 @@
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4" t="e">
-        <f t="shared" ref="P29:W29" si="62">P6/L6-1</f>
+        <f t="shared" ref="P29:W29" si="64">P6/L6-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q29" s="4" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R29" s="4" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S29" s="4" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T29" s="4" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U29" s="4" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V29" s="4" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W29" s="7" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X29" s="37" t="e">
@@ -14767,51 +14891,51 @@
       <c r="H30" s="131"/>
       <c r="I30" s="131"/>
       <c r="L30" s="4" t="e">
-        <f t="shared" ref="L30:W30" si="63">L12/L6</f>
+        <f t="shared" ref="L30:W30" si="65">L12/L6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M30" s="4" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N30" s="4" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O30" s="4" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P30" s="4" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q30" s="4" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R30" s="4" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S30" s="4" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T30" s="4" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U30" s="4" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V30" s="4" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W30" s="7" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X30" s="4"/>
@@ -14821,19 +14945,19 @@
         <v>162</v>
       </c>
       <c r="C31" s="4" t="e">
-        <f t="shared" ref="C31:F31" si="64">C13/C6</f>
+        <f t="shared" ref="C31:F31" si="66">C13/C6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D31" s="4" t="e">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E31" s="4" t="e">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F31" s="4" t="e">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G31" s="7" t="e">
@@ -14843,51 +14967,51 @@
       <c r="H31" s="131"/>
       <c r="I31" s="131"/>
       <c r="L31" s="4" t="e">
-        <f t="shared" ref="L31:W31" si="65">L13/L6</f>
+        <f t="shared" ref="L31:W31" si="67">L13/L6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M31" s="4" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N31" s="4" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O31" s="4" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P31" s="4" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q31" s="4" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R31" s="4" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S31" s="4" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T31" s="4" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U31" s="4" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V31" s="4" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W31" s="7" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X31" s="4"/>
@@ -14919,51 +15043,51 @@
       <c r="H32" s="131"/>
       <c r="I32" s="131"/>
       <c r="L32" s="4" t="e">
-        <f t="shared" ref="L32:W32" si="66">L15/L6</f>
+        <f t="shared" ref="L32:W32" si="68">L15/L6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M32" s="4" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N32" s="4" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O32" s="4" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P32" s="4" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q32" s="4" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R32" s="4" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S32" s="4" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T32" s="4" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U32" s="4" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V32" s="4" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W32" s="7" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X32" s="4"/>
@@ -14975,15 +15099,15 @@
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="e">
-        <f t="shared" ref="E33:G34" si="67">E3/D3-1</f>
+        <f t="shared" ref="E33:G34" si="69">E3/D3-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F33" s="4" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G33" s="7" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H33" s="131"/>
@@ -15009,15 +15133,15 @@
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F34" s="4" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G34" s="7" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H34" s="131"/>
@@ -15070,23 +15194,23 @@
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
       <c r="P35" s="4" t="e">
-        <f t="shared" ref="P35:X35" si="68">P23/L23-1</f>
+        <f t="shared" ref="P35:X35" si="70">P23/L23-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q35" s="4" t="e">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R35" s="4" t="e">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S35" s="4" t="e">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T35" s="4" t="e">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U35" s="4" t="e">
@@ -15094,15 +15218,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="V35" s="4" t="e">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W35" s="7" t="e">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X35" s="4" t="e">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -15161,27 +15285,27 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D37" s="58" t="e">
-        <f t="shared" ref="D37:I37" si="69">-D17/D16</f>
+        <f t="shared" ref="D37:I37" si="71">-D17/D16</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E37" s="58" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F37" s="58" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G37" s="57" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H37" s="56" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I37" s="56" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L37" s="4"/>
@@ -15207,67 +15331,67 @@
         <v>0</v>
       </c>
       <c r="D40" s="11">
-        <f t="shared" ref="D40:G40" si="70">D41+D43-D55-D56-D63</f>
+        <f t="shared" ref="D40:G40" si="72">D41+D43-D55-D56-D63</f>
         <v>0</v>
       </c>
       <c r="E40" s="11">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="F40" s="11">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="G40" s="14">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="L40" s="11">
-        <f t="shared" ref="L40" si="71">L41+L43-L55-L56-L63</f>
+        <f t="shared" ref="L40" si="73">L41+L43-L55-L56-L63</f>
         <v>0</v>
       </c>
       <c r="M40" s="11">
-        <f t="shared" ref="M40" si="72">M41+M43-M55-M56-M63</f>
+        <f t="shared" ref="M40" si="74">M41+M43-M55-M56-M63</f>
         <v>0</v>
       </c>
       <c r="N40" s="11">
-        <f t="shared" ref="N40" si="73">N41+N43-N55-N56-N63</f>
+        <f t="shared" ref="N40" si="75">N41+N43-N55-N56-N63</f>
         <v>0</v>
       </c>
       <c r="O40" s="11">
-        <f t="shared" ref="O40" si="74">O41+O43-O55-O56-O63</f>
+        <f t="shared" ref="O40" si="76">O41+O43-O55-O56-O63</f>
         <v>0</v>
       </c>
       <c r="P40" s="11">
-        <f t="shared" ref="P40" si="75">P41+P43-P55-P56-P63</f>
+        <f t="shared" ref="P40" si="77">P41+P43-P55-P56-P63</f>
         <v>0</v>
       </c>
       <c r="Q40" s="11">
-        <f t="shared" ref="Q40" si="76">Q41+Q43-Q55-Q56-Q63</f>
+        <f t="shared" ref="Q40" si="78">Q41+Q43-Q55-Q56-Q63</f>
         <v>0</v>
       </c>
       <c r="R40" s="11">
-        <f t="shared" ref="R40" si="77">R41+R43-R55-R56-R63</f>
+        <f t="shared" ref="R40" si="79">R41+R43-R55-R56-R63</f>
         <v>0</v>
       </c>
       <c r="S40" s="11">
-        <f t="shared" ref="S40" si="78">S41+S43-S55-S56-S63</f>
+        <f t="shared" ref="S40" si="80">S41+S43-S55-S56-S63</f>
         <v>0</v>
       </c>
       <c r="T40" s="11">
-        <f t="shared" ref="T40" si="79">T41+T43-T55-T56-T63</f>
+        <f t="shared" ref="T40" si="81">T41+T43-T55-T56-T63</f>
         <v>0</v>
       </c>
       <c r="U40" s="11">
-        <f t="shared" ref="U40" si="80">U41+U43-U55-U56-U63</f>
+        <f t="shared" ref="U40" si="82">U41+U43-U55-U56-U63</f>
         <v>0</v>
       </c>
       <c r="V40" s="11">
-        <f t="shared" ref="V40" si="81">V41+V43-V55-V56-V63</f>
+        <f t="shared" ref="V40" si="83">V41+V43-V55-V56-V63</f>
         <v>0</v>
       </c>
       <c r="W40" s="14">
-        <f t="shared" ref="W40" si="82">W41+W43-W55-W56-W63</f>
+        <f t="shared" ref="W40" si="84">W41+W43-W55-W56-W63</f>
         <v>0</v>
       </c>
     </row>
@@ -15408,11 +15532,11 @@
         <v>66</v>
       </c>
       <c r="C47" s="11">
-        <f t="shared" ref="C47:D47" si="83">SUM(C41:C46)</f>
+        <f t="shared" ref="C47:D47" si="85">SUM(C41:C46)</f>
         <v>0</v>
       </c>
       <c r="D47" s="11">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="E47" s="11">
@@ -15420,59 +15544,59 @@
         <v>0</v>
       </c>
       <c r="F47" s="11">
-        <f t="shared" ref="F47:G47" si="84">SUM(F41:F46)</f>
+        <f t="shared" ref="F47:G47" si="86">SUM(F41:F46)</f>
         <v>0</v>
       </c>
       <c r="G47" s="14">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="L47" s="11">
-        <f t="shared" ref="L47:W47" si="85">SUM(L41:L46)</f>
+        <f t="shared" ref="L47:W47" si="87">SUM(L41:L46)</f>
         <v>0</v>
       </c>
       <c r="M47" s="11">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="N47" s="11">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="O47" s="11">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="P47" s="11">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="Q47" s="11">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="R47" s="11">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="S47" s="11">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="T47" s="11">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="U47" s="11">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="V47" s="11">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="W47" s="14">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
     </row>
@@ -15633,51 +15757,51 @@
         <v>0</v>
       </c>
       <c r="L54" s="11">
-        <f t="shared" ref="L54:W54" si="86">SUM(L47:L53)</f>
+        <f t="shared" ref="L54:W54" si="88">SUM(L47:L53)</f>
         <v>0</v>
       </c>
       <c r="M54" s="11">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="N54" s="11">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="O54" s="11">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="P54" s="11">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="Q54" s="11">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="R54" s="11">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="S54" s="11">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="T54" s="11">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="U54" s="11">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="V54" s="11">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="W54" s="14">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
     </row>
@@ -15816,51 +15940,51 @@
         <v>0</v>
       </c>
       <c r="L60" s="11">
-        <f t="shared" ref="L60:W60" si="87">SUM(L55:L59)</f>
+        <f t="shared" ref="L60:W60" si="89">SUM(L55:L59)</f>
         <v>0</v>
       </c>
       <c r="M60" s="11">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="N60" s="11">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="O60" s="11">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="P60" s="11">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="Q60" s="11">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="R60" s="11">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="S60" s="11">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="T60" s="11">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="U60" s="11">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="V60" s="11">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="W60" s="14">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="X60" s="11"/>
@@ -15979,51 +16103,51 @@
         <v>0</v>
       </c>
       <c r="L65" s="11">
-        <f t="shared" ref="L65:W65" si="88">SUM(L60:L64)</f>
+        <f t="shared" ref="L65:W65" si="90">SUM(L60:L64)</f>
         <v>0</v>
       </c>
       <c r="M65" s="11">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="N65" s="11">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="O65" s="11">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="P65" s="11">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="Q65" s="11">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="R65" s="11">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="S65" s="11">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="T65" s="11">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="U65" s="11">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="V65" s="11">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="W65" s="14">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
     </row>
@@ -16032,15 +16156,15 @@
         <v>93</v>
       </c>
       <c r="C66" s="10">
-        <f t="shared" ref="C66:E66" si="89">C54-C65</f>
+        <f t="shared" ref="C66:E66" si="91">C54-C65</f>
         <v>0</v>
       </c>
       <c r="D66" s="10">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="E66" s="10">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="F66" s="10">
@@ -16052,51 +16176,51 @@
         <v>0</v>
       </c>
       <c r="L66" s="10">
-        <f t="shared" ref="L66:W66" si="90">L54-L65</f>
+        <f t="shared" ref="L66:W66" si="92">L54-L65</f>
         <v>0</v>
       </c>
       <c r="M66" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="N66" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="O66" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="P66" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="Q66" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="R66" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="S66" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="T66" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="U66" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="V66" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="W66" s="15">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
     </row>

--- a/x_template.xlsx
+++ b/x_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDCA572-9B5A-44BC-A720-A8C2E362E3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA607FC-6B83-4ADF-8D65-196922ED3CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -23,14 +23,25 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Model!$B$6</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Model!$B$7</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Model!$L$6:$X$6</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Model!$L$7:$AA$7</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Model!$L$7:$X$7</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Model!$B$25</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Model!$B$26</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Model!$L$25:$AA$25</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Model!$L$25:$X$25</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Model!$L$26:$AA$26</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Model!$L$26:$X$26</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Model!$L$2:$AA$2</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Model!$L$2:$X$2</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Model!$L$2:$X$2</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Model!$L$6:$X$6</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Model!$L$7:$X$7</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$25</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$26</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$25:$X$25</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$26:$X$26</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$2:$X$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$6</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$7</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$2:$AA$2</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$2:$X$2</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$6:$AA$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -318,7 +329,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="168">
   <si>
     <t>Price</t>
   </si>
@@ -435,9 +446,6 @@
   </si>
   <si>
     <t>FY19</t>
-  </si>
-  <si>
-    <t>Net Income y/y</t>
   </si>
   <si>
     <t>Q223</t>
@@ -816,6 +824,15 @@
   </si>
   <si>
     <t>Net Income before Tax</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>EPS Growth</t>
   </si>
 </sst>
 </file>
@@ -1564,7 +1581,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1604,7 +1621,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1619,12 +1635,6 @@
     <xf numFmtId="9" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1790,6 +1800,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2007,9 +2023,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$L$2:$X$2</c:f>
+              <c:f>Model!$L$2:$AA$2</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>Q121</c:v>
                 </c:pt>
@@ -2048,6 +2064,15 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Q124</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q224</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q324</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q424</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2204,10 +2229,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$29:$X$29</c:f>
+              <c:f>Model!$L$29:$AA$29</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2233,6 +2258,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3175,7 +3209,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Net Income by Quarter</a:t>
+              <a:t>EPS by Quarter</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3218,11 +3252,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$23</c:f>
+              <c:f>Model!$B$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Net Income</c:v>
+                  <c:v>EPS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3237,46 +3271,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-C0F4-4607-8C78-36F0EE07B767}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="12"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="90000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-C0F4-4607-8C78-36F0EE07B767}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -3334,9 +3328,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$L$2:$X$2</c:f>
+              <c:f>Model!$L$2:$AA$2</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>Q121</c:v>
                 </c:pt>
@@ -3375,16 +3369,25 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Q124</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q224</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q324</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q424</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$23:$X$23</c:f>
+              <c:f>Model!$L$25:$AA$25</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3422,6 +3425,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3454,11 +3466,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$27</c:f>
+              <c:f>Model!$B$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Gross Margin</c:v>
+                  <c:v>EPS Growth</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3531,22 +3543,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$27:$X$27</c:f>
+              <c:f>Model!$L$35:$AA$35</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
+                <c:ptCount val="16"/>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3569,6 +3569,18 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3663,7 +3675,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3870,7 +3882,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Net Income year</a:t>
+              <a:t>EPS by Year</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3913,11 +3925,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$23</c:f>
+              <c:f>Model!$B$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Net Income</c:v>
+                  <c:v>EPS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4016,9 +4028,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$23:$I$23</c:f>
+              <c:f>Model!$C$25:$I$25</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4069,7 +4081,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Net Income y/y</c:v>
+                  <c:v>EPS Growth</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4254,7 +4266,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4612,9 +4624,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$L$2:$V$2</c:f>
+              <c:f>Model!$L$2:$AA$2</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>Q121</c:v>
                 </c:pt>
@@ -4647,16 +4659,31 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Q323</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q423</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q124</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q224</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q324</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q424</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$30:$V$30</c:f>
+              <c:f>Model!$L$30:$AA$30</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4688,6 +4715,21 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4796,12 +4838,68 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Model!$L$2:$AA$2</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Q121</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q221</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q321</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q421</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q122</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q222</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q322</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q422</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q123</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q223</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q323</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q423</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q124</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q224</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q324</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q424</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$31:$W$31</c:f>
+              <c:f>Model!$L$31:$AA$31</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4836,6 +4934,18 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4944,12 +5054,68 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Model!$L$2:$AA$2</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Q121</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q221</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q321</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q421</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q122</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q222</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q322</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q422</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q123</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q223</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q323</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q423</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q124</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q224</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q324</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q424</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$32:$W$32</c:f>
+              <c:f>Model!$L$32:$AA$32</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4984,6 +5150,18 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5383,9 +5561,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$C$2:$G$2</c:f>
+              <c:f>Model!$C$2:$I$2</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>FY19</c:v>
                 </c:pt>
@@ -5400,16 +5578,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>FY23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FY24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FY25</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$30:$G$30</c:f>
+              <c:f>Model!$C$30:$I$30</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5533,9 +5717,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$C$2:$G$2</c:f>
+              <c:f>Model!$C$2:$I$2</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>FY19</c:v>
                 </c:pt>
@@ -5550,16 +5734,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>FY23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FY24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FY25</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$31:$G$31</c:f>
+              <c:f>Model!$C$31:$I$31</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5683,9 +5873,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$C$2:$G$2</c:f>
+              <c:f>Model!$C$2:$I$2</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>FY19</c:v>
                 </c:pt>
@@ -5700,16 +5890,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>FY23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FY24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FY25</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$32:$G$32</c:f>
+              <c:f>Model!$C$32:$I$32</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6588,18 +6784,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.19</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.17</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.19</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.15</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6643,7 +6839,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.14</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6663,7 +6859,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.13</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6694,18 +6890,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6749,7 +6945,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6769,7 +6965,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -13085,8 +13281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N54"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13109,54 +13305,54 @@
       <c r="B2" s="34"/>
       <c r="C2" s="19"/>
       <c r="E2" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="67" t="s">
         <v>53</v>
-      </c>
-      <c r="F2" s="70" t="s">
-        <v>54</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I2" s="26" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M2" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N2" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="20">
-        <v>45368</v>
+        <v>45560</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="28"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="39"/>
+      <c r="J3" s="38"/>
       <c r="L3" s="5"/>
-      <c r="N3" s="38"/>
+      <c r="N3" s="37"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="21">
-        <v>0.94444444444444442</v>
+        <v>0.69166666666666665</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="28"/>
       <c r="I4" s="10"/>
-      <c r="J4" s="39"/>
+      <c r="J4" s="38"/>
       <c r="L4" s="5"/>
       <c r="N4" s="13"/>
     </row>
@@ -13166,7 +13362,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="28"/>
       <c r="I5" s="10"/>
-      <c r="J5" s="39"/>
+      <c r="J5" s="38"/>
       <c r="L5" s="5"/>
       <c r="N5" s="13"/>
     </row>
@@ -13178,7 +13374,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="28"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="39"/>
+      <c r="J6" s="38"/>
       <c r="L6" s="5"/>
       <c r="N6" s="13"/>
     </row>
@@ -13190,7 +13386,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="28"/>
       <c r="I7" s="10"/>
-      <c r="J7" s="39"/>
+      <c r="J7" s="38"/>
       <c r="L7" s="5"/>
       <c r="N7" s="13"/>
     </row>
@@ -13205,7 +13401,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="28"/>
       <c r="I8" s="10"/>
-      <c r="J8" s="39"/>
+      <c r="J8" s="38"/>
       <c r="L8" s="5"/>
       <c r="N8" s="13"/>
     </row>
@@ -13220,7 +13416,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="28"/>
       <c r="I9" s="10"/>
-      <c r="J9" s="39"/>
+      <c r="J9" s="38"/>
       <c r="L9" s="5"/>
       <c r="N9" s="13"/>
     </row>
@@ -13235,13 +13431,13 @@
       <c r="E10" s="5"/>
       <c r="F10" s="28"/>
       <c r="I10" s="10"/>
-      <c r="J10" s="39"/>
+      <c r="J10" s="38"/>
       <c r="L10" s="5"/>
       <c r="N10" s="13"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="15" t="e">
         <f>C9-C10</f>
@@ -13250,7 +13446,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="28"/>
       <c r="I11" s="10"/>
-      <c r="J11" s="39"/>
+      <c r="J11" s="38"/>
       <c r="L11" s="5"/>
       <c r="N11" s="13"/>
     </row>
@@ -13270,7 +13466,7 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="36" t="e">
         <f>C6/Model!#REF!</f>
@@ -13283,7 +13479,7 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="36" t="e">
         <f>C6/Model!G16</f>
@@ -13301,7 +13497,7 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="36" t="e">
         <f>C6/Model!H16</f>
@@ -13310,7 +13506,7 @@
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="6" t="e">
         <f>Model!G16/Model!#REF!-1</f>
@@ -13319,78 +13515,78 @@
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="6" t="e">
         <f>Model!H16/Model!G16-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="L17" s="134"/>
-      <c r="M17" s="135"/>
-      <c r="N17" s="136"/>
+        <v>58</v>
+      </c>
+      <c r="L17" s="131"/>
+      <c r="M17" s="132"/>
+      <c r="N17" s="133"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="55" t="e">
+        <v>76</v>
+      </c>
+      <c r="C18" s="52" t="e">
         <f>C14/(C16*100)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L18" s="137"/>
-      <c r="M18" s="138"/>
-      <c r="N18" s="139"/>
+      <c r="L18" s="134"/>
+      <c r="M18" s="135"/>
+      <c r="N18" s="136"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="55" t="e">
+        <v>77</v>
+      </c>
+      <c r="C19" s="52" t="e">
         <f>C15/(C17*100)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L19" s="137"/>
-      <c r="M19" s="138"/>
-      <c r="N19" s="139"/>
+      <c r="L19" s="134"/>
+      <c r="M19" s="135"/>
+      <c r="N19" s="136"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C20" s="6" t="e">
         <f>Model!G4/Model!F3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L20" s="137"/>
-      <c r="M20" s="138"/>
-      <c r="N20" s="139"/>
+      <c r="L20" s="134"/>
+      <c r="M20" s="135"/>
+      <c r="N20" s="136"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C21" s="6" t="e">
         <f>Model!G5/Model!F4-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L21" s="137"/>
-      <c r="M21" s="138"/>
-      <c r="N21" s="139"/>
+      <c r="L21" s="134"/>
+      <c r="M21" s="135"/>
+      <c r="N21" s="136"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C22" s="15">
         <f>Model!F12+Model!F10</f>
         <v>0</v>
       </c>
-      <c r="L22" s="137"/>
-      <c r="M22" s="138"/>
-      <c r="N22" s="139"/>
+      <c r="L22" s="134"/>
+      <c r="M22" s="135"/>
+      <c r="N22" s="136"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
@@ -13400,9 +13596,9 @@
         <f>Model!F12</f>
         <v>0</v>
       </c>
-      <c r="L23" s="137"/>
-      <c r="M23" s="138"/>
-      <c r="N23" s="139"/>
+      <c r="L23" s="134"/>
+      <c r="M23" s="135"/>
+      <c r="N23" s="136"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
@@ -13412,9 +13608,9 @@
         <f>Model!F17</f>
         <v>0</v>
       </c>
-      <c r="L24" s="137"/>
-      <c r="M24" s="138"/>
-      <c r="N24" s="139"/>
+      <c r="L24" s="134"/>
+      <c r="M24" s="135"/>
+      <c r="N24" s="136"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
@@ -13424,52 +13620,52 @@
         <f>Model!F18</f>
         <v>0</v>
       </c>
-      <c r="L25" s="137"/>
-      <c r="M25" s="138"/>
-      <c r="N25" s="139"/>
+      <c r="L25" s="134"/>
+      <c r="M25" s="135"/>
+      <c r="N25" s="136"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C26" s="36" t="e">
         <f>C12/C23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L26" s="137"/>
-      <c r="M26" s="138"/>
-      <c r="N26" s="139"/>
+      <c r="L26" s="134"/>
+      <c r="M26" s="135"/>
+      <c r="N26" s="136"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27" s="130" t="e">
+        <v>103</v>
+      </c>
+      <c r="C27" s="127" t="e">
         <f>Model!Q45/Model!Q50</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E27" t="s">
-        <v>83</v>
-      </c>
-      <c r="L27" s="137"/>
-      <c r="M27" s="138"/>
-      <c r="N27" s="139"/>
+        <v>82</v>
+      </c>
+      <c r="L27" s="134"/>
+      <c r="M27" s="135"/>
+      <c r="N27" s="136"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C28" s="36" t="e">
         <f>C22/-Model!F10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L28" s="140"/>
-      <c r="M28" s="141"/>
-      <c r="N28" s="142"/>
+      <c r="L28" s="137"/>
+      <c r="M28" s="138"/>
+      <c r="N28" s="139"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C29" s="36" t="e">
         <f>Model!Q34/Model!Q44</f>
@@ -13478,7 +13674,7 @@
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C30" s="36" t="e">
         <f>(Model!Q28+Model!Q29)/Model!Q44</f>
@@ -13487,7 +13683,7 @@
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C31" s="6" t="e">
         <f>(Model!Q34-Model!Q44)/Model!Q40</f>
@@ -13496,7 +13692,7 @@
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C32" s="36" t="e">
         <f>(Model!Q40-Model!Q49)/Main!C7</f>
@@ -13505,7 +13701,7 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C33" s="36" t="e">
         <f>Model!Q3/Model!Q40</f>
@@ -13514,119 +13710,119 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" s="39" t="e">
+        <v>110</v>
+      </c>
+      <c r="C34" s="38" t="e">
         <f>Model!Q14/Model!Q40</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="39" t="e">
+        <v>111</v>
+      </c>
+      <c r="C35" s="38" t="e">
         <f>Model!Q14/Model!Q50</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C36" s="23"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="69"/>
-      <c r="H41" s="69"/>
-      <c r="I41" s="69"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="69"/>
-      <c r="H42" s="69"/>
-      <c r="I42" s="69"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="69"/>
-      <c r="H43" s="69"/>
-      <c r="I43" s="69"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="69"/>
-      <c r="H44" s="69"/>
-      <c r="I44" s="69"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="66"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="69"/>
-      <c r="H45" s="69"/>
-      <c r="I45" s="69"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="66"/>
+      <c r="I45" s="66"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="69"/>
-      <c r="H46" s="69"/>
-      <c r="I46" s="69"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="66"/>
+      <c r="I46" s="66"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="69"/>
-      <c r="H47" s="69"/>
-      <c r="I47" s="69"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="66"/>
+      <c r="H47" s="66"/>
+      <c r="I47" s="66"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="69"/>
-      <c r="H48" s="69"/>
-      <c r="I48" s="69"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="66"/>
+      <c r="H48" s="66"/>
+      <c r="I48" s="66"/>
     </row>
     <row r="49" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="69"/>
-      <c r="H49" s="69"/>
-      <c r="I49" s="69"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="66"/>
+      <c r="I49" s="66"/>
     </row>
     <row r="50" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="69"/>
-      <c r="H50" s="69"/>
-      <c r="I50" s="69"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="66"/>
+      <c r="H50" s="66"/>
+      <c r="I50" s="66"/>
     </row>
     <row r="51" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E51" s="66"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="69"/>
-      <c r="H51" s="69"/>
-      <c r="I51" s="69"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="66"/>
+      <c r="H51" s="66"/>
+      <c r="I51" s="66"/>
     </row>
     <row r="52" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E52" s="67"/>
-      <c r="F52" s="68"/>
-      <c r="G52" s="68"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="65"/>
     </row>
     <row r="53" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E53" s="67"/>
-      <c r="F53" s="68"/>
-      <c r="G53" s="68"/>
+      <c r="E53" s="64"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="65"/>
     </row>
     <row r="54" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E54" s="67"/>
-      <c r="F54" s="68"/>
-      <c r="G54" s="68"/>
+      <c r="E54" s="64"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13639,13 +13835,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
-  <dimension ref="A1:Y87"/>
+  <dimension ref="A1:AA87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
+      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13653,15 +13849,16 @@
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="13"/>
-    <col min="23" max="23" width="11.42578125" style="13"/>
+    <col min="23" max="23" width="11.42578125" style="150"/>
+    <col min="25" max="25" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>38</v>
       </c>
@@ -13681,7 +13878,7 @@
         <v>36</v>
       </c>
       <c r="I2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L2" t="s">
         <v>37</v>
@@ -13711,40 +13908,49 @@
         <v>9</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" s="150" t="s">
         <v>44</v>
       </c>
-      <c r="W2" s="13" t="s">
-        <v>45</v>
-      </c>
       <c r="X2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="Y2" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z2" s="154" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA2" s="154" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="W3"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="W4"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="54"/>
-    </row>
-    <row r="6" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="51"/>
+      <c r="W5"/>
+    </row>
+    <row r="6" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
@@ -13768,14 +13974,14 @@
         <f>SUM(G3:G5)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
       <c r="L6" s="11">
         <f>SUM(L3:L5)</f>
         <v>0</v>
       </c>
       <c r="M6" s="11">
-        <f t="shared" ref="M6:Y6" si="0">SUM(M3:M5)</f>
+        <f t="shared" ref="M6:AA6" si="0">SUM(M3:M5)</f>
         <v>0</v>
       </c>
       <c r="N6" s="11">
@@ -13815,222 +14021,246 @@
         <v>0</v>
       </c>
       <c r="W6" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="W6:AA6" si="1">SUM(W3:W5)</f>
         <v>0</v>
       </c>
       <c r="X6" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y6" s="11">
-        <f t="shared" si="0"/>
+      <c r="Y6" s="14">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z6" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="41"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="153"/>
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="40"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="15"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="41"/>
-      <c r="V8" s="41"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="41"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="153"/>
+      <c r="Z8" s="40"/>
+      <c r="AA8" s="40"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="15"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="41"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="153"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="41"/>
-    </row>
-    <row r="11" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="153"/>
+      <c r="Z10" s="40"/>
+      <c r="AA10" s="40"/>
+    </row>
+    <row r="11" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="11">
         <f>SUM(C8:C10)</f>
         <v>0</v>
       </c>
       <c r="D11" s="11">
-        <f t="shared" ref="D11:I11" si="1">SUM(D8:D10)</f>
+        <f t="shared" ref="D11:I11" si="2">SUM(D8:D10)</f>
         <v>0</v>
       </c>
       <c r="E11" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F11" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G11" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H11" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I11" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L11" s="11">
-        <f t="shared" ref="L11" si="2">SUM(L8:L10)</f>
+        <f t="shared" ref="L11" si="3">SUM(L8:L10)</f>
         <v>0</v>
       </c>
       <c r="M11" s="11">
-        <f t="shared" ref="M11" si="3">SUM(M8:M10)</f>
+        <f t="shared" ref="M11" si="4">SUM(M8:M10)</f>
         <v>0</v>
       </c>
       <c r="N11" s="11">
-        <f t="shared" ref="N11" si="4">SUM(N8:N10)</f>
+        <f t="shared" ref="N11" si="5">SUM(N8:N10)</f>
         <v>0</v>
       </c>
       <c r="O11" s="11">
-        <f t="shared" ref="O11" si="5">SUM(O8:O10)</f>
+        <f t="shared" ref="O11" si="6">SUM(O8:O10)</f>
         <v>0</v>
       </c>
       <c r="P11" s="11">
-        <f t="shared" ref="P11" si="6">SUM(P8:P10)</f>
+        <f t="shared" ref="P11" si="7">SUM(P8:P10)</f>
         <v>0</v>
       </c>
       <c r="Q11" s="11">
-        <f t="shared" ref="Q11" si="7">SUM(Q8:Q10)</f>
+        <f t="shared" ref="Q11" si="8">SUM(Q8:Q10)</f>
         <v>0</v>
       </c>
       <c r="R11" s="11">
-        <f t="shared" ref="R11" si="8">SUM(R8:R10)</f>
+        <f t="shared" ref="R11" si="9">SUM(R8:R10)</f>
         <v>0</v>
       </c>
       <c r="S11" s="11">
-        <f t="shared" ref="S11" si="9">SUM(S8:S10)</f>
+        <f t="shared" ref="S11" si="10">SUM(S8:S10)</f>
         <v>0</v>
       </c>
       <c r="T11" s="11">
-        <f t="shared" ref="T11" si="10">SUM(T8:T10)</f>
+        <f t="shared" ref="T11" si="11">SUM(T8:T10)</f>
         <v>0</v>
       </c>
       <c r="U11" s="11">
-        <f t="shared" ref="U11" si="11">SUM(U8:U10)</f>
+        <f t="shared" ref="U11" si="12">SUM(U8:U10)</f>
         <v>0</v>
       </c>
       <c r="V11" s="11">
-        <f t="shared" ref="V11" si="12">SUM(V8:V10)</f>
+        <f t="shared" ref="V11:AA11" si="13">SUM(V8:V10)</f>
         <v>0</v>
       </c>
-      <c r="W11" s="14">
-        <f t="shared" ref="W11" si="13">SUM(W8:W10)</f>
+      <c r="W11" s="11">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X11" s="11">
-        <f t="shared" ref="X11" si="14">SUM(X8:X10)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="11">
-        <f t="shared" ref="Y11" si="15">SUM(Y8:Y10)</f>
+      <c r="Y11" s="14">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z11" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="15"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
@@ -14042,19 +14272,23 @@
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
       <c r="V12" s="10"/>
-      <c r="W12" s="15"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
@@ -14066,9 +14300,13 @@
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
       <c r="V13" s="10"/>
-      <c r="W13" s="15"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>24</v>
       </c>
@@ -14090,19 +14328,23 @@
       <c r="T14" s="10"/>
       <c r="U14" s="10"/>
       <c r="V14" s="10"/>
-      <c r="W14" s="15"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="15"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
@@ -14114,9 +14356,13 @@
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
-      <c r="W15" s="15"/>
-    </row>
-    <row r="16" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+    </row>
+    <row r="16" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
@@ -14125,99 +14371,107 @@
         <v>0</v>
       </c>
       <c r="D16" s="11">
-        <f t="shared" ref="D16:I16" si="16">D6-SUM(D11:D15)</f>
+        <f t="shared" ref="D16:I16" si="14">D6-SUM(D11:D15)</f>
         <v>0</v>
       </c>
       <c r="E16" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F16" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G16" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H16" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I16" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="11">
-        <f t="shared" ref="L16" si="17">L6-SUM(L11:L15)</f>
+        <f t="shared" ref="L16" si="15">L6-SUM(L11:L15)</f>
         <v>0</v>
       </c>
       <c r="M16" s="11">
-        <f t="shared" ref="M16" si="18">M6-SUM(M11:M15)</f>
+        <f t="shared" ref="M16" si="16">M6-SUM(M11:M15)</f>
         <v>0</v>
       </c>
       <c r="N16" s="11">
-        <f t="shared" ref="N16" si="19">N6-SUM(N11:N15)</f>
+        <f t="shared" ref="N16" si="17">N6-SUM(N11:N15)</f>
         <v>0</v>
       </c>
       <c r="O16" s="11">
-        <f t="shared" ref="O16" si="20">O6-SUM(O11:O15)</f>
+        <f t="shared" ref="O16" si="18">O6-SUM(O11:O15)</f>
         <v>0</v>
       </c>
       <c r="P16" s="11">
-        <f t="shared" ref="P16" si="21">P6-SUM(P11:P15)</f>
+        <f t="shared" ref="P16" si="19">P6-SUM(P11:P15)</f>
         <v>0</v>
       </c>
       <c r="Q16" s="11">
-        <f t="shared" ref="Q16" si="22">Q6-SUM(Q11:Q15)</f>
+        <f t="shared" ref="Q16" si="20">Q6-SUM(Q11:Q15)</f>
         <v>0</v>
       </c>
       <c r="R16" s="11">
-        <f t="shared" ref="R16" si="23">R6-SUM(R11:R15)</f>
+        <f t="shared" ref="R16" si="21">R6-SUM(R11:R15)</f>
         <v>0</v>
       </c>
       <c r="S16" s="11">
-        <f t="shared" ref="S16" si="24">S6-SUM(S11:S15)</f>
+        <f t="shared" ref="S16" si="22">S6-SUM(S11:S15)</f>
         <v>0</v>
       </c>
       <c r="T16" s="11">
-        <f t="shared" ref="T16" si="25">T6-SUM(T11:T15)</f>
+        <f t="shared" ref="T16" si="23">T6-SUM(T11:T15)</f>
         <v>0</v>
       </c>
       <c r="U16" s="11">
-        <f t="shared" ref="U16" si="26">U6-SUM(U11:U15)</f>
+        <f t="shared" ref="U16" si="24">U6-SUM(U11:U15)</f>
         <v>0</v>
       </c>
       <c r="V16" s="11">
-        <f t="shared" ref="V16" si="27">V6-SUM(V11:V15)</f>
+        <f t="shared" ref="V16:AA16" si="25">V6-SUM(V11:V15)</f>
         <v>0</v>
       </c>
-      <c r="W16" s="14">
-        <f t="shared" ref="W16" si="28">W6-SUM(W11:W15)</f>
+      <c r="W16" s="11">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="X16" s="11">
-        <f t="shared" ref="X16" si="29">X6-SUM(X11:X15)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="11">
-        <f t="shared" ref="Y16" si="30">Y6-SUM(Y11:Y15)</f>
+      <c r="Y16" s="14">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Z16" s="11">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="11">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="15"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
@@ -14229,19 +14483,23 @@
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
-      <c r="W17" s="15"/>
-    </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="15"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
@@ -14253,9 +14511,13 @@
       <c r="T18" s="10"/>
       <c r="U18" s="10"/>
       <c r="V18" s="10"/>
-      <c r="W18" s="15"/>
-    </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>27</v>
       </c>
@@ -14264,8 +14526,8 @@
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="15"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
@@ -14277,11 +14539,15 @@
       <c r="T19" s="10"/>
       <c r="U19" s="10"/>
       <c r="V19" s="10"/>
-      <c r="W19" s="15"/>
-    </row>
-    <row r="20" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+    </row>
+    <row r="20" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C20" s="11">
         <f>C16+SUM(C17:C19)</f>
@@ -14292,83 +14558,91 @@
         <v>0</v>
       </c>
       <c r="E20" s="11">
-        <f t="shared" ref="E20:I20" si="31">E16+SUM(E17:E19)</f>
+        <f t="shared" ref="E20:I20" si="26">E16+SUM(E17:E19)</f>
         <v>0</v>
       </c>
       <c r="F20" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G20" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H20" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I20" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L20" s="11">
-        <f t="shared" ref="L20" si="32">L16+SUM(L17:L19)</f>
+        <f t="shared" ref="L20" si="27">L16+SUM(L17:L19)</f>
         <v>0</v>
       </c>
       <c r="M20" s="11">
-        <f t="shared" ref="M20" si="33">M16+SUM(M17:M19)</f>
+        <f t="shared" ref="M20" si="28">M16+SUM(M17:M19)</f>
         <v>0</v>
       </c>
       <c r="N20" s="11">
-        <f t="shared" ref="N20" si="34">N16+SUM(N17:N19)</f>
+        <f t="shared" ref="N20" si="29">N16+SUM(N17:N19)</f>
         <v>0</v>
       </c>
       <c r="O20" s="11">
-        <f t="shared" ref="O20" si="35">O16+SUM(O17:O19)</f>
+        <f t="shared" ref="O20" si="30">O16+SUM(O17:O19)</f>
         <v>0</v>
       </c>
       <c r="P20" s="11">
-        <f t="shared" ref="P20" si="36">P16+SUM(P17:P19)</f>
+        <f t="shared" ref="P20" si="31">P16+SUM(P17:P19)</f>
         <v>0</v>
       </c>
       <c r="Q20" s="11">
-        <f t="shared" ref="Q20" si="37">Q16+SUM(Q17:Q19)</f>
+        <f t="shared" ref="Q20" si="32">Q16+SUM(Q17:Q19)</f>
         <v>0</v>
       </c>
       <c r="R20" s="11">
-        <f t="shared" ref="R20" si="38">R16+SUM(R17:R19)</f>
+        <f t="shared" ref="R20" si="33">R16+SUM(R17:R19)</f>
         <v>0</v>
       </c>
       <c r="S20" s="11">
-        <f t="shared" ref="S20" si="39">S16+SUM(S17:S19)</f>
+        <f t="shared" ref="S20" si="34">S16+SUM(S17:S19)</f>
         <v>0</v>
       </c>
       <c r="T20" s="11">
-        <f t="shared" ref="T20" si="40">T16+SUM(T17:T19)</f>
+        <f t="shared" ref="T20" si="35">T16+SUM(T17:T19)</f>
         <v>0</v>
       </c>
       <c r="U20" s="11">
-        <f t="shared" ref="U20" si="41">U16+SUM(U17:U19)</f>
+        <f t="shared" ref="U20" si="36">U16+SUM(U17:U19)</f>
         <v>0</v>
       </c>
       <c r="V20" s="11">
-        <f t="shared" ref="V20" si="42">V16+SUM(V17:V19)</f>
+        <f t="shared" ref="V20:AA20" si="37">V16+SUM(V17:V19)</f>
         <v>0</v>
       </c>
-      <c r="W20" s="14">
-        <f t="shared" ref="W20" si="43">W16+SUM(W17:W19)</f>
+      <c r="W20" s="11">
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="X20" s="11">
-        <f t="shared" ref="X20" si="44">X16+SUM(X17:X19)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="Y20" s="11">
-        <f t="shared" ref="Y20" si="45">Y16+SUM(Y17:Y19)</f>
+      <c r="Y20" s="14">
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Z20" s="11">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="11">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>20</v>
       </c>
@@ -14377,8 +14651,8 @@
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="15"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
@@ -14390,19 +14664,23 @@
       <c r="T21" s="10"/>
       <c r="U21" s="10"/>
       <c r="V21" s="10"/>
-      <c r="W21" s="15"/>
-    </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="15"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
@@ -14414,9 +14692,13 @@
       <c r="T22" s="10"/>
       <c r="U22" s="10"/>
       <c r="V22" s="10"/>
-      <c r="W22" s="15"/>
-    </row>
-    <row r="23" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+    </row>
+    <row r="23" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
@@ -14425,81 +14707,89 @@
         <v>0</v>
       </c>
       <c r="D23" s="11">
-        <f t="shared" ref="D23:G23" si="46">D20-SUM(D21:D22)</f>
+        <f t="shared" ref="D23:G23" si="38">D20-SUM(D21:D22)</f>
         <v>0</v>
       </c>
       <c r="E23" s="11">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="F23" s="11">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G23" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
       <c r="L23" s="11">
-        <f t="shared" ref="L23" si="47">L20-SUM(L21:L22)</f>
+        <f t="shared" ref="L23" si="39">L20-SUM(L21:L22)</f>
         <v>0</v>
       </c>
       <c r="M23" s="11">
-        <f t="shared" ref="M23" si="48">M20-SUM(M21:M22)</f>
+        <f t="shared" ref="M23" si="40">M20-SUM(M21:M22)</f>
         <v>0</v>
       </c>
       <c r="N23" s="11">
-        <f t="shared" ref="N23" si="49">N20-SUM(N21:N22)</f>
+        <f t="shared" ref="N23" si="41">N20-SUM(N21:N22)</f>
         <v>0</v>
       </c>
       <c r="O23" s="11">
-        <f t="shared" ref="O23" si="50">O20-SUM(O21:O22)</f>
+        <f t="shared" ref="O23" si="42">O20-SUM(O21:O22)</f>
         <v>0</v>
       </c>
       <c r="P23" s="11">
-        <f t="shared" ref="P23" si="51">P20-SUM(P21:P22)</f>
+        <f t="shared" ref="P23" si="43">P20-SUM(P21:P22)</f>
         <v>0</v>
       </c>
       <c r="Q23" s="11">
-        <f t="shared" ref="Q23" si="52">Q20-SUM(Q21:Q22)</f>
+        <f t="shared" ref="Q23" si="44">Q20-SUM(Q21:Q22)</f>
         <v>0</v>
       </c>
       <c r="R23" s="11">
-        <f t="shared" ref="R23" si="53">R20-SUM(R21:R22)</f>
+        <f t="shared" ref="R23" si="45">R20-SUM(R21:R22)</f>
         <v>0</v>
       </c>
       <c r="S23" s="11">
-        <f t="shared" ref="S23" si="54">S20-SUM(S21:S22)</f>
+        <f t="shared" ref="S23" si="46">S20-SUM(S21:S22)</f>
         <v>0</v>
       </c>
       <c r="T23" s="11">
-        <f t="shared" ref="T23" si="55">T20-SUM(T21:T22)</f>
+        <f t="shared" ref="T23" si="47">T20-SUM(T21:T22)</f>
         <v>0</v>
       </c>
       <c r="U23" s="11">
-        <f t="shared" ref="U23" si="56">U20-SUM(U21:U22)</f>
+        <f t="shared" ref="U23" si="48">U20-SUM(U21:U22)</f>
         <v>0</v>
       </c>
       <c r="V23" s="11">
-        <f t="shared" ref="V23" si="57">V20-SUM(V21:V22)</f>
+        <f t="shared" ref="V23:AA23" si="49">V20-SUM(V21:V22)</f>
         <v>0</v>
       </c>
-      <c r="W23" s="14">
-        <f t="shared" ref="W23" si="58">W20-SUM(W21:W22)</f>
+      <c r="W23" s="11">
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="X23" s="11">
-        <f t="shared" ref="X23" si="59">X20-SUM(X21:X22)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="Y23" s="11">
-        <f t="shared" ref="Y23" si="60">Y20-SUM(Y21:Y22)</f>
+      <c r="Y23" s="14">
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Z23" s="11">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="11">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>1</v>
       </c>
@@ -14508,8 +14798,8 @@
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="15"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
@@ -14521,11 +14811,13 @@
       <c r="T24" s="10"/>
       <c r="U24" s="10"/>
       <c r="V24" s="10"/>
-      <c r="W24" s="15"/>
+      <c r="W24" s="10"/>
       <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
-    </row>
-    <row r="25" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+    </row>
+    <row r="25" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
@@ -14545,96 +14837,106 @@
         <f>F23/F24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="61" t="e">
+      <c r="G25" s="58" t="e">
         <f>G23/G24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="62"/>
-      <c r="I25" s="63"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="60"/>
       <c r="L25" s="2" t="e">
         <f>L23/L24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M25" s="2" t="e">
-        <f t="shared" ref="M25:Y25" si="61">M23/M24</f>
+        <f t="shared" ref="M25:Y25" si="50">M23/M24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N25" s="2" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O25" s="2" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P25" s="2" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q25" s="2" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R25" s="2" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S25" s="2" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T25" s="2" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U25" s="2" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V25" s="2" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W25" s="2" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" ref="W25:AA25" si="51">W23/W24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="X25" s="2" t="e">
-        <f t="shared" si="61"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y25" s="2" t="e">
-        <f t="shared" si="61"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y25" s="35" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z25" s="2" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA25" s="2" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="35"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="46"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="52"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="52"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="50"/>
-      <c r="X26" s="51"/>
-      <c r="Y26" s="51"/>
-    </row>
-    <row r="27" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="44"/>
+      <c r="I26" s="45"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="49"/>
+      <c r="W26" s="49"/>
+      <c r="X26" s="49"/>
+      <c r="Y26" s="155"/>
+      <c r="Z26" s="49"/>
+      <c r="AA26" s="49"/>
+    </row>
+    <row r="27" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>33</v>
       </c>
@@ -14658,58 +14960,74 @@
         <f>1-G11/G6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
       <c r="L27" s="3" t="e">
-        <f t="shared" ref="L27:W27" si="62">1-L11/L6</f>
+        <f t="shared" ref="L27:W27" si="52">1-L11/L6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M27" s="3" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N27" s="3" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O27" s="3" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P27" s="3" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q27" s="3" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R27" s="3" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S27" s="3" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T27" s="3" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U27" s="3" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V27" s="3" t="e">
-        <f t="shared" si="62"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W27" s="6" t="e">
-        <f t="shared" si="62"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W27" s="3" t="e">
+        <f t="shared" ref="W27:AA27" si="53">1-W11/W6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X27" s="3" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y27" s="6" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z27" s="3" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA27" s="3" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>34</v>
       </c>
@@ -14733,64 +15051,80 @@
         <f>G23/G6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="48" t="e">
+      <c r="H28" s="47" t="e">
         <f>H23/H7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="48" t="e">
+      <c r="I28" s="47" t="e">
         <f>I23/I7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L28" s="4" t="e">
-        <f t="shared" ref="L28:W28" si="63">L23/L6</f>
+        <f t="shared" ref="L28:W28" si="54">L23/L6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M28" s="4" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N28" s="4" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O28" s="4" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P28" s="4" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q28" s="4" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R28" s="4" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S28" s="4" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T28" s="4" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U28" s="4" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V28" s="4" t="e">
-        <f t="shared" si="63"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W28" s="7" t="e">
-        <f t="shared" si="63"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W28" s="4" t="e">
+        <f t="shared" ref="W28:AA28" si="55">W23/W6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X28" s="4" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y28" s="7" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z28" s="4" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA28" s="4" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>35</v>
       </c>
@@ -14803,7 +15137,7 @@
         <f>E6/D6-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F29" s="40" t="e">
+      <c r="F29" s="39" t="e">
         <f>F6/E6-1</f>
         <v>#DIV/0!</v>
       </c>
@@ -14811,11 +15145,11 @@
         <f>G6/F6-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="49" t="e">
+      <c r="H29" s="48" t="e">
         <f>H7/G6-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="49" t="e">
+      <c r="I29" s="48" t="e">
         <f>I7/H7-1</f>
         <v>#DIV/0!</v>
       </c>
@@ -14824,49 +15158,57 @@
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4" t="e">
-        <f t="shared" ref="P29:W29" si="64">P6/L6-1</f>
+        <f t="shared" ref="P29:W29" si="56">P6/L6-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q29" s="4" t="e">
-        <f t="shared" si="64"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R29" s="4" t="e">
-        <f t="shared" si="64"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S29" s="4" t="e">
-        <f t="shared" si="64"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T29" s="4" t="e">
-        <f t="shared" si="64"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U29" s="4" t="e">
-        <f t="shared" si="64"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V29" s="4" t="e">
-        <f t="shared" si="64"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W29" s="7" t="e">
-        <f t="shared" si="64"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X29" s="37" t="e">
-        <f>X7/T6-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y29" s="37" t="e">
-        <f>Y7/U6-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W29" s="4" t="e">
+        <f t="shared" ref="W29" si="57">W6/S6-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X29" s="4" t="e">
+        <f t="shared" ref="X29" si="58">X6/T6-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y29" s="7" t="e">
+        <f t="shared" ref="Y29" si="59">Y6/U6-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z29" s="4" t="e">
+        <f t="shared" ref="Z29" si="60">Z6/V6-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA29" s="4" t="e">
+        <f t="shared" ref="AA29" si="61">AA6/W6-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C30" s="4" t="e">
         <f>C12/C6</f>
@@ -14888,137 +15230,167 @@
         <f>G12/G6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="131"/>
-      <c r="I30" s="131"/>
+      <c r="H30" s="128"/>
+      <c r="I30" s="128"/>
       <c r="L30" s="4" t="e">
-        <f t="shared" ref="L30:W30" si="65">L12/L6</f>
+        <f t="shared" ref="L30:W30" si="62">L12/L6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M30" s="4" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N30" s="4" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O30" s="4" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P30" s="4" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q30" s="4" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R30" s="4" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S30" s="4" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T30" s="4" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U30" s="4" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V30" s="4" t="e">
-        <f t="shared" si="65"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W30" s="7" t="e">
-        <f t="shared" si="65"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X30" s="4"/>
-    </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
+        <f t="shared" si="62"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W30" s="4" t="e">
+        <f t="shared" ref="W30:AA30" si="63">W12/W6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X30" s="4" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y30" s="7" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z30" s="4" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA30" s="4" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C31" s="4" t="e">
-        <f t="shared" ref="C31:F31" si="66">C13/C6</f>
+        <f t="shared" ref="C31:F31" si="64">C13/C6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D31" s="4" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E31" s="4" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F31" s="4" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G31" s="7" t="e">
         <f>G13/G6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="131"/>
-      <c r="I31" s="131"/>
+      <c r="H31" s="128"/>
+      <c r="I31" s="128"/>
       <c r="L31" s="4" t="e">
-        <f t="shared" ref="L31:W31" si="67">L13/L6</f>
+        <f t="shared" ref="L31:W31" si="65">L13/L6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M31" s="4" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N31" s="4" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O31" s="4" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P31" s="4" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q31" s="4" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R31" s="4" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S31" s="4" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T31" s="4" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U31" s="4" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V31" s="4" t="e">
-        <f t="shared" si="67"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W31" s="7" t="e">
-        <f t="shared" si="67"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X31" s="4"/>
-    </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
+        <f t="shared" si="65"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W31" s="4" t="e">
+        <f t="shared" ref="W31:AA31" si="66">W13/W6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X31" s="4" t="e">
+        <f t="shared" si="66"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y31" s="7" t="e">
+        <f t="shared" si="66"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z31" s="4" t="e">
+        <f t="shared" si="66"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA31" s="4" t="e">
+        <f t="shared" si="66"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C32" s="4" t="e">
         <f>C15/C6</f>
@@ -15040,61 +15412,76 @@
         <f>G15/G6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="131"/>
-      <c r="I32" s="131"/>
+      <c r="H32" s="128"/>
+      <c r="I32" s="128"/>
       <c r="L32" s="4" t="e">
-        <f t="shared" ref="L32:W32" si="68">L15/L6</f>
+        <f t="shared" ref="L32:W32" si="67">L15/L6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M32" s="4" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N32" s="4" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O32" s="4" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P32" s="4" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q32" s="4" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R32" s="4" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S32" s="4" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T32" s="4" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U32" s="4" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V32" s="4" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W32" s="4" t="e">
+        <f t="shared" ref="W32:AA32" si="68">W15/W6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X32" s="4" t="e">
         <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N32" s="4" t="e">
+      <c r="Y32" s="7" t="e">
         <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O32" s="4" t="e">
+      <c r="Z32" s="4" t="e">
         <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P32" s="4" t="e">
+      <c r="AA32" s="4" t="e">
         <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q32" s="4" t="e">
-        <f t="shared" si="68"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R32" s="4" t="e">
-        <f t="shared" si="68"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S32" s="4" t="e">
-        <f t="shared" si="68"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T32" s="4" t="e">
-        <f t="shared" si="68"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U32" s="4" t="e">
-        <f t="shared" si="68"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V32" s="4" t="e">
-        <f t="shared" si="68"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W32" s="7" t="e">
-        <f t="shared" si="68"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X32" s="4"/>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -15110,8 +15497,8 @@
         <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="131"/>
-      <c r="I33" s="131"/>
+      <c r="H33" s="128"/>
+      <c r="I33" s="128"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
@@ -15123,12 +15510,15 @@
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
-      <c r="W33" s="7"/>
+      <c r="W33" s="4"/>
       <c r="X33" s="4"/>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -15144,8 +15534,8 @@
         <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="131"/>
-      <c r="I34" s="131"/>
+      <c r="H34" s="128"/>
+      <c r="I34" s="128"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
@@ -15157,12 +15547,15 @@
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
-      <c r="W34" s="7"/>
+      <c r="W34" s="4"/>
       <c r="X34" s="4"/>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="4"/>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3" t="e">
@@ -15173,7 +15566,7 @@
         <f>-(E23/D23-1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F35" s="40" t="e">
+      <c r="F35" s="39" t="e">
         <f>F23/E23-1</f>
         <v>#DIV/0!</v>
       </c>
@@ -15181,11 +15574,11 @@
         <f>G23/F23-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="64" t="e">
+      <c r="H35" s="61" t="e">
         <f>H25/G25-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I35" s="64" t="e">
+      <c r="I35" s="61" t="e">
         <f>I25/H25-1</f>
         <v>#DIV/0!</v>
       </c>
@@ -15221,44 +15614,56 @@
         <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W35" s="7" t="e">
-        <f t="shared" si="70"/>
+      <c r="W35" s="4" t="e">
+        <f t="shared" ref="W35" si="71">W23/S23-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="X35" s="4" t="e">
-        <f t="shared" si="70"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
+        <f t="shared" ref="X35" si="72">X23/T23-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y35" s="7" t="e">
+        <f t="shared" ref="Y35" si="73">Y23/U23-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z35" s="4" t="e">
+        <f t="shared" ref="Z35" si="74">Z23/V23-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA35" s="4" t="e">
+        <f t="shared" ref="AA35" si="75">AA23/W23-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>96</v>
-      </c>
-      <c r="C36" s="56" t="e">
+        <v>95</v>
+      </c>
+      <c r="C36" s="53" t="e">
         <f>C17/C6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D36" s="56" t="e">
+      <c r="D36" s="53" t="e">
         <f>D17/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E36" s="56" t="e">
+      <c r="E36" s="53" t="e">
         <f>E17/E6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F36" s="56" t="e">
+      <c r="F36" s="53" t="e">
         <f>F17/F6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G36" s="57" t="e">
+      <c r="G36" s="54" t="e">
         <f>G17/G6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H36" s="56" t="e">
+      <c r="H36" s="53" t="e">
         <f>H17/H7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I36" s="56" t="e">
+      <c r="I36" s="53" t="e">
         <f>I17/I7</f>
         <v>#DIV/0!</v>
       </c>
@@ -15273,39 +15678,42 @@
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
-      <c r="W36" s="7"/>
+      <c r="W36" s="4"/>
       <c r="X36" s="4"/>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" s="58" t="e">
+        <v>96</v>
+      </c>
+      <c r="C37" s="55" t="e">
         <f>-C17/C16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D37" s="58" t="e">
-        <f t="shared" ref="D37:I37" si="71">-D17/D16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E37" s="58" t="e">
-        <f t="shared" si="71"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F37" s="58" t="e">
-        <f t="shared" si="71"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G37" s="57" t="e">
-        <f t="shared" si="71"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H37" s="56" t="e">
-        <f t="shared" si="71"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I37" s="56" t="e">
-        <f t="shared" si="71"/>
+      <c r="D37" s="55" t="e">
+        <f t="shared" ref="D37:I37" si="76">-D17/D16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E37" s="55" t="e">
+        <f t="shared" si="76"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F37" s="55" t="e">
+        <f t="shared" si="76"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G37" s="54" t="e">
+        <f t="shared" si="76"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H37" s="53" t="e">
+        <f t="shared" si="76"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I37" s="53" t="e">
+        <f t="shared" si="76"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L37" s="4"/>
@@ -15319,83 +15727,116 @@
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
-      <c r="W37" s="7"/>
+      <c r="W37" s="4"/>
       <c r="X37" s="4"/>
-    </row>
-    <row r="40" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="4"/>
+    </row>
+    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="W38"/>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="W39"/>
+    </row>
+    <row r="40" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40" s="11">
-        <f>C41+C43-C55-C56-C63</f>
+        <f t="shared" ref="C40" si="77">C41+C42-C64-C55</f>
         <v>0</v>
       </c>
       <c r="D40" s="11">
-        <f t="shared" ref="D40:G40" si="72">D41+D43-D55-D56-D63</f>
+        <f t="shared" ref="D40" si="78">D41+D42-D64-D55</f>
         <v>0</v>
       </c>
       <c r="E40" s="11">
-        <f t="shared" si="72"/>
+        <f t="shared" ref="E40" si="79">E41+E42-E64-E55</f>
         <v>0</v>
       </c>
       <c r="F40" s="11">
-        <f t="shared" si="72"/>
+        <f t="shared" ref="F40" si="80">F41+F42-F64-F55</f>
         <v>0</v>
       </c>
       <c r="G40" s="14">
-        <f t="shared" si="72"/>
+        <f t="shared" ref="G40" si="81">G41+G42-G64-G55</f>
         <v>0</v>
       </c>
+      <c r="H40" s="11">
+        <f t="shared" ref="H40" si="82">H41+H42-H64-H55</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="11">
+        <f t="shared" ref="I40" si="83">I41+I42-I64-I55</f>
+        <v>0</v>
+      </c>
       <c r="L40" s="11">
-        <f t="shared" ref="L40" si="73">L41+L43-L55-L56-L63</f>
+        <f>L41+L42-L64-L55</f>
         <v>0</v>
       </c>
       <c r="M40" s="11">
-        <f t="shared" ref="M40" si="74">M41+M43-M55-M56-M63</f>
+        <f t="shared" ref="M40:AA40" si="84">M41+M42-M64-M55</f>
         <v>0</v>
       </c>
       <c r="N40" s="11">
-        <f t="shared" ref="N40" si="75">N41+N43-N55-N56-N63</f>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="O40" s="11">
-        <f t="shared" ref="O40" si="76">O41+O43-O55-O56-O63</f>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="P40" s="11">
-        <f t="shared" ref="P40" si="77">P41+P43-P55-P56-P63</f>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="Q40" s="11">
-        <f t="shared" ref="Q40" si="78">Q41+Q43-Q55-Q56-Q63</f>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="R40" s="11">
-        <f t="shared" ref="R40" si="79">R41+R43-R55-R56-R63</f>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="S40" s="11">
-        <f t="shared" ref="S40" si="80">S41+S43-S55-S56-S63</f>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="T40" s="11">
-        <f t="shared" ref="T40" si="81">T41+T43-T55-T56-T63</f>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="U40" s="11">
-        <f t="shared" ref="U40" si="82">U41+U43-U55-U56-U63</f>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="V40" s="11">
-        <f t="shared" ref="V40" si="83">V41+V43-V55-V56-V63</f>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
-      <c r="W40" s="14">
-        <f t="shared" ref="W40" si="84">W41+W43-W55-W56-W63</f>
+      <c r="W40" s="11">
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X40" s="11">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="Y40" s="11">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="Z40" s="11">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="AA40" s="11">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>25</v>
       </c>
@@ -15415,11 +15856,15 @@
       <c r="T41" s="10"/>
       <c r="U41" s="10"/>
       <c r="V41" s="10"/>
-      <c r="W41" s="15"/>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="15"/>
+      <c r="Z41" s="10"/>
+      <c r="AA41" s="10"/>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
@@ -15437,9 +15882,13 @@
       <c r="T42" s="10"/>
       <c r="U42" s="10"/>
       <c r="V42" s="10"/>
-      <c r="W42" s="15"/>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="15"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>26</v>
       </c>
@@ -15459,11 +15908,15 @@
       <c r="T43" s="10"/>
       <c r="U43" s="10"/>
       <c r="V43" s="10"/>
-      <c r="W43" s="15"/>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="15"/>
+      <c r="Z43" s="10"/>
+      <c r="AA43" s="10"/>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
@@ -15481,11 +15934,15 @@
       <c r="T44" s="10"/>
       <c r="U44" s="10"/>
       <c r="V44" s="10"/>
-      <c r="W44" s="15"/>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W44" s="10"/>
+      <c r="X44" s="10"/>
+      <c r="Y44" s="15"/>
+      <c r="Z44" s="10"/>
+      <c r="AA44" s="10"/>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -15503,11 +15960,15 @@
       <c r="T45" s="10"/>
       <c r="U45" s="10"/>
       <c r="V45" s="10"/>
-      <c r="W45" s="15"/>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
+      <c r="Y45" s="15"/>
+      <c r="Z45" s="10"/>
+      <c r="AA45" s="10"/>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -15525,11 +15986,15 @@
       <c r="T46" s="10"/>
       <c r="U46" s="10"/>
       <c r="V46" s="10"/>
-      <c r="W46" s="15"/>
-    </row>
-    <row r="47" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
+      <c r="Y46" s="15"/>
+      <c r="Z46" s="10"/>
+      <c r="AA46" s="10"/>
+    </row>
+    <row r="47" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C47" s="11">
         <f t="shared" ref="C47:D47" si="85">SUM(C41:C46)</f>
@@ -15595,14 +16060,30 @@
         <f t="shared" si="87"/>
         <v>0</v>
       </c>
-      <c r="W47" s="14">
-        <f t="shared" si="87"/>
+      <c r="W47" s="11">
+        <f t="shared" ref="W47:AA47" si="88">SUM(W41:W46)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X47" s="11">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="Y47" s="14">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="Z47" s="11">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="AA47" s="11">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
@@ -15620,11 +16101,15 @@
       <c r="T48" s="10"/>
       <c r="U48" s="10"/>
       <c r="V48" s="10"/>
-      <c r="W48" s="15"/>
-    </row>
-    <row r="49" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="15"/>
+      <c r="Z48" s="10"/>
+      <c r="AA48" s="10"/>
+    </row>
+    <row r="49" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
@@ -15642,11 +16127,15 @@
       <c r="T49" s="10"/>
       <c r="U49" s="10"/>
       <c r="V49" s="10"/>
-      <c r="W49" s="15"/>
-    </row>
-    <row r="50" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="W49" s="10"/>
+      <c r="X49" s="10"/>
+      <c r="Y49" s="15"/>
+      <c r="Z49" s="10"/>
+      <c r="AA49" s="10"/>
+    </row>
+    <row r="50" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
@@ -15664,11 +16153,15 @@
       <c r="T50" s="10"/>
       <c r="U50" s="10"/>
       <c r="V50" s="10"/>
-      <c r="W50" s="15"/>
-    </row>
-    <row r="51" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="W50" s="10"/>
+      <c r="X50" s="10"/>
+      <c r="Y50" s="15"/>
+      <c r="Z50" s="10"/>
+      <c r="AA50" s="10"/>
+    </row>
+    <row r="51" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
@@ -15686,9 +16179,13 @@
       <c r="T51" s="10"/>
       <c r="U51" s="10"/>
       <c r="V51" s="10"/>
-      <c r="W51" s="15"/>
-    </row>
-    <row r="52" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W51" s="10"/>
+      <c r="X51" s="10"/>
+      <c r="Y51" s="15"/>
+      <c r="Z51" s="10"/>
+      <c r="AA51" s="10"/>
+    </row>
+    <row r="52" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>28</v>
       </c>
@@ -15708,11 +16205,15 @@
       <c r="T52" s="10"/>
       <c r="U52" s="10"/>
       <c r="V52" s="10"/>
-      <c r="W52" s="15"/>
-    </row>
-    <row r="53" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W52" s="10"/>
+      <c r="X52" s="10"/>
+      <c r="Y52" s="15"/>
+      <c r="Z52" s="10"/>
+      <c r="AA52" s="10"/>
+    </row>
+    <row r="53" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
@@ -15730,9 +16231,13 @@
       <c r="T53" s="10"/>
       <c r="U53" s="10"/>
       <c r="V53" s="10"/>
-      <c r="W53" s="15"/>
-    </row>
-    <row r="54" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="W53" s="10"/>
+      <c r="X53" s="10"/>
+      <c r="Y53" s="15"/>
+      <c r="Z53" s="10"/>
+      <c r="AA53" s="10"/>
+    </row>
+    <row r="54" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>30</v>
       </c>
@@ -15757,57 +16262,73 @@
         <v>0</v>
       </c>
       <c r="L54" s="11">
-        <f t="shared" ref="L54:W54" si="88">SUM(L47:L53)</f>
+        <f t="shared" ref="L54:W54" si="89">SUM(L47:L53)</f>
         <v>0</v>
       </c>
       <c r="M54" s="11">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="N54" s="11">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="O54" s="11">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="P54" s="11">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="Q54" s="11">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="R54" s="11">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="S54" s="11">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="T54" s="11">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="U54" s="11">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="V54" s="11">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
-      <c r="W54" s="14">
-        <f t="shared" si="88"/>
+      <c r="W54" s="11">
+        <f t="shared" ref="W54:AA54" si="90">SUM(W47:W53)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="X54" s="11">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="Y54" s="14">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="Z54" s="11">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AA54" s="11">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
@@ -15825,9 +16346,13 @@
       <c r="T55" s="10"/>
       <c r="U55" s="10"/>
       <c r="V55" s="10"/>
-      <c r="W55" s="15"/>
-    </row>
-    <row r="56" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="W55" s="10"/>
+      <c r="X55" s="10"/>
+      <c r="Y55" s="15"/>
+      <c r="Z55" s="10"/>
+      <c r="AA55" s="10"/>
+    </row>
+    <row r="56" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>32</v>
       </c>
@@ -15847,11 +16372,15 @@
       <c r="T56" s="10"/>
       <c r="U56" s="10"/>
       <c r="V56" s="10"/>
-      <c r="W56" s="15"/>
-    </row>
-    <row r="57" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="W56" s="10"/>
+      <c r="X56" s="10"/>
+      <c r="Y56" s="15"/>
+      <c r="Z56" s="10"/>
+      <c r="AA56" s="10"/>
+    </row>
+    <row r="57" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -15869,9 +16398,13 @@
       <c r="T57" s="10"/>
       <c r="U57" s="10"/>
       <c r="V57" s="10"/>
-      <c r="W57" s="15"/>
-    </row>
-    <row r="58" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="W57" s="10"/>
+      <c r="X57" s="10"/>
+      <c r="Y57" s="15"/>
+      <c r="Z57" s="10"/>
+      <c r="AA57" s="10"/>
+    </row>
+    <row r="58" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>20</v>
       </c>
@@ -15891,11 +16424,15 @@
       <c r="T58" s="10"/>
       <c r="U58" s="10"/>
       <c r="V58" s="10"/>
-      <c r="W58" s="15"/>
-    </row>
-    <row r="59" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="W58" s="10"/>
+      <c r="X58" s="10"/>
+      <c r="Y58" s="15"/>
+      <c r="Z58" s="10"/>
+      <c r="AA58" s="10"/>
+    </row>
+    <row r="59" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
@@ -15913,11 +16450,15 @@
       <c r="T59" s="10"/>
       <c r="U59" s="10"/>
       <c r="V59" s="10"/>
-      <c r="W59" s="15"/>
-    </row>
-    <row r="60" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W59" s="10"/>
+      <c r="X59" s="10"/>
+      <c r="Y59" s="15"/>
+      <c r="Z59" s="10"/>
+      <c r="AA59" s="10"/>
+    </row>
+    <row r="60" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C60" s="11">
         <f>SUM(C55:C59)</f>
@@ -15940,59 +16481,73 @@
         <v>0</v>
       </c>
       <c r="L60" s="11">
-        <f t="shared" ref="L60:W60" si="89">SUM(L55:L59)</f>
+        <f t="shared" ref="L60:W60" si="91">SUM(L55:L59)</f>
         <v>0</v>
       </c>
       <c r="M60" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="N60" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="O60" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="P60" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="Q60" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="R60" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="S60" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="T60" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="U60" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="V60" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
-      <c r="W60" s="14">
-        <f t="shared" si="89"/>
+      <c r="W60" s="11">
+        <f t="shared" ref="W60:AA60" si="92">SUM(W55:W59)</f>
         <v>0</v>
       </c>
-      <c r="X60" s="11"/>
-      <c r="Y60" s="11"/>
-    </row>
-    <row r="61" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="X60" s="11">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="Y60" s="14">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="Z60" s="11">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AA60" s="11">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
@@ -16010,11 +16565,15 @@
       <c r="T61" s="10"/>
       <c r="U61" s="10"/>
       <c r="V61" s="10"/>
-      <c r="W61" s="15"/>
-    </row>
-    <row r="62" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="W61" s="10"/>
+      <c r="X61" s="10"/>
+      <c r="Y61" s="15"/>
+      <c r="Z61" s="10"/>
+      <c r="AA61" s="10"/>
+    </row>
+    <row r="62" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
@@ -16032,9 +16591,13 @@
       <c r="T62" s="10"/>
       <c r="U62" s="10"/>
       <c r="V62" s="10"/>
-      <c r="W62" s="15"/>
-    </row>
-    <row r="63" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="W62" s="10"/>
+      <c r="X62" s="10"/>
+      <c r="Y62" s="15"/>
+      <c r="Z62" s="10"/>
+      <c r="AA62" s="10"/>
+    </row>
+    <row r="63" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>29</v>
       </c>
@@ -16054,11 +16617,15 @@
       <c r="T63" s="10"/>
       <c r="U63" s="10"/>
       <c r="V63" s="10"/>
-      <c r="W63" s="15"/>
-    </row>
-    <row r="64" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="W63" s="10"/>
+      <c r="X63" s="10"/>
+      <c r="Y63" s="15"/>
+      <c r="Z63" s="10"/>
+      <c r="AA63" s="10"/>
+    </row>
+    <row r="64" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
@@ -16076,9 +16643,13 @@
       <c r="T64" s="10"/>
       <c r="U64" s="10"/>
       <c r="V64" s="10"/>
-      <c r="W64" s="15"/>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W64" s="10"/>
+      <c r="X64" s="10"/>
+      <c r="Y64" s="15"/>
+      <c r="Z64" s="10"/>
+      <c r="AA64" s="10"/>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>31</v>
       </c>
@@ -16103,68 +16674,84 @@
         <v>0</v>
       </c>
       <c r="L65" s="11">
-        <f t="shared" ref="L65:W65" si="90">SUM(L60:L64)</f>
+        <f t="shared" ref="L65:W65" si="93">SUM(L60:L64)</f>
         <v>0</v>
       </c>
       <c r="M65" s="11">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="N65" s="11">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="O65" s="11">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="P65" s="11">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="Q65" s="11">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="R65" s="11">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="S65" s="11">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="T65" s="11">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="U65" s="11">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="V65" s="11">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
-      <c r="W65" s="14">
-        <f t="shared" si="90"/>
+      <c r="W65" s="11">
+        <f t="shared" ref="W65:AA65" si="94">SUM(W60:W64)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X65" s="11">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="Y65" s="14">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="Z65" s="11">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="AA65" s="11">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C66" s="10">
-        <f t="shared" ref="C66:E66" si="91">C54-C65</f>
+        <f t="shared" ref="C66:E66" si="95">C54-C65</f>
         <v>0</v>
       </c>
       <c r="D66" s="10">
-        <f t="shared" si="91"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="E66" s="10">
-        <f t="shared" si="91"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="F66" s="10">
@@ -16176,72 +16763,91 @@
         <v>0</v>
       </c>
       <c r="L66" s="10">
-        <f t="shared" ref="L66:W66" si="92">L54-L65</f>
+        <f t="shared" ref="L66:W66" si="96">L54-L65</f>
         <v>0</v>
       </c>
       <c r="M66" s="10">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="N66" s="10">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="O66" s="10">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="P66" s="10">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="Q66" s="10">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="R66" s="10">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="S66" s="10">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="T66" s="10">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="U66" s="10">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="V66" s="10">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="W66" s="15">
-        <f t="shared" si="92"/>
+      <c r="W66" s="10">
+        <f t="shared" ref="W66:AA66" si="97">W54-W65</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X66" s="10">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="Y66" s="15">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="Z66" s="10">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="AA66" s="10">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C68" s="59"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="59"/>
-      <c r="F68" s="59"/>
-      <c r="G68" s="60"/>
-      <c r="W68" s="16"/>
-    </row>
-    <row r="86" spans="7:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G86" s="42"/>
-      <c r="W86" s="42"/>
-    </row>
-    <row r="87" spans="7:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="C68" s="56"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="56"/>
+      <c r="F68" s="56"/>
+      <c r="G68" s="57"/>
+      <c r="W68" s="151"/>
+      <c r="Y68" s="16"/>
+    </row>
+    <row r="86" spans="7:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G86" s="41"/>
+      <c r="W86" s="152"/>
+      <c r="Y86" s="41"/>
+    </row>
+    <row r="87" spans="7:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G87" s="16"/>
-      <c r="W87" s="16"/>
+      <c r="W87" s="151"/>
+      <c r="Y87" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -16261,14 +16867,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+      <selection activeCell="W49" sqref="W49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -16316,26 +16922,26 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>55</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="12"/>
       <c r="C2" s="18"/>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" t="s">
         <v>57</v>
-      </c>
-      <c r="M2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -16345,7 +16951,7 @@
         <v>45328</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M3" s="12"/>
     </row>
@@ -16356,7 +16962,7 @@
         <v>45302</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M4" s="12"/>
     </row>
@@ -24651,60 +25257,60 @@
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="140" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="143" t="s">
-        <v>115</v>
-      </c>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="144"/>
-      <c r="M1" s="145"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="142"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" t="e">
         <f>C2/C3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H2" s="71"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="73"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="70"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" t="e">
         <f t="shared" ref="D3:D66" si="0">C3/C4-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H3" s="74" t="s">
+      <c r="H3" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="I3" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="I3" s="75" t="s">
+      <c r="J3" s="73" t="s">
         <v>117</v>
       </c>
-      <c r="J3" s="76" t="s">
+      <c r="K3" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="K3" s="77" t="s">
+      <c r="L3" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="L3" s="77" t="s">
+      <c r="M3" s="75" t="s">
         <v>120</v>
-      </c>
-      <c r="M3" s="78" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -24712,27 +25318,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H4" s="79" t="e">
+      <c r="H4" s="76" t="e">
         <f>$I$19-3*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I4" s="80" t="e">
+      <c r="I4" s="77" t="e">
         <f>H4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J4" s="81">
+      <c r="J4" s="78">
         <f>COUNTIF(D:D,"&lt;="&amp;H4)</f>
         <v>67</v>
       </c>
-      <c r="K4" s="81" t="e">
+      <c r="K4" s="78" t="e">
         <f>"Less than "&amp;TEXT(H4,"0,00%")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="82" t="e">
+      <c r="L4" s="79" t="e">
         <f>J4/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M4" s="83" t="e">
+      <c r="M4" s="80" t="e">
         <f>L4</f>
         <v>#DIV/0!</v>
       </c>
@@ -24742,27 +25348,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H5" s="84" t="e">
+      <c r="H5" s="81" t="e">
         <f>$I$19-2.4*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I5" s="85" t="e">
+      <c r="I5" s="82" t="e">
         <f>H5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J5" s="86">
+      <c r="J5" s="83">
         <f>COUNTIFS(D:D,"&lt;="&amp;H5,D:D,"&gt;"&amp;H4)</f>
         <v>67</v>
       </c>
-      <c r="K5" s="87" t="e">
+      <c r="K5" s="84" t="e">
         <f t="shared" ref="K5:K14" si="1">TEXT(H4,"0,00%")&amp;" to "&amp;TEXT(H5,"0,00%")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="88" t="e">
+      <c r="L5" s="85" t="e">
         <f>J5/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M5" s="89" t="e">
+      <c r="M5" s="86" t="e">
         <f>M4+L5</f>
         <v>#DIV/0!</v>
       </c>
@@ -24772,27 +25378,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H6" s="84" t="e">
+      <c r="H6" s="81" t="e">
         <f>$I$19-1.8*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I6" s="85" t="e">
+      <c r="I6" s="82" t="e">
         <f t="shared" ref="I6:I14" si="2">H6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="86">
+      <c r="J6" s="83">
         <f t="shared" ref="J6:J14" si="3">COUNTIFS(D:D,"&lt;="&amp;H6,D:D,"&gt;"&amp;H5)</f>
         <v>67</v>
       </c>
-      <c r="K6" s="87" t="e">
+      <c r="K6" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="88" t="e">
+      <c r="L6" s="85" t="e">
         <f t="shared" ref="L6:L15" si="4">J6/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M6" s="89" t="e">
+      <c r="M6" s="86" t="e">
         <f t="shared" ref="M6:M15" si="5">M5+L6</f>
         <v>#DIV/0!</v>
       </c>
@@ -24802,27 +25408,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H7" s="84" t="e">
+      <c r="H7" s="81" t="e">
         <f>$I$19-1.2*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I7" s="85" t="e">
+      <c r="I7" s="82" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="86">
+      <c r="J7" s="83">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K7" s="87" t="e">
+      <c r="K7" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="88" t="e">
+      <c r="L7" s="85" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M7" s="89" t="e">
+      <c r="M7" s="86" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -24832,27 +25438,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H8" s="84" t="e">
+      <c r="H8" s="81" t="e">
         <f>$I$19-0.6*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I8" s="85" t="e">
+      <c r="I8" s="82" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J8" s="86">
+      <c r="J8" s="83">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K8" s="87" t="e">
+      <c r="K8" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="88" t="e">
+      <c r="L8" s="85" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M8" s="89" t="e">
+      <c r="M8" s="86" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -24862,27 +25468,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H9" s="84" t="e">
+      <c r="H9" s="81" t="e">
         <f>$I$19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9" s="85" t="e">
+      <c r="I9" s="82" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J9" s="86">
+      <c r="J9" s="83">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K9" s="87" t="e">
+      <c r="K9" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="88" t="e">
+      <c r="L9" s="85" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M9" s="89" t="e">
+      <c r="M9" s="86" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -24892,27 +25498,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H10" s="84" t="e">
+      <c r="H10" s="81" t="e">
         <f>$I$19+0.6*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="85" t="e">
+      <c r="I10" s="82" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J10" s="86">
+      <c r="J10" s="83">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K10" s="87" t="e">
+      <c r="K10" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="88" t="e">
+      <c r="L10" s="85" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M10" s="89" t="e">
+      <c r="M10" s="86" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -24922,27 +25528,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H11" s="84" t="e">
+      <c r="H11" s="81" t="e">
         <f>$I$19+1.2*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="85" t="e">
+      <c r="I11" s="82" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J11" s="86">
+      <c r="J11" s="83">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K11" s="87" t="e">
+      <c r="K11" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="88" t="e">
+      <c r="L11" s="85" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M11" s="89" t="e">
+      <c r="M11" s="86" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -24952,27 +25558,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="84" t="e">
+      <c r="H12" s="81" t="e">
         <f>$I$19+1.8*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="85" t="e">
+      <c r="I12" s="82" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J12" s="86">
+      <c r="J12" s="83">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K12" s="87" t="e">
+      <c r="K12" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L12" s="88" t="e">
+      <c r="L12" s="85" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M12" s="89" t="e">
+      <c r="M12" s="86" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -24982,27 +25588,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="84" t="e">
+      <c r="H13" s="81" t="e">
         <f>$I$19+2.4*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="85" t="e">
+      <c r="I13" s="82" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J13" s="86">
+      <c r="J13" s="83">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K13" s="87" t="e">
+      <c r="K13" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L13" s="88" t="e">
+      <c r="L13" s="85" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M13" s="89" t="e">
+      <c r="M13" s="86" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -25012,27 +25618,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="84" t="e">
+      <c r="H14" s="81" t="e">
         <f>$I$19+3*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="85" t="e">
+      <c r="I14" s="82" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J14" s="86">
+      <c r="J14" s="83">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K14" s="87" t="e">
+      <c r="K14" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L14" s="88" t="e">
+      <c r="L14" s="85" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M14" s="89" t="e">
+      <c r="M14" s="86" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -25042,23 +25648,23 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="90"/>
-      <c r="I15" s="91" t="s">
-        <v>122</v>
-      </c>
-      <c r="J15" s="91">
+      <c r="H15" s="87"/>
+      <c r="I15" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="J15" s="88">
         <f>COUNTIF(D:D,"&gt;"&amp;H14)</f>
         <v>67</v>
       </c>
-      <c r="K15" s="91" t="e">
+      <c r="K15" s="88" t="e">
         <f>"Greater than "&amp;TEXT(H14,"0,00%")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L15" s="92" t="e">
+      <c r="L15" s="89" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M15" s="92" t="e">
+      <c r="M15" s="89" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -25068,350 +25674,350 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="93"/>
-      <c r="M16" s="94"/>
+      <c r="H16" s="90"/>
+      <c r="M16" s="91"/>
     </row>
     <row r="17" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D17" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="146" t="s">
-        <v>153</v>
-      </c>
-      <c r="I17" s="147"/>
-      <c r="M17" s="94"/>
+      <c r="H17" s="143" t="s">
+        <v>152</v>
+      </c>
+      <c r="I17" s="144"/>
+      <c r="M17" s="91"/>
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D18" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="148"/>
-      <c r="I18" s="149"/>
-      <c r="M18" s="94"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="146"/>
+      <c r="M18" s="91"/>
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="95" t="s">
-        <v>123</v>
-      </c>
-      <c r="I19" s="132" t="e">
+      <c r="H19" s="92" t="s">
+        <v>122</v>
+      </c>
+      <c r="I19" s="129" t="e">
         <f>AVERAGE(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M19" s="94"/>
+      <c r="M19" s="91"/>
     </row>
     <row r="20" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="95" t="s">
-        <v>124</v>
-      </c>
-      <c r="I20" s="132" t="e">
+      <c r="H20" s="92" t="s">
+        <v>123</v>
+      </c>
+      <c r="I20" s="129" t="e">
         <f>_xlfn.STDEV.S(D:D)/SQRT(COUNT(D:D))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M20" s="94"/>
+      <c r="M20" s="91"/>
     </row>
     <row r="21" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D21" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H21" s="95" t="s">
-        <v>125</v>
-      </c>
-      <c r="I21" s="132" t="e">
+      <c r="H21" s="92" t="s">
+        <v>124</v>
+      </c>
+      <c r="I21" s="129" t="e">
         <f>MEDIAN(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M21" s="94"/>
+      <c r="M21" s="91"/>
     </row>
     <row r="22" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="95" t="s">
-        <v>126</v>
-      </c>
-      <c r="I22" s="132" t="e">
+      <c r="H22" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="I22" s="129" t="e">
         <f>MODE(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M22" s="94"/>
+      <c r="M22" s="91"/>
     </row>
     <row r="23" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D23" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="95" t="s">
-        <v>127</v>
-      </c>
-      <c r="I23" s="132" t="e">
+      <c r="H23" s="92" t="s">
+        <v>126</v>
+      </c>
+      <c r="I23" s="129" t="e">
         <f>_xlfn.STDEV.S(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M23" s="94"/>
+      <c r="M23" s="91"/>
     </row>
     <row r="24" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="95" t="s">
-        <v>128</v>
-      </c>
-      <c r="I24" s="132" t="e">
+      <c r="H24" s="92" t="s">
+        <v>127</v>
+      </c>
+      <c r="I24" s="129" t="e">
         <f>_xlfn.VAR.S(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M24" s="94"/>
+      <c r="M24" s="91"/>
     </row>
     <row r="25" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D25" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="95" t="s">
-        <v>129</v>
-      </c>
-      <c r="I25" s="133" t="e">
+      <c r="H25" s="92" t="s">
+        <v>128</v>
+      </c>
+      <c r="I25" s="130" t="e">
         <f>KURT(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M25" s="94"/>
+      <c r="M25" s="91"/>
     </row>
     <row r="26" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="95" t="s">
-        <v>130</v>
-      </c>
-      <c r="I26" s="133" t="e">
+      <c r="H26" s="92" t="s">
+        <v>129</v>
+      </c>
+      <c r="I26" s="130" t="e">
         <f>SKEW(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M26" s="94"/>
+      <c r="M26" s="91"/>
     </row>
     <row r="27" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="95" t="s">
-        <v>119</v>
-      </c>
-      <c r="I27" s="132" t="e">
+      <c r="H27" s="92" t="s">
+        <v>118</v>
+      </c>
+      <c r="I27" s="129" t="e">
         <f>I29-I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M27" s="94"/>
+      <c r="M27" s="91"/>
     </row>
     <row r="28" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D28" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="95" t="s">
-        <v>131</v>
-      </c>
-      <c r="I28" s="132" t="e">
+      <c r="H28" s="92" t="s">
+        <v>130</v>
+      </c>
+      <c r="I28" s="129" t="e">
         <f>MIN(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M28" s="94"/>
+      <c r="M28" s="91"/>
     </row>
     <row r="29" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D29" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="95" t="s">
-        <v>132</v>
-      </c>
-      <c r="I29" s="132" t="e">
+      <c r="H29" s="92" t="s">
+        <v>131</v>
+      </c>
+      <c r="I29" s="129" t="e">
         <f>MAX(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M29" s="94"/>
+      <c r="M29" s="91"/>
     </row>
     <row r="30" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D30" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="95" t="s">
-        <v>133</v>
-      </c>
-      <c r="I30" s="133" t="e">
+      <c r="H30" s="92" t="s">
+        <v>132</v>
+      </c>
+      <c r="I30" s="130" t="e">
         <f>SUM(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M30" s="94"/>
+      <c r="M30" s="91"/>
     </row>
     <row r="31" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D31" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="96" t="s">
-        <v>134</v>
-      </c>
-      <c r="I31" s="73">
+      <c r="H31" s="93" t="s">
+        <v>133</v>
+      </c>
+      <c r="I31" s="70">
         <f>COUNT(D:D)</f>
         <v>0</v>
       </c>
-      <c r="M31" s="94"/>
+      <c r="M31" s="91"/>
     </row>
     <row r="32" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D32" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="98"/>
-      <c r="M32" s="94"/>
+      <c r="H32" s="95"/>
+      <c r="M32" s="91"/>
     </row>
     <row r="33" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D33" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="99"/>
-      <c r="I33" s="100" t="s">
+      <c r="H33" s="96"/>
+      <c r="I33" s="97" t="s">
+        <v>134</v>
+      </c>
+      <c r="J33" s="97" t="s">
+        <v>133</v>
+      </c>
+      <c r="K33" s="97" t="s">
         <v>135</v>
       </c>
-      <c r="J33" s="100" t="s">
-        <v>134</v>
-      </c>
-      <c r="K33" s="100" t="s">
+      <c r="L33" s="98" t="s">
         <v>136</v>
       </c>
-      <c r="L33" s="101" t="s">
-        <v>137</v>
-      </c>
-      <c r="M33" s="94"/>
+      <c r="M33" s="91"/>
     </row>
     <row r="34" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="102" t="s">
-        <v>138</v>
-      </c>
-      <c r="I34" s="88" t="e">
+      <c r="H34" s="99" t="s">
+        <v>137</v>
+      </c>
+      <c r="I34" s="85" t="e">
         <f>AVERAGEIF(D:D,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J34" s="86">
+      <c r="J34" s="83">
         <f>COUNTIF(D:D,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="K34" s="88" t="e">
+      <c r="K34" s="85" t="e">
         <f>J34/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L34" s="89" t="e">
+      <c r="L34" s="86" t="e">
         <f>K34*I34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M34" s="94"/>
+      <c r="M34" s="91"/>
     </row>
     <row r="35" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D35" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="102" t="s">
-        <v>139</v>
-      </c>
-      <c r="I35" s="88" t="e">
+      <c r="H35" s="99" t="s">
+        <v>138</v>
+      </c>
+      <c r="I35" s="85" t="e">
         <f>AVERAGEIF(D:D,"&lt;0")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J35" s="86">
+      <c r="J35" s="83">
         <f>COUNTIF(D:D,"&lt;0")</f>
         <v>0</v>
       </c>
-      <c r="K35" s="88" t="e">
+      <c r="K35" s="85" t="e">
         <f>J35/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L35" s="89" t="e">
+      <c r="L35" s="86" t="e">
         <f t="shared" ref="L35:L36" si="6">K35*I35</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M35" s="94"/>
+      <c r="M35" s="91"/>
     </row>
     <row r="36" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D36" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H36" s="103" t="s">
-        <v>140</v>
-      </c>
-      <c r="I36" s="91">
+      <c r="H36" s="100" t="s">
+        <v>139</v>
+      </c>
+      <c r="I36" s="88">
         <v>0</v>
       </c>
-      <c r="J36" s="91">
+      <c r="J36" s="88">
         <f>COUNTIF(D:D,"0")</f>
         <v>0</v>
       </c>
-      <c r="K36" s="104" t="e">
+      <c r="K36" s="101" t="e">
         <f>J36/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L36" s="92" t="e">
+      <c r="L36" s="89" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M36" s="94"/>
+      <c r="M36" s="91"/>
     </row>
     <row r="37" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D37" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H37" s="98"/>
-      <c r="I37" s="105"/>
-      <c r="J37" s="105"/>
-      <c r="K37" s="105"/>
-      <c r="L37" s="105"/>
-      <c r="M37" s="94"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="102"/>
+      <c r="J37" s="102"/>
+      <c r="K37" s="102"/>
+      <c r="L37" s="102"/>
+      <c r="M37" s="91"/>
     </row>
     <row r="38" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D38" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="79" t="s">
+      <c r="H38" s="76" t="s">
+        <v>140</v>
+      </c>
+      <c r="I38" s="97" t="s">
         <v>141</v>
       </c>
-      <c r="I38" s="100" t="s">
+      <c r="J38" s="97" t="s">
         <v>142</v>
       </c>
-      <c r="J38" s="100" t="s">
+      <c r="K38" s="97" t="s">
         <v>143</v>
       </c>
-      <c r="K38" s="100" t="s">
+      <c r="L38" s="97" t="s">
         <v>144</v>
       </c>
-      <c r="L38" s="100" t="s">
+      <c r="M38" s="98" t="s">
         <v>145</v>
-      </c>
-      <c r="M38" s="101" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="39" spans="4:13" x14ac:dyDescent="0.25">
@@ -25419,26 +26025,26 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H39" s="106">
+      <c r="H39" s="103">
         <v>1</v>
       </c>
-      <c r="I39" s="88" t="e">
+      <c r="I39" s="85" t="e">
         <f>$I$19+($H39*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J39" s="88" t="e">
+      <c r="J39" s="85" t="e">
         <f>$I$19-($H39*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K39" s="86">
+      <c r="K39" s="83">
         <f>COUNTIFS(D:D,"&lt;"&amp;I39,D:D,"&gt;"&amp;J39)</f>
         <v>67</v>
       </c>
-      <c r="L39" s="88" t="e">
+      <c r="L39" s="85" t="e">
         <f>K39/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="89">
+      <c r="M39" s="86">
         <v>0.68269999999999997</v>
       </c>
     </row>
@@ -25447,26 +26053,26 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H40" s="106">
+      <c r="H40" s="103">
         <v>2</v>
       </c>
-      <c r="I40" s="88" t="e">
+      <c r="I40" s="85" t="e">
         <f>$I$19+($H40*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J40" s="88" t="e">
+      <c r="J40" s="85" t="e">
         <f>$I$19-($H40*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K40" s="86">
+      <c r="K40" s="83">
         <f>COUNTIFS(D:D,"&lt;"&amp;I40,D:D,"&gt;"&amp;J40)</f>
         <v>67</v>
       </c>
-      <c r="L40" s="88" t="e">
+      <c r="L40" s="85" t="e">
         <f>K40/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="89">
+      <c r="M40" s="86">
         <v>0.95450000000000002</v>
       </c>
     </row>
@@ -25475,26 +26081,26 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="106">
+      <c r="H41" s="103">
         <v>3</v>
       </c>
-      <c r="I41" s="88" t="e">
+      <c r="I41" s="85" t="e">
         <f>$I$19+($H41*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J41" s="88" t="e">
+      <c r="J41" s="85" t="e">
         <f>$I$19-($H41*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K41" s="86">
+      <c r="K41" s="83">
         <f>COUNTIFS(D:D,"&lt;"&amp;I41,D:D,"&gt;"&amp;J41)</f>
         <v>67</v>
       </c>
-      <c r="L41" s="88" t="e">
+      <c r="L41" s="85" t="e">
         <f>K41/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="107">
+      <c r="M41" s="104">
         <v>0.99729999999999996</v>
       </c>
     </row>
@@ -25503,46 +26109,46 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H42" s="84"/>
-      <c r="M42" s="107"/>
+      <c r="H42" s="81"/>
+      <c r="M42" s="104"/>
     </row>
     <row r="43" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D43" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H43" s="150" t="s">
-        <v>147</v>
-      </c>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="152"/>
+      <c r="H43" s="147" t="s">
+        <v>146</v>
+      </c>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="149"/>
     </row>
     <row r="44" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D44" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H44" s="108">
+      <c r="H44" s="105">
         <v>0.01</v>
       </c>
-      <c r="I44" s="109" t="e">
+      <c r="I44" s="106" t="e">
         <f t="shared" ref="I44:I58" si="7">_xlfn.PERCENTILE.INC(D:D,H44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J44" s="110">
+      <c r="J44" s="107">
         <v>0.2</v>
       </c>
-      <c r="K44" s="109" t="e">
+      <c r="K44" s="106" t="e">
         <f t="shared" ref="K44:K56" si="8">_xlfn.PERCENTILE.INC(D:D,J44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L44" s="110">
+      <c r="L44" s="107">
         <v>0.85</v>
       </c>
-      <c r="M44" s="111" t="e">
+      <c r="M44" s="108" t="e">
         <f t="shared" ref="M44:M58" si="9">_xlfn.PERCENTILE.INC(D:D,L44)</f>
         <v>#DIV/0!</v>
       </c>
@@ -25552,24 +26158,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H45" s="112">
+      <c r="H45" s="109">
         <v>0.02</v>
       </c>
-      <c r="I45" s="113" t="e">
+      <c r="I45" s="110" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J45" s="114">
+      <c r="J45" s="111">
         <v>0.25</v>
       </c>
-      <c r="K45" s="113" t="e">
+      <c r="K45" s="110" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L45" s="114">
+      <c r="L45" s="111">
         <v>0.86</v>
       </c>
-      <c r="M45" s="115" t="e">
+      <c r="M45" s="112" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -25579,24 +26185,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H46" s="112">
+      <c r="H46" s="109">
         <v>0.03</v>
       </c>
-      <c r="I46" s="113" t="e">
+      <c r="I46" s="110" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J46" s="114">
+      <c r="J46" s="111">
         <v>0.3</v>
       </c>
-      <c r="K46" s="113" t="e">
+      <c r="K46" s="110" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L46" s="114">
+      <c r="L46" s="111">
         <v>0.87</v>
       </c>
-      <c r="M46" s="115" t="e">
+      <c r="M46" s="112" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -25606,24 +26212,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H47" s="112">
+      <c r="H47" s="109">
         <v>0.04</v>
       </c>
-      <c r="I47" s="113" t="e">
+      <c r="I47" s="110" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J47" s="114">
+      <c r="J47" s="111">
         <v>0.35</v>
       </c>
-      <c r="K47" s="113" t="e">
+      <c r="K47" s="110" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L47" s="114">
+      <c r="L47" s="111">
         <v>0.88</v>
       </c>
-      <c r="M47" s="115" t="e">
+      <c r="M47" s="112" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -25633,24 +26239,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H48" s="112">
+      <c r="H48" s="109">
         <v>0.05</v>
       </c>
-      <c r="I48" s="113" t="e">
+      <c r="I48" s="110" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J48" s="114">
+      <c r="J48" s="111">
         <v>0.4</v>
       </c>
-      <c r="K48" s="113" t="e">
+      <c r="K48" s="110" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L48" s="114">
+      <c r="L48" s="111">
         <v>0.89</v>
       </c>
-      <c r="M48" s="115" t="e">
+      <c r="M48" s="112" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -25660,24 +26266,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H49" s="112">
+      <c r="H49" s="109">
         <v>0.06</v>
       </c>
-      <c r="I49" s="113" t="e">
+      <c r="I49" s="110" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J49" s="114">
+      <c r="J49" s="111">
         <v>0.45</v>
       </c>
-      <c r="K49" s="113" t="e">
+      <c r="K49" s="110" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L49" s="114">
+      <c r="L49" s="111">
         <v>0.9</v>
       </c>
-      <c r="M49" s="115" t="e">
+      <c r="M49" s="112" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -25687,24 +26293,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H50" s="112">
+      <c r="H50" s="109">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I50" s="113" t="e">
+      <c r="I50" s="110" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J50" s="114">
+      <c r="J50" s="111">
         <v>0.5</v>
       </c>
-      <c r="K50" s="113" t="e">
+      <c r="K50" s="110" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L50" s="114">
+      <c r="L50" s="111">
         <v>0.91</v>
       </c>
-      <c r="M50" s="115" t="e">
+      <c r="M50" s="112" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -25714,24 +26320,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H51" s="112">
+      <c r="H51" s="109">
         <v>0.08</v>
       </c>
-      <c r="I51" s="113" t="e">
+      <c r="I51" s="110" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J51" s="114">
+      <c r="J51" s="111">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K51" s="113" t="e">
+      <c r="K51" s="110" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L51" s="114">
+      <c r="L51" s="111">
         <v>0.92</v>
       </c>
-      <c r="M51" s="115" t="e">
+      <c r="M51" s="112" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -25741,24 +26347,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H52" s="112">
+      <c r="H52" s="109">
         <v>0.09</v>
       </c>
-      <c r="I52" s="113" t="e">
+      <c r="I52" s="110" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J52" s="114">
+      <c r="J52" s="111">
         <v>0.6</v>
       </c>
-      <c r="K52" s="113" t="e">
+      <c r="K52" s="110" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L52" s="114">
+      <c r="L52" s="111">
         <v>0.93</v>
       </c>
-      <c r="M52" s="115" t="e">
+      <c r="M52" s="112" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -25768,24 +26374,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H53" s="112">
+      <c r="H53" s="109">
         <v>0.1</v>
       </c>
-      <c r="I53" s="113" t="e">
+      <c r="I53" s="110" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J53" s="114">
+      <c r="J53" s="111">
         <v>0.65</v>
       </c>
-      <c r="K53" s="113" t="e">
+      <c r="K53" s="110" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L53" s="114">
+      <c r="L53" s="111">
         <v>0.94</v>
       </c>
-      <c r="M53" s="115" t="e">
+      <c r="M53" s="112" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -25795,24 +26401,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H54" s="112">
+      <c r="H54" s="109">
         <v>0.11</v>
       </c>
-      <c r="I54" s="113" t="e">
+      <c r="I54" s="110" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J54" s="114">
+      <c r="J54" s="111">
         <v>0.7</v>
       </c>
-      <c r="K54" s="113" t="e">
+      <c r="K54" s="110" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L54" s="114">
+      <c r="L54" s="111">
         <v>0.95</v>
       </c>
-      <c r="M54" s="115" t="e">
+      <c r="M54" s="112" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -25822,24 +26428,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H55" s="112">
+      <c r="H55" s="109">
         <v>0.12</v>
       </c>
-      <c r="I55" s="113" t="e">
+      <c r="I55" s="110" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J55" s="114">
+      <c r="J55" s="111">
         <v>0.75</v>
       </c>
-      <c r="K55" s="113" t="e">
+      <c r="K55" s="110" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L55" s="114">
+      <c r="L55" s="111">
         <v>0.96</v>
       </c>
-      <c r="M55" s="115" t="e">
+      <c r="M55" s="112" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -25849,24 +26455,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H56" s="112">
+      <c r="H56" s="109">
         <v>0.13</v>
       </c>
-      <c r="I56" s="113" t="e">
+      <c r="I56" s="110" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J56" s="114">
+      <c r="J56" s="111">
         <v>0.8</v>
       </c>
-      <c r="K56" s="113" t="e">
+      <c r="K56" s="110" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L56" s="114">
+      <c r="L56" s="111">
         <v>0.97</v>
       </c>
-      <c r="M56" s="115" t="e">
+      <c r="M56" s="112" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -25876,19 +26482,19 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H57" s="112">
+      <c r="H57" s="109">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I57" s="113" t="e">
+      <c r="I57" s="110" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J57" s="114"/>
-      <c r="K57" s="113"/>
-      <c r="L57" s="114">
+      <c r="J57" s="111"/>
+      <c r="K57" s="110"/>
+      <c r="L57" s="111">
         <v>0.98</v>
       </c>
-      <c r="M57" s="115" t="e">
+      <c r="M57" s="112" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -25898,19 +26504,19 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H58" s="116">
+      <c r="H58" s="113">
         <v>0.15</v>
       </c>
-      <c r="I58" s="117" t="e">
+      <c r="I58" s="114" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J58" s="118"/>
-      <c r="K58" s="97"/>
-      <c r="L58" s="119">
+      <c r="J58" s="115"/>
+      <c r="K58" s="94"/>
+      <c r="L58" s="116">
         <v>0.99</v>
       </c>
-      <c r="M58" s="120" t="e">
+      <c r="M58" s="117" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -25926,47 +26532,47 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H60" s="121" t="s">
-        <v>148</v>
-      </c>
-      <c r="I60" s="122"/>
+      <c r="H60" s="118" t="s">
+        <v>147</v>
+      </c>
+      <c r="I60" s="119"/>
     </row>
     <row r="61" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D61" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H61" s="123" t="s">
-        <v>149</v>
-      </c>
-      <c r="I61" s="124"/>
+      <c r="H61" s="120" t="s">
+        <v>148</v>
+      </c>
+      <c r="I61" s="121"/>
     </row>
     <row r="62" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D62" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H62" s="125"/>
+      <c r="H62" s="122"/>
     </row>
     <row r="63" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D63" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H63" s="121" t="s">
-        <v>150</v>
-      </c>
-      <c r="I63" s="126"/>
+      <c r="H63" s="118" t="s">
+        <v>149</v>
+      </c>
+      <c r="I63" s="123"/>
     </row>
     <row r="64" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D64" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H64" s="127" t="s">
-        <v>151</v>
-      </c>
-      <c r="I64" s="128">
+      <c r="H64" s="124" t="s">
+        <v>150</v>
+      </c>
+      <c r="I64" s="125">
         <f>I63*(1-I60)</f>
         <v>0</v>
       </c>
@@ -25976,10 +26582,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H65" s="123" t="s">
-        <v>152</v>
-      </c>
-      <c r="I65" s="129">
+      <c r="H65" s="120" t="s">
+        <v>151</v>
+      </c>
+      <c r="I65" s="126">
         <f>I63*(1+I61)</f>
         <v>0</v>
       </c>

--- a/x_template.xlsx
+++ b/x_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA607FC-6B83-4ADF-8D65-196922ED3CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE642A7-4BFF-4513-B468-FF50A673CAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -23,25 +23,14 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Model!$B$6</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Model!$B$7</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Model!$L$6:$X$6</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Model!$L$7:$AA$7</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Model!$L$7:$X$7</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Model!$B$25</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Model!$B$26</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Model!$L$25:$AA$25</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Model!$L$25:$X$25</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Model!$L$26:$AA$26</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Model!$L$26:$X$26</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Model!$L$2:$AA$2</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$2:$X$2</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Model!$L$2:$X$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$6:$X$6</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$7:$X$7</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$6</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$7</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$2:$AA$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$2:$X$2</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$6:$AA$6</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$2:$AA$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$6:$AA$6</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$7:$AA$7</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$25</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$26</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$25:$AA$25</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$26:$AA$26</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$2:$AA$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -434,9 +423,6 @@
   </si>
   <si>
     <t>Net Margin</t>
-  </si>
-  <si>
-    <t>Revenue y/y</t>
   </si>
   <si>
     <t>FY24</t>
@@ -833,6 +819,9 @@
   </si>
   <si>
     <t>EPS Growth</t>
+  </si>
+  <si>
+    <t>Revenue Growth</t>
   </si>
 </sst>
 </file>
@@ -1581,7 +1570,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1743,6 +1732,8 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="12" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="12" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1800,12 +1791,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2156,7 +2141,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Revenue y/y</c:v>
+                  <c:v>Revenue Growth</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2805,7 +2790,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Revenue y/y</c:v>
+                  <c:v>Revenue Growth</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6784,18 +6769,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.19</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.17</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.19</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.15</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6839,7 +6824,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6859,7 +6844,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.13</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6890,18 +6875,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.11</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6945,7 +6930,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6965,7 +6950,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -13281,7 +13266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
@@ -13305,34 +13290,34 @@
       <c r="B2" s="34"/>
       <c r="C2" s="19"/>
       <c r="E2" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="67" t="s">
         <v>52</v>
-      </c>
-      <c r="F2" s="67" t="s">
-        <v>53</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I2" s="26" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M2" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N2" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="20">
         <v>45560</v>
@@ -13437,7 +13422,7 @@
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="15" t="e">
         <f>C9-C10</f>
@@ -13466,7 +13451,7 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="36" t="e">
         <f>C6/Model!#REF!</f>
@@ -13479,7 +13464,7 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="36" t="e">
         <f>C6/Model!G16</f>
@@ -13497,7 +13482,7 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="36" t="e">
         <f>C6/Model!H16</f>
@@ -13506,7 +13491,7 @@
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="6" t="e">
         <f>Model!G16/Model!#REF!-1</f>
@@ -13515,78 +13500,78 @@
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="6" t="e">
         <f>Model!H16/Model!G16-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="L17" s="131"/>
-      <c r="M17" s="132"/>
-      <c r="N17" s="133"/>
+        <v>57</v>
+      </c>
+      <c r="L17" s="133"/>
+      <c r="M17" s="134"/>
+      <c r="N17" s="135"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" s="52" t="e">
         <f>C14/(C16*100)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L18" s="134"/>
-      <c r="M18" s="135"/>
-      <c r="N18" s="136"/>
+      <c r="L18" s="136"/>
+      <c r="M18" s="137"/>
+      <c r="N18" s="138"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="52" t="e">
         <f>C15/(C17*100)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L19" s="134"/>
-      <c r="M19" s="135"/>
-      <c r="N19" s="136"/>
+      <c r="L19" s="136"/>
+      <c r="M19" s="137"/>
+      <c r="N19" s="138"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20" s="6" t="e">
         <f>Model!G4/Model!F3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L20" s="134"/>
-      <c r="M20" s="135"/>
-      <c r="N20" s="136"/>
+      <c r="L20" s="136"/>
+      <c r="M20" s="137"/>
+      <c r="N20" s="138"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C21" s="6" t="e">
         <f>Model!G5/Model!F4-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L21" s="134"/>
-      <c r="M21" s="135"/>
-      <c r="N21" s="136"/>
+      <c r="L21" s="136"/>
+      <c r="M21" s="137"/>
+      <c r="N21" s="138"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" s="15">
         <f>Model!F12+Model!F10</f>
         <v>0</v>
       </c>
-      <c r="L22" s="134"/>
-      <c r="M22" s="135"/>
-      <c r="N22" s="136"/>
+      <c r="L22" s="136"/>
+      <c r="M22" s="137"/>
+      <c r="N22" s="138"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
@@ -13596,9 +13581,9 @@
         <f>Model!F12</f>
         <v>0</v>
       </c>
-      <c r="L23" s="134"/>
-      <c r="M23" s="135"/>
-      <c r="N23" s="136"/>
+      <c r="L23" s="136"/>
+      <c r="M23" s="137"/>
+      <c r="N23" s="138"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
@@ -13608,9 +13593,9 @@
         <f>Model!F17</f>
         <v>0</v>
       </c>
-      <c r="L24" s="134"/>
-      <c r="M24" s="135"/>
-      <c r="N24" s="136"/>
+      <c r="L24" s="136"/>
+      <c r="M24" s="137"/>
+      <c r="N24" s="138"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
@@ -13620,52 +13605,52 @@
         <f>Model!F18</f>
         <v>0</v>
       </c>
-      <c r="L25" s="134"/>
-      <c r="M25" s="135"/>
-      <c r="N25" s="136"/>
+      <c r="L25" s="136"/>
+      <c r="M25" s="137"/>
+      <c r="N25" s="138"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C26" s="36" t="e">
         <f>C12/C23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L26" s="134"/>
-      <c r="M26" s="135"/>
-      <c r="N26" s="136"/>
+      <c r="L26" s="136"/>
+      <c r="M26" s="137"/>
+      <c r="N26" s="138"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C27" s="127" t="e">
         <f>Model!Q45/Model!Q50</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E27" t="s">
-        <v>82</v>
-      </c>
-      <c r="L27" s="134"/>
-      <c r="M27" s="135"/>
-      <c r="N27" s="136"/>
+        <v>81</v>
+      </c>
+      <c r="L27" s="136"/>
+      <c r="M27" s="137"/>
+      <c r="N27" s="138"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C28" s="36" t="e">
         <f>C22/-Model!F10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L28" s="137"/>
-      <c r="M28" s="138"/>
-      <c r="N28" s="139"/>
+      <c r="L28" s="139"/>
+      <c r="M28" s="140"/>
+      <c r="N28" s="141"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C29" s="36" t="e">
         <f>Model!Q34/Model!Q44</f>
@@ -13674,7 +13659,7 @@
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C30" s="36" t="e">
         <f>(Model!Q28+Model!Q29)/Model!Q44</f>
@@ -13683,7 +13668,7 @@
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C31" s="6" t="e">
         <f>(Model!Q34-Model!Q44)/Model!Q40</f>
@@ -13692,7 +13677,7 @@
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C32" s="36" t="e">
         <f>(Model!Q40-Model!Q49)/Main!C7</f>
@@ -13701,7 +13686,7 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C33" s="36" t="e">
         <f>Model!Q3/Model!Q40</f>
@@ -13710,7 +13695,7 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C34" s="38" t="e">
         <f>Model!Q14/Model!Q40</f>
@@ -13719,7 +13704,7 @@
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C35" s="38" t="e">
         <f>Model!Q14/Model!Q50</f>
@@ -13728,7 +13713,7 @@
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C36" s="23"/>
     </row>
@@ -13837,11 +13822,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
   <dimension ref="A1:AA87"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomRight" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13849,18 +13834,17 @@
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="13"/>
-    <col min="23" max="23" width="11.42578125" style="150"/>
     <col min="25" max="25" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -13875,13 +13859,13 @@
         <v>16</v>
       </c>
       <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" t="s">
         <v>36</v>
-      </c>
-      <c r="I2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L2" t="s">
-        <v>37</v>
       </c>
       <c r="M2" t="s">
         <v>10</v>
@@ -13908,47 +13892,44 @@
         <v>9</v>
       </c>
       <c r="U2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2" t="s">
         <v>43</v>
       </c>
-      <c r="W2" s="150" t="s">
-        <v>44</v>
-      </c>
       <c r="X2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Y2" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z2" s="154" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA2" t="s">
         <v>165</v>
-      </c>
-      <c r="AA2" s="154" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="W3"/>
+        <v>152</v>
+      </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="W4"/>
+        <v>153</v>
+      </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E5" s="50"/>
       <c r="F5" s="50"/>
       <c r="G5" s="51"/>
-      <c r="W5"/>
     </row>
     <row r="6" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -13981,7 +13962,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="11">
-        <f t="shared" ref="M6:AA6" si="0">SUM(M3:M5)</f>
+        <f t="shared" ref="M6:V6" si="0">SUM(M3:M5)</f>
         <v>0</v>
       </c>
       <c r="N6" s="11">
@@ -14043,7 +14024,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -14065,13 +14046,13 @@
       <c r="V7" s="40"/>
       <c r="W7" s="40"/>
       <c r="X7" s="40"/>
-      <c r="Y7" s="153"/>
+      <c r="Y7" s="131"/>
       <c r="Z7" s="40"/>
       <c r="AA7" s="40"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -14093,13 +14074,13 @@
       <c r="V8" s="40"/>
       <c r="W8" s="40"/>
       <c r="X8" s="40"/>
-      <c r="Y8" s="153"/>
+      <c r="Y8" s="131"/>
       <c r="Z8" s="40"/>
       <c r="AA8" s="40"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -14121,13 +14102,13 @@
       <c r="V9" s="40"/>
       <c r="W9" s="40"/>
       <c r="X9" s="40"/>
-      <c r="Y9" s="153"/>
+      <c r="Y9" s="131"/>
       <c r="Z9" s="40"/>
       <c r="AA9" s="40"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -14149,13 +14130,13 @@
       <c r="V10" s="40"/>
       <c r="W10" s="40"/>
       <c r="X10" s="40"/>
-      <c r="Y10" s="153"/>
+      <c r="Y10" s="131"/>
       <c r="Z10" s="40"/>
       <c r="AA10" s="40"/>
     </row>
     <row r="11" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="11">
         <f>SUM(C8:C10)</f>
@@ -14252,7 +14233,7 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -14280,7 +14261,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -14336,7 +14317,7 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -14463,7 +14444,7 @@
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -14491,7 +14472,7 @@
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -14547,7 +14528,7 @@
     </row>
     <row r="20" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C20" s="11">
         <f>C16+SUM(C17:C19)</f>
@@ -14672,7 +14653,7 @@
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -14848,7 +14829,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M25" s="2" t="e">
-        <f t="shared" ref="M25:Y25" si="50">M23/M24</f>
+        <f t="shared" ref="M25:V25" si="50">M23/M24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N25" s="2" t="e">
@@ -14910,7 +14891,7 @@
     </row>
     <row r="26" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -14932,7 +14913,7 @@
       <c r="V26" s="49"/>
       <c r="W26" s="49"/>
       <c r="X26" s="49"/>
-      <c r="Y26" s="155"/>
+      <c r="Y26" s="132"/>
       <c r="Z26" s="49"/>
       <c r="AA26" s="49"/>
     </row>
@@ -14963,7 +14944,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="46"/>
       <c r="L27" s="3" t="e">
-        <f t="shared" ref="L27:W27" si="52">1-L11/L6</f>
+        <f t="shared" ref="L27:V27" si="52">1-L11/L6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M27" s="3" t="e">
@@ -15060,7 +15041,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L28" s="4" t="e">
-        <f t="shared" ref="L28:W28" si="54">L23/L6</f>
+        <f t="shared" ref="L28:V28" si="54">L23/L6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M28" s="4" t="e">
@@ -15126,7 +15107,7 @@
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3" t="e">
@@ -15158,7 +15139,7 @@
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4" t="e">
-        <f t="shared" ref="P29:W29" si="56">P6/L6-1</f>
+        <f t="shared" ref="P29:V29" si="56">P6/L6-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q29" s="4" t="e">
@@ -15208,7 +15189,7 @@
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C30" s="4" t="e">
         <f>C12/C6</f>
@@ -15233,7 +15214,7 @@
       <c r="H30" s="128"/>
       <c r="I30" s="128"/>
       <c r="L30" s="4" t="e">
-        <f t="shared" ref="L30:W30" si="62">L12/L6</f>
+        <f t="shared" ref="L30:V30" si="62">L12/L6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M30" s="4" t="e">
@@ -15299,7 +15280,7 @@
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C31" s="4" t="e">
         <f t="shared" ref="C31:F31" si="64">C13/C6</f>
@@ -15324,7 +15305,7 @@
       <c r="H31" s="128"/>
       <c r="I31" s="128"/>
       <c r="L31" s="4" t="e">
-        <f t="shared" ref="L31:W31" si="65">L13/L6</f>
+        <f t="shared" ref="L31:V31" si="65">L13/L6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M31" s="4" t="e">
@@ -15390,7 +15371,7 @@
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C32" s="4" t="e">
         <f>C15/C6</f>
@@ -15415,7 +15396,7 @@
       <c r="H32" s="128"/>
       <c r="I32" s="128"/>
       <c r="L32" s="4" t="e">
-        <f t="shared" ref="L32:W32" si="67">L15/L6</f>
+        <f t="shared" ref="L32:V32" si="67">L15/L6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M32" s="4" t="e">
@@ -15481,7 +15462,7 @@
     </row>
     <row r="33" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -15518,7 +15499,7 @@
     </row>
     <row r="34" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -15555,7 +15536,7 @@
     </row>
     <row r="35" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3" t="e">
@@ -15567,11 +15548,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F35" s="39" t="e">
-        <f>F23/E23-1</f>
+        <f>F25/E25-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G35" s="6" t="e">
-        <f>G23/F23-1</f>
+        <f>G25/F25-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H35" s="61" t="e">
@@ -15587,7 +15568,7 @@
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
       <c r="P35" s="4" t="e">
-        <f t="shared" ref="P35:X35" si="70">P23/L23-1</f>
+        <f t="shared" ref="P35:V35" si="70">P23/L23-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q35" s="4" t="e">
@@ -15637,7 +15618,7 @@
     </row>
     <row r="36" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C36" s="53" t="e">
         <f>C17/C6</f>
@@ -15686,7 +15667,7 @@
     </row>
     <row r="37" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C37" s="55" t="e">
         <f>-C17/C16</f>
@@ -15733,15 +15714,9 @@
       <c r="Z37" s="4"/>
       <c r="AA37" s="4"/>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="W38"/>
-    </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="W39"/>
-    </row>
     <row r="40" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40" s="11">
         <f t="shared" ref="C40" si="77">C41+C42-C64-C55</f>
@@ -15864,7 +15839,7 @@
     </row>
     <row r="42" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
@@ -15916,7 +15891,7 @@
     </row>
     <row r="44" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
@@ -15942,7 +15917,7 @@
     </row>
     <row r="45" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -15968,7 +15943,7 @@
     </row>
     <row r="46" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -15994,7 +15969,7 @@
     </row>
     <row r="47" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C47" s="11">
         <f t="shared" ref="C47:D47" si="85">SUM(C41:C46)</f>
@@ -16017,7 +15992,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="11">
-        <f t="shared" ref="L47:W47" si="87">SUM(L41:L46)</f>
+        <f t="shared" ref="L47:V47" si="87">SUM(L41:L46)</f>
         <v>0</v>
       </c>
       <c r="M47" s="11">
@@ -16083,7 +16058,7 @@
     </row>
     <row r="48" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
@@ -16109,7 +16084,7 @@
     </row>
     <row r="49" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
@@ -16135,7 +16110,7 @@
     </row>
     <row r="50" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
@@ -16161,7 +16136,7 @@
     </row>
     <row r="51" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
@@ -16213,7 +16188,7 @@
     </row>
     <row r="53" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
@@ -16262,7 +16237,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="11">
-        <f t="shared" ref="L54:W54" si="89">SUM(L47:L53)</f>
+        <f t="shared" ref="L54:V54" si="89">SUM(L47:L53)</f>
         <v>0</v>
       </c>
       <c r="M54" s="11">
@@ -16328,7 +16303,7 @@
     </row>
     <row r="55" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
@@ -16380,7 +16355,7 @@
     </row>
     <row r="57" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -16432,7 +16407,7 @@
     </row>
     <row r="59" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
@@ -16458,7 +16433,7 @@
     </row>
     <row r="60" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C60" s="11">
         <f>SUM(C55:C59)</f>
@@ -16481,7 +16456,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="11">
-        <f t="shared" ref="L60:W60" si="91">SUM(L55:L59)</f>
+        <f t="shared" ref="L60:V60" si="91">SUM(L55:L59)</f>
         <v>0</v>
       </c>
       <c r="M60" s="11">
@@ -16547,7 +16522,7 @@
     </row>
     <row r="61" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
@@ -16573,7 +16548,7 @@
     </row>
     <row r="62" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
@@ -16625,7 +16600,7 @@
     </row>
     <row r="64" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
@@ -16674,7 +16649,7 @@
         <v>0</v>
       </c>
       <c r="L65" s="11">
-        <f t="shared" ref="L65:W65" si="93">SUM(L60:L64)</f>
+        <f t="shared" ref="L65:V65" si="93">SUM(L60:L64)</f>
         <v>0</v>
       </c>
       <c r="M65" s="11">
@@ -16740,7 +16715,7 @@
     </row>
     <row r="66" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="10">
         <f t="shared" ref="C66:E66" si="95">C54-C65</f>
@@ -16763,7 +16738,7 @@
         <v>0</v>
       </c>
       <c r="L66" s="10">
-        <f t="shared" ref="L66:W66" si="96">L54-L65</f>
+        <f t="shared" ref="L66:V66" si="96">L54-L65</f>
         <v>0</v>
       </c>
       <c r="M66" s="10">
@@ -16829,24 +16804,21 @@
     </row>
     <row r="68" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C68" s="56"/>
       <c r="D68" s="56"/>
       <c r="E68" s="56"/>
       <c r="F68" s="56"/>
       <c r="G68" s="57"/>
-      <c r="W68" s="151"/>
       <c r="Y68" s="16"/>
     </row>
     <row r="86" spans="7:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G86" s="41"/>
-      <c r="W86" s="152"/>
       <c r="Y86" s="41"/>
     </row>
     <row r="87" spans="7:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G87" s="16"/>
-      <c r="W87" s="151"/>
       <c r="Y87" s="16"/>
     </row>
   </sheetData>
@@ -16874,7 +16846,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -16922,26 +16894,26 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>54</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="12"/>
       <c r="C2" s="18"/>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" t="s">
         <v>56</v>
-      </c>
-      <c r="M2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -16951,7 +16923,7 @@
         <v>45328</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M3" s="12"/>
     </row>
@@ -16962,7 +16934,7 @@
         <v>45302</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M4" s="12"/>
     </row>
@@ -25257,25 +25229,25 @@
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="142" t="s">
         <v>113</v>
       </c>
-      <c r="H1" s="140" t="s">
-        <v>114</v>
-      </c>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="142"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="144"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" t="e">
@@ -25295,22 +25267,22 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H3" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="I3" s="72" t="s">
+      <c r="J3" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="J3" s="73" t="s">
+      <c r="K3" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="K3" s="74" t="s">
+      <c r="L3" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="L3" s="74" t="s">
+      <c r="M3" s="75" t="s">
         <v>119</v>
-      </c>
-      <c r="M3" s="75" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -25650,7 +25622,7 @@
       </c>
       <c r="H15" s="87"/>
       <c r="I15" s="88" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J15" s="88">
         <f>COUNTIF(D:D,"&gt;"&amp;H14)</f>
@@ -25682,10 +25654,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="143" t="s">
-        <v>152</v>
-      </c>
-      <c r="I17" s="144"/>
+      <c r="H17" s="145" t="s">
+        <v>151</v>
+      </c>
+      <c r="I17" s="146"/>
       <c r="M17" s="91"/>
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.25">
@@ -25693,8 +25665,8 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="145"/>
-      <c r="I18" s="146"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="148"/>
       <c r="M18" s="91"/>
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.25">
@@ -25703,7 +25675,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H19" s="92" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I19" s="129" t="e">
         <f>AVERAGE(D:D)</f>
@@ -25717,7 +25689,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H20" s="92" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I20" s="129" t="e">
         <f>_xlfn.STDEV.S(D:D)/SQRT(COUNT(D:D))</f>
@@ -25731,7 +25703,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H21" s="92" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I21" s="129" t="e">
         <f>MEDIAN(D:D)</f>
@@ -25745,7 +25717,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H22" s="92" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I22" s="129" t="e">
         <f>MODE(D:D)</f>
@@ -25759,7 +25731,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H23" s="92" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I23" s="129" t="e">
         <f>_xlfn.STDEV.S(D:D)</f>
@@ -25773,7 +25745,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H24" s="92" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I24" s="129" t="e">
         <f>_xlfn.VAR.S(D:D)</f>
@@ -25787,7 +25759,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H25" s="92" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I25" s="130" t="e">
         <f>KURT(D:D)</f>
@@ -25801,7 +25773,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H26" s="92" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I26" s="130" t="e">
         <f>SKEW(D:D)</f>
@@ -25815,7 +25787,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H27" s="92" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I27" s="129" t="e">
         <f>I29-I28</f>
@@ -25829,7 +25801,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H28" s="92" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I28" s="129" t="e">
         <f>MIN(D:D)</f>
@@ -25843,7 +25815,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H29" s="92" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I29" s="129" t="e">
         <f>MAX(D:D)</f>
@@ -25857,7 +25829,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H30" s="92" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I30" s="130" t="e">
         <f>SUM(D:D)</f>
@@ -25871,7 +25843,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H31" s="93" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I31" s="70">
         <f>COUNT(D:D)</f>
@@ -25894,16 +25866,16 @@
       </c>
       <c r="H33" s="96"/>
       <c r="I33" s="97" t="s">
+        <v>133</v>
+      </c>
+      <c r="J33" s="97" t="s">
+        <v>132</v>
+      </c>
+      <c r="K33" s="97" t="s">
         <v>134</v>
       </c>
-      <c r="J33" s="97" t="s">
-        <v>133</v>
-      </c>
-      <c r="K33" s="97" t="s">
+      <c r="L33" s="98" t="s">
         <v>135</v>
-      </c>
-      <c r="L33" s="98" t="s">
-        <v>136</v>
       </c>
       <c r="M33" s="91"/>
     </row>
@@ -25913,7 +25885,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H34" s="99" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I34" s="85" t="e">
         <f>AVERAGEIF(D:D,"&gt;0")</f>
@@ -25939,7 +25911,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H35" s="99" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I35" s="85" t="e">
         <f>AVERAGEIF(D:D,"&lt;0")</f>
@@ -25965,7 +25937,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H36" s="100" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I36" s="88">
         <v>0</v>
@@ -26002,22 +25974,22 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H38" s="76" t="s">
+        <v>139</v>
+      </c>
+      <c r="I38" s="97" t="s">
         <v>140</v>
       </c>
-      <c r="I38" s="97" t="s">
+      <c r="J38" s="97" t="s">
         <v>141</v>
       </c>
-      <c r="J38" s="97" t="s">
+      <c r="K38" s="97" t="s">
         <v>142</v>
       </c>
-      <c r="K38" s="97" t="s">
+      <c r="L38" s="97" t="s">
         <v>143</v>
       </c>
-      <c r="L38" s="97" t="s">
+      <c r="M38" s="98" t="s">
         <v>144</v>
-      </c>
-      <c r="M38" s="98" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="39" spans="4:13" x14ac:dyDescent="0.25">
@@ -26117,14 +26089,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H43" s="147" t="s">
-        <v>146</v>
-      </c>
-      <c r="I43" s="148"/>
-      <c r="J43" s="148"/>
-      <c r="K43" s="148"/>
-      <c r="L43" s="148"/>
-      <c r="M43" s="149"/>
+      <c r="H43" s="149" t="s">
+        <v>145</v>
+      </c>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="151"/>
     </row>
     <row r="44" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D44" t="e">
@@ -26533,7 +26505,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H60" s="118" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I60" s="119"/>
     </row>
@@ -26543,7 +26515,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H61" s="120" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I61" s="121"/>
     </row>
@@ -26560,7 +26532,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H63" s="118" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I63" s="123"/>
     </row>
@@ -26570,7 +26542,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H64" s="124" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I64" s="125">
         <f>I63*(1-I60)</f>
@@ -26583,7 +26555,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H65" s="120" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I65" s="126">
         <f>I63*(1+I61)</f>

--- a/x_template.xlsx
+++ b/x_template.xlsx
@@ -1,25 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE642A7-4BFF-4513-B468-FF50A673CAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EBCD42-D9B0-4FCD-AD2B-69E40581CF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1035" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
-    <sheet name="Model-graph" sheetId="3" r:id="rId3"/>
-    <sheet name="KPIs" sheetId="6" r:id="rId4"/>
-    <sheet name="Catalysts" sheetId="4" r:id="rId5"/>
-    <sheet name="DoR" sheetId="5" r:id="rId6"/>
+    <sheet name="Analysts" sheetId="7" r:id="rId3"/>
+    <sheet name="Model-graph" sheetId="3" r:id="rId4"/>
+    <sheet name="KPIs" sheetId="6" r:id="rId5"/>
+    <sheet name="Catalysts" sheetId="4" r:id="rId6"/>
+    <sheet name="DoR" sheetId="5" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Model!$B$6</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Model!$B$7</definedName>
@@ -318,7 +322,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="177">
   <si>
     <t>Price</t>
   </si>
@@ -823,15 +827,43 @@
   <si>
     <t>Revenue Growth</t>
   </si>
+  <si>
+    <t>Sell</t>
+  </si>
+  <si>
+    <t>Underperform</t>
+  </si>
+  <si>
+    <t>Hold</t>
+  </si>
+  <si>
+    <t>Buy</t>
+  </si>
+  <si>
+    <t>Strong buy</t>
+  </si>
+  <si>
+    <t>Goldman Sachs</t>
+  </si>
+  <si>
+    <t>Wells Fargo</t>
+  </si>
+  <si>
+    <t>TD Cowen</t>
+  </si>
+  <si>
+    <t>Price Targets</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="[$-407]mmm/\ yy;@"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -1570,7 +1602,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1791,6 +1823,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1818,6 +1851,1917 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Analystenratings</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Analysts!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sell</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Analysts!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>[$-407]mmm/\ yy;@</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>45413</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45444</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45474</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45536</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45566</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45597</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45627</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45658</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45689</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45717</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Analysts!$B$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-579C-4350-B83D-5F2E75DDA864}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Analysts!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Underperform</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Analysts!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>[$-407]mmm/\ yy;@</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>45413</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45444</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45474</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45536</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45566</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45597</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45627</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45658</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45689</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45717</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Analysts!$B$3:$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-579C-4350-B83D-5F2E75DDA864}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Analysts!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hold</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Analysts!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>[$-407]mmm/\ yy;@</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>45413</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45444</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45474</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45536</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45566</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45597</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45627</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45658</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45689</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45717</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Analysts!$B$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-579C-4350-B83D-5F2E75DDA864}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Analysts!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Buy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Analysts!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>[$-407]mmm/\ yy;@</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>45413</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45444</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45474</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45536</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45566</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45597</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45627</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45658</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45689</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45717</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Analysts!$B$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-579C-4350-B83D-5F2E75DDA864}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Analysts!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Strong buy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Analysts!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>[$-407]mmm/\ yy;@</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>45413</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45444</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45474</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45536</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45566</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45597</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45627</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45658</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45689</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45717</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Analysts!$B$6:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-579C-4350-B83D-5F2E75DDA864}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="562824575"/>
+        <c:axId val="562812095"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="562824575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="[$-407]mmm/\ yy;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="562812095"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="562812095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="562824575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DoR!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frequency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>DoR!$K$4:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DoR!$J$4:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1F3C-452E-9D52-EA2888DEE33A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="30"/>
+        <c:axId val="1429205823"/>
+        <c:axId val="1429206303"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1429205823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1429206303"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1429206303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1429205823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Price Targets</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Analysts!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Goldman Sachs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Analysts!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>[$-407]mmm/\ yy;@</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>45413</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45444</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45474</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45536</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45566</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45597</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45627</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45658</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45689</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45717</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Analysts!$B$24:$L$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-056B-4CCB-ADAE-0606DD7B1945}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Analysts!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wells Fargo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Analysts!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>[$-407]mmm/\ yy;@</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>45413</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45444</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45474</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45536</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45566</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45597</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45627</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45658</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45689</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45717</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Analysts!$B$25:$L$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-056B-4CCB-ADAE-0606DD7B1945}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Analysts!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TD Cowen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Analysts!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>[$-407]mmm/\ yy;@</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>45413</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45444</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45474</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45536</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45566</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45597</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45627</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45658</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45689</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45717</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Analysts!$B$26:$L$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-056B-4CCB-ADAE-0606DD7B1945}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="616931375"/>
+        <c:axId val="616948175"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="616931375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="[$-407]mmm/\ yy;@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="616948175"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="616948175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="616931375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="85000"/>
+        <a:lumOff val="15000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2521,7 +4465,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3162,7 +5106,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3835,7 +5779,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4426,7 +6370,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5363,7 +7307,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6120,7 +8064,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6367,348 +8311,6 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="693983327"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>DoR!$J$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Frequency</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>DoR!$K$4:$K$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>DoR!$J$4:$J$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>67</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1F3C-452E-9D52-EA2888DEE33A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="30"/>
-        <c:axId val="1429205823"/>
-        <c:axId val="1429206303"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1429205823"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1429206303"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1429206303"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1429205823"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7017,6 +8619,86 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7377,7 +9059,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7485,6 +9167,511 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="phClr"/>
@@ -7892,7 +10079,523 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8401,7 +11104,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8509,11 +11212,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -8524,11 +11222,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -8560,9 +11253,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -10465,6 +13155,1038 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="409">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10981,7 +14703,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="409">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11498,1039 +15220,88 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A02B15D-726B-473F-90BD-9DE5AEBE580D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>109536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C18602F0-0E7E-4D3A-B594-2B15361E107C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12915,7 +15686,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12958,7 +15729,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12999,6 +15770,155 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Analysts"/>
+      <sheetName val="Model-graph"/>
+      <sheetName val="KPIs"/>
+      <sheetName val="Catalysts"/>
+      <sheetName val="DoR"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="B1">
+            <v>45413</v>
+          </cell>
+          <cell r="C1">
+            <v>45444</v>
+          </cell>
+          <cell r="D1">
+            <v>45474</v>
+          </cell>
+          <cell r="E1">
+            <v>45505</v>
+          </cell>
+          <cell r="F1">
+            <v>45536</v>
+          </cell>
+          <cell r="G1">
+            <v>45566</v>
+          </cell>
+          <cell r="H1">
+            <v>45597</v>
+          </cell>
+          <cell r="I1">
+            <v>45627</v>
+          </cell>
+          <cell r="J1">
+            <v>45658</v>
+          </cell>
+          <cell r="K1">
+            <v>45689</v>
+          </cell>
+          <cell r="L1">
+            <v>45717</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Sell</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Underperform</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Hold</v>
+          </cell>
+          <cell r="I4">
+            <v>3</v>
+          </cell>
+          <cell r="J4">
+            <v>3</v>
+          </cell>
+          <cell r="K4">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Buy</v>
+          </cell>
+          <cell r="I5">
+            <v>3</v>
+          </cell>
+          <cell r="J5">
+            <v>3</v>
+          </cell>
+          <cell r="K5">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Strong buy</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>Goldman Sachs</v>
+          </cell>
+          <cell r="I24">
+            <v>80</v>
+          </cell>
+          <cell r="J24">
+            <v>80</v>
+          </cell>
+          <cell r="K24">
+            <v>80</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>Wells Fargo</v>
+          </cell>
+          <cell r="I25">
+            <v>90</v>
+          </cell>
+          <cell r="J25">
+            <v>90</v>
+          </cell>
+          <cell r="K25">
+            <v>90</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>TD Cowen</v>
+          </cell>
+          <cell r="I26">
+            <v>40</v>
+          </cell>
+          <cell r="J26">
+            <v>40</v>
+          </cell>
+          <cell r="K26">
+            <v>60</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13822,7 +16742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
   <dimension ref="A1:AA87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -16835,6 +19755,150 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A670AE-D1F2-4470-937E-18BA568AD24E}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="152">
+        <v>45413</v>
+      </c>
+      <c r="C1" s="152">
+        <v>45444</v>
+      </c>
+      <c r="D1" s="152">
+        <v>45474</v>
+      </c>
+      <c r="E1" s="152">
+        <v>45505</v>
+      </c>
+      <c r="F1" s="152">
+        <v>45536</v>
+      </c>
+      <c r="G1" s="152">
+        <v>45566</v>
+      </c>
+      <c r="H1" s="152">
+        <v>45597</v>
+      </c>
+      <c r="I1" s="152">
+        <v>45627</v>
+      </c>
+      <c r="J1" s="152">
+        <v>45658</v>
+      </c>
+      <c r="K1" s="152">
+        <v>45689</v>
+      </c>
+      <c r="L1" s="152">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>170</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>171</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>173</v>
+      </c>
+      <c r="I10">
+        <v>80</v>
+      </c>
+      <c r="J10">
+        <v>80</v>
+      </c>
+      <c r="K10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>174</v>
+      </c>
+      <c r="I11">
+        <v>90</v>
+      </c>
+      <c r="J11">
+        <v>90</v>
+      </c>
+      <c r="K11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>175</v>
+      </c>
+      <c r="I12">
+        <v>40</v>
+      </c>
+      <c r="J12">
+        <v>40</v>
+      </c>
+      <c r="K12">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48E03BE-2423-4BDB-9A98-002F9CED8953}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -16858,7 +19922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37F5735-5460-414D-B5FC-C83DFBD00ECA}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -16872,7 +19936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11DEC602-D7CA-409B-9962-CCABA92C723B}">
   <dimension ref="A1:M2067"/>
   <sheetViews>
@@ -25207,7 +28271,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366AC5E7-7FF6-4287-9F23-7D3A6FE15A5F}">
   <dimension ref="A1:M68"/>
   <sheetViews>

--- a/x_template.xlsx
+++ b/x_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EBCD42-D9B0-4FCD-AD2B-69E40581CF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCFC97F-19C1-43C2-A439-99A860128898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1035" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,16 @@
     <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$6</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$7</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$2:$AA$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$6:$AA$6</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$7:$AA$7</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$25</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$26</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$25:$AA$25</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$26:$AA$26</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$2:$AA$2</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$25</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$26</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$25:$AA$25</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$26:$AA$26</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$2:$AA$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$6</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$7</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$2:$AA$2</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$6:$AA$6</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$7:$AA$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1766,6 +1766,7 @@
     <xf numFmtId="2" fontId="12" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1823,7 +1824,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1929,7 +1929,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Analysts!$A$2</c:f>
+              <c:f>Analysts!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2008,7 +2008,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Analysts!$B$1:$L$1</c:f>
+              <c:f>Analysts!$B$1:$L$1</c:f>
               <c:numCache>
                 <c:formatCode>[$-407]mmm/\ yy;@</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2050,7 +2050,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Analysts!$B$2:$L$2</c:f>
+              <c:f>Analysts!$B$2:$L$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2068,7 +2068,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Analysts!$A$3</c:f>
+              <c:f>Analysts!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2147,7 +2147,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Analysts!$B$1:$L$1</c:f>
+              <c:f>Analysts!$B$1:$L$1</c:f>
               <c:numCache>
                 <c:formatCode>[$-407]mmm/\ yy;@</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2189,7 +2189,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Analysts!$B$3:$L$3</c:f>
+              <c:f>Analysts!$B$3:$L$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2207,7 +2207,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Analysts!$A$4</c:f>
+              <c:f>Analysts!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2286,7 +2286,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Analysts!$B$1:$L$1</c:f>
+              <c:f>Analysts!$B$1:$L$1</c:f>
               <c:numCache>
                 <c:formatCode>[$-407]mmm/\ yy;@</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2328,7 +2328,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Analysts!$B$4:$L$4</c:f>
+              <c:f>Analysts!$B$4:$L$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2355,7 +2355,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Analysts!$A$5</c:f>
+              <c:f>Analysts!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2434,7 +2434,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Analysts!$B$1:$L$1</c:f>
+              <c:f>Analysts!$B$1:$L$1</c:f>
               <c:numCache>
                 <c:formatCode>[$-407]mmm/\ yy;@</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2476,7 +2476,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Analysts!$B$5:$L$5</c:f>
+              <c:f>Analysts!$B$5:$L$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2503,7 +2503,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Analysts!$A$6</c:f>
+              <c:f>Analysts!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2582,7 +2582,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Analysts!$B$1:$L$1</c:f>
+              <c:f>Analysts!$B$1:$L$1</c:f>
               <c:numCache>
                 <c:formatCode>[$-407]mmm/\ yy;@</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2624,7 +2624,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Analysts!$B$6:$L$6</c:f>
+              <c:f>Analysts!$B$6:$L$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2676,7 +2676,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -3256,7 +3256,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Analysts!$A$24</c:f>
+              <c:f>Analysts!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3291,7 +3291,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Analysts!$B$1:$L$1</c:f>
+              <c:f>Analysts!$B$1:$L$1</c:f>
               <c:numCache>
                 <c:formatCode>[$-407]mmm/\ yy;@</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3333,7 +3333,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Analysts!$B$24:$L$24</c:f>
+              <c:f>Analysts!$B$10:$L$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3361,7 +3361,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Analysts!$A$25</c:f>
+              <c:f>Analysts!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3396,7 +3396,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Analysts!$B$1:$L$1</c:f>
+              <c:f>Analysts!$B$1:$L$1</c:f>
               <c:numCache>
                 <c:formatCode>[$-407]mmm/\ yy;@</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3438,7 +3438,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Analysts!$B$25:$L$25</c:f>
+              <c:f>Analysts!$B$11:$L$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3466,7 +3466,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Analysts!$A$26</c:f>
+              <c:f>Analysts!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3501,7 +3501,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Analysts!$B$1:$L$1</c:f>
+              <c:f>Analysts!$B$1:$L$1</c:f>
               <c:numCache>
                 <c:formatCode>[$-407]mmm/\ yy;@</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3543,7 +3543,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Analysts!$B$26:$L$26</c:f>
+              <c:f>Analysts!$B$12:$L$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -8371,18 +8371,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8426,7 +8426,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8446,7 +8446,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8477,18 +8477,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8532,7 +8532,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8552,7 +8552,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -16429,9 +16429,9 @@
       <c r="E17" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="L17" s="133"/>
-      <c r="M17" s="134"/>
-      <c r="N17" s="135"/>
+      <c r="L17" s="134"/>
+      <c r="M17" s="135"/>
+      <c r="N17" s="136"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
@@ -16441,9 +16441,9 @@
         <f>C14/(C16*100)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L18" s="136"/>
-      <c r="M18" s="137"/>
-      <c r="N18" s="138"/>
+      <c r="L18" s="137"/>
+      <c r="M18" s="138"/>
+      <c r="N18" s="139"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
@@ -16453,9 +16453,9 @@
         <f>C15/(C17*100)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L19" s="136"/>
-      <c r="M19" s="137"/>
-      <c r="N19" s="138"/>
+      <c r="L19" s="137"/>
+      <c r="M19" s="138"/>
+      <c r="N19" s="139"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
@@ -16465,9 +16465,9 @@
         <f>Model!G4/Model!F3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L20" s="136"/>
-      <c r="M20" s="137"/>
-      <c r="N20" s="138"/>
+      <c r="L20" s="137"/>
+      <c r="M20" s="138"/>
+      <c r="N20" s="139"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
@@ -16477,9 +16477,9 @@
         <f>Model!G5/Model!F4-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L21" s="136"/>
-      <c r="M21" s="137"/>
-      <c r="N21" s="138"/>
+      <c r="L21" s="137"/>
+      <c r="M21" s="138"/>
+      <c r="N21" s="139"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
@@ -16489,9 +16489,9 @@
         <f>Model!F12+Model!F10</f>
         <v>0</v>
       </c>
-      <c r="L22" s="136"/>
-      <c r="M22" s="137"/>
-      <c r="N22" s="138"/>
+      <c r="L22" s="137"/>
+      <c r="M22" s="138"/>
+      <c r="N22" s="139"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
@@ -16501,9 +16501,9 @@
         <f>Model!F12</f>
         <v>0</v>
       </c>
-      <c r="L23" s="136"/>
-      <c r="M23" s="137"/>
-      <c r="N23" s="138"/>
+      <c r="L23" s="137"/>
+      <c r="M23" s="138"/>
+      <c r="N23" s="139"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
@@ -16513,9 +16513,9 @@
         <f>Model!F17</f>
         <v>0</v>
       </c>
-      <c r="L24" s="136"/>
-      <c r="M24" s="137"/>
-      <c r="N24" s="138"/>
+      <c r="L24" s="137"/>
+      <c r="M24" s="138"/>
+      <c r="N24" s="139"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
@@ -16525,9 +16525,9 @@
         <f>Model!F18</f>
         <v>0</v>
       </c>
-      <c r="L25" s="136"/>
-      <c r="M25" s="137"/>
-      <c r="N25" s="138"/>
+      <c r="L25" s="137"/>
+      <c r="M25" s="138"/>
+      <c r="N25" s="139"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
@@ -16537,9 +16537,9 @@
         <f>C12/C23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L26" s="136"/>
-      <c r="M26" s="137"/>
-      <c r="N26" s="138"/>
+      <c r="L26" s="137"/>
+      <c r="M26" s="138"/>
+      <c r="N26" s="139"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
@@ -16552,9 +16552,9 @@
       <c r="E27" t="s">
         <v>81</v>
       </c>
-      <c r="L27" s="136"/>
-      <c r="M27" s="137"/>
-      <c r="N27" s="138"/>
+      <c r="L27" s="137"/>
+      <c r="M27" s="138"/>
+      <c r="N27" s="139"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
@@ -16564,9 +16564,9 @@
         <f>C22/-Model!F10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L28" s="139"/>
-      <c r="M28" s="140"/>
-      <c r="N28" s="141"/>
+      <c r="L28" s="140"/>
+      <c r="M28" s="141"/>
+      <c r="N28" s="142"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
@@ -19759,7 +19759,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19768,37 +19768,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="152">
+      <c r="B1" s="133">
         <v>45413</v>
       </c>
-      <c r="C1" s="152">
+      <c r="C1" s="133">
         <v>45444</v>
       </c>
-      <c r="D1" s="152">
+      <c r="D1" s="133">
         <v>45474</v>
       </c>
-      <c r="E1" s="152">
+      <c r="E1" s="133">
         <v>45505</v>
       </c>
-      <c r="F1" s="152">
+      <c r="F1" s="133">
         <v>45536</v>
       </c>
-      <c r="G1" s="152">
+      <c r="G1" s="133">
         <v>45566</v>
       </c>
-      <c r="H1" s="152">
+      <c r="H1" s="133">
         <v>45597</v>
       </c>
-      <c r="I1" s="152">
+      <c r="I1" s="133">
         <v>45627</v>
       </c>
-      <c r="J1" s="152">
+      <c r="J1" s="133">
         <v>45658</v>
       </c>
-      <c r="K1" s="152">
+      <c r="K1" s="133">
         <v>45689</v>
       </c>
-      <c r="L1" s="152">
+      <c r="L1" s="133">
         <v>45717</v>
       </c>
     </row>
@@ -28304,14 +28304,14 @@
       <c r="D1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H1" s="142" t="s">
+      <c r="H1" s="143" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="144"/>
+      <c r="M1" s="145"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" t="e">
@@ -28718,10 +28718,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="145" t="s">
+      <c r="H17" s="146" t="s">
         <v>151</v>
       </c>
-      <c r="I17" s="146"/>
+      <c r="I17" s="147"/>
       <c r="M17" s="91"/>
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.25">
@@ -28729,8 +28729,8 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="147"/>
-      <c r="I18" s="148"/>
+      <c r="H18" s="148"/>
+      <c r="I18" s="149"/>
       <c r="M18" s="91"/>
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.25">
@@ -29153,14 +29153,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H43" s="149" t="s">
+      <c r="H43" s="150" t="s">
         <v>145</v>
       </c>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="151"/>
+      <c r="I43" s="151"/>
+      <c r="J43" s="151"/>
+      <c r="K43" s="151"/>
+      <c r="L43" s="151"/>
+      <c r="M43" s="152"/>
     </row>
     <row r="44" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D44" t="e">

--- a/x_template.xlsx
+++ b/x_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCFC97F-19C1-43C2-A439-99A860128898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D268892-DC9A-4E70-A744-4A627E54F85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,9 +21,6 @@
     <sheet name="Catalysts" sheetId="4" r:id="rId6"/>
     <sheet name="DoR" sheetId="5" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Model!$B$25</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Model!$B$26</definedName>
@@ -1835,8 +1832,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF0000"/>
       <color rgb="FFFF9B9B"/>
-      <color rgb="FFFF0000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1940,7 +1937,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1949,6 +1946,50 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-451E-441C-8550-9BD44DB5225A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2054,6 +2095,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2193,6 +2243,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2212,154 +2271,6 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Hold</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>Analysts!$B$1:$L$1</c:f>
-              <c:numCache>
-                <c:formatCode>[$-407]mmm/\ yy;@</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>45413</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45444</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45474</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45505</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45536</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45566</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45597</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45627</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45658</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45689</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45717</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Analysts!$B$4:$L$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-579C-4350-B83D-5F2E75DDA864}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Analysts!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Buy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2476,7 +2387,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Analysts!$B$5:$L$5</c:f>
+              <c:f>Analysts!$B$4:$L$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2494,27 +2405,27 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-579C-4350-B83D-5F2E75DDA864}"/>
+              <c16:uniqueId val="{00000002-579C-4350-B83D-5F2E75DDA864}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Analysts!$A$6</c:f>
+              <c:f>Analysts!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Strong buy</c:v>
+                  <c:v>Buy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2624,10 +2535,167 @@
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:f>Analysts!$B$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-579C-4350-B83D-5F2E75DDA864}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analysts!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Strong buy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Analysts!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>[$-407]mmm/\ yy;@</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>45413</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45444</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45474</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45536</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45566</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45597</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45627</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45658</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45689</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45717</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
               <c:f>Analysts!$B$6:$L$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -15227,13 +15295,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>200024</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15772,155 +15840,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Analysts"/>
-      <sheetName val="Model-graph"/>
-      <sheetName val="KPIs"/>
-      <sheetName val="Catalysts"/>
-      <sheetName val="DoR"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="B1">
-            <v>45413</v>
-          </cell>
-          <cell r="C1">
-            <v>45444</v>
-          </cell>
-          <cell r="D1">
-            <v>45474</v>
-          </cell>
-          <cell r="E1">
-            <v>45505</v>
-          </cell>
-          <cell r="F1">
-            <v>45536</v>
-          </cell>
-          <cell r="G1">
-            <v>45566</v>
-          </cell>
-          <cell r="H1">
-            <v>45597</v>
-          </cell>
-          <cell r="I1">
-            <v>45627</v>
-          </cell>
-          <cell r="J1">
-            <v>45658</v>
-          </cell>
-          <cell r="K1">
-            <v>45689</v>
-          </cell>
-          <cell r="L1">
-            <v>45717</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Sell</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Underperform</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Hold</v>
-          </cell>
-          <cell r="I4">
-            <v>3</v>
-          </cell>
-          <cell r="J4">
-            <v>3</v>
-          </cell>
-          <cell r="K4">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Buy</v>
-          </cell>
-          <cell r="I5">
-            <v>3</v>
-          </cell>
-          <cell r="J5">
-            <v>3</v>
-          </cell>
-          <cell r="K5">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Strong buy</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>Goldman Sachs</v>
-          </cell>
-          <cell r="I24">
-            <v>80</v>
-          </cell>
-          <cell r="J24">
-            <v>80</v>
-          </cell>
-          <cell r="K24">
-            <v>80</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>Wells Fargo</v>
-          </cell>
-          <cell r="I25">
-            <v>90</v>
-          </cell>
-          <cell r="J25">
-            <v>90</v>
-          </cell>
-          <cell r="K25">
-            <v>90</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>TD Cowen</v>
-          </cell>
-          <cell r="I26">
-            <v>40</v>
-          </cell>
-          <cell r="J26">
-            <v>40</v>
-          </cell>
-          <cell r="K26">
-            <v>60</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -19759,7 +19678,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19806,11 +19725,29 @@
       <c r="A2" t="s">
         <v>168</v>
       </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>169</v>
       </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -19843,6 +19780,15 @@
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>172</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">

--- a/x_template.xlsx
+++ b/x_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D268892-DC9A-4E70-A744-4A627E54F85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DB87BF-61E7-4E0D-B8E0-3FE52D7F5C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="3450" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1946,50 +1946,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="75000"/>
-                          <a:lumOff val="25000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-451E-441C-8550-9BD44DB5225A}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -19677,8 +19633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A670AE-D1F2-4470-937E-18BA568AD24E}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection sqref="A1:Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/x_template.xlsx
+++ b/x_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DB87BF-61E7-4E0D-B8E0-3FE52D7F5C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9B968E-968F-4093-9F89-1B71E90B3589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="3450" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="645" yWindow="3795" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -19633,7 +19633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A670AE-D1F2-4470-937E-18BA568AD24E}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
       <selection sqref="A1:Q31"/>
     </sheetView>
   </sheetViews>

--- a/x_template.xlsx
+++ b/x_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9B968E-968F-4093-9F89-1B71E90B3589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93D137F-F3F9-444B-81A3-26A42F170230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="3795" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,16 +22,30 @@
     <sheet name="DoR" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$25</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$26</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$25:$AA$25</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$26:$AA$26</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$2:$AA$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$6</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$7</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$2:$AA$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$6:$AA$6</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$7:$AA$7</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$6</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$7</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Model!$N$25:$AA$25</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Model!$N$25:$Y$25</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Model!$N$26:$AA$26</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Model!$N$26:$Y$26</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Model!$N$2:$AA$2</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Model!$N$2:$Y$2</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Model!$B$6</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Model!$B$7</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Model!$N$2:$AA$2</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Model!$N$2:$Y$2</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$N$2:$AA$2</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Model!$N$6:$AA$6</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Model!$N$6:$Y$6</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Model!$N$7:$AA$7</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Model!$N$7:$Y$7</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$N$2:$Y$2</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$N$6:$AA$6</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$N$6:$Y$6</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$N$7:$AA$7</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$N$7:$Y$7</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$B$25</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$B$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -319,7 +333,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="176">
   <si>
     <t>Price</t>
   </si>
@@ -349,15 +363,6 @@
   </si>
   <si>
     <t>Q123</t>
-  </si>
-  <si>
-    <t>Q221</t>
-  </si>
-  <si>
-    <t>Q321</t>
-  </si>
-  <si>
-    <t>Q421</t>
   </si>
   <si>
     <t>Q122</t>
@@ -427,9 +432,6 @@
   </si>
   <si>
     <t>FY24</t>
-  </si>
-  <si>
-    <t>Q121</t>
   </si>
   <si>
     <t>FY19</t>
@@ -850,6 +852,15 @@
   </si>
   <si>
     <t>Price Targets</t>
+  </si>
+  <si>
+    <t>FY26</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
   </si>
 </sst>
 </file>
@@ -1599,7 +1610,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1647,26 +1658,14 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1758,7 +1757,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="12" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="12" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1821,6 +1819,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -3976,66 +3994,60 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$L$2:$AA$2</c:f>
+              <c:f>Model!$N$2:$AA$2</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>Q121</c:v>
+                  <c:v>Q122</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Q221</c:v>
+                  <c:v>Q222</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Q321</c:v>
+                  <c:v>Q322</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q421</c:v>
+                  <c:v>Q422</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q122</c:v>
+                  <c:v>Q123</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q222</c:v>
+                  <c:v>Q223</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q322</c:v>
+                  <c:v>Q323</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q422</c:v>
+                  <c:v>Q423</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Q123</c:v>
+                  <c:v>Q124</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Q223</c:v>
+                  <c:v>Q224</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Q323</c:v>
+                  <c:v>Q324</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Q423</c:v>
+                  <c:v>Q424</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Q124</c:v>
+                  <c:v>Q125</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Q224</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Q324</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Q424</c:v>
+                  <c:v>Q225</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$6:$X$6</c:f>
+              <c:f>Model!$N$6:$AA$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4073,6 +4085,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4182,10 +4197,22 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$29:$AA$29</c:f>
+              <c:f>Model!$N$29:$AA$29</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4214,12 +4241,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4677,9 +4698,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$C$2:$I$2</c:f>
+              <c:f>Model!$C$2:$J$2</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>FY19</c:v>
                 </c:pt>
@@ -4700,16 +4721,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>FY25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FY26</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$6:$I$6</c:f>
+              <c:f>Model!$C$6:$J$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4723,6 +4747,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4841,10 +4874,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$29:$I$29</c:f>
+              <c:f>Model!$C$29:$J$29</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4861,6 +4894,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5281,66 +5317,60 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$L$2:$AA$2</c:f>
+              <c:f>Model!$N$2:$AA$2</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>Q121</c:v>
+                  <c:v>Q122</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Q221</c:v>
+                  <c:v>Q222</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Q321</c:v>
+                  <c:v>Q322</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q421</c:v>
+                  <c:v>Q422</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q122</c:v>
+                  <c:v>Q123</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q222</c:v>
+                  <c:v>Q223</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q322</c:v>
+                  <c:v>Q323</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q422</c:v>
+                  <c:v>Q423</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Q123</c:v>
+                  <c:v>Q124</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Q223</c:v>
+                  <c:v>Q224</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Q323</c:v>
+                  <c:v>Q324</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Q423</c:v>
+                  <c:v>Q424</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Q124</c:v>
+                  <c:v>Q125</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Q224</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Q324</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Q424</c:v>
+                  <c:v>Q225</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$25:$AA$25</c:f>
+              <c:f>Model!$N$25:$AA$25</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5381,12 +5411,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5496,10 +5520,22 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$35:$AA$35</c:f>
+              <c:f>Model!$N$35:$AA$35</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5528,12 +5564,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5952,9 +5982,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$C$2:$I$2</c:f>
+              <c:f>Model!$C$2:$J$2</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>FY19</c:v>
                 </c:pt>
@@ -5975,16 +6005,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>FY25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FY26</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$25:$I$25</c:f>
+              <c:f>Model!$C$25:$J$25</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5998,6 +6031,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6105,10 +6147,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$35:$I$35</c:f>
+              <c:f>Model!$C$35:$J$35</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6125,6 +6167,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6577,66 +6622,60 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$L$2:$AA$2</c:f>
+              <c:f>Model!$N$2:$AA$2</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>Q121</c:v>
+                  <c:v>Q122</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Q221</c:v>
+                  <c:v>Q222</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Q321</c:v>
+                  <c:v>Q322</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q421</c:v>
+                  <c:v>Q422</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q122</c:v>
+                  <c:v>Q123</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q222</c:v>
+                  <c:v>Q223</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q322</c:v>
+                  <c:v>Q323</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q422</c:v>
+                  <c:v>Q423</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Q123</c:v>
+                  <c:v>Q124</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Q223</c:v>
+                  <c:v>Q224</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Q323</c:v>
+                  <c:v>Q324</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Q423</c:v>
+                  <c:v>Q424</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Q124</c:v>
+                  <c:v>Q125</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Q224</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Q324</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Q424</c:v>
+                  <c:v>Q225</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$30:$AA$30</c:f>
+              <c:f>Model!$N$30:$AA$30</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6677,12 +6716,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6793,66 +6826,60 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$L$2:$AA$2</c:f>
+              <c:f>Model!$N$2:$AA$2</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>Q121</c:v>
+                  <c:v>Q122</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Q221</c:v>
+                  <c:v>Q222</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Q321</c:v>
+                  <c:v>Q322</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q421</c:v>
+                  <c:v>Q422</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q122</c:v>
+                  <c:v>Q123</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q222</c:v>
+                  <c:v>Q223</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q322</c:v>
+                  <c:v>Q323</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q422</c:v>
+                  <c:v>Q423</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Q123</c:v>
+                  <c:v>Q124</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Q223</c:v>
+                  <c:v>Q224</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Q323</c:v>
+                  <c:v>Q324</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Q423</c:v>
+                  <c:v>Q424</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Q124</c:v>
+                  <c:v>Q125</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Q224</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Q324</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Q424</c:v>
+                  <c:v>Q225</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$31:$AA$31</c:f>
+              <c:f>Model!$N$31:$AA$31</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6893,12 +6920,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7009,66 +7030,60 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$L$2:$AA$2</c:f>
+              <c:f>Model!$N$2:$AA$2</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>Q121</c:v>
+                  <c:v>Q122</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Q221</c:v>
+                  <c:v>Q222</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Q321</c:v>
+                  <c:v>Q322</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q421</c:v>
+                  <c:v>Q422</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q122</c:v>
+                  <c:v>Q123</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q222</c:v>
+                  <c:v>Q223</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q322</c:v>
+                  <c:v>Q323</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q422</c:v>
+                  <c:v>Q423</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Q123</c:v>
+                  <c:v>Q124</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Q223</c:v>
+                  <c:v>Q224</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Q323</c:v>
+                  <c:v>Q324</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Q423</c:v>
+                  <c:v>Q424</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Q124</c:v>
+                  <c:v>Q125</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Q224</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Q324</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Q424</c:v>
+                  <c:v>Q225</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$32:$AA$32</c:f>
+              <c:f>Model!$N$32:$AA$32</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7109,12 +7124,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7514,9 +7523,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$C$2:$I$2</c:f>
+              <c:f>Model!$C$2:$J$2</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>FY19</c:v>
                 </c:pt>
@@ -7537,16 +7546,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>FY25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FY26</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$30:$I$30</c:f>
+              <c:f>Model!$C$30:$J$30</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7560,6 +7572,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7670,9 +7691,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$C$2:$I$2</c:f>
+              <c:f>Model!$C$2:$J$2</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>FY19</c:v>
                 </c:pt>
@@ -7693,6 +7714,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>FY25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FY26</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7716,6 +7740,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7826,9 +7856,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$C$2:$I$2</c:f>
+              <c:f>Model!$C$2:$J$2</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>FY19</c:v>
                 </c:pt>
@@ -7849,6 +7879,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>FY25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FY26</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7872,6 +7905,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -8395,18 +8434,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.14</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.12</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.14</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.10</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8450,7 +8489,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.9</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8470,7 +8509,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.8</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8501,18 +8540,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.18</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.22</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.18</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.20</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8556,7 +8595,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.17</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8576,7 +8615,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.16</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -16061,8 +16100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16085,34 +16124,34 @@
       <c r="B2" s="34"/>
       <c r="C2" s="19"/>
       <c r="E2" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="67" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>48</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="26" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I2" s="26" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M2" s="31" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="N2" s="32" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C3" s="20">
         <v>45560</v>
@@ -16217,7 +16256,7 @@
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C11" s="15" t="e">
         <f>C9-C10</f>
@@ -16246,7 +16285,7 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C13" s="36" t="e">
         <f>C6/Model!#REF!</f>
@@ -16259,7 +16298,7 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C14" s="36" t="e">
         <f>C6/Model!G16</f>
@@ -16277,7 +16316,7 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C15" s="36" t="e">
         <f>C6/Model!H16</f>
@@ -16286,7 +16325,7 @@
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C16" s="6" t="e">
         <f>Model!G16/Model!#REF!-1</f>
@@ -16295,314 +16334,314 @@
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C17" s="6" t="e">
         <f>Model!H16/Model!G16-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="L17" s="134"/>
-      <c r="M17" s="135"/>
-      <c r="N17" s="136"/>
+        <v>53</v>
+      </c>
+      <c r="L17" s="121"/>
+      <c r="M17" s="122"/>
+      <c r="N17" s="123"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="52" t="e">
+        <v>71</v>
+      </c>
+      <c r="C18" s="46" t="e">
         <f>C14/(C16*100)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L18" s="137"/>
-      <c r="M18" s="138"/>
-      <c r="N18" s="139"/>
+      <c r="L18" s="124"/>
+      <c r="M18" s="125"/>
+      <c r="N18" s="126"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="52" t="e">
+        <v>72</v>
+      </c>
+      <c r="C19" s="46" t="e">
         <f>C15/(C17*100)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L19" s="137"/>
-      <c r="M19" s="138"/>
-      <c r="N19" s="139"/>
+      <c r="L19" s="124"/>
+      <c r="M19" s="125"/>
+      <c r="N19" s="126"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C20" s="6" t="e">
         <f>Model!G4/Model!F3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L20" s="137"/>
-      <c r="M20" s="138"/>
-      <c r="N20" s="139"/>
+      <c r="L20" s="124"/>
+      <c r="M20" s="125"/>
+      <c r="N20" s="126"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C21" s="6" t="e">
         <f>Model!G5/Model!F4-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L21" s="137"/>
-      <c r="M21" s="138"/>
-      <c r="N21" s="139"/>
+      <c r="L21" s="124"/>
+      <c r="M21" s="125"/>
+      <c r="N21" s="126"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C22" s="15">
         <f>Model!F12+Model!F10</f>
         <v>0</v>
       </c>
-      <c r="L22" s="137"/>
-      <c r="M22" s="138"/>
-      <c r="N22" s="139"/>
+      <c r="L22" s="124"/>
+      <c r="M22" s="125"/>
+      <c r="N22" s="126"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C23" s="15">
         <f>Model!F12</f>
         <v>0</v>
       </c>
-      <c r="L23" s="137"/>
-      <c r="M23" s="138"/>
-      <c r="N23" s="139"/>
+      <c r="L23" s="124"/>
+      <c r="M23" s="125"/>
+      <c r="N23" s="126"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <f>Model!F17</f>
         <v>0</v>
       </c>
-      <c r="L24" s="137"/>
-      <c r="M24" s="138"/>
-      <c r="N24" s="139"/>
+      <c r="L24" s="124"/>
+      <c r="M24" s="125"/>
+      <c r="N24" s="126"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C25" s="7">
         <f>Model!F18</f>
         <v>0</v>
       </c>
-      <c r="L25" s="137"/>
-      <c r="M25" s="138"/>
-      <c r="N25" s="139"/>
+      <c r="L25" s="124"/>
+      <c r="M25" s="125"/>
+      <c r="N25" s="126"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C26" s="36" t="e">
         <f>C12/C23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L26" s="137"/>
-      <c r="M26" s="138"/>
-      <c r="N26" s="139"/>
+      <c r="L26" s="124"/>
+      <c r="M26" s="125"/>
+      <c r="N26" s="126"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" s="127" t="e">
-        <f>Model!Q45/Model!Q50</f>
+        <v>98</v>
+      </c>
+      <c r="C27" s="115" t="e">
+        <f>Model!O45/Model!O50</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E27" t="s">
-        <v>81</v>
-      </c>
-      <c r="L27" s="137"/>
-      <c r="M27" s="138"/>
-      <c r="N27" s="139"/>
+        <v>77</v>
+      </c>
+      <c r="L27" s="124"/>
+      <c r="M27" s="125"/>
+      <c r="N27" s="126"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C28" s="36" t="e">
         <f>C22/-Model!F10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L28" s="140"/>
-      <c r="M28" s="141"/>
-      <c r="N28" s="142"/>
+      <c r="L28" s="127"/>
+      <c r="M28" s="128"/>
+      <c r="N28" s="129"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C29" s="36" t="e">
-        <f>Model!Q34/Model!Q44</f>
+        <f>Model!O34/Model!O44</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C30" s="36" t="e">
-        <f>(Model!Q28+Model!Q29)/Model!Q44</f>
+        <f>(Model!O28+Model!O29)/Model!O44</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C31" s="6" t="e">
-        <f>(Model!Q34-Model!Q44)/Model!Q40</f>
+        <f>(Model!O34-Model!O44)/Model!O40</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C32" s="36" t="e">
-        <f>(Model!Q40-Model!Q49)/Main!C7</f>
+        <f>(Model!O40-Model!O49)/Main!C7</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C33" s="36" t="e">
-        <f>Model!Q3/Model!Q40</f>
+        <f>Model!O3/Model!O40</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C34" s="38" t="e">
-        <f>Model!Q14/Model!Q40</f>
+        <f>Model!O14/Model!O40</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C35" s="38" t="e">
-        <f>Model!Q14/Model!Q50</f>
+        <f>Model!O14/Model!O50</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="22" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C36" s="23"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="66"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="66"/>
-      <c r="H42" s="66"/>
-      <c r="I42" s="66"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="66"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="54"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E44" s="63"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="66"/>
-      <c r="H44" s="66"/>
-      <c r="I44" s="66"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E45" s="63"/>
-      <c r="F45" s="63"/>
-      <c r="G45" s="66"/>
-      <c r="H45" s="66"/>
-      <c r="I45" s="66"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E46" s="63"/>
-      <c r="F46" s="63"/>
-      <c r="G46" s="66"/>
-      <c r="H46" s="66"/>
-      <c r="I46" s="66"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="54"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E47" s="63"/>
-      <c r="F47" s="63"/>
-      <c r="G47" s="66"/>
-      <c r="H47" s="66"/>
-      <c r="I47" s="66"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="54"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="54"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E48" s="63"/>
-      <c r="F48" s="63"/>
-      <c r="G48" s="66"/>
-      <c r="H48" s="66"/>
-      <c r="I48" s="66"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="54"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="54"/>
     </row>
     <row r="49" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E49" s="63"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="66"/>
-      <c r="H49" s="66"/>
-      <c r="I49" s="66"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="54"/>
     </row>
     <row r="50" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E50" s="63"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="66"/>
-      <c r="H50" s="66"/>
-      <c r="I50" s="66"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="54"/>
     </row>
     <row r="51" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E51" s="63"/>
-      <c r="F51" s="63"/>
-      <c r="G51" s="66"/>
-      <c r="H51" s="66"/>
-      <c r="I51" s="66"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="54"/>
     </row>
     <row r="52" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E52" s="64"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="65"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53"/>
     </row>
     <row r="53" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E53" s="64"/>
-      <c r="F53" s="65"/>
-      <c r="G53" s="65"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="53"/>
     </row>
     <row r="54" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E54" s="64"/>
-      <c r="F54" s="65"/>
-      <c r="G54" s="65"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16618,117 +16657,116 @@
   <dimension ref="A1:AA87"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F36" sqref="F36"/>
+      <selection pane="bottomRight" activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="13"/>
+    <col min="7" max="7" width="11.42578125" style="140"/>
+    <col min="8" max="8" width="11.42578125" style="13"/>
+    <col min="23" max="23" width="11.42578125" style="140"/>
     <col min="25" max="25" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>35</v>
+        <v>12</v>
+      </c>
+      <c r="G2" s="140" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" t="s">
+        <v>173</v>
+      </c>
+      <c r="N2" t="s">
         <v>10</v>
       </c>
-      <c r="N2" t="s">
-        <v>11</v>
-      </c>
       <c r="O2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="P2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="Q2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="T2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="U2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W2" t="s">
-        <v>43</v>
+        <v>64</v>
+      </c>
+      <c r="W2" s="140" t="s">
+        <v>68</v>
       </c>
       <c r="X2" t="s">
-        <v>68</v>
+        <v>160</v>
       </c>
       <c r="Y2" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>164</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>165</v>
+        <v>161</v>
+      </c>
+      <c r="Z2" s="159" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA2" s="159" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="51"/>
+        <v>150</v>
+      </c>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="141"/>
     </row>
     <row r="6" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" s="11">
         <f>SUM(C3:C5)</f>
@@ -16746,90 +16784,91 @@
         <f>SUM(F3:F5)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="142">
         <f>SUM(G3:G5)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="L6" s="11">
-        <f>SUM(L3:L5)</f>
+      <c r="H6" s="14">
+        <f t="shared" ref="H6:J6" si="0">SUM(H3:H5)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="11">
-        <f t="shared" ref="M6:V6" si="0">SUM(M3:M5)</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="11">
+      <c r="I6" s="142">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O6" s="11">
+      <c r="J6" s="142">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P6" s="11">
-        <f t="shared" si="0"/>
+      <c r="N6" s="11">
+        <f t="shared" ref="N6:T6" si="1">SUM(N3:N5)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S6" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T6" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U6" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V6" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W6" s="11">
-        <f t="shared" ref="W6:AA6" si="1">SUM(W3:W5)</f>
-        <v>0</v>
-      </c>
-      <c r="X6" s="11">
+      <c r="O6" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y6" s="14">
+      <c r="P6" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z6" s="11">
+      <c r="Q6" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA6" s="11">
+      <c r="R6" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="S6" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="11">
+        <f t="shared" ref="U6:Y6" si="2">SUM(U3:U5)</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="142">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="14">
+        <f t="shared" ref="Y6:AA6" si="3">SUM(Y3:Y5)</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="42"/>
+      <c r="G7" s="143"/>
+      <c r="H7" s="152"/>
       <c r="I7" s="42"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="J7" s="151"/>
       <c r="N7" s="40"/>
       <c r="O7" s="40"/>
       <c r="P7" s="40"/>
@@ -16839,25 +16878,24 @@
       <c r="T7" s="40"/>
       <c r="U7" s="40"/>
       <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
+      <c r="W7" s="150"/>
       <c r="X7" s="40"/>
-      <c r="Y7" s="131"/>
+      <c r="Y7" s="118"/>
       <c r="Z7" s="40"/>
       <c r="AA7" s="40"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="42"/>
+      <c r="G8" s="143"/>
+      <c r="H8" s="152"/>
       <c r="I8" s="42"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="J8" s="151"/>
       <c r="N8" s="40"/>
       <c r="O8" s="40"/>
       <c r="P8" s="40"/>
@@ -16867,25 +16905,24 @@
       <c r="T8" s="40"/>
       <c r="U8" s="40"/>
       <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
+      <c r="W8" s="150"/>
       <c r="X8" s="40"/>
-      <c r="Y8" s="131"/>
+      <c r="Y8" s="118"/>
       <c r="Z8" s="40"/>
       <c r="AA8" s="40"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="42"/>
+      <c r="G9" s="143"/>
+      <c r="H9" s="152"/>
       <c r="I9" s="42"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="J9" s="151"/>
       <c r="N9" s="40"/>
       <c r="O9" s="40"/>
       <c r="P9" s="40"/>
@@ -16895,25 +16932,24 @@
       <c r="T9" s="40"/>
       <c r="U9" s="40"/>
       <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
+      <c r="W9" s="150"/>
       <c r="X9" s="40"/>
-      <c r="Y9" s="131"/>
+      <c r="Y9" s="118"/>
       <c r="Z9" s="40"/>
       <c r="AA9" s="40"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="42"/>
+      <c r="G10" s="143"/>
+      <c r="H10" s="152"/>
       <c r="I10" s="42"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
+      <c r="J10" s="151"/>
       <c r="N10" s="40"/>
       <c r="O10" s="40"/>
       <c r="P10" s="40"/>
@@ -16923,50 +16959,46 @@
       <c r="T10" s="40"/>
       <c r="U10" s="40"/>
       <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
+      <c r="W10" s="150"/>
       <c r="X10" s="40"/>
-      <c r="Y10" s="131"/>
+      <c r="Y10" s="118"/>
       <c r="Z10" s="40"/>
       <c r="AA10" s="40"/>
     </row>
     <row r="11" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C11" s="11">
         <f>SUM(C8:C10)</f>
         <v>0</v>
       </c>
       <c r="D11" s="11">
-        <f t="shared" ref="D11:I11" si="2">SUM(D8:D10)</f>
+        <f t="shared" ref="D11:J11" si="4">SUM(D8:D10)</f>
         <v>0</v>
       </c>
       <c r="E11" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F11" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G11" s="14">
-        <f t="shared" si="2"/>
+      <c r="G11" s="142">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H11" s="11">
-        <f t="shared" si="2"/>
+      <c r="H11" s="153">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I11" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L11" s="11">
-        <f t="shared" ref="L11" si="3">SUM(L8:L10)</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="11">
-        <f t="shared" ref="M11" si="4">SUM(M8:M10)</f>
+      <c r="J11" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N11" s="11">
@@ -16994,51 +17026,49 @@
         <v>0</v>
       </c>
       <c r="T11" s="11">
-        <f t="shared" ref="T11" si="11">SUM(T8:T10)</f>
+        <f t="shared" ref="T11:Y11" si="11">SUM(T8:T10)</f>
         <v>0</v>
       </c>
       <c r="U11" s="11">
-        <f t="shared" ref="U11" si="12">SUM(U8:U10)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V11" s="11">
-        <f t="shared" ref="V11:AA11" si="13">SUM(V8:V10)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="W11" s="11">
-        <f t="shared" si="13"/>
+      <c r="W11" s="142">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="X11" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y11" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="Y11:AA11" si="12">SUM(Y8:Y10)</f>
         <v>0</v>
       </c>
       <c r="Z11" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA11" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="40"/>
+      <c r="G12" s="143"/>
+      <c r="H12" s="152"/>
       <c r="I12" s="40"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
@@ -17048,7 +17078,7 @@
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
       <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
+      <c r="W12" s="143"/>
       <c r="X12" s="10"/>
       <c r="Y12" s="15"/>
       <c r="Z12" s="10"/>
@@ -17056,17 +17086,15 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="40"/>
+      <c r="G13" s="143"/>
+      <c r="H13" s="152"/>
       <c r="I13" s="40"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
@@ -17076,7 +17104,7 @@
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
       <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
+      <c r="W13" s="143"/>
       <c r="X13" s="10"/>
       <c r="Y13" s="15"/>
       <c r="Z13" s="10"/>
@@ -17084,17 +17112,15 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="10"/>
+      <c r="G14" s="143"/>
+      <c r="H14" s="154"/>
       <c r="I14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
@@ -17104,7 +17130,7 @@
       <c r="T14" s="10"/>
       <c r="U14" s="10"/>
       <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
+      <c r="W14" s="143"/>
       <c r="X14" s="10"/>
       <c r="Y14" s="15"/>
       <c r="Z14" s="10"/>
@@ -17112,17 +17138,15 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="40"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="152"/>
       <c r="I15" s="40"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
@@ -17132,7 +17156,7 @@
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
+      <c r="W15" s="143"/>
       <c r="X15" s="10"/>
       <c r="Y15" s="15"/>
       <c r="Z15" s="10"/>
@@ -17140,116 +17164,112 @@
     </row>
     <row r="16" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C16" s="11">
         <f>C6-SUM(C11:C15)</f>
         <v>0</v>
       </c>
       <c r="D16" s="11">
-        <f t="shared" ref="D16:I16" si="14">D6-SUM(D11:D15)</f>
+        <f t="shared" ref="D16:I16" si="13">D6-SUM(D11:D15)</f>
         <v>0</v>
       </c>
       <c r="E16" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="142">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="14">
+        <f t="shared" ref="H16:J16" si="14">H6-SUM(H11:H15)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="142">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F16" s="11">
+      <c r="J16" s="142">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G16" s="14">
-        <f t="shared" si="14"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11">
+        <f t="shared" ref="N16" si="15">N6-SUM(N11:N15)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="11">
-        <f t="shared" si="14"/>
+      <c r="O16" s="11">
+        <f t="shared" ref="O16" si="16">O6-SUM(O11:O15)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="11">
-        <f t="shared" si="14"/>
+      <c r="P16" s="11">
+        <f t="shared" ref="P16" si="17">P6-SUM(P11:P15)</f>
         <v>0</v>
       </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11">
-        <f t="shared" ref="L16" si="15">L6-SUM(L11:L15)</f>
+      <c r="Q16" s="11">
+        <f t="shared" ref="Q16" si="18">Q6-SUM(Q11:Q15)</f>
         <v>0</v>
       </c>
-      <c r="M16" s="11">
-        <f t="shared" ref="M16" si="16">M6-SUM(M11:M15)</f>
+      <c r="R16" s="11">
+        <f t="shared" ref="R16" si="19">R6-SUM(R11:R15)</f>
         <v>0</v>
       </c>
-      <c r="N16" s="11">
-        <f t="shared" ref="N16" si="17">N6-SUM(N11:N15)</f>
+      <c r="S16" s="11">
+        <f t="shared" ref="S16" si="20">S6-SUM(S11:S15)</f>
         <v>0</v>
       </c>
-      <c r="O16" s="11">
-        <f t="shared" ref="O16" si="18">O6-SUM(O11:O15)</f>
+      <c r="T16" s="11">
+        <f t="shared" ref="T16:Y16" si="21">T6-SUM(T11:T15)</f>
         <v>0</v>
       </c>
-      <c r="P16" s="11">
-        <f t="shared" ref="P16" si="19">P6-SUM(P11:P15)</f>
+      <c r="U16" s="11">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="11">
-        <f t="shared" ref="Q16" si="20">Q6-SUM(Q11:Q15)</f>
+      <c r="V16" s="11">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="R16" s="11">
-        <f t="shared" ref="R16" si="21">R6-SUM(R11:R15)</f>
+      <c r="W16" s="142">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="S16" s="11">
-        <f t="shared" ref="S16" si="22">S6-SUM(S11:S15)</f>
+      <c r="X16" s="11">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="T16" s="11">
-        <f t="shared" ref="T16" si="23">T6-SUM(T11:T15)</f>
+      <c r="Y16" s="14">
+        <f t="shared" ref="Y16:AA16" si="22">Y6-SUM(Y11:Y15)</f>
         <v>0</v>
       </c>
-      <c r="U16" s="11">
-        <f t="shared" ref="U16" si="24">U6-SUM(U11:U15)</f>
+      <c r="Z16" s="11">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="V16" s="11">
-        <f t="shared" ref="V16:AA16" si="25">V6-SUM(V11:V15)</f>
-        <v>0</v>
-      </c>
-      <c r="W16" s="11">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="X16" s="11">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="14">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="Z16" s="11">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
       <c r="AA16" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="143"/>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
@@ -17259,7 +17279,7 @@
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
+      <c r="W17" s="143"/>
       <c r="X17" s="10"/>
       <c r="Y17" s="15"/>
       <c r="Z17" s="10"/>
@@ -17267,17 +17287,16 @@
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="143"/>
+      <c r="J18" s="143"/>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
@@ -17287,7 +17306,7 @@
       <c r="T18" s="10"/>
       <c r="U18" s="10"/>
       <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
+      <c r="W18" s="143"/>
       <c r="X18" s="10"/>
       <c r="Y18" s="15"/>
       <c r="Z18" s="10"/>
@@ -17295,17 +17314,16 @@
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="143"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
@@ -17315,7 +17333,7 @@
       <c r="T19" s="10"/>
       <c r="U19" s="10"/>
       <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
+      <c r="W19" s="143"/>
       <c r="X19" s="10"/>
       <c r="Y19" s="15"/>
       <c r="Z19" s="10"/>
@@ -17323,7 +17341,7 @@
     </row>
     <row r="20" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C20" s="11">
         <f>C16+SUM(C17:C19)</f>
@@ -17334,103 +17352,98 @@
         <v>0</v>
       </c>
       <c r="E20" s="11">
-        <f t="shared" ref="E20:I20" si="26">E16+SUM(E17:E19)</f>
+        <f t="shared" ref="E20:I20" si="23">E16+SUM(E17:E19)</f>
         <v>0</v>
       </c>
       <c r="F20" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="G20" s="14">
-        <f t="shared" si="26"/>
+      <c r="G20" s="142">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="H20" s="11">
-        <f t="shared" si="26"/>
+      <c r="H20" s="14">
+        <f t="shared" ref="H20:J20" si="24">H16+SUM(H17:H19)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="11">
-        <f t="shared" si="26"/>
+      <c r="I20" s="142">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="L20" s="11">
-        <f t="shared" ref="L20" si="27">L16+SUM(L17:L19)</f>
+      <c r="J20" s="142">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="M20" s="11">
-        <f t="shared" ref="M20" si="28">M16+SUM(M17:M19)</f>
+      <c r="N20" s="11">
+        <f t="shared" ref="N20" si="25">N16+SUM(N17:N19)</f>
         <v>0</v>
       </c>
-      <c r="N20" s="11">
-        <f t="shared" ref="N20" si="29">N16+SUM(N17:N19)</f>
+      <c r="O20" s="11">
+        <f t="shared" ref="O20" si="26">O16+SUM(O17:O19)</f>
         <v>0</v>
       </c>
-      <c r="O20" s="11">
-        <f t="shared" ref="O20" si="30">O16+SUM(O17:O19)</f>
+      <c r="P20" s="11">
+        <f t="shared" ref="P20" si="27">P16+SUM(P17:P19)</f>
         <v>0</v>
       </c>
-      <c r="P20" s="11">
-        <f t="shared" ref="P20" si="31">P16+SUM(P17:P19)</f>
+      <c r="Q20" s="11">
+        <f t="shared" ref="Q20" si="28">Q16+SUM(Q17:Q19)</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="11">
-        <f t="shared" ref="Q20" si="32">Q16+SUM(Q17:Q19)</f>
+      <c r="R20" s="11">
+        <f t="shared" ref="R20" si="29">R16+SUM(R17:R19)</f>
         <v>0</v>
       </c>
-      <c r="R20" s="11">
-        <f t="shared" ref="R20" si="33">R16+SUM(R17:R19)</f>
+      <c r="S20" s="11">
+        <f t="shared" ref="S20" si="30">S16+SUM(S17:S19)</f>
         <v>0</v>
       </c>
-      <c r="S20" s="11">
-        <f t="shared" ref="S20" si="34">S16+SUM(S17:S19)</f>
+      <c r="T20" s="11">
+        <f t="shared" ref="T20:Y20" si="31">T16+SUM(T17:T19)</f>
         <v>0</v>
       </c>
-      <c r="T20" s="11">
-        <f t="shared" ref="T20" si="35">T16+SUM(T17:T19)</f>
+      <c r="U20" s="11">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="U20" s="11">
-        <f t="shared" ref="U20" si="36">U16+SUM(U17:U19)</f>
+      <c r="V20" s="11">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="V20" s="11">
-        <f t="shared" ref="V20:AA20" si="37">V16+SUM(V17:V19)</f>
+      <c r="W20" s="142">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="W20" s="11">
-        <f t="shared" si="37"/>
+      <c r="X20" s="11">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="X20" s="11">
-        <f t="shared" si="37"/>
+      <c r="Y20" s="14">
+        <f t="shared" ref="Y20:AA20" si="32">Y16+SUM(Y17:Y19)</f>
         <v>0</v>
       </c>
-      <c r="Y20" s="14">
-        <f t="shared" si="37"/>
+      <c r="Z20" s="11">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="Z20" s="11">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
       <c r="AA20" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
+      <c r="G21" s="143"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="143"/>
+      <c r="J21" s="143"/>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
@@ -17440,7 +17453,7 @@
       <c r="T21" s="10"/>
       <c r="U21" s="10"/>
       <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
+      <c r="W21" s="143"/>
       <c r="X21" s="10"/>
       <c r="Y21" s="15"/>
       <c r="Z21" s="10"/>
@@ -17448,17 +17461,16 @@
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
+      <c r="G22" s="143"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="143"/>
+      <c r="J22" s="143"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
@@ -17468,7 +17480,7 @@
       <c r="T22" s="10"/>
       <c r="U22" s="10"/>
       <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
+      <c r="W22" s="143"/>
       <c r="X22" s="10"/>
       <c r="Y22" s="15"/>
       <c r="Z22" s="10"/>
@@ -17476,92 +17488,94 @@
     </row>
     <row r="23" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C23" s="11">
         <f>C20-SUM(C21:C22)</f>
         <v>0</v>
       </c>
       <c r="D23" s="11">
-        <f t="shared" ref="D23:G23" si="38">D20-SUM(D21:D22)</f>
+        <f t="shared" ref="D23:G23" si="33">D20-SUM(D21:D22)</f>
         <v>0</v>
       </c>
       <c r="E23" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="F23" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="G23" s="14">
-        <f t="shared" si="38"/>
+      <c r="G23" s="142">
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="L23" s="11">
-        <f t="shared" ref="L23" si="39">L20-SUM(L21:L22)</f>
+      <c r="H23" s="14">
+        <f t="shared" ref="H23:J23" si="34">H20-SUM(H21:H22)</f>
         <v>0</v>
       </c>
-      <c r="M23" s="11">
-        <f t="shared" ref="M23" si="40">M20-SUM(M21:M22)</f>
+      <c r="I23" s="142">
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
+      <c r="J23" s="142">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
       <c r="N23" s="11">
-        <f t="shared" ref="N23" si="41">N20-SUM(N21:N22)</f>
+        <f t="shared" ref="N23" si="35">N20-SUM(N21:N22)</f>
         <v>0</v>
       </c>
       <c r="O23" s="11">
-        <f t="shared" ref="O23" si="42">O20-SUM(O21:O22)</f>
+        <f t="shared" ref="O23" si="36">O20-SUM(O21:O22)</f>
         <v>0</v>
       </c>
       <c r="P23" s="11">
-        <f t="shared" ref="P23" si="43">P20-SUM(P21:P22)</f>
+        <f t="shared" ref="P23" si="37">P20-SUM(P21:P22)</f>
         <v>0</v>
       </c>
       <c r="Q23" s="11">
-        <f t="shared" ref="Q23" si="44">Q20-SUM(Q21:Q22)</f>
+        <f t="shared" ref="Q23" si="38">Q20-SUM(Q21:Q22)</f>
         <v>0</v>
       </c>
       <c r="R23" s="11">
-        <f t="shared" ref="R23" si="45">R20-SUM(R21:R22)</f>
+        <f t="shared" ref="R23" si="39">R20-SUM(R21:R22)</f>
         <v>0</v>
       </c>
       <c r="S23" s="11">
-        <f t="shared" ref="S23" si="46">S20-SUM(S21:S22)</f>
+        <f t="shared" ref="S23" si="40">S20-SUM(S21:S22)</f>
         <v>0</v>
       </c>
       <c r="T23" s="11">
-        <f t="shared" ref="T23" si="47">T20-SUM(T21:T22)</f>
+        <f t="shared" ref="T23:Y23" si="41">T20-SUM(T21:T22)</f>
         <v>0</v>
       </c>
       <c r="U23" s="11">
-        <f t="shared" ref="U23" si="48">U20-SUM(U21:U22)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="V23" s="11">
-        <f t="shared" ref="V23:AA23" si="49">V20-SUM(V21:V22)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="W23" s="11">
-        <f t="shared" si="49"/>
+      <c r="W23" s="142">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="X23" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Y23" s="14">
-        <f t="shared" si="49"/>
+        <f t="shared" ref="Y23:AA23" si="42">Y20-SUM(Y21:Y22)</f>
         <v>0</v>
       </c>
       <c r="Z23" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AA23" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
     </row>
@@ -17573,11 +17587,10 @@
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
+      <c r="G24" s="143"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="143"/>
+      <c r="J24" s="143"/>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
@@ -17587,7 +17600,7 @@
       <c r="T24" s="10"/>
       <c r="U24" s="10"/>
       <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
+      <c r="W24" s="143"/>
       <c r="X24" s="10"/>
       <c r="Y24" s="15"/>
       <c r="Z24" s="10"/>
@@ -17595,7 +17608,7 @@
     </row>
     <row r="25" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C25" s="2" t="e">
         <f>C23/C24</f>
@@ -17613,108 +17626,108 @@
         <f>F23/F24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="58" t="e">
+      <c r="G25" s="144" t="e">
         <f>G23/G24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="59"/>
-      <c r="I25" s="60"/>
-      <c r="L25" s="2" t="e">
-        <f>L23/L24</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M25" s="2" t="e">
-        <f t="shared" ref="M25:V25" si="50">M23/M24</f>
+      <c r="H25" s="157" t="e">
+        <f t="shared" ref="H25:J25" si="43">H23/H24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I25" s="156" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J25" s="156" t="e">
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N25" s="2" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" ref="N25:T25" si="44">N23/N24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O25" s="2" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P25" s="2" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q25" s="2" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R25" s="2" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S25" s="2" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T25" s="2" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U25" s="2" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" ref="U25:Y25" si="45">U23/U24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V25" s="2" t="e">
-        <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W25" s="2" t="e">
-        <f t="shared" ref="W25:AA25" si="51">W23/W24</f>
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W25" s="145" t="e">
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X25" s="2" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y25" s="35" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" ref="Y25:AA25" si="46">Y23/Y24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Z25" s="2" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA25" s="2" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="45"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="49"/>
-      <c r="U26" s="49"/>
-      <c r="V26" s="49"/>
-      <c r="W26" s="49"/>
-      <c r="X26" s="49"/>
-      <c r="Y26" s="132"/>
-      <c r="Z26" s="49"/>
-      <c r="AA26" s="49"/>
+      <c r="G26" s="145"/>
+      <c r="H26" s="155"/>
+      <c r="I26" s="43"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
+      <c r="U26" s="44"/>
+      <c r="V26" s="44"/>
+      <c r="W26" s="158"/>
+      <c r="X26" s="44"/>
+      <c r="Y26" s="119"/>
+      <c r="Z26" s="44"/>
+      <c r="AA26" s="44"/>
     </row>
     <row r="27" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C27" s="3" t="e">
         <f>1-C11/C6</f>
@@ -17732,80 +17745,82 @@
         <f>1-F11/F6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="6" t="e">
+      <c r="G27" s="39" t="e">
         <f>1-G11/G6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="L27" s="3" t="e">
-        <f t="shared" ref="L27:V27" si="52">1-L11/L6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M27" s="3" t="e">
-        <f t="shared" si="52"/>
+      <c r="H27" s="6" t="e">
+        <f t="shared" ref="H27:J27" si="47">1-H11/H6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I27" s="39" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J27" s="39" t="e">
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N27" s="3" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="N27:T27" si="48">1-N11/N6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O27" s="3" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P27" s="3" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q27" s="3" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R27" s="3" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S27" s="3" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T27" s="3" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U27" s="3" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="U27:Y27" si="49">1-U11/U6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V27" s="3" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W27" s="3" t="e">
-        <f t="shared" ref="W27:AA27" si="53">1-W11/W6</f>
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W27" s="39" t="e">
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X27" s="3" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y27" s="6" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" ref="Y27:AA27" si="50">1-Y11/Y6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Z27" s="3" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA27" s="3" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C28" s="4" t="e">
         <f>C23/C6</f>
@@ -17823,86 +17838,82 @@
         <f>F23/F6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G28" s="7" t="e">
+      <c r="G28" s="146" t="e">
         <f>G23/G6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="47" t="e">
-        <f>H23/H7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I28" s="47" t="e">
-        <f>I23/I7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L28" s="4" t="e">
-        <f t="shared" ref="L28:V28" si="54">L23/L6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M28" s="4" t="e">
+      <c r="H28" s="7" t="e">
+        <f t="shared" ref="H28:J28" si="51">H23/H6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I28" s="146" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J28" s="146" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N28" s="4" t="e">
+        <f t="shared" ref="N28:T28" si="52">N23/N6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O28" s="4" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P28" s="4" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q28" s="4" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R28" s="4" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S28" s="4" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T28" s="4" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U28" s="4" t="e">
+        <f t="shared" ref="U28:Y28" si="53">U23/U6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V28" s="4" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W28" s="146" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X28" s="4" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y28" s="7" t="e">
+        <f t="shared" ref="Y28:AA28" si="54">Y23/Y6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z28" s="4" t="e">
         <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N28" s="4" t="e">
+      <c r="AA28" s="4" t="e">
         <f t="shared" si="54"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O28" s="4" t="e">
-        <f t="shared" si="54"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P28" s="4" t="e">
-        <f t="shared" si="54"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q28" s="4" t="e">
-        <f t="shared" si="54"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R28" s="4" t="e">
-        <f t="shared" si="54"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S28" s="4" t="e">
-        <f t="shared" si="54"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T28" s="4" t="e">
-        <f t="shared" si="54"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U28" s="4" t="e">
-        <f t="shared" si="54"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V28" s="4" t="e">
-        <f t="shared" si="54"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W28" s="4" t="e">
-        <f t="shared" ref="W28:AA28" si="55">W23/W6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X28" s="4" t="e">
-        <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y28" s="7" t="e">
-        <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z28" s="4" t="e">
-        <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA28" s="4" t="e">
-        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3" t="e">
@@ -17917,32 +17928,40 @@
         <f>F6/E6-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G29" s="6" t="e">
+      <c r="G29" s="39" t="e">
         <f>G6/F6-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="48" t="e">
-        <f>H7/G6-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I29" s="48" t="e">
-        <f>I7/H7-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
+      <c r="H29" s="6" t="e">
+        <f t="shared" ref="H29:J29" si="55">H6/G6-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I29" s="39" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J29" s="39" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N29" s="4" t="e">
+        <f>N6/#REF!-1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O29" s="4" t="e">
+        <f>O6/#REF!-1</f>
+        <v>#REF!</v>
+      </c>
       <c r="P29" s="4" t="e">
-        <f t="shared" ref="P29:V29" si="56">P6/L6-1</f>
-        <v>#DIV/0!</v>
+        <f>P6/#REF!-1</f>
+        <v>#REF!</v>
       </c>
       <c r="Q29" s="4" t="e">
-        <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
+        <f>Q6/#REF!-1</f>
+        <v>#REF!</v>
       </c>
       <c r="R29" s="4" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" ref="R29:T29" si="56">R6/N6-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S29" s="4" t="e">
@@ -17954,37 +17973,37 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U29" s="4" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" ref="U29" si="57">U6/Q6-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V29" s="4" t="e">
-        <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W29" s="4" t="e">
-        <f t="shared" ref="W29" si="57">W6/S6-1</f>
+        <f t="shared" ref="V29" si="58">V6/R6-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W29" s="146" t="e">
+        <f t="shared" ref="W29" si="59">W6/S6-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="X29" s="4" t="e">
-        <f t="shared" ref="X29" si="58">X6/T6-1</f>
+        <f t="shared" ref="X29" si="60">X6/T6-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Y29" s="7" t="e">
-        <f t="shared" ref="Y29" si="59">Y6/U6-1</f>
+        <f t="shared" ref="Y29" si="61">Y6/U6-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Z29" s="4" t="e">
-        <f t="shared" ref="Z29" si="60">Z6/V6-1</f>
+        <f t="shared" ref="Z29" si="62">Z6/V6-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AA29" s="4" t="e">
-        <f t="shared" ref="AA29" si="61">AA6/W6-1</f>
+        <f t="shared" ref="AA29" si="63">AA6/W6-1</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C30" s="4" t="e">
         <f>C12/C6</f>
@@ -18002,171 +18021,175 @@
         <f>F12/F6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G30" s="7" t="e">
+      <c r="G30" s="146" t="e">
         <f>G12/G6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="128"/>
-      <c r="I30" s="128"/>
-      <c r="L30" s="4" t="e">
-        <f t="shared" ref="L30:V30" si="62">L12/L6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M30" s="4" t="e">
-        <f t="shared" si="62"/>
+      <c r="H30" s="7" t="e">
+        <f t="shared" ref="H30:J30" si="64">H12/H6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I30" s="146" t="e">
+        <f t="shared" si="64"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J30" s="146" t="e">
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N30" s="4" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" ref="N30:T30" si="65">N12/N6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O30" s="4" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P30" s="4" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q30" s="4" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R30" s="4" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S30" s="4" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T30" s="4" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U30" s="4" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" ref="U30:Y30" si="66">U12/U6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V30" s="4" t="e">
-        <f t="shared" si="62"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W30" s="4" t="e">
-        <f t="shared" ref="W30:AA30" si="63">W12/W6</f>
+        <f t="shared" si="66"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W30" s="146" t="e">
+        <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X30" s="4" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y30" s="7" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" ref="Y30:AA30" si="67">Y12/Y6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Z30" s="4" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA30" s="4" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C31" s="4" t="e">
-        <f t="shared" ref="C31:F31" si="64">C13/C6</f>
+        <f t="shared" ref="C31:F31" si="68">C13/C6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D31" s="4" t="e">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E31" s="4" t="e">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F31" s="4" t="e">
-        <f t="shared" si="64"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" s="7" t="e">
+        <f t="shared" si="68"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="146" t="e">
         <f>G13/G6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="128"/>
-      <c r="I31" s="128"/>
-      <c r="L31" s="4" t="e">
-        <f t="shared" ref="L31:V31" si="65">L13/L6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M31" s="4" t="e">
-        <f t="shared" si="65"/>
+      <c r="H31" s="7" t="e">
+        <f t="shared" ref="H31:J31" si="69">H13/H6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I31" s="146" t="e">
+        <f t="shared" si="69"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J31" s="146" t="e">
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N31" s="4" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" ref="N31:T31" si="70">N13/N6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O31" s="4" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P31" s="4" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q31" s="4" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R31" s="4" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S31" s="4" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T31" s="4" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U31" s="4" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" ref="U31:Y31" si="71">U13/U6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V31" s="4" t="e">
-        <f t="shared" si="65"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W31" s="4" t="e">
-        <f t="shared" ref="W31:AA31" si="66">W13/W6</f>
+        <f t="shared" si="71"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W31" s="146" t="e">
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X31" s="4" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y31" s="7" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" ref="Y31:AA31" si="72">Y13/Y6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Z31" s="4" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA31" s="4" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C32" s="4" t="e">
         <f>C15/C6</f>
@@ -18184,99 +18207,109 @@
         <f>F15/F6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G32" s="7" t="e">
+      <c r="G32" s="146" t="e">
         <f>G15/G6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="128"/>
-      <c r="I32" s="128"/>
-      <c r="L32" s="4" t="e">
-        <f t="shared" ref="L32:V32" si="67">L15/L6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M32" s="4" t="e">
-        <f t="shared" si="67"/>
+      <c r="H32" s="7" t="e">
+        <f t="shared" ref="H32:J32" si="73">H15/H6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I32" s="146" t="e">
+        <f t="shared" si="73"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J32" s="146" t="e">
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N32" s="4" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" ref="N32:T32" si="74">N15/N6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O32" s="4" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P32" s="4" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q32" s="4" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R32" s="4" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S32" s="4" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T32" s="4" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U32" s="4" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" ref="U32:Y32" si="75">U15/U6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V32" s="4" t="e">
-        <f t="shared" si="67"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W32" s="4" t="e">
-        <f t="shared" ref="W32:AA32" si="68">W15/W6</f>
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W32" s="146" t="e">
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X32" s="4" t="e">
-        <f t="shared" si="68"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y32" s="7" t="e">
-        <f t="shared" si="68"/>
+        <f t="shared" ref="Y32:AA32" si="76">Y15/Y6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Z32" s="4" t="e">
-        <f t="shared" si="68"/>
+        <f t="shared" si="76"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA32" s="4" t="e">
-        <f t="shared" si="68"/>
+        <f t="shared" si="76"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="e">
-        <f t="shared" ref="E33:G34" si="69">E3/D3-1</f>
+        <f t="shared" ref="E33:G34" si="77">E3/D3-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F33" s="4" t="e">
-        <f t="shared" si="69"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G33" s="7" t="e">
-        <f t="shared" si="69"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H33" s="128"/>
-      <c r="I33" s="128"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
+        <f t="shared" si="77"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G33" s="146" t="e">
+        <f t="shared" si="77"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H33" s="7" t="e">
+        <f t="shared" ref="H33:H34" si="78">H3/G3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I33" s="146" t="e">
+        <f t="shared" ref="I33:I34" si="79">I3/H3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J33" s="146" t="e">
+        <f t="shared" ref="J33:J34" si="80">J3/I3-1</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
@@ -18286,7 +18319,7 @@
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
+      <c r="W33" s="146"/>
       <c r="X33" s="4"/>
       <c r="Y33" s="7"/>
       <c r="Z33" s="4"/>
@@ -18294,26 +18327,34 @@
     </row>
     <row r="34" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F34" s="4" t="e">
-        <f t="shared" si="69"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G34" s="7" t="e">
-        <f t="shared" si="69"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H34" s="128"/>
-      <c r="I34" s="128"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
+        <f t="shared" si="77"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G34" s="146" t="e">
+        <f t="shared" si="77"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H34" s="7" t="e">
+        <f t="shared" si="78"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I34" s="146" t="e">
+        <f t="shared" si="79"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J34" s="146" t="e">
+        <f t="shared" si="80"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
@@ -18323,7 +18364,7 @@
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
+      <c r="W34" s="146"/>
       <c r="X34" s="4"/>
       <c r="Y34" s="7"/>
       <c r="Z34" s="4"/>
@@ -18331,7 +18372,7 @@
     </row>
     <row r="35" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3" t="e">
@@ -18346,105 +18387,115 @@
         <f>F25/E25-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G35" s="6" t="e">
+      <c r="G35" s="39" t="e">
         <f>G25/F25-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="61" t="e">
-        <f>H25/G25-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I35" s="61" t="e">
-        <f>I25/H25-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
+      <c r="H35" s="6" t="e">
+        <f t="shared" ref="H35:J35" si="81">H25/G25-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I35" s="39" t="e">
+        <f t="shared" si="81"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J35" s="39" t="e">
+        <f t="shared" si="81"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N35" s="4" t="e">
+        <f>N23/#REF!-1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O35" s="4" t="e">
+        <f>O23/#REF!-1</f>
+        <v>#REF!</v>
+      </c>
       <c r="P35" s="4" t="e">
-        <f t="shared" ref="P35:V35" si="70">P23/L23-1</f>
-        <v>#DIV/0!</v>
+        <f>P23/#REF!-1</f>
+        <v>#REF!</v>
       </c>
       <c r="Q35" s="4" t="e">
-        <f t="shared" si="70"/>
-        <v>#DIV/0!</v>
+        <f>Q23/#REF!-1</f>
+        <v>#REF!</v>
       </c>
       <c r="R35" s="4" t="e">
-        <f t="shared" si="70"/>
+        <f t="shared" ref="R35:T35" si="82">R23/N23-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S35" s="4" t="e">
-        <f t="shared" si="70"/>
+        <f>S23/O23-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T35" s="4" t="e">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U35" s="4" t="e">
-        <f>U23/Q23-1</f>
+        <f t="shared" ref="U35" si="83">U23/Q23-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V35" s="4" t="e">
-        <f t="shared" si="70"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W35" s="4" t="e">
-        <f t="shared" ref="W35" si="71">W23/S23-1</f>
+        <f t="shared" ref="V35" si="84">V23/R23-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W35" s="146" t="e">
+        <f t="shared" ref="W35" si="85">W23/S23-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="X35" s="4" t="e">
-        <f t="shared" ref="X35" si="72">X23/T23-1</f>
+        <f t="shared" ref="X35" si="86">X23/T23-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Y35" s="7" t="e">
-        <f t="shared" ref="Y35" si="73">Y23/U23-1</f>
+        <f t="shared" ref="Y35" si="87">Y23/U23-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Z35" s="4" t="e">
-        <f t="shared" ref="Z35" si="74">Z23/V23-1</f>
+        <f t="shared" ref="Z35" si="88">Z23/V23-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AA35" s="4" t="e">
-        <f t="shared" ref="AA35" si="75">AA23/W23-1</f>
+        <f t="shared" ref="AA35" si="89">AA23/W23-1</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="36" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="53" t="e">
+        <v>90</v>
+      </c>
+      <c r="C36" s="47" t="e">
         <f>C17/C6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D36" s="53" t="e">
+      <c r="D36" s="47" t="e">
         <f>D17/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E36" s="53" t="e">
+      <c r="E36" s="47" t="e">
         <f>E17/E6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F36" s="53" t="e">
+      <c r="F36" s="47" t="e">
         <f>F17/F6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G36" s="54" t="e">
+      <c r="G36" s="47" t="e">
         <f>G17/G6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H36" s="53" t="e">
-        <f>H17/H7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I36" s="53" t="e">
-        <f>I17/I7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
+      <c r="H36" s="48" t="e">
+        <f t="shared" ref="H36:J36" si="90">H17/H6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I36" s="47" t="e">
+        <f t="shared" si="90"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J36" s="47" t="e">
+        <f t="shared" si="90"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
@@ -18454,7 +18505,7 @@
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
+      <c r="W36" s="146"/>
       <c r="X36" s="4"/>
       <c r="Y36" s="7"/>
       <c r="Z36" s="4"/>
@@ -18462,38 +18513,40 @@
     </row>
     <row r="37" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>95</v>
-      </c>
-      <c r="C37" s="55" t="e">
+        <v>91</v>
+      </c>
+      <c r="C37" s="49" t="e">
         <f>-C17/C16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D37" s="55" t="e">
-        <f t="shared" ref="D37:I37" si="76">-D17/D16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E37" s="55" t="e">
-        <f t="shared" si="76"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F37" s="55" t="e">
-        <f t="shared" si="76"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G37" s="54" t="e">
-        <f t="shared" si="76"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H37" s="53" t="e">
-        <f t="shared" si="76"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I37" s="53" t="e">
-        <f t="shared" si="76"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
+      <c r="D37" s="49" t="e">
+        <f t="shared" ref="D37:I37" si="91">-D17/D16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E37" s="49" t="e">
+        <f t="shared" si="91"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F37" s="49" t="e">
+        <f t="shared" si="91"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G37" s="47" t="e">
+        <f t="shared" si="91"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H37" s="48" t="e">
+        <f t="shared" ref="H37:J37" si="92">-H17/H16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I37" s="47" t="e">
+        <f t="shared" si="92"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J37" s="47" t="e">
+        <f t="shared" si="92"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
@@ -18503,7 +18556,7 @@
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
-      <c r="W37" s="4"/>
+      <c r="W37" s="146"/>
       <c r="X37" s="4"/>
       <c r="Y37" s="7"/>
       <c r="Z37" s="4"/>
@@ -18511,112 +18564,106 @@
     </row>
     <row r="40" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C40" s="11">
-        <f t="shared" ref="C40" si="77">C41+C42-C64-C55</f>
+        <f t="shared" ref="C40" si="93">C41+C42-C64-C55</f>
         <v>0</v>
       </c>
       <c r="D40" s="11">
-        <f t="shared" ref="D40" si="78">D41+D42-D64-D55</f>
+        <f t="shared" ref="D40" si="94">D41+D42-D64-D55</f>
         <v>0</v>
       </c>
       <c r="E40" s="11">
-        <f t="shared" ref="E40" si="79">E41+E42-E64-E55</f>
+        <f t="shared" ref="E40" si="95">E41+E42-E64-E55</f>
         <v>0</v>
       </c>
       <c r="F40" s="11">
-        <f t="shared" ref="F40" si="80">F41+F42-F64-F55</f>
+        <f t="shared" ref="F40" si="96">F41+F42-F64-F55</f>
         <v>0</v>
       </c>
-      <c r="G40" s="14">
-        <f t="shared" ref="G40" si="81">G41+G42-G64-G55</f>
+      <c r="G40" s="142">
+        <f t="shared" ref="G40:J40" si="97">G41+G42-G64-G55</f>
         <v>0</v>
       </c>
-      <c r="H40" s="11">
-        <f t="shared" ref="H40" si="82">H41+H42-H64-H55</f>
+      <c r="H40" s="14">
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="I40" s="11">
-        <f t="shared" ref="I40" si="83">I41+I42-I64-I55</f>
+      <c r="I40" s="142">
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="L40" s="11">
-        <f>L41+L42-L64-L55</f>
+      <c r="J40" s="142">
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="M40" s="11">
-        <f t="shared" ref="M40:AA40" si="84">M41+M42-M64-M55</f>
+      <c r="N40" s="11">
+        <f t="shared" ref="N40:Y40" si="98">N41+N42-N64-N55</f>
         <v>0</v>
       </c>
-      <c r="N40" s="11">
-        <f t="shared" si="84"/>
+      <c r="O40" s="11">
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="O40" s="11">
-        <f t="shared" si="84"/>
+      <c r="P40" s="11">
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="P40" s="11">
-        <f t="shared" si="84"/>
+      <c r="Q40" s="11">
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="Q40" s="11">
-        <f t="shared" si="84"/>
+      <c r="R40" s="11">
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="R40" s="11">
-        <f t="shared" si="84"/>
+      <c r="S40" s="11">
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="S40" s="11">
-        <f t="shared" si="84"/>
+      <c r="T40" s="11">
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="T40" s="11">
-        <f t="shared" si="84"/>
+      <c r="U40" s="11">
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="U40" s="11">
-        <f t="shared" si="84"/>
+      <c r="V40" s="11">
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="V40" s="11">
-        <f t="shared" si="84"/>
+      <c r="W40" s="142">
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="W40" s="11">
-        <f t="shared" si="84"/>
+      <c r="X40" s="11">
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="X40" s="11">
-        <f t="shared" si="84"/>
+      <c r="Y40" s="14">
+        <f t="shared" ref="Y40:AA40" si="99">Y41+Y42-Y64-Y55</f>
         <v>0</v>
       </c>
-      <c r="Y40" s="11">
-        <f t="shared" si="84"/>
+      <c r="Z40" s="11">
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="Z40" s="11">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
       <c r="AA40" s="11">
-        <f t="shared" si="84"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
-      <c r="G41" s="15"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
+      <c r="G41" s="143"/>
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
@@ -18626,7 +18673,7 @@
       <c r="T41" s="10"/>
       <c r="U41" s="10"/>
       <c r="V41" s="10"/>
-      <c r="W41" s="10"/>
+      <c r="W41" s="143"/>
       <c r="X41" s="10"/>
       <c r="Y41" s="15"/>
       <c r="Z41" s="10"/>
@@ -18634,15 +18681,13 @@
     </row>
     <row r="42" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
-      <c r="G42" s="15"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
+      <c r="G42" s="143"/>
       <c r="N42" s="10"/>
       <c r="O42" s="10"/>
       <c r="P42" s="10"/>
@@ -18652,7 +18697,7 @@
       <c r="T42" s="10"/>
       <c r="U42" s="10"/>
       <c r="V42" s="10"/>
-      <c r="W42" s="10"/>
+      <c r="W42" s="143"/>
       <c r="X42" s="10"/>
       <c r="Y42" s="15"/>
       <c r="Z42" s="10"/>
@@ -18660,15 +18705,13 @@
     </row>
     <row r="43" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
-      <c r="G43" s="15"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
+      <c r="G43" s="143"/>
       <c r="N43" s="10"/>
       <c r="O43" s="10"/>
       <c r="P43" s="10"/>
@@ -18678,7 +18721,7 @@
       <c r="T43" s="10"/>
       <c r="U43" s="10"/>
       <c r="V43" s="10"/>
-      <c r="W43" s="10"/>
+      <c r="W43" s="143"/>
       <c r="X43" s="10"/>
       <c r="Y43" s="15"/>
       <c r="Z43" s="10"/>
@@ -18686,15 +18729,13 @@
     </row>
     <row r="44" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
-      <c r="G44" s="15"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
+      <c r="G44" s="143"/>
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
       <c r="P44" s="10"/>
@@ -18704,7 +18745,7 @@
       <c r="T44" s="10"/>
       <c r="U44" s="10"/>
       <c r="V44" s="10"/>
-      <c r="W44" s="10"/>
+      <c r="W44" s="143"/>
       <c r="X44" s="10"/>
       <c r="Y44" s="15"/>
       <c r="Z44" s="10"/>
@@ -18712,15 +18753,13 @@
     </row>
     <row r="45" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
-      <c r="G45" s="15"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
+      <c r="G45" s="143"/>
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
@@ -18730,7 +18769,7 @@
       <c r="T45" s="10"/>
       <c r="U45" s="10"/>
       <c r="V45" s="10"/>
-      <c r="W45" s="10"/>
+      <c r="W45" s="143"/>
       <c r="X45" s="10"/>
       <c r="Y45" s="15"/>
       <c r="Z45" s="10"/>
@@ -18738,15 +18777,13 @@
     </row>
     <row r="46" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
-      <c r="G46" s="15"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
+      <c r="G46" s="143"/>
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
       <c r="P46" s="10"/>
@@ -18756,7 +18793,7 @@
       <c r="T46" s="10"/>
       <c r="U46" s="10"/>
       <c r="V46" s="10"/>
-      <c r="W46" s="10"/>
+      <c r="W46" s="143"/>
       <c r="X46" s="10"/>
       <c r="Y46" s="15"/>
       <c r="Z46" s="10"/>
@@ -18764,14 +18801,14 @@
     </row>
     <row r="47" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C47" s="11">
-        <f t="shared" ref="C47:D47" si="85">SUM(C41:C46)</f>
+        <f t="shared" ref="C47:D47" si="100">SUM(C41:C46)</f>
         <v>0</v>
       </c>
       <c r="D47" s="11">
-        <f t="shared" si="85"/>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="E47" s="11">
@@ -18779,89 +18816,94 @@
         <v>0</v>
       </c>
       <c r="F47" s="11">
-        <f t="shared" ref="F47:G47" si="86">SUM(F41:F46)</f>
+        <f t="shared" ref="F47:G47" si="101">SUM(F41:F46)</f>
         <v>0</v>
       </c>
-      <c r="G47" s="14">
-        <f t="shared" si="86"/>
+      <c r="G47" s="142">
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
-      <c r="L47" s="11">
-        <f t="shared" ref="L47:V47" si="87">SUM(L41:L46)</f>
+      <c r="H47" s="14">
+        <f t="shared" ref="H47:J47" si="102">SUM(H41:H46)</f>
         <v>0</v>
       </c>
-      <c r="M47" s="11">
-        <f t="shared" si="87"/>
+      <c r="I47" s="142">
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
+      <c r="J47" s="142">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
       <c r="N47" s="11">
-        <f t="shared" si="87"/>
+        <f t="shared" ref="N47:T47" si="103">SUM(N41:N46)</f>
         <v>0</v>
       </c>
       <c r="O47" s="11">
-        <f t="shared" si="87"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="P47" s="11">
-        <f t="shared" si="87"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="Q47" s="11">
-        <f t="shared" si="87"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="R47" s="11">
-        <f t="shared" si="87"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="S47" s="11">
-        <f t="shared" si="87"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="T47" s="11">
-        <f t="shared" si="87"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="U47" s="11">
-        <f t="shared" si="87"/>
+        <f t="shared" ref="U47:Y47" si="104">SUM(U41:U46)</f>
         <v>0</v>
       </c>
       <c r="V47" s="11">
-        <f t="shared" si="87"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
-      <c r="W47" s="11">
-        <f t="shared" ref="W47:AA47" si="88">SUM(W41:W46)</f>
+      <c r="W47" s="142">
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="X47" s="11">
-        <f t="shared" si="88"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="Y47" s="14">
-        <f t="shared" si="88"/>
+        <f t="shared" ref="Y47:AA47" si="105">SUM(Y41:Y46)</f>
         <v>0</v>
       </c>
       <c r="Z47" s="11">
-        <f t="shared" si="88"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="AA47" s="11">
-        <f t="shared" si="88"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
-      <c r="G48" s="15"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
+      <c r="G48" s="143"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="143"/>
+      <c r="J48" s="143"/>
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
       <c r="P48" s="10"/>
@@ -18871,7 +18913,7 @@
       <c r="T48" s="10"/>
       <c r="U48" s="10"/>
       <c r="V48" s="10"/>
-      <c r="W48" s="10"/>
+      <c r="W48" s="143"/>
       <c r="X48" s="10"/>
       <c r="Y48" s="15"/>
       <c r="Z48" s="10"/>
@@ -18879,15 +18921,16 @@
     </row>
     <row r="49" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
-      <c r="G49" s="15"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
+      <c r="G49" s="143"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="143"/>
+      <c r="J49" s="143"/>
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
       <c r="P49" s="10"/>
@@ -18897,7 +18940,7 @@
       <c r="T49" s="10"/>
       <c r="U49" s="10"/>
       <c r="V49" s="10"/>
-      <c r="W49" s="10"/>
+      <c r="W49" s="143"/>
       <c r="X49" s="10"/>
       <c r="Y49" s="15"/>
       <c r="Z49" s="10"/>
@@ -18905,15 +18948,16 @@
     </row>
     <row r="50" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
-      <c r="G50" s="15"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
+      <c r="G50" s="143"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="143"/>
+      <c r="J50" s="143"/>
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
       <c r="P50" s="10"/>
@@ -18923,7 +18967,7 @@
       <c r="T50" s="10"/>
       <c r="U50" s="10"/>
       <c r="V50" s="10"/>
-      <c r="W50" s="10"/>
+      <c r="W50" s="143"/>
       <c r="X50" s="10"/>
       <c r="Y50" s="15"/>
       <c r="Z50" s="10"/>
@@ -18931,15 +18975,16 @@
     </row>
     <row r="51" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
-      <c r="G51" s="15"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
+      <c r="G51" s="143"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="143"/>
+      <c r="J51" s="143"/>
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
       <c r="P51" s="10"/>
@@ -18949,7 +18994,7 @@
       <c r="T51" s="10"/>
       <c r="U51" s="10"/>
       <c r="V51" s="10"/>
-      <c r="W51" s="10"/>
+      <c r="W51" s="143"/>
       <c r="X51" s="10"/>
       <c r="Y51" s="15"/>
       <c r="Z51" s="10"/>
@@ -18957,15 +19002,16 @@
     </row>
     <row r="52" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
-      <c r="G52" s="15"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
+      <c r="G52" s="143"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="143"/>
+      <c r="J52" s="143"/>
       <c r="N52" s="10"/>
       <c r="O52" s="10"/>
       <c r="P52" s="10"/>
@@ -18975,7 +19021,7 @@
       <c r="T52" s="10"/>
       <c r="U52" s="10"/>
       <c r="V52" s="10"/>
-      <c r="W52" s="10"/>
+      <c r="W52" s="143"/>
       <c r="X52" s="10"/>
       <c r="Y52" s="15"/>
       <c r="Z52" s="10"/>
@@ -18983,15 +19029,16 @@
     </row>
     <row r="53" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
-      <c r="G53" s="15"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
+      <c r="G53" s="143"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="143"/>
+      <c r="J53" s="143"/>
       <c r="N53" s="10"/>
       <c r="O53" s="10"/>
       <c r="P53" s="10"/>
@@ -19001,7 +19048,7 @@
       <c r="T53" s="10"/>
       <c r="U53" s="10"/>
       <c r="V53" s="10"/>
-      <c r="W53" s="10"/>
+      <c r="W53" s="143"/>
       <c r="X53" s="10"/>
       <c r="Y53" s="15"/>
       <c r="Z53" s="10"/>
@@ -19009,7 +19056,7 @@
     </row>
     <row r="54" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C54" s="11">
         <f>SUM(C47:C53)</f>
@@ -19027,86 +19074,91 @@
         <f>SUM(F47:F53)</f>
         <v>0</v>
       </c>
-      <c r="G54" s="14">
+      <c r="G54" s="142">
         <f>SUM(G47:G53)</f>
         <v>0</v>
       </c>
-      <c r="L54" s="11">
-        <f t="shared" ref="L54:V54" si="89">SUM(L47:L53)</f>
+      <c r="H54" s="14">
+        <f t="shared" ref="H54:J54" si="106">SUM(H47:H53)</f>
         <v>0</v>
       </c>
-      <c r="M54" s="11">
-        <f t="shared" si="89"/>
+      <c r="I54" s="142">
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
+      <c r="J54" s="142">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
       <c r="N54" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" ref="N54:T54" si="107">SUM(N47:N53)</f>
         <v>0</v>
       </c>
       <c r="O54" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="P54" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="Q54" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="R54" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="S54" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="T54" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="U54" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" ref="U54:Y54" si="108">SUM(U47:U53)</f>
         <v>0</v>
       </c>
       <c r="V54" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="W54" s="11">
-        <f t="shared" ref="W54:AA54" si="90">SUM(W47:W53)</f>
+      <c r="W54" s="142">
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="X54" s="11">
-        <f t="shared" si="90"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="Y54" s="14">
-        <f t="shared" si="90"/>
+        <f t="shared" ref="Y54:AA54" si="109">SUM(Y47:Y53)</f>
         <v>0</v>
       </c>
       <c r="Z54" s="11">
-        <f t="shared" si="90"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="AA54" s="11">
-        <f t="shared" si="90"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
-      <c r="G55" s="15"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
+      <c r="G55" s="143"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="143"/>
+      <c r="J55" s="143"/>
       <c r="N55" s="10"/>
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
@@ -19116,7 +19168,7 @@
       <c r="T55" s="10"/>
       <c r="U55" s="10"/>
       <c r="V55" s="10"/>
-      <c r="W55" s="10"/>
+      <c r="W55" s="143"/>
       <c r="X55" s="10"/>
       <c r="Y55" s="15"/>
       <c r="Z55" s="10"/>
@@ -19124,15 +19176,16 @@
     </row>
     <row r="56" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
-      <c r="G56" s="15"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
+      <c r="G56" s="143"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="143"/>
+      <c r="J56" s="143"/>
       <c r="N56" s="10"/>
       <c r="O56" s="10"/>
       <c r="P56" s="10"/>
@@ -19142,7 +19195,7 @@
       <c r="T56" s="10"/>
       <c r="U56" s="10"/>
       <c r="V56" s="10"/>
-      <c r="W56" s="10"/>
+      <c r="W56" s="143"/>
       <c r="X56" s="10"/>
       <c r="Y56" s="15"/>
       <c r="Z56" s="10"/>
@@ -19150,15 +19203,16 @@
     </row>
     <row r="57" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
-      <c r="G57" s="15"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
+      <c r="G57" s="143"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="143"/>
+      <c r="J57" s="143"/>
       <c r="N57" s="10"/>
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
@@ -19168,7 +19222,7 @@
       <c r="T57" s="10"/>
       <c r="U57" s="10"/>
       <c r="V57" s="10"/>
-      <c r="W57" s="10"/>
+      <c r="W57" s="143"/>
       <c r="X57" s="10"/>
       <c r="Y57" s="15"/>
       <c r="Z57" s="10"/>
@@ -19176,15 +19230,16 @@
     </row>
     <row r="58" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
-      <c r="G58" s="15"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
+      <c r="G58" s="143"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="143"/>
+      <c r="J58" s="143"/>
       <c r="N58" s="10"/>
       <c r="O58" s="10"/>
       <c r="P58" s="10"/>
@@ -19194,7 +19249,7 @@
       <c r="T58" s="10"/>
       <c r="U58" s="10"/>
       <c r="V58" s="10"/>
-      <c r="W58" s="10"/>
+      <c r="W58" s="143"/>
       <c r="X58" s="10"/>
       <c r="Y58" s="15"/>
       <c r="Z58" s="10"/>
@@ -19202,15 +19257,16 @@
     </row>
     <row r="59" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
-      <c r="G59" s="15"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
+      <c r="G59" s="143"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="143"/>
+      <c r="J59" s="143"/>
       <c r="N59" s="10"/>
       <c r="O59" s="10"/>
       <c r="P59" s="10"/>
@@ -19220,7 +19276,7 @@
       <c r="T59" s="10"/>
       <c r="U59" s="10"/>
       <c r="V59" s="10"/>
-      <c r="W59" s="10"/>
+      <c r="W59" s="143"/>
       <c r="X59" s="10"/>
       <c r="Y59" s="15"/>
       <c r="Z59" s="10"/>
@@ -19228,7 +19284,7 @@
     </row>
     <row r="60" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C60" s="11">
         <f>SUM(C55:C59)</f>
@@ -19246,86 +19302,91 @@
         <f>SUM(F55:F59)</f>
         <v>0</v>
       </c>
-      <c r="G60" s="14">
+      <c r="G60" s="142">
         <f>SUM(G55:G59)</f>
         <v>0</v>
       </c>
-      <c r="L60" s="11">
-        <f t="shared" ref="L60:V60" si="91">SUM(L55:L59)</f>
+      <c r="H60" s="14">
+        <f t="shared" ref="H60:J60" si="110">SUM(H55:H59)</f>
         <v>0</v>
       </c>
-      <c r="M60" s="11">
-        <f t="shared" si="91"/>
+      <c r="I60" s="142">
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
+      <c r="J60" s="142">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
       <c r="N60" s="11">
-        <f t="shared" si="91"/>
+        <f t="shared" ref="N60:T60" si="111">SUM(N55:N59)</f>
         <v>0</v>
       </c>
       <c r="O60" s="11">
-        <f t="shared" si="91"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="P60" s="11">
-        <f t="shared" si="91"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="Q60" s="11">
-        <f t="shared" si="91"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="R60" s="11">
-        <f t="shared" si="91"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="S60" s="11">
-        <f t="shared" si="91"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="T60" s="11">
-        <f t="shared" si="91"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="U60" s="11">
-        <f t="shared" si="91"/>
+        <f t="shared" ref="U60:Y60" si="112">SUM(U55:U59)</f>
         <v>0</v>
       </c>
       <c r="V60" s="11">
-        <f t="shared" si="91"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
-      <c r="W60" s="11">
-        <f t="shared" ref="W60:AA60" si="92">SUM(W55:W59)</f>
+      <c r="W60" s="142">
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="X60" s="11">
-        <f t="shared" si="92"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="Y60" s="14">
-        <f t="shared" si="92"/>
+        <f t="shared" ref="Y60:AA60" si="113">SUM(Y55:Y59)</f>
         <v>0</v>
       </c>
       <c r="Z60" s="11">
-        <f t="shared" si="92"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AA60" s="11">
-        <f t="shared" si="92"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
-      <c r="G61" s="15"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
+      <c r="G61" s="143"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="143"/>
+      <c r="J61" s="143"/>
       <c r="N61" s="10"/>
       <c r="O61" s="10"/>
       <c r="P61" s="10"/>
@@ -19335,7 +19396,7 @@
       <c r="T61" s="10"/>
       <c r="U61" s="10"/>
       <c r="V61" s="10"/>
-      <c r="W61" s="10"/>
+      <c r="W61" s="143"/>
       <c r="X61" s="10"/>
       <c r="Y61" s="15"/>
       <c r="Z61" s="10"/>
@@ -19343,15 +19404,16 @@
     </row>
     <row r="62" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
-      <c r="G62" s="15"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
+      <c r="G62" s="143"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="143"/>
+      <c r="J62" s="143"/>
       <c r="N62" s="10"/>
       <c r="O62" s="10"/>
       <c r="P62" s="10"/>
@@ -19361,7 +19423,7 @@
       <c r="T62" s="10"/>
       <c r="U62" s="10"/>
       <c r="V62" s="10"/>
-      <c r="W62" s="10"/>
+      <c r="W62" s="143"/>
       <c r="X62" s="10"/>
       <c r="Y62" s="15"/>
       <c r="Z62" s="10"/>
@@ -19369,15 +19431,16 @@
     </row>
     <row r="63" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
-      <c r="G63" s="15"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
+      <c r="G63" s="143"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="143"/>
+      <c r="J63" s="143"/>
       <c r="N63" s="10"/>
       <c r="O63" s="10"/>
       <c r="P63" s="10"/>
@@ -19387,7 +19450,7 @@
       <c r="T63" s="10"/>
       <c r="U63" s="10"/>
       <c r="V63" s="10"/>
-      <c r="W63" s="10"/>
+      <c r="W63" s="143"/>
       <c r="X63" s="10"/>
       <c r="Y63" s="15"/>
       <c r="Z63" s="10"/>
@@ -19395,15 +19458,16 @@
     </row>
     <row r="64" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
       <c r="E64" s="10"/>
       <c r="F64" s="10"/>
-      <c r="G64" s="15"/>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
+      <c r="G64" s="143"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="143"/>
+      <c r="J64" s="143"/>
       <c r="N64" s="10"/>
       <c r="O64" s="10"/>
       <c r="P64" s="10"/>
@@ -19413,7 +19477,7 @@
       <c r="T64" s="10"/>
       <c r="U64" s="10"/>
       <c r="V64" s="10"/>
-      <c r="W64" s="10"/>
+      <c r="W64" s="143"/>
       <c r="X64" s="10"/>
       <c r="Y64" s="15"/>
       <c r="Z64" s="10"/>
@@ -19421,7 +19485,7 @@
     </row>
     <row r="65" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C65" s="11">
         <f>SUM(C60:C64)</f>
@@ -19439,181 +19503,195 @@
         <f>SUM(F60:F64)</f>
         <v>0</v>
       </c>
-      <c r="G65" s="14">
+      <c r="G65" s="142">
         <f>SUM(G60:G64)</f>
         <v>0</v>
       </c>
-      <c r="L65" s="11">
-        <f t="shared" ref="L65:V65" si="93">SUM(L60:L64)</f>
+      <c r="H65" s="14">
+        <f t="shared" ref="H65:J65" si="114">SUM(H60:H64)</f>
         <v>0</v>
       </c>
-      <c r="M65" s="11">
-        <f t="shared" si="93"/>
+      <c r="I65" s="142">
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
+      <c r="J65" s="142">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
       <c r="N65" s="11">
-        <f t="shared" si="93"/>
+        <f t="shared" ref="N65:T65" si="115">SUM(N60:N64)</f>
         <v>0</v>
       </c>
       <c r="O65" s="11">
-        <f t="shared" si="93"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="P65" s="11">
-        <f t="shared" si="93"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="Q65" s="11">
-        <f t="shared" si="93"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="R65" s="11">
-        <f t="shared" si="93"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="S65" s="11">
-        <f t="shared" si="93"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="T65" s="11">
-        <f t="shared" si="93"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="U65" s="11">
-        <f t="shared" si="93"/>
+        <f t="shared" ref="U65:Y65" si="116">SUM(U60:U64)</f>
         <v>0</v>
       </c>
       <c r="V65" s="11">
-        <f t="shared" si="93"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
-      <c r="W65" s="11">
-        <f t="shared" ref="W65:AA65" si="94">SUM(W60:W64)</f>
+      <c r="W65" s="142">
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="X65" s="11">
-        <f t="shared" si="94"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="Y65" s="14">
-        <f t="shared" si="94"/>
+        <f t="shared" ref="Y65:AA65" si="117">SUM(Y60:Y64)</f>
         <v>0</v>
       </c>
       <c r="Z65" s="11">
-        <f t="shared" si="94"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="AA65" s="11">
-        <f t="shared" si="94"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C66" s="10">
-        <f t="shared" ref="C66:E66" si="95">C54-C65</f>
+        <f t="shared" ref="C66:E66" si="118">C54-C65</f>
         <v>0</v>
       </c>
       <c r="D66" s="10">
-        <f t="shared" si="95"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="E66" s="10">
-        <f t="shared" si="95"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="F66" s="10">
         <f>F54-F65</f>
         <v>0</v>
       </c>
-      <c r="G66" s="15">
+      <c r="G66" s="143">
         <f>G54-G65</f>
         <v>0</v>
       </c>
-      <c r="L66" s="10">
-        <f t="shared" ref="L66:V66" si="96">L54-L65</f>
+      <c r="H66" s="15">
+        <f t="shared" ref="H66:J66" si="119">H54-H65</f>
         <v>0</v>
       </c>
-      <c r="M66" s="10">
-        <f t="shared" si="96"/>
+      <c r="I66" s="143">
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
+      <c r="J66" s="143">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
       <c r="N66" s="10">
-        <f t="shared" si="96"/>
+        <f t="shared" ref="N66:T66" si="120">N54-N65</f>
         <v>0</v>
       </c>
       <c r="O66" s="10">
-        <f t="shared" si="96"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="P66" s="10">
-        <f t="shared" si="96"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="Q66" s="10">
-        <f t="shared" si="96"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="R66" s="10">
-        <f t="shared" si="96"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="S66" s="10">
-        <f t="shared" si="96"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="T66" s="10">
-        <f t="shared" si="96"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="U66" s="10">
-        <f t="shared" si="96"/>
+        <f t="shared" ref="U66:Y66" si="121">U54-U65</f>
         <v>0</v>
       </c>
       <c r="V66" s="10">
-        <f t="shared" si="96"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
-      <c r="W66" s="10">
-        <f t="shared" ref="W66:AA66" si="97">W54-W65</f>
+      <c r="W66" s="143">
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="X66" s="10">
-        <f t="shared" si="97"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="Y66" s="15">
-        <f t="shared" si="97"/>
+        <f t="shared" ref="Y66:AA66" si="122">Y54-Y65</f>
         <v>0</v>
       </c>
       <c r="Z66" s="10">
-        <f t="shared" si="97"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="AA66" s="10">
-        <f t="shared" si="97"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C68" s="56"/>
-      <c r="D68" s="56"/>
-      <c r="E68" s="56"/>
-      <c r="F68" s="56"/>
-      <c r="G68" s="57"/>
+        <v>95</v>
+      </c>
+      <c r="C68" s="50"/>
+      <c r="D68" s="50"/>
+      <c r="E68" s="50"/>
+      <c r="F68" s="50"/>
+      <c r="G68" s="147"/>
+      <c r="H68" s="16"/>
+      <c r="W68" s="149"/>
       <c r="Y68" s="16"/>
     </row>
     <row r="86" spans="7:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G86" s="41"/>
+      <c r="G86" s="148"/>
+      <c r="H86" s="41"/>
+      <c r="W86" s="148"/>
       <c r="Y86" s="41"/>
     </row>
     <row r="87" spans="7:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G87" s="16"/>
+      <c r="G87" s="149"/>
+      <c r="H87" s="16"/>
+      <c r="W87" s="149"/>
       <c r="Y87" s="16"/>
     </row>
   </sheetData>
@@ -19633,8 +19711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A670AE-D1F2-4470-937E-18BA568AD24E}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection sqref="A1:Q31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19643,43 +19721,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="133">
+      <c r="B1" s="120">
         <v>45413</v>
       </c>
-      <c r="C1" s="133">
+      <c r="C1" s="120">
         <v>45444</v>
       </c>
-      <c r="D1" s="133">
+      <c r="D1" s="120">
         <v>45474</v>
       </c>
-      <c r="E1" s="133">
+      <c r="E1" s="120">
         <v>45505</v>
       </c>
-      <c r="F1" s="133">
+      <c r="F1" s="120">
         <v>45536</v>
       </c>
-      <c r="G1" s="133">
+      <c r="G1" s="120">
         <v>45566</v>
       </c>
-      <c r="H1" s="133">
+      <c r="H1" s="120">
         <v>45597</v>
       </c>
-      <c r="I1" s="133">
+      <c r="I1" s="120">
         <v>45627</v>
       </c>
-      <c r="J1" s="133">
+      <c r="J1" s="120">
         <v>45658</v>
       </c>
-      <c r="K1" s="133">
+      <c r="K1" s="120">
         <v>45689</v>
       </c>
-      <c r="L1" s="133">
+      <c r="L1" s="120">
         <v>45717</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -19693,7 +19771,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -19707,7 +19785,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -19721,7 +19799,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -19735,7 +19813,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -19749,12 +19827,12 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I10">
         <v>80</v>
@@ -19768,7 +19846,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I11">
         <v>90</v>
@@ -19782,7 +19860,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I12">
         <v>40</v>
@@ -19805,14 +19883,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W49" sqref="W49"/>
+      <selection activeCell="X56" sqref="X56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -19860,26 +19938,26 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="12"/>
       <c r="C2" s="18"/>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -19889,7 +19967,7 @@
         <v>45328</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M3" s="12"/>
     </row>
@@ -19900,7 +19978,7 @@
         <v>45302</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M4" s="12"/>
     </row>
@@ -28195,60 +28273,60 @@
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H1" s="143" t="s">
-        <v>113</v>
-      </c>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="144"/>
-      <c r="M1" s="145"/>
+        <v>108</v>
+      </c>
+      <c r="H1" s="130" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="132"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" t="e">
         <f>C2/C3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H2" s="68"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="70"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="58"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" t="e">
         <f t="shared" ref="D3:D66" si="0">C3/C4-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H3" s="71" t="s">
+      <c r="H3" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="J3" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="K3" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="L3" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="I3" s="72" t="s">
+      <c r="M3" s="63" t="s">
         <v>115</v>
-      </c>
-      <c r="J3" s="73" t="s">
-        <v>116</v>
-      </c>
-      <c r="K3" s="74" t="s">
-        <v>117</v>
-      </c>
-      <c r="L3" s="74" t="s">
-        <v>118</v>
-      </c>
-      <c r="M3" s="75" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -28256,27 +28334,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H4" s="76" t="e">
+      <c r="H4" s="64" t="e">
         <f>$I$19-3*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I4" s="77" t="e">
+      <c r="I4" s="65" t="e">
         <f>H4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J4" s="78">
+      <c r="J4" s="66">
         <f>COUNTIF(D:D,"&lt;="&amp;H4)</f>
         <v>67</v>
       </c>
-      <c r="K4" s="78" t="e">
+      <c r="K4" s="66" t="e">
         <f>"Less than "&amp;TEXT(H4,"0,00%")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="79" t="e">
+      <c r="L4" s="67" t="e">
         <f>J4/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M4" s="80" t="e">
+      <c r="M4" s="68" t="e">
         <f>L4</f>
         <v>#DIV/0!</v>
       </c>
@@ -28286,27 +28364,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H5" s="81" t="e">
+      <c r="H5" s="69" t="e">
         <f>$I$19-2.4*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I5" s="82" t="e">
+      <c r="I5" s="70" t="e">
         <f>H5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J5" s="83">
+      <c r="J5" s="71">
         <f>COUNTIFS(D:D,"&lt;="&amp;H5,D:D,"&gt;"&amp;H4)</f>
         <v>67</v>
       </c>
-      <c r="K5" s="84" t="e">
+      <c r="K5" s="72" t="e">
         <f t="shared" ref="K5:K14" si="1">TEXT(H4,"0,00%")&amp;" to "&amp;TEXT(H5,"0,00%")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="85" t="e">
+      <c r="L5" s="73" t="e">
         <f>J5/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M5" s="86" t="e">
+      <c r="M5" s="74" t="e">
         <f>M4+L5</f>
         <v>#DIV/0!</v>
       </c>
@@ -28316,27 +28394,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H6" s="81" t="e">
+      <c r="H6" s="69" t="e">
         <f>$I$19-1.8*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I6" s="82" t="e">
+      <c r="I6" s="70" t="e">
         <f t="shared" ref="I6:I14" si="2">H6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="83">
+      <c r="J6" s="71">
         <f t="shared" ref="J6:J14" si="3">COUNTIFS(D:D,"&lt;="&amp;H6,D:D,"&gt;"&amp;H5)</f>
         <v>67</v>
       </c>
-      <c r="K6" s="84" t="e">
+      <c r="K6" s="72" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="85" t="e">
+      <c r="L6" s="73" t="e">
         <f t="shared" ref="L6:L15" si="4">J6/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M6" s="86" t="e">
+      <c r="M6" s="74" t="e">
         <f t="shared" ref="M6:M15" si="5">M5+L6</f>
         <v>#DIV/0!</v>
       </c>
@@ -28346,27 +28424,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H7" s="81" t="e">
+      <c r="H7" s="69" t="e">
         <f>$I$19-1.2*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I7" s="82" t="e">
+      <c r="I7" s="70" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="83">
+      <c r="J7" s="71">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K7" s="84" t="e">
+      <c r="K7" s="72" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="85" t="e">
+      <c r="L7" s="73" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M7" s="86" t="e">
+      <c r="M7" s="74" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -28376,27 +28454,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H8" s="81" t="e">
+      <c r="H8" s="69" t="e">
         <f>$I$19-0.6*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I8" s="82" t="e">
+      <c r="I8" s="70" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J8" s="83">
+      <c r="J8" s="71">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K8" s="84" t="e">
+      <c r="K8" s="72" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="85" t="e">
+      <c r="L8" s="73" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M8" s="86" t="e">
+      <c r="M8" s="74" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -28406,27 +28484,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H9" s="81" t="e">
+      <c r="H9" s="69" t="e">
         <f>$I$19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9" s="82" t="e">
+      <c r="I9" s="70" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J9" s="83">
+      <c r="J9" s="71">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K9" s="84" t="e">
+      <c r="K9" s="72" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="85" t="e">
+      <c r="L9" s="73" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M9" s="86" t="e">
+      <c r="M9" s="74" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -28436,27 +28514,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H10" s="81" t="e">
+      <c r="H10" s="69" t="e">
         <f>$I$19+0.6*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="82" t="e">
+      <c r="I10" s="70" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J10" s="83">
+      <c r="J10" s="71">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K10" s="84" t="e">
+      <c r="K10" s="72" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="85" t="e">
+      <c r="L10" s="73" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M10" s="86" t="e">
+      <c r="M10" s="74" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -28466,27 +28544,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H11" s="81" t="e">
+      <c r="H11" s="69" t="e">
         <f>$I$19+1.2*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="82" t="e">
+      <c r="I11" s="70" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J11" s="83">
+      <c r="J11" s="71">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K11" s="84" t="e">
+      <c r="K11" s="72" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="85" t="e">
+      <c r="L11" s="73" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M11" s="86" t="e">
+      <c r="M11" s="74" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -28496,27 +28574,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="81" t="e">
+      <c r="H12" s="69" t="e">
         <f>$I$19+1.8*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="82" t="e">
+      <c r="I12" s="70" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J12" s="83">
+      <c r="J12" s="71">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K12" s="84" t="e">
+      <c r="K12" s="72" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L12" s="85" t="e">
+      <c r="L12" s="73" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M12" s="86" t="e">
+      <c r="M12" s="74" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -28526,27 +28604,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="81" t="e">
+      <c r="H13" s="69" t="e">
         <f>$I$19+2.4*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="82" t="e">
+      <c r="I13" s="70" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J13" s="83">
+      <c r="J13" s="71">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K13" s="84" t="e">
+      <c r="K13" s="72" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L13" s="85" t="e">
+      <c r="L13" s="73" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M13" s="86" t="e">
+      <c r="M13" s="74" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -28556,27 +28634,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="81" t="e">
+      <c r="H14" s="69" t="e">
         <f>$I$19+3*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="82" t="e">
+      <c r="I14" s="70" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J14" s="83">
+      <c r="J14" s="71">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K14" s="84" t="e">
+      <c r="K14" s="72" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L14" s="85" t="e">
+      <c r="L14" s="73" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M14" s="86" t="e">
+      <c r="M14" s="74" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -28586,23 +28664,23 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="87"/>
-      <c r="I15" s="88" t="s">
-        <v>120</v>
-      </c>
-      <c r="J15" s="88">
+      <c r="H15" s="75"/>
+      <c r="I15" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="J15" s="76">
         <f>COUNTIF(D:D,"&gt;"&amp;H14)</f>
         <v>67</v>
       </c>
-      <c r="K15" s="88" t="e">
+      <c r="K15" s="76" t="e">
         <f>"Greater than "&amp;TEXT(H14,"0,00%")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L15" s="89" t="e">
+      <c r="L15" s="77" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M15" s="89" t="e">
+      <c r="M15" s="77" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -28612,350 +28690,350 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="90"/>
-      <c r="M16" s="91"/>
+      <c r="H16" s="78"/>
+      <c r="M16" s="79"/>
     </row>
     <row r="17" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D17" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="146" t="s">
-        <v>151</v>
-      </c>
-      <c r="I17" s="147"/>
-      <c r="M17" s="91"/>
+      <c r="H17" s="133" t="s">
+        <v>147</v>
+      </c>
+      <c r="I17" s="134"/>
+      <c r="M17" s="79"/>
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D18" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="148"/>
-      <c r="I18" s="149"/>
-      <c r="M18" s="91"/>
+      <c r="H18" s="135"/>
+      <c r="I18" s="136"/>
+      <c r="M18" s="79"/>
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="92" t="s">
-        <v>121</v>
-      </c>
-      <c r="I19" s="129" t="e">
+      <c r="H19" s="80" t="s">
+        <v>117</v>
+      </c>
+      <c r="I19" s="116" t="e">
         <f>AVERAGE(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M19" s="91"/>
+      <c r="M19" s="79"/>
     </row>
     <row r="20" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="92" t="s">
-        <v>122</v>
-      </c>
-      <c r="I20" s="129" t="e">
+      <c r="H20" s="80" t="s">
+        <v>118</v>
+      </c>
+      <c r="I20" s="116" t="e">
         <f>_xlfn.STDEV.S(D:D)/SQRT(COUNT(D:D))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M20" s="91"/>
+      <c r="M20" s="79"/>
     </row>
     <row r="21" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D21" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H21" s="92" t="s">
-        <v>123</v>
-      </c>
-      <c r="I21" s="129" t="e">
+      <c r="H21" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="I21" s="116" t="e">
         <f>MEDIAN(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M21" s="91"/>
+      <c r="M21" s="79"/>
     </row>
     <row r="22" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="92" t="s">
-        <v>124</v>
-      </c>
-      <c r="I22" s="129" t="e">
+      <c r="H22" s="80" t="s">
+        <v>120</v>
+      </c>
+      <c r="I22" s="116" t="e">
         <f>MODE(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M22" s="91"/>
+      <c r="M22" s="79"/>
     </row>
     <row r="23" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D23" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="92" t="s">
-        <v>125</v>
-      </c>
-      <c r="I23" s="129" t="e">
+      <c r="H23" s="80" t="s">
+        <v>121</v>
+      </c>
+      <c r="I23" s="116" t="e">
         <f>_xlfn.STDEV.S(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M23" s="91"/>
+      <c r="M23" s="79"/>
     </row>
     <row r="24" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="92" t="s">
-        <v>126</v>
-      </c>
-      <c r="I24" s="129" t="e">
+      <c r="H24" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="I24" s="116" t="e">
         <f>_xlfn.VAR.S(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M24" s="91"/>
+      <c r="M24" s="79"/>
     </row>
     <row r="25" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D25" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="92" t="s">
-        <v>127</v>
-      </c>
-      <c r="I25" s="130" t="e">
+      <c r="H25" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="I25" s="117" t="e">
         <f>KURT(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M25" s="91"/>
+      <c r="M25" s="79"/>
     </row>
     <row r="26" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="92" t="s">
-        <v>128</v>
-      </c>
-      <c r="I26" s="130" t="e">
+      <c r="H26" s="80" t="s">
+        <v>124</v>
+      </c>
+      <c r="I26" s="117" t="e">
         <f>SKEW(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M26" s="91"/>
+      <c r="M26" s="79"/>
     </row>
     <row r="27" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="92" t="s">
-        <v>117</v>
-      </c>
-      <c r="I27" s="129" t="e">
+      <c r="H27" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="I27" s="116" t="e">
         <f>I29-I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M27" s="91"/>
+      <c r="M27" s="79"/>
     </row>
     <row r="28" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D28" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="92" t="s">
-        <v>129</v>
-      </c>
-      <c r="I28" s="129" t="e">
+      <c r="H28" s="80" t="s">
+        <v>125</v>
+      </c>
+      <c r="I28" s="116" t="e">
         <f>MIN(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M28" s="91"/>
+      <c r="M28" s="79"/>
     </row>
     <row r="29" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D29" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="92" t="s">
-        <v>130</v>
-      </c>
-      <c r="I29" s="129" t="e">
+      <c r="H29" s="80" t="s">
+        <v>126</v>
+      </c>
+      <c r="I29" s="116" t="e">
         <f>MAX(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M29" s="91"/>
+      <c r="M29" s="79"/>
     </row>
     <row r="30" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D30" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="92" t="s">
-        <v>131</v>
-      </c>
-      <c r="I30" s="130" t="e">
+      <c r="H30" s="80" t="s">
+        <v>127</v>
+      </c>
+      <c r="I30" s="117" t="e">
         <f>SUM(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M30" s="91"/>
+      <c r="M30" s="79"/>
     </row>
     <row r="31" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D31" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="93" t="s">
-        <v>132</v>
-      </c>
-      <c r="I31" s="70">
+      <c r="H31" s="81" t="s">
+        <v>128</v>
+      </c>
+      <c r="I31" s="58">
         <f>COUNT(D:D)</f>
         <v>0</v>
       </c>
-      <c r="M31" s="91"/>
+      <c r="M31" s="79"/>
     </row>
     <row r="32" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D32" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="95"/>
-      <c r="M32" s="91"/>
+      <c r="H32" s="83"/>
+      <c r="M32" s="79"/>
     </row>
     <row r="33" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D33" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="96"/>
-      <c r="I33" s="97" t="s">
-        <v>133</v>
-      </c>
-      <c r="J33" s="97" t="s">
-        <v>132</v>
-      </c>
-      <c r="K33" s="97" t="s">
-        <v>134</v>
-      </c>
-      <c r="L33" s="98" t="s">
-        <v>135</v>
-      </c>
-      <c r="M33" s="91"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="85" t="s">
+        <v>129</v>
+      </c>
+      <c r="J33" s="85" t="s">
+        <v>128</v>
+      </c>
+      <c r="K33" s="85" t="s">
+        <v>130</v>
+      </c>
+      <c r="L33" s="86" t="s">
+        <v>131</v>
+      </c>
+      <c r="M33" s="79"/>
     </row>
     <row r="34" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="99" t="s">
-        <v>136</v>
-      </c>
-      <c r="I34" s="85" t="e">
+      <c r="H34" s="87" t="s">
+        <v>132</v>
+      </c>
+      <c r="I34" s="73" t="e">
         <f>AVERAGEIF(D:D,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J34" s="83">
+      <c r="J34" s="71">
         <f>COUNTIF(D:D,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="K34" s="85" t="e">
+      <c r="K34" s="73" t="e">
         <f>J34/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L34" s="86" t="e">
+      <c r="L34" s="74" t="e">
         <f>K34*I34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M34" s="91"/>
+      <c r="M34" s="79"/>
     </row>
     <row r="35" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D35" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="99" t="s">
-        <v>137</v>
-      </c>
-      <c r="I35" s="85" t="e">
+      <c r="H35" s="87" t="s">
+        <v>133</v>
+      </c>
+      <c r="I35" s="73" t="e">
         <f>AVERAGEIF(D:D,"&lt;0")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J35" s="83">
+      <c r="J35" s="71">
         <f>COUNTIF(D:D,"&lt;0")</f>
         <v>0</v>
       </c>
-      <c r="K35" s="85" t="e">
+      <c r="K35" s="73" t="e">
         <f>J35/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L35" s="86" t="e">
+      <c r="L35" s="74" t="e">
         <f t="shared" ref="L35:L36" si="6">K35*I35</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M35" s="91"/>
+      <c r="M35" s="79"/>
     </row>
     <row r="36" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D36" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H36" s="100" t="s">
-        <v>138</v>
-      </c>
-      <c r="I36" s="88">
+      <c r="H36" s="88" t="s">
+        <v>134</v>
+      </c>
+      <c r="I36" s="76">
         <v>0</v>
       </c>
-      <c r="J36" s="88">
+      <c r="J36" s="76">
         <f>COUNTIF(D:D,"0")</f>
         <v>0</v>
       </c>
-      <c r="K36" s="101" t="e">
+      <c r="K36" s="89" t="e">
         <f>J36/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L36" s="89" t="e">
+      <c r="L36" s="77" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M36" s="91"/>
+      <c r="M36" s="79"/>
     </row>
     <row r="37" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D37" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H37" s="95"/>
-      <c r="I37" s="102"/>
-      <c r="J37" s="102"/>
-      <c r="K37" s="102"/>
-      <c r="L37" s="102"/>
-      <c r="M37" s="91"/>
+      <c r="H37" s="83"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="90"/>
+      <c r="K37" s="90"/>
+      <c r="L37" s="90"/>
+      <c r="M37" s="79"/>
     </row>
     <row r="38" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D38" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="76" t="s">
+      <c r="H38" s="64" t="s">
+        <v>135</v>
+      </c>
+      <c r="I38" s="85" t="s">
+        <v>136</v>
+      </c>
+      <c r="J38" s="85" t="s">
+        <v>137</v>
+      </c>
+      <c r="K38" s="85" t="s">
+        <v>138</v>
+      </c>
+      <c r="L38" s="85" t="s">
         <v>139</v>
       </c>
-      <c r="I38" s="97" t="s">
+      <c r="M38" s="86" t="s">
         <v>140</v>
-      </c>
-      <c r="J38" s="97" t="s">
-        <v>141</v>
-      </c>
-      <c r="K38" s="97" t="s">
-        <v>142</v>
-      </c>
-      <c r="L38" s="97" t="s">
-        <v>143</v>
-      </c>
-      <c r="M38" s="98" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="39" spans="4:13" x14ac:dyDescent="0.25">
@@ -28963,26 +29041,26 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H39" s="103">
+      <c r="H39" s="91">
         <v>1</v>
       </c>
-      <c r="I39" s="85" t="e">
+      <c r="I39" s="73" t="e">
         <f>$I$19+($H39*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J39" s="85" t="e">
+      <c r="J39" s="73" t="e">
         <f>$I$19-($H39*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K39" s="83">
+      <c r="K39" s="71">
         <f>COUNTIFS(D:D,"&lt;"&amp;I39,D:D,"&gt;"&amp;J39)</f>
         <v>67</v>
       </c>
-      <c r="L39" s="85" t="e">
+      <c r="L39" s="73" t="e">
         <f>K39/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="86">
+      <c r="M39" s="74">
         <v>0.68269999999999997</v>
       </c>
     </row>
@@ -28991,26 +29069,26 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H40" s="103">
+      <c r="H40" s="91">
         <v>2</v>
       </c>
-      <c r="I40" s="85" t="e">
+      <c r="I40" s="73" t="e">
         <f>$I$19+($H40*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J40" s="85" t="e">
+      <c r="J40" s="73" t="e">
         <f>$I$19-($H40*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K40" s="83">
+      <c r="K40" s="71">
         <f>COUNTIFS(D:D,"&lt;"&amp;I40,D:D,"&gt;"&amp;J40)</f>
         <v>67</v>
       </c>
-      <c r="L40" s="85" t="e">
+      <c r="L40" s="73" t="e">
         <f>K40/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="86">
+      <c r="M40" s="74">
         <v>0.95450000000000002</v>
       </c>
     </row>
@@ -29019,26 +29097,26 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="103">
+      <c r="H41" s="91">
         <v>3</v>
       </c>
-      <c r="I41" s="85" t="e">
+      <c r="I41" s="73" t="e">
         <f>$I$19+($H41*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J41" s="85" t="e">
+      <c r="J41" s="73" t="e">
         <f>$I$19-($H41*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K41" s="83">
+      <c r="K41" s="71">
         <f>COUNTIFS(D:D,"&lt;"&amp;I41,D:D,"&gt;"&amp;J41)</f>
         <v>67</v>
       </c>
-      <c r="L41" s="85" t="e">
+      <c r="L41" s="73" t="e">
         <f>K41/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="104">
+      <c r="M41" s="92">
         <v>0.99729999999999996</v>
       </c>
     </row>
@@ -29047,46 +29125,46 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H42" s="81"/>
-      <c r="M42" s="104"/>
+      <c r="H42" s="69"/>
+      <c r="M42" s="92"/>
     </row>
     <row r="43" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D43" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H43" s="150" t="s">
-        <v>145</v>
-      </c>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="152"/>
+      <c r="H43" s="137" t="s">
+        <v>141</v>
+      </c>
+      <c r="I43" s="138"/>
+      <c r="J43" s="138"/>
+      <c r="K43" s="138"/>
+      <c r="L43" s="138"/>
+      <c r="M43" s="139"/>
     </row>
     <row r="44" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D44" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H44" s="105">
+      <c r="H44" s="93">
         <v>0.01</v>
       </c>
-      <c r="I44" s="106" t="e">
+      <c r="I44" s="94" t="e">
         <f t="shared" ref="I44:I58" si="7">_xlfn.PERCENTILE.INC(D:D,H44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J44" s="107">
+      <c r="J44" s="95">
         <v>0.2</v>
       </c>
-      <c r="K44" s="106" t="e">
+      <c r="K44" s="94" t="e">
         <f t="shared" ref="K44:K56" si="8">_xlfn.PERCENTILE.INC(D:D,J44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L44" s="107">
+      <c r="L44" s="95">
         <v>0.85</v>
       </c>
-      <c r="M44" s="108" t="e">
+      <c r="M44" s="96" t="e">
         <f t="shared" ref="M44:M58" si="9">_xlfn.PERCENTILE.INC(D:D,L44)</f>
         <v>#DIV/0!</v>
       </c>
@@ -29096,24 +29174,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H45" s="109">
+      <c r="H45" s="97">
         <v>0.02</v>
       </c>
-      <c r="I45" s="110" t="e">
+      <c r="I45" s="98" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J45" s="111">
+      <c r="J45" s="99">
         <v>0.25</v>
       </c>
-      <c r="K45" s="110" t="e">
+      <c r="K45" s="98" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L45" s="111">
+      <c r="L45" s="99">
         <v>0.86</v>
       </c>
-      <c r="M45" s="112" t="e">
+      <c r="M45" s="100" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -29123,24 +29201,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H46" s="109">
+      <c r="H46" s="97">
         <v>0.03</v>
       </c>
-      <c r="I46" s="110" t="e">
+      <c r="I46" s="98" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J46" s="111">
+      <c r="J46" s="99">
         <v>0.3</v>
       </c>
-      <c r="K46" s="110" t="e">
+      <c r="K46" s="98" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L46" s="111">
+      <c r="L46" s="99">
         <v>0.87</v>
       </c>
-      <c r="M46" s="112" t="e">
+      <c r="M46" s="100" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -29150,24 +29228,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H47" s="109">
+      <c r="H47" s="97">
         <v>0.04</v>
       </c>
-      <c r="I47" s="110" t="e">
+      <c r="I47" s="98" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J47" s="111">
+      <c r="J47" s="99">
         <v>0.35</v>
       </c>
-      <c r="K47" s="110" t="e">
+      <c r="K47" s="98" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L47" s="111">
+      <c r="L47" s="99">
         <v>0.88</v>
       </c>
-      <c r="M47" s="112" t="e">
+      <c r="M47" s="100" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -29177,24 +29255,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H48" s="109">
+      <c r="H48" s="97">
         <v>0.05</v>
       </c>
-      <c r="I48" s="110" t="e">
+      <c r="I48" s="98" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J48" s="111">
+      <c r="J48" s="99">
         <v>0.4</v>
       </c>
-      <c r="K48" s="110" t="e">
+      <c r="K48" s="98" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L48" s="111">
+      <c r="L48" s="99">
         <v>0.89</v>
       </c>
-      <c r="M48" s="112" t="e">
+      <c r="M48" s="100" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -29204,24 +29282,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H49" s="109">
+      <c r="H49" s="97">
         <v>0.06</v>
       </c>
-      <c r="I49" s="110" t="e">
+      <c r="I49" s="98" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J49" s="111">
+      <c r="J49" s="99">
         <v>0.45</v>
       </c>
-      <c r="K49" s="110" t="e">
+      <c r="K49" s="98" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L49" s="111">
+      <c r="L49" s="99">
         <v>0.9</v>
       </c>
-      <c r="M49" s="112" t="e">
+      <c r="M49" s="100" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -29231,24 +29309,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H50" s="109">
+      <c r="H50" s="97">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I50" s="110" t="e">
+      <c r="I50" s="98" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J50" s="111">
+      <c r="J50" s="99">
         <v>0.5</v>
       </c>
-      <c r="K50" s="110" t="e">
+      <c r="K50" s="98" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L50" s="111">
+      <c r="L50" s="99">
         <v>0.91</v>
       </c>
-      <c r="M50" s="112" t="e">
+      <c r="M50" s="100" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -29258,24 +29336,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H51" s="109">
+      <c r="H51" s="97">
         <v>0.08</v>
       </c>
-      <c r="I51" s="110" t="e">
+      <c r="I51" s="98" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J51" s="111">
+      <c r="J51" s="99">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K51" s="110" t="e">
+      <c r="K51" s="98" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L51" s="111">
+      <c r="L51" s="99">
         <v>0.92</v>
       </c>
-      <c r="M51" s="112" t="e">
+      <c r="M51" s="100" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -29285,24 +29363,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H52" s="109">
+      <c r="H52" s="97">
         <v>0.09</v>
       </c>
-      <c r="I52" s="110" t="e">
+      <c r="I52" s="98" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J52" s="111">
+      <c r="J52" s="99">
         <v>0.6</v>
       </c>
-      <c r="K52" s="110" t="e">
+      <c r="K52" s="98" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L52" s="111">
+      <c r="L52" s="99">
         <v>0.93</v>
       </c>
-      <c r="M52" s="112" t="e">
+      <c r="M52" s="100" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -29312,24 +29390,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H53" s="109">
+      <c r="H53" s="97">
         <v>0.1</v>
       </c>
-      <c r="I53" s="110" t="e">
+      <c r="I53" s="98" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J53" s="111">
+      <c r="J53" s="99">
         <v>0.65</v>
       </c>
-      <c r="K53" s="110" t="e">
+      <c r="K53" s="98" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L53" s="111">
+      <c r="L53" s="99">
         <v>0.94</v>
       </c>
-      <c r="M53" s="112" t="e">
+      <c r="M53" s="100" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -29339,24 +29417,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H54" s="109">
+      <c r="H54" s="97">
         <v>0.11</v>
       </c>
-      <c r="I54" s="110" t="e">
+      <c r="I54" s="98" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J54" s="111">
+      <c r="J54" s="99">
         <v>0.7</v>
       </c>
-      <c r="K54" s="110" t="e">
+      <c r="K54" s="98" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L54" s="111">
+      <c r="L54" s="99">
         <v>0.95</v>
       </c>
-      <c r="M54" s="112" t="e">
+      <c r="M54" s="100" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -29366,24 +29444,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H55" s="109">
+      <c r="H55" s="97">
         <v>0.12</v>
       </c>
-      <c r="I55" s="110" t="e">
+      <c r="I55" s="98" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J55" s="111">
+      <c r="J55" s="99">
         <v>0.75</v>
       </c>
-      <c r="K55" s="110" t="e">
+      <c r="K55" s="98" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L55" s="111">
+      <c r="L55" s="99">
         <v>0.96</v>
       </c>
-      <c r="M55" s="112" t="e">
+      <c r="M55" s="100" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -29393,24 +29471,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H56" s="109">
+      <c r="H56" s="97">
         <v>0.13</v>
       </c>
-      <c r="I56" s="110" t="e">
+      <c r="I56" s="98" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J56" s="111">
+      <c r="J56" s="99">
         <v>0.8</v>
       </c>
-      <c r="K56" s="110" t="e">
+      <c r="K56" s="98" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L56" s="111">
+      <c r="L56" s="99">
         <v>0.97</v>
       </c>
-      <c r="M56" s="112" t="e">
+      <c r="M56" s="100" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -29420,19 +29498,19 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H57" s="109">
+      <c r="H57" s="97">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I57" s="110" t="e">
+      <c r="I57" s="98" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J57" s="111"/>
-      <c r="K57" s="110"/>
-      <c r="L57" s="111">
+      <c r="J57" s="99"/>
+      <c r="K57" s="98"/>
+      <c r="L57" s="99">
         <v>0.98</v>
       </c>
-      <c r="M57" s="112" t="e">
+      <c r="M57" s="100" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -29442,19 +29520,19 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H58" s="113">
+      <c r="H58" s="101">
         <v>0.15</v>
       </c>
-      <c r="I58" s="114" t="e">
+      <c r="I58" s="102" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J58" s="115"/>
-      <c r="K58" s="94"/>
-      <c r="L58" s="116">
+      <c r="J58" s="103"/>
+      <c r="K58" s="82"/>
+      <c r="L58" s="104">
         <v>0.99</v>
       </c>
-      <c r="M58" s="117" t="e">
+      <c r="M58" s="105" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -29470,47 +29548,47 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H60" s="118" t="s">
-        <v>146</v>
-      </c>
-      <c r="I60" s="119"/>
+      <c r="H60" s="106" t="s">
+        <v>142</v>
+      </c>
+      <c r="I60" s="107"/>
     </row>
     <row r="61" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D61" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H61" s="120" t="s">
-        <v>147</v>
-      </c>
-      <c r="I61" s="121"/>
+      <c r="H61" s="108" t="s">
+        <v>143</v>
+      </c>
+      <c r="I61" s="109"/>
     </row>
     <row r="62" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D62" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H62" s="122"/>
+      <c r="H62" s="110"/>
     </row>
     <row r="63" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D63" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H63" s="118" t="s">
-        <v>148</v>
-      </c>
-      <c r="I63" s="123"/>
+      <c r="H63" s="106" t="s">
+        <v>144</v>
+      </c>
+      <c r="I63" s="111"/>
     </row>
     <row r="64" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D64" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H64" s="124" t="s">
-        <v>149</v>
-      </c>
-      <c r="I64" s="125">
+      <c r="H64" s="112" t="s">
+        <v>145</v>
+      </c>
+      <c r="I64" s="113">
         <f>I63*(1-I60)</f>
         <v>0</v>
       </c>
@@ -29520,10 +29598,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H65" s="120" t="s">
-        <v>150</v>
-      </c>
-      <c r="I65" s="126">
+      <c r="H65" s="108" t="s">
+        <v>146</v>
+      </c>
+      <c r="I65" s="114">
         <f>I63*(1+I61)</f>
         <v>0</v>
       </c>

--- a/x_template.xlsx
+++ b/x_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93D137F-F3F9-444B-81A3-26A42F170230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B3338B-EBD8-475E-A95E-C3DB0670CA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="765" windowWidth="13995" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,30 +22,16 @@
     <sheet name="DoR" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$6</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$7</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Model!$N$25:$AA$25</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Model!$N$25:$Y$25</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Model!$N$26:$AA$26</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Model!$N$26:$Y$26</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Model!$N$2:$AA$2</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Model!$N$2:$Y$2</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Model!$B$6</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Model!$B$7</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Model!$N$2:$AA$2</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Model!$N$2:$Y$2</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$N$2:$AA$2</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Model!$N$6:$AA$6</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Model!$N$6:$Y$6</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Model!$N$7:$AA$7</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Model!$N$7:$Y$7</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$N$2:$Y$2</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$N$6:$AA$6</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$N$6:$Y$6</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$N$7:$AA$7</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$N$7:$Y$7</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$B$25</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$B$26</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$25</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$26</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$K$25:$X$25</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$K$26:$X$26</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$K$2:$T$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$6</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$7</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$K$2:$T$2</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$K$6:$X$6</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$K$7:$X$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -333,7 +319,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="173">
   <si>
     <t>Price</t>
   </si>
@@ -353,22 +339,7 @@
     <t>EV</t>
   </si>
   <si>
-    <t>Q222</t>
-  </si>
-  <si>
-    <t>Q322</t>
-  </si>
-  <si>
-    <t>Q422</t>
-  </si>
-  <si>
     <t>Q123</t>
-  </si>
-  <si>
-    <t>Q122</t>
-  </si>
-  <si>
-    <t>FY21</t>
   </si>
   <si>
     <t>FY22</t>
@@ -378,9 +349,6 @@
   </si>
   <si>
     <t>Revenue</t>
-  </si>
-  <si>
-    <t>FY20</t>
   </si>
   <si>
     <t>EBITDA</t>
@@ -432,9 +400,6 @@
   </si>
   <si>
     <t>FY24</t>
-  </si>
-  <si>
-    <t>FY19</t>
   </si>
   <si>
     <t>Q223</t>
@@ -861,6 +826,18 @@
   </si>
   <si>
     <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>Q126</t>
+  </si>
+  <si>
+    <t>Q226</t>
   </si>
 </sst>
 </file>
@@ -1610,7 +1587,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1762,6 +1739,10 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1819,26 +1800,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2834,6 +2795,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2841,7 +2803,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3178,6 +3139,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3185,7 +3147,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3758,6 +3719,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3765,7 +3727,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3994,57 +3955,57 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$N$2:$AA$2</c:f>
+              <c:f>Model!$K$2:$X$2</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>Q122</c:v>
+                  <c:v>Q123</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Q222</c:v>
+                  <c:v>Q223</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Q322</c:v>
+                  <c:v>Q323</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q422</c:v>
+                  <c:v>Q423</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q123</c:v>
+                  <c:v>Q124</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q223</c:v>
+                  <c:v>Q224</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q323</c:v>
+                  <c:v>Q324</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q423</c:v>
+                  <c:v>Q424</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Q124</c:v>
+                  <c:v>Q125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Q224</c:v>
+                  <c:v>Q225</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Q324</c:v>
+                  <c:v>Q325</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Q424</c:v>
+                  <c:v>Q425</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Q125</c:v>
+                  <c:v>Q126</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Q225</c:v>
+                  <c:v>Q226</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$N$6:$AA$6</c:f>
+              <c:f>Model!$K$6:$X$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
@@ -4197,22 +4158,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$N$29:$AA$29</c:f>
+              <c:f>Model!$K$29:$X$29</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4461,6 +4410,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4468,7 +4418,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4605,7 +4554,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
-            <c:idx val="4"/>
+            <c:idx val="1"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -4619,12 +4568,12 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-21CC-452E-9D1B-EA54FE60E683}"/>
+                <c16:uniqueId val="{00000001-9FF0-459B-A546-819F3C5FC9BE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="5"/>
+            <c:idx val="2"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -4640,7 +4589,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-8FA1-4450-8EE0-3FE2DAE0EFFF}"/>
+                <c16:uniqueId val="{00000003-9FF0-459B-A546-819F3C5FC9BE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4698,31 +4647,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$C$2:$J$2</c:f>
+              <c:f>Model!$C$2:$G$2</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>FY19</c:v>
+                  <c:v>FY22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FY20</c:v>
+                  <c:v>FY23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FY21</c:v>
+                  <c:v>FY24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FY22</c:v>
+                  <c:v>FY25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>FY23</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FY24</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>FY25</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>FY26</c:v>
                 </c:pt>
               </c:strCache>
@@ -4730,10 +4670,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$6:$J$6</c:f>
+              <c:f>Model!$C$6:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4747,15 +4687,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4874,10 +4805,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$29:$J$29</c:f>
+              <c:f>Model!$C$29:$G$29</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4888,15 +4819,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5117,6 +5039,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5124,7 +5047,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5317,49 +5239,37 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$N$2:$AA$2</c:f>
+              <c:f>Model!$K$2:$T$2</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Q122</c:v>
+                  <c:v>Q123</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Q222</c:v>
+                  <c:v>Q223</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Q322</c:v>
+                  <c:v>Q323</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q422</c:v>
+                  <c:v>Q423</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q123</c:v>
+                  <c:v>Q124</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q223</c:v>
+                  <c:v>Q224</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q323</c:v>
+                  <c:v>Q324</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q423</c:v>
+                  <c:v>Q424</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Q124</c:v>
+                  <c:v>Q125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Q224</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Q324</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Q424</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Q125</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>Q225</c:v>
                 </c:pt>
               </c:strCache>
@@ -5367,7 +5277,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$N$25:$AA$25</c:f>
+              <c:f>Model!$K$25:$X$25</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
@@ -5520,22 +5430,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$N$35:$AA$35</c:f>
+              <c:f>Model!$K$35:$X$35</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5784,6 +5682,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5791,7 +5690,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5982,31 +5880,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$C$2:$J$2</c:f>
+              <c:f>Model!$C$2:$G$2</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>FY19</c:v>
+                  <c:v>FY22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FY20</c:v>
+                  <c:v>FY23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FY21</c:v>
+                  <c:v>FY24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FY22</c:v>
+                  <c:v>FY25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>FY23</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FY24</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>FY25</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>FY26</c:v>
                 </c:pt>
               </c:strCache>
@@ -6014,10 +5903,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$25:$J$25</c:f>
+              <c:f>Model!$C$25:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6031,15 +5920,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6147,10 +6027,13 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$35:$J$35</c:f>
+              <c:f>Model!$C$35:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6161,15 +6044,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6390,6 +6264,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6397,7 +6272,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6622,49 +6496,37 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$N$2:$AA$2</c:f>
+              <c:f>Model!$K$2:$T$2</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Q122</c:v>
+                  <c:v>Q123</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Q222</c:v>
+                  <c:v>Q223</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Q322</c:v>
+                  <c:v>Q323</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q422</c:v>
+                  <c:v>Q423</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q123</c:v>
+                  <c:v>Q124</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q223</c:v>
+                  <c:v>Q224</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q323</c:v>
+                  <c:v>Q324</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q423</c:v>
+                  <c:v>Q424</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Q124</c:v>
+                  <c:v>Q125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Q224</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Q324</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Q424</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Q125</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>Q225</c:v>
                 </c:pt>
               </c:strCache>
@@ -6672,7 +6534,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$N$30:$AA$30</c:f>
+              <c:f>Model!$K$30:$X$30</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="14"/>
@@ -6826,49 +6688,37 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$N$2:$AA$2</c:f>
+              <c:f>Model!$K$2:$T$2</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Q122</c:v>
+                  <c:v>Q123</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Q222</c:v>
+                  <c:v>Q223</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Q322</c:v>
+                  <c:v>Q323</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q422</c:v>
+                  <c:v>Q423</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q123</c:v>
+                  <c:v>Q124</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q223</c:v>
+                  <c:v>Q224</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q323</c:v>
+                  <c:v>Q324</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q423</c:v>
+                  <c:v>Q424</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Q124</c:v>
+                  <c:v>Q125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Q224</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Q324</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Q424</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Q125</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>Q225</c:v>
                 </c:pt>
               </c:strCache>
@@ -6876,7 +6726,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$N$31:$AA$31</c:f>
+              <c:f>Model!$K$31:$X$31</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="14"/>
@@ -7030,49 +6880,37 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$N$2:$AA$2</c:f>
+              <c:f>Model!$K$2:$T$2</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Q122</c:v>
+                  <c:v>Q123</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Q222</c:v>
+                  <c:v>Q223</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Q322</c:v>
+                  <c:v>Q323</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q422</c:v>
+                  <c:v>Q423</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q123</c:v>
+                  <c:v>Q124</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q223</c:v>
+                  <c:v>Q224</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q323</c:v>
+                  <c:v>Q324</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q423</c:v>
+                  <c:v>Q424</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Q124</c:v>
+                  <c:v>Q125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Q224</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Q324</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Q424</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Q125</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>Q225</c:v>
                 </c:pt>
               </c:strCache>
@@ -7080,7 +6918,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$N$32:$AA$32</c:f>
+              <c:f>Model!$K$32:$X$32</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="14"/>
@@ -7298,6 +7136,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -7305,7 +7144,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7523,31 +7361,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$C$2:$J$2</c:f>
+              <c:f>Model!$C$2:$G$2</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>FY19</c:v>
+                  <c:v>FY22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FY20</c:v>
+                  <c:v>FY23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FY21</c:v>
+                  <c:v>FY24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FY22</c:v>
+                  <c:v>FY25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>FY23</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FY24</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>FY25</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>FY26</c:v>
                 </c:pt>
               </c:strCache>
@@ -7555,10 +7384,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$30:$J$30</c:f>
+              <c:f>Model!$C$30:$G$30</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7572,15 +7401,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7691,31 +7511,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$C$2:$J$2</c:f>
+              <c:f>Model!$C$2:$G$2</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>FY19</c:v>
+                  <c:v>FY22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FY20</c:v>
+                  <c:v>FY23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FY21</c:v>
+                  <c:v>FY24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FY22</c:v>
+                  <c:v>FY25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>FY23</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FY24</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>FY25</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>FY26</c:v>
                 </c:pt>
               </c:strCache>
@@ -7723,10 +7534,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$31:$I$31</c:f>
+              <c:f>Model!$C$31:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7737,15 +7548,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7856,31 +7658,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$C$2:$J$2</c:f>
+              <c:f>Model!$C$2:$G$2</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>FY19</c:v>
+                  <c:v>FY22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FY20</c:v>
+                  <c:v>FY23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FY21</c:v>
+                  <c:v>FY24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FY22</c:v>
+                  <c:v>FY25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>FY23</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FY24</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>FY25</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>FY26</c:v>
                 </c:pt>
               </c:strCache>
@@ -7888,10 +7681,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$32:$I$32</c:f>
+              <c:f>Model!$C$32:$F$32</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7902,15 +7695,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -8085,6 +7869,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -8092,7 +7877,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8387,6 +8171,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -8394,7 +8179,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8434,18 +8218,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.14</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.12</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.14</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.10</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8489,7 +8273,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.9</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8509,7 +8293,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8540,18 +8324,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.18</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.22</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.18</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.20</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8595,7 +8379,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.17</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8615,7 +8399,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -16101,7 +15885,7 @@
   <dimension ref="B2:N54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16124,37 +15908,37 @@
       <c r="B2" s="34"/>
       <c r="C2" s="19"/>
       <c r="E2" s="24" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F2" s="55" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="26" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I2" s="26" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="M2" s="31" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="N2" s="32" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C3" s="20">
-        <v>45560</v>
+        <v>45971</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="28"/>
@@ -16166,7 +15950,7 @@
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="21">
-        <v>0.69166666666666665</v>
+        <v>0.60555555555555551</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="28"/>
@@ -16229,7 +16013,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="15" t="e">
-        <f>Model!F28</f>
+        <f>Model!C28</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E9" s="5"/>
@@ -16244,7 +16028,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="15">
-        <f>Model!F41+Model!F45</f>
+        <f>Model!C41+Model!C45</f>
         <v>0</v>
       </c>
       <c r="E10" s="5"/>
@@ -16256,7 +16040,7 @@
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C11" s="15" t="e">
         <f>C9-C10</f>
@@ -16285,7 +16069,7 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C13" s="36" t="e">
         <f>C6/Model!#REF!</f>
@@ -16298,10 +16082,10 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C14" s="36" t="e">
-        <f>C6/Model!G16</f>
+        <f>C6/Model!D16</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E14" s="22"/>
@@ -16316,238 +16100,238 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C15" s="36" t="e">
-        <f>C6/Model!H16</f>
+        <f>C6/Model!E16</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C16" s="6" t="e">
-        <f>Model!G16/Model!#REF!-1</f>
+        <f>Model!D16/Model!#REF!-1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C17" s="6" t="e">
-        <f>Model!H16/Model!G16-1</f>
+        <f>Model!E16/Model!D16-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="L17" s="121"/>
-      <c r="M17" s="122"/>
-      <c r="N17" s="123"/>
+        <v>46</v>
+      </c>
+      <c r="L17" s="125"/>
+      <c r="M17" s="126"/>
+      <c r="N17" s="127"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C18" s="46" t="e">
         <f>C14/(C16*100)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L18" s="124"/>
-      <c r="M18" s="125"/>
-      <c r="N18" s="126"/>
+      <c r="L18" s="128"/>
+      <c r="M18" s="129"/>
+      <c r="N18" s="130"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C19" s="46" t="e">
         <f>C15/(C17*100)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L19" s="124"/>
-      <c r="M19" s="125"/>
-      <c r="N19" s="126"/>
+      <c r="L19" s="128"/>
+      <c r="M19" s="129"/>
+      <c r="N19" s="130"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C20" s="6" t="e">
-        <f>Model!G4/Model!F3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L20" s="124"/>
-      <c r="M20" s="125"/>
-      <c r="N20" s="126"/>
+        <f>Model!D4/Model!C3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L20" s="128"/>
+      <c r="M20" s="129"/>
+      <c r="N20" s="130"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C21" s="6" t="e">
-        <f>Model!G5/Model!F4-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L21" s="124"/>
-      <c r="M21" s="125"/>
-      <c r="N21" s="126"/>
+        <f>Model!D5/Model!C4-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L21" s="128"/>
+      <c r="M21" s="129"/>
+      <c r="N21" s="130"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C22" s="15">
-        <f>Model!F12+Model!F10</f>
+        <f>Model!C12+Model!C10</f>
         <v>0</v>
       </c>
-      <c r="L22" s="124"/>
-      <c r="M22" s="125"/>
-      <c r="N22" s="126"/>
+      <c r="L22" s="128"/>
+      <c r="M22" s="129"/>
+      <c r="N22" s="130"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C23" s="15">
-        <f>Model!F12</f>
+        <f>Model!C12</f>
         <v>0</v>
       </c>
-      <c r="L23" s="124"/>
-      <c r="M23" s="125"/>
-      <c r="N23" s="126"/>
+      <c r="L23" s="128"/>
+      <c r="M23" s="129"/>
+      <c r="N23" s="130"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C24" s="7">
-        <f>Model!F17</f>
+        <f>Model!C17</f>
         <v>0</v>
       </c>
-      <c r="L24" s="124"/>
-      <c r="M24" s="125"/>
-      <c r="N24" s="126"/>
+      <c r="L24" s="128"/>
+      <c r="M24" s="129"/>
+      <c r="N24" s="130"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C25" s="7">
-        <f>Model!F18</f>
+        <f>Model!C18</f>
         <v>0</v>
       </c>
-      <c r="L25" s="124"/>
-      <c r="M25" s="125"/>
-      <c r="N25" s="126"/>
+      <c r="L25" s="128"/>
+      <c r="M25" s="129"/>
+      <c r="N25" s="130"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C26" s="36" t="e">
         <f>C12/C23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L26" s="124"/>
-      <c r="M26" s="125"/>
-      <c r="N26" s="126"/>
+      <c r="L26" s="128"/>
+      <c r="M26" s="129"/>
+      <c r="N26" s="130"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C27" s="115" t="e">
-        <f>Model!O45/Model!O50</f>
-        <v>#DIV/0!</v>
+        <f>Model!#REF!/Model!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E27" t="s">
-        <v>77</v>
-      </c>
-      <c r="L27" s="124"/>
-      <c r="M27" s="125"/>
-      <c r="N27" s="126"/>
+        <v>70</v>
+      </c>
+      <c r="L27" s="128"/>
+      <c r="M27" s="129"/>
+      <c r="N27" s="130"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C28" s="36" t="e">
-        <f>C22/-Model!F10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L28" s="127"/>
-      <c r="M28" s="128"/>
-      <c r="N28" s="129"/>
+        <f>C22/-Model!C10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L28" s="131"/>
+      <c r="M28" s="132"/>
+      <c r="N28" s="133"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C29" s="36" t="e">
-        <f>Model!O34/Model!O44</f>
-        <v>#DIV/0!</v>
+        <f>Model!#REF!/Model!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C30" s="36" t="e">
-        <f>(Model!O28+Model!O29)/Model!O44</f>
-        <v>#DIV/0!</v>
+        <f>(Model!#REF!+Model!#REF!)/Model!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C31" s="6" t="e">
-        <f>(Model!O34-Model!O44)/Model!O40</f>
-        <v>#DIV/0!</v>
+        <f>(Model!#REF!-Model!#REF!)/Model!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C32" s="36" t="e">
-        <f>(Model!O40-Model!O49)/Main!C7</f>
-        <v>#DIV/0!</v>
+        <f>(Model!#REF!-Model!#REF!)/Main!C7</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C33" s="36" t="e">
-        <f>Model!O3/Model!O40</f>
-        <v>#DIV/0!</v>
+        <f>Model!#REF!/Model!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C34" s="38" t="e">
-        <f>Model!O14/Model!O40</f>
-        <v>#DIV/0!</v>
+        <f>Model!#REF!/Model!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C35" s="38" t="e">
-        <f>Model!O14/Model!O50</f>
-        <v>#DIV/0!</v>
+        <f>Model!#REF!/Model!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="22" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C36" s="23"/>
     </row>
@@ -16654,119 +16438,107 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
-  <dimension ref="A1:AA87"/>
+  <dimension ref="A1:X87"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O9" sqref="O9"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="140"/>
-    <col min="8" max="8" width="11.42578125" style="13"/>
-    <col min="23" max="23" width="11.42578125" style="140"/>
-    <col min="25" max="25" width="11.42578125" style="13"/>
+    <col min="5" max="5" width="11.42578125" style="13"/>
+    <col min="21" max="21" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="140" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" t="s">
+        <v>166</v>
+      </c>
+      <c r="K2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" t="s">
         <v>32</v>
       </c>
-      <c r="I2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J2" t="s">
-        <v>173</v>
-      </c>
-      <c r="N2" t="s">
-        <v>10</v>
-      </c>
       <c r="O2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="P2" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="Q2" t="s">
-        <v>8</v>
+        <v>153</v>
       </c>
       <c r="R2" t="s">
+        <v>154</v>
+      </c>
+      <c r="S2" t="s">
+        <v>167</v>
+      </c>
+      <c r="T2" t="s">
+        <v>168</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="V2" t="s">
+        <v>170</v>
+      </c>
+      <c r="W2" t="s">
+        <v>171</v>
+      </c>
+      <c r="X2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+    </row>
+    <row r="6" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="S2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U2" t="s">
-        <v>39</v>
-      </c>
-      <c r="V2" t="s">
-        <v>64</v>
-      </c>
-      <c r="W2" s="140" t="s">
-        <v>68</v>
-      </c>
-      <c r="X2" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y2" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z2" s="159" t="s">
-        <v>174</v>
-      </c>
-      <c r="AA2" s="159" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="141"/>
-    </row>
-    <row r="6" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C6" s="11">
         <f>SUM(C3:C5)</f>
@@ -16776,99 +16548,87 @@
         <f>SUM(D3:D5)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="11">
-        <f>SUM(E3:E5)</f>
+      <c r="E6" s="14">
+        <f t="shared" ref="E6:G6" si="0">SUM(E3:E5)</f>
         <v>0</v>
       </c>
       <c r="F6" s="11">
-        <f>SUM(F3:F5)</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="142">
-        <f>SUM(G3:G5)</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="14">
-        <f t="shared" ref="H6:J6" si="0">SUM(H3:H5)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="142">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J6" s="142">
+      <c r="G6" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N6" s="11">
-        <f t="shared" ref="N6:T6" si="1">SUM(N3:N5)</f>
+      <c r="K6" s="11">
+        <f t="shared" ref="K6:M6" si="1">SUM(K3:K5)</f>
         <v>0</v>
       </c>
-      <c r="O6" s="11">
+      <c r="L6" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P6" s="11">
+      <c r="M6" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="11">
-        <f t="shared" si="1"/>
+      <c r="N6" s="11">
+        <f t="shared" ref="N6:Q6" si="2">SUM(N3:N5)</f>
         <v>0</v>
       </c>
-      <c r="R6" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S6" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T6" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U6" s="11">
-        <f t="shared" ref="U6:Y6" si="2">SUM(U3:U5)</f>
-        <v>0</v>
-      </c>
-      <c r="V6" s="11">
+      <c r="O6" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W6" s="142">
+      <c r="P6" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X6" s="11">
+      <c r="Q6" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y6" s="14">
-        <f t="shared" ref="Y6:AA6" si="3">SUM(Y3:Y5)</f>
+      <c r="R6" s="11">
+        <f t="shared" ref="R6:T6" si="3">SUM(R3:R5)</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="11">
+      <c r="S6" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA6" s="11">
+      <c r="T6" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U6" s="14">
+        <f t="shared" ref="U6:X6" si="4">SUM(U3:U5)</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="143"/>
-      <c r="H7" s="152"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="151"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="123"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
       <c r="N7" s="40"/>
       <c r="O7" s="40"/>
       <c r="P7" s="40"/>
@@ -16876,26 +16636,23 @@
       <c r="R7" s="40"/>
       <c r="S7" s="40"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
+      <c r="U7" s="118"/>
       <c r="V7" s="40"/>
-      <c r="W7" s="150"/>
+      <c r="W7" s="40"/>
       <c r="X7" s="40"/>
-      <c r="Y7" s="118"/>
-      <c r="Z7" s="40"/>
-      <c r="AA7" s="40"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="143"/>
-      <c r="H8" s="152"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="151"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="123"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
       <c r="N8" s="40"/>
       <c r="O8" s="40"/>
       <c r="P8" s="40"/>
@@ -16903,26 +16660,23 @@
       <c r="R8" s="40"/>
       <c r="S8" s="40"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
+      <c r="U8" s="118"/>
       <c r="V8" s="40"/>
-      <c r="W8" s="150"/>
+      <c r="W8" s="40"/>
       <c r="X8" s="40"/>
-      <c r="Y8" s="118"/>
-      <c r="Z8" s="40"/>
-      <c r="AA8" s="40"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="143"/>
-      <c r="H9" s="152"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="151"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="123"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
       <c r="N9" s="40"/>
       <c r="O9" s="40"/>
       <c r="P9" s="40"/>
@@ -16930,26 +16684,23 @@
       <c r="R9" s="40"/>
       <c r="S9" s="40"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
+      <c r="U9" s="118"/>
       <c r="V9" s="40"/>
-      <c r="W9" s="150"/>
+      <c r="W9" s="40"/>
       <c r="X9" s="40"/>
-      <c r="Y9" s="118"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="40"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="143"/>
-      <c r="H10" s="152"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="151"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="123"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
       <c r="N10" s="40"/>
       <c r="O10" s="40"/>
       <c r="P10" s="40"/>
@@ -16957,118 +16708,103 @@
       <c r="R10" s="40"/>
       <c r="S10" s="40"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
+      <c r="U10" s="118"/>
       <c r="V10" s="40"/>
-      <c r="W10" s="150"/>
+      <c r="W10" s="40"/>
       <c r="X10" s="40"/>
-      <c r="Y10" s="118"/>
-      <c r="Z10" s="40"/>
-      <c r="AA10" s="40"/>
-    </row>
-    <row r="11" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C11" s="11">
-        <f>SUM(C8:C10)</f>
+        <f t="shared" ref="C11:G11" si="5">SUM(C8:C10)</f>
         <v>0</v>
       </c>
       <c r="D11" s="11">
-        <f t="shared" ref="D11:J11" si="4">SUM(D8:D10)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E11" s="11">
-        <f t="shared" si="4"/>
+      <c r="E11" s="14">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F11" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G11" s="142">
-        <f t="shared" si="4"/>
+      <c r="G11" s="11">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H11" s="153">
-        <f t="shared" si="4"/>
+      <c r="K11" s="11">
+        <f t="shared" ref="K11" si="6">SUM(K8:K10)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="11">
-        <f t="shared" si="4"/>
+      <c r="L11" s="11">
+        <f t="shared" ref="L11" si="7">SUM(L8:L10)</f>
         <v>0</v>
       </c>
-      <c r="J11" s="11">
-        <f t="shared" si="4"/>
+      <c r="M11" s="11">
+        <f t="shared" ref="M11:Q11" si="8">SUM(M8:M10)</f>
         <v>0</v>
       </c>
       <c r="N11" s="11">
-        <f t="shared" ref="N11" si="5">SUM(N8:N10)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O11" s="11">
-        <f t="shared" ref="O11" si="6">SUM(O8:O10)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P11" s="11">
-        <f t="shared" ref="P11" si="7">SUM(P8:P10)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q11" s="11">
-        <f t="shared" ref="Q11" si="8">SUM(Q8:Q10)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R11" s="11">
-        <f t="shared" ref="R11" si="9">SUM(R8:R10)</f>
+        <f t="shared" ref="R11:T11" si="9">SUM(R8:R10)</f>
         <v>0</v>
       </c>
       <c r="S11" s="11">
-        <f t="shared" ref="S11" si="10">SUM(S8:S10)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T11" s="11">
-        <f t="shared" ref="T11:Y11" si="11">SUM(T8:T10)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U11" s="11">
-        <f t="shared" si="11"/>
+      <c r="U11" s="14">
+        <f t="shared" ref="U11:X11" si="10">SUM(U8:U10)</f>
         <v>0</v>
       </c>
       <c r="V11" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W11" s="142">
-        <f t="shared" si="11"/>
+      <c r="W11" s="11">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X11" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="14">
-        <f t="shared" ref="Y11:AA11" si="12">SUM(Y8:Y10)</f>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="11">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AA11" s="11">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="143"/>
-      <c r="H12" s="152"/>
-      <c r="I12" s="40"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="40"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
@@ -17076,25 +16812,22 @@
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
+      <c r="U12" s="15"/>
       <c r="V12" s="10"/>
-      <c r="W12" s="143"/>
+      <c r="W12" s="10"/>
       <c r="X12" s="10"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="143"/>
-      <c r="H13" s="152"/>
-      <c r="I13" s="40"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="40"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
@@ -17102,25 +16835,22 @@
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
+      <c r="U13" s="15"/>
       <c r="V13" s="10"/>
-      <c r="W13" s="143"/>
+      <c r="W13" s="10"/>
       <c r="X13" s="10"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="E14" s="15"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="143"/>
-      <c r="H14" s="154"/>
-      <c r="I14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
@@ -17128,25 +16858,22 @@
       <c r="R14" s="10"/>
       <c r="S14" s="10"/>
       <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
+      <c r="U14" s="15"/>
       <c r="V14" s="10"/>
-      <c r="W14" s="143"/>
+      <c r="W14" s="10"/>
       <c r="X14" s="10"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="143"/>
-      <c r="H15" s="152"/>
-      <c r="I15" s="40"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="40"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
@@ -17154,122 +16881,107 @@
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
+      <c r="U15" s="15"/>
       <c r="V15" s="10"/>
-      <c r="W15" s="143"/>
+      <c r="W15" s="10"/>
       <c r="X15" s="10"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="10"/>
-    </row>
-    <row r="16" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C16" s="11">
-        <f>C6-SUM(C11:C15)</f>
+        <f t="shared" ref="C16:D16" si="11">C6-SUM(C11:C15)</f>
         <v>0</v>
       </c>
       <c r="D16" s="11">
-        <f t="shared" ref="D16:I16" si="13">D6-SUM(D11:D15)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="E16" s="11">
-        <f t="shared" si="13"/>
+      <c r="E16" s="14">
+        <f t="shared" ref="E16:G16" si="12">E6-SUM(E11:E15)</f>
         <v>0</v>
       </c>
       <c r="F16" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G16" s="142">
-        <f t="shared" si="13"/>
+      <c r="G16" s="11">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H16" s="14">
-        <f t="shared" ref="H16:J16" si="14">H6-SUM(H11:H15)</f>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11">
+        <f t="shared" ref="K16" si="13">K6-SUM(K11:K15)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="142">
-        <f t="shared" si="14"/>
+      <c r="L16" s="11">
+        <f t="shared" ref="L16" si="14">L6-SUM(L11:L15)</f>
         <v>0</v>
       </c>
-      <c r="J16" s="142">
-        <f t="shared" si="14"/>
+      <c r="M16" s="11">
+        <f t="shared" ref="M16:Q16" si="15">M6-SUM(M11:M15)</f>
         <v>0</v>
       </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
       <c r="N16" s="11">
-        <f t="shared" ref="N16" si="15">N6-SUM(N11:N15)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O16" s="11">
-        <f t="shared" ref="O16" si="16">O6-SUM(O11:O15)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P16" s="11">
-        <f t="shared" ref="P16" si="17">P6-SUM(P11:P15)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q16" s="11">
-        <f t="shared" ref="Q16" si="18">Q6-SUM(Q11:Q15)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R16" s="11">
-        <f t="shared" ref="R16" si="19">R6-SUM(R11:R15)</f>
+        <f t="shared" ref="R16:T16" si="16">R6-SUM(R11:R15)</f>
         <v>0</v>
       </c>
       <c r="S16" s="11">
-        <f t="shared" ref="S16" si="20">S6-SUM(S11:S15)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="T16" s="11">
-        <f t="shared" ref="T16:Y16" si="21">T6-SUM(T11:T15)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U16" s="11">
-        <f t="shared" si="21"/>
+      <c r="U16" s="14">
+        <f t="shared" ref="U16:X16" si="17">U6-SUM(U11:U15)</f>
         <v>0</v>
       </c>
       <c r="V16" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="W16" s="142">
-        <f t="shared" si="21"/>
+      <c r="W16" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X16" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="14">
-        <f t="shared" ref="Y16:AA16" si="22">Y6-SUM(Y11:Y15)</f>
-        <v>0</v>
-      </c>
-      <c r="Z16" s="11">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AA16" s="11">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+      <c r="E17" s="15"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="143"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="143"/>
-      <c r="J17" s="143"/>
+      <c r="G17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
@@ -17277,26 +16989,23 @@
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
+      <c r="U17" s="15"/>
       <c r="V17" s="10"/>
-      <c r="W17" s="143"/>
+      <c r="W17" s="10"/>
       <c r="X17" s="10"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="10"/>
-    </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
+      <c r="E18" s="15"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="143"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="143"/>
-      <c r="J18" s="143"/>
+      <c r="G18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
@@ -17304,26 +17013,23 @@
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
+      <c r="U18" s="15"/>
       <c r="V18" s="10"/>
-      <c r="W18" s="143"/>
+      <c r="W18" s="10"/>
       <c r="X18" s="10"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="10"/>
-    </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
+      <c r="E19" s="15"/>
       <c r="F19" s="10"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="143"/>
+      <c r="G19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
@@ -17331,119 +17037,104 @@
       <c r="R19" s="10"/>
       <c r="S19" s="10"/>
       <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
+      <c r="U19" s="15"/>
       <c r="V19" s="10"/>
-      <c r="W19" s="143"/>
+      <c r="W19" s="10"/>
       <c r="X19" s="10"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="10"/>
-    </row>
-    <row r="20" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C20" s="11">
-        <f>C16+SUM(C17:C19)</f>
+        <f t="shared" ref="C20:D20" si="18">C16+SUM(C17:C19)</f>
         <v>0</v>
       </c>
       <c r="D20" s="11">
-        <f>D16+SUM(D17:D19)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="E20" s="11">
-        <f t="shared" ref="E20:I20" si="23">E16+SUM(E17:E19)</f>
+      <c r="E20" s="14">
+        <f t="shared" ref="E20:G20" si="19">E16+SUM(E17:E19)</f>
         <v>0</v>
       </c>
       <c r="F20" s="11">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="11">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="11">
+        <f t="shared" ref="K20" si="20">K16+SUM(K17:K19)</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="11">
+        <f t="shared" ref="L20" si="21">L16+SUM(L17:L19)</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="11">
+        <f t="shared" ref="M20:Q20" si="22">M16+SUM(M17:M19)</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="11">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="11">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="11">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="11">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="11">
+        <f t="shared" ref="R20:T20" si="23">R16+SUM(R17:R19)</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="11">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="G20" s="142">
+      <c r="T20" s="11">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="H20" s="14">
-        <f t="shared" ref="H20:J20" si="24">H16+SUM(H17:H19)</f>
+      <c r="U20" s="14">
+        <f t="shared" ref="U20:X20" si="24">U16+SUM(U17:U19)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="142">
+      <c r="V20" s="11">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="J20" s="142">
+      <c r="W20" s="11">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="N20" s="11">
-        <f t="shared" ref="N20" si="25">N16+SUM(N17:N19)</f>
+      <c r="X20" s="11">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="O20" s="11">
-        <f t="shared" ref="O20" si="26">O16+SUM(O17:O19)</f>
-        <v>0</v>
-      </c>
-      <c r="P20" s="11">
-        <f t="shared" ref="P20" si="27">P16+SUM(P17:P19)</f>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="11">
-        <f t="shared" ref="Q20" si="28">Q16+SUM(Q17:Q19)</f>
-        <v>0</v>
-      </c>
-      <c r="R20" s="11">
-        <f t="shared" ref="R20" si="29">R16+SUM(R17:R19)</f>
-        <v>0</v>
-      </c>
-      <c r="S20" s="11">
-        <f t="shared" ref="S20" si="30">S16+SUM(S17:S19)</f>
-        <v>0</v>
-      </c>
-      <c r="T20" s="11">
-        <f t="shared" ref="T20:Y20" si="31">T16+SUM(T17:T19)</f>
-        <v>0</v>
-      </c>
-      <c r="U20" s="11">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="V20" s="11">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="W20" s="142">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="X20" s="11">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="Y20" s="14">
-        <f t="shared" ref="Y20:AA20" si="32">Y16+SUM(Y17:Y19)</f>
-        <v>0</v>
-      </c>
-      <c r="Z20" s="11">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AA20" s="11">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+      <c r="E21" s="15"/>
       <c r="F21" s="10"/>
-      <c r="G21" s="143"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="143"/>
-      <c r="J21" s="143"/>
+      <c r="G21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
@@ -17451,26 +17142,23 @@
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
+      <c r="U21" s="15"/>
       <c r="V21" s="10"/>
-      <c r="W21" s="143"/>
+      <c r="W21" s="10"/>
       <c r="X21" s="10"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="10"/>
-    </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
+      <c r="E22" s="15"/>
       <c r="F22" s="10"/>
-      <c r="G22" s="143"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="143"/>
-      <c r="J22" s="143"/>
+      <c r="G22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
@@ -17478,119 +17166,104 @@
       <c r="R22" s="10"/>
       <c r="S22" s="10"/>
       <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
+      <c r="U22" s="15"/>
       <c r="V22" s="10"/>
-      <c r="W22" s="143"/>
+      <c r="W22" s="10"/>
       <c r="X22" s="10"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-    </row>
-    <row r="23" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C23" s="11">
-        <f>C20-SUM(C21:C22)</f>
+        <f t="shared" ref="C23:D23" si="25">C20-SUM(C21:C22)</f>
         <v>0</v>
       </c>
       <c r="D23" s="11">
-        <f t="shared" ref="D23:G23" si="33">D20-SUM(D21:D22)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="E23" s="11">
-        <f t="shared" si="33"/>
+      <c r="E23" s="14">
+        <f t="shared" ref="E23:G23" si="26">E20-SUM(E21:E22)</f>
         <v>0</v>
       </c>
       <c r="F23" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="G23" s="142">
-        <f t="shared" si="33"/>
+      <c r="G23" s="11">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="H23" s="14">
-        <f t="shared" ref="H23:J23" si="34">H20-SUM(H21:H22)</f>
+      <c r="K23" s="11">
+        <f t="shared" ref="K23" si="27">K20-SUM(K21:K22)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="142">
-        <f t="shared" si="34"/>
+      <c r="L23" s="11">
+        <f t="shared" ref="L23" si="28">L20-SUM(L21:L22)</f>
         <v>0</v>
       </c>
-      <c r="J23" s="142">
-        <f t="shared" si="34"/>
+      <c r="M23" s="11">
+        <f t="shared" ref="M23:Q23" si="29">M20-SUM(M21:M22)</f>
         <v>0</v>
       </c>
       <c r="N23" s="11">
-        <f t="shared" ref="N23" si="35">N20-SUM(N21:N22)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O23" s="11">
-        <f t="shared" ref="O23" si="36">O20-SUM(O21:O22)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="P23" s="11">
-        <f t="shared" ref="P23" si="37">P20-SUM(P21:P22)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Q23" s="11">
-        <f t="shared" ref="Q23" si="38">Q20-SUM(Q21:Q22)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R23" s="11">
-        <f t="shared" ref="R23" si="39">R20-SUM(R21:R22)</f>
+        <f t="shared" ref="R23:T23" si="30">R20-SUM(R21:R22)</f>
         <v>0</v>
       </c>
       <c r="S23" s="11">
-        <f t="shared" ref="S23" si="40">S20-SUM(S21:S22)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="T23" s="11">
-        <f t="shared" ref="T23:Y23" si="41">T20-SUM(T21:T22)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="U23" s="11">
-        <f t="shared" si="41"/>
+      <c r="U23" s="14">
+        <f t="shared" ref="U23:X23" si="31">U20-SUM(U21:U22)</f>
         <v>0</v>
       </c>
       <c r="V23" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="W23" s="142">
-        <f t="shared" si="41"/>
+      <c r="W23" s="11">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="X23" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="Y23" s="14">
-        <f t="shared" ref="Y23:AA23" si="42">Y20-SUM(Y21:Y22)</f>
-        <v>0</v>
-      </c>
-      <c r="Z23" s="11">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AA23" s="11">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
+      <c r="E24" s="15"/>
       <c r="F24" s="10"/>
-      <c r="G24" s="143"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="143"/>
-      <c r="J24" s="143"/>
+      <c r="G24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
@@ -17598,118 +17271,103 @@
       <c r="R24" s="10"/>
       <c r="S24" s="10"/>
       <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
+      <c r="U24" s="15"/>
       <c r="V24" s="10"/>
-      <c r="W24" s="143"/>
+      <c r="W24" s="10"/>
       <c r="X24" s="10"/>
-      <c r="Y24" s="15"/>
-      <c r="Z24" s="10"/>
-      <c r="AA24" s="10"/>
-    </row>
-    <row r="25" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C25" s="2" t="e">
         <f>C23/C24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D25" s="2" t="e">
+      <c r="D25" s="121" t="e">
         <f>D23/D24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E25" s="2" t="e">
-        <f>E23/E24</f>
+      <c r="E25" s="35" t="e">
+        <f t="shared" ref="E25:G25" si="32">E23/E24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F25" s="2" t="e">
-        <f>F23/F24</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="144" t="e">
-        <f>G23/G24</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H25" s="157" t="e">
-        <f t="shared" ref="H25:J25" si="43">H23/H24</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I25" s="156" t="e">
-        <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J25" s="156" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="2" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K25" s="2" t="e">
+        <f t="shared" ref="K25:M25" si="33">K23/K24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L25" s="2" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M25" s="2" t="e">
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N25" s="2" t="e">
-        <f t="shared" ref="N25:T25" si="44">N23/N24</f>
+        <f t="shared" ref="N25:Q25" si="34">N23/N24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O25" s="2" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P25" s="2" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q25" s="2" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R25" s="2" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="R25:T25" si="35">R23/R24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S25" s="2" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T25" s="2" t="e">
-        <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U25" s="2" t="e">
-        <f t="shared" ref="U25:Y25" si="45">U23/U24</f>
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U25" s="35" t="e">
+        <f t="shared" ref="U25:X25" si="36">U23/U24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V25" s="2" t="e">
-        <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W25" s="145" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W25" s="2" t="e">
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X25" s="2" t="e">
-        <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y25" s="35" t="e">
-        <f t="shared" ref="Y25:AA25" si="46">Y23/Y24</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z25" s="2" t="e">
-        <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA25" s="2" t="e">
-        <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="145"/>
-      <c r="H26" s="155"/>
-      <c r="I26" s="43"/>
+      <c r="E26" s="124"/>
+      <c r="F26" s="43"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
       <c r="N26" s="44"/>
       <c r="O26" s="44"/>
       <c r="P26" s="44"/>
@@ -17717,110 +17375,95 @@
       <c r="R26" s="44"/>
       <c r="S26" s="44"/>
       <c r="T26" s="44"/>
-      <c r="U26" s="44"/>
+      <c r="U26" s="119"/>
       <c r="V26" s="44"/>
-      <c r="W26" s="158"/>
+      <c r="W26" s="44"/>
       <c r="X26" s="44"/>
-      <c r="Y26" s="119"/>
-      <c r="Z26" s="44"/>
-      <c r="AA26" s="44"/>
-    </row>
-    <row r="27" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C27" s="3" t="e">
         <f>1-C11/C6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D27" s="3" t="e">
+      <c r="D27" s="39" t="e">
         <f>1-D11/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E27" s="3" t="e">
-        <f>1-E11/E6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F27" s="3" t="e">
-        <f>1-F11/F6</f>
+      <c r="E27" s="6" t="e">
+        <f t="shared" ref="E27:G27" si="37">1-E11/E6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F27" s="39" t="e">
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G27" s="39" t="e">
-        <f>1-G11/G6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H27" s="6" t="e">
-        <f t="shared" ref="H27:J27" si="47">1-H11/H6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I27" s="39" t="e">
-        <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J27" s="39" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K27" s="3" t="e">
+        <f t="shared" ref="K27:M27" si="38">1-K11/K6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L27" s="3" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M27" s="3" t="e">
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N27" s="3" t="e">
-        <f t="shared" ref="N27:T27" si="48">1-N11/N6</f>
+        <f t="shared" ref="N27:Q27" si="39">1-N11/N6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O27" s="3" t="e">
-        <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P27" s="3" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P27" s="39" t="e">
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q27" s="3" t="e">
-        <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R27" s="3" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R27" s="39" t="e">
+        <f t="shared" ref="R27:T27" si="40">1-R11/R6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S27" s="3" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T27" s="3" t="e">
-        <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U27" s="3" t="e">
-        <f t="shared" ref="U27:Y27" si="49">1-U11/U6</f>
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U27" s="6" t="e">
+        <f t="shared" ref="U27:X27" si="41">1-U11/U6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V27" s="3" t="e">
-        <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W27" s="39" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W27" s="3" t="e">
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X27" s="3" t="e">
-        <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y27" s="6" t="e">
-        <f t="shared" ref="Y27:AA27" si="50">1-Y11/Y6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z27" s="3" t="e">
-        <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA27" s="3" t="e">
-        <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C28" s="4" t="e">
         <f>C23/C6</f>
@@ -17830,180 +17473,144 @@
         <f>D23/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E28" s="4" t="e">
-        <f>E23/E6</f>
+      <c r="E28" s="7" t="e">
+        <f t="shared" ref="E28:G28" si="42">E23/E6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F28" s="4" t="e">
-        <f>F23/F6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G28" s="146" t="e">
-        <f>G23/G6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H28" s="7" t="e">
-        <f t="shared" ref="H28:J28" si="51">H23/H6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I28" s="146" t="e">
-        <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J28" s="146" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G28" s="4" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K28" s="4" t="e">
+        <f t="shared" ref="K28:M28" si="43">K23/K6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L28" s="4" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M28" s="4" t="e">
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N28" s="4" t="e">
-        <f t="shared" ref="N28:T28" si="52">N23/N6</f>
+        <f t="shared" ref="N28:Q28" si="44">N23/N6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O28" s="4" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P28" s="4" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q28" s="4" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R28" s="4" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="R28:T28" si="45">R23/R6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S28" s="4" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T28" s="4" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U28" s="4" t="e">
-        <f t="shared" ref="U28:Y28" si="53">U23/U6</f>
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U28" s="7" t="e">
+        <f t="shared" ref="U28:X28" si="46">U23/U6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V28" s="4" t="e">
-        <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W28" s="146" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W28" s="4" t="e">
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X28" s="4" t="e">
-        <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y28" s="7" t="e">
-        <f t="shared" ref="Y28:AA28" si="54">Y23/Y6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z28" s="4" t="e">
-        <f t="shared" si="54"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA28" s="4" t="e">
-        <f t="shared" si="54"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>163</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3" t="e">
+        <v>156</v>
+      </c>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39" t="e">
         <f>D6/C6-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E29" s="3" t="e">
-        <f>E6/D6-1</f>
+      <c r="E29" s="6" t="e">
+        <f t="shared" ref="E29:G29" si="47">E6/D6-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F29" s="39" t="e">
-        <f>F6/E6-1</f>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G29" s="39" t="e">
-        <f>G6/F6-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H29" s="6" t="e">
-        <f t="shared" ref="H29:J29" si="55">H6/G6-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I29" s="39" t="e">
-        <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J29" s="39" t="e">
-        <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N29" s="4" t="e">
-        <f>N6/#REF!-1</f>
-        <v>#REF!</v>
-      </c>
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
       <c r="O29" s="4" t="e">
-        <f>O6/#REF!-1</f>
-        <v>#REF!</v>
+        <f t="shared" ref="O29" si="48">O6/K6-1</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="P29" s="4" t="e">
-        <f>P6/#REF!-1</f>
-        <v>#REF!</v>
+        <f t="shared" ref="P29" si="49">P6/L6-1</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q29" s="4" t="e">
-        <f>Q6/#REF!-1</f>
-        <v>#REF!</v>
+        <f t="shared" ref="Q29" si="50">Q6/M6-1</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="R29" s="4" t="e">
-        <f t="shared" ref="R29:T29" si="56">R6/N6-1</f>
+        <f t="shared" ref="R29" si="51">R6/N6-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S29" s="4" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" ref="S29" si="52">S6/O6-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T29" s="4" t="e">
-        <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U29" s="4" t="e">
-        <f t="shared" ref="U29" si="57">U6/Q6-1</f>
+        <f t="shared" ref="T29" si="53">T6/P6-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U29" s="7" t="e">
+        <f t="shared" ref="U29" si="54">U6/Q6-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V29" s="4" t="e">
-        <f t="shared" ref="V29" si="58">V6/R6-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W29" s="146" t="e">
-        <f t="shared" ref="W29" si="59">W6/S6-1</f>
+        <f t="shared" ref="V29" si="55">V6/R6-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W29" s="4" t="e">
+        <f t="shared" ref="W29" si="56">W6/S6-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="X29" s="4" t="e">
-        <f t="shared" ref="X29" si="60">X6/T6-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y29" s="7" t="e">
-        <f t="shared" ref="Y29" si="61">Y6/U6-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z29" s="4" t="e">
-        <f t="shared" ref="Z29" si="62">Z6/V6-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA29" s="4" t="e">
-        <f t="shared" ref="AA29" si="63">AA6/W6-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
+        <f t="shared" ref="X29" si="57">X6/T6-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C30" s="4" t="e">
         <f>C12/C6</f>
@@ -18013,183 +17620,159 @@
         <f>D12/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E30" s="4" t="e">
-        <f>E12/E6</f>
+      <c r="E30" s="7" t="e">
+        <f t="shared" ref="E30:G30" si="58">E12/E6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F30" s="4" t="e">
-        <f>F12/F6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G30" s="146" t="e">
-        <f>G12/G6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H30" s="7" t="e">
-        <f t="shared" ref="H30:J30" si="64">H12/H6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I30" s="146" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G30" s="4" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K30" s="4" t="e">
+        <f t="shared" ref="K30:M30" si="59">K12/K6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L30" s="4" t="e">
+        <f t="shared" si="59"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M30" s="4" t="e">
+        <f t="shared" si="59"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N30" s="4" t="e">
+        <f t="shared" ref="N30:Q30" si="60">N12/N6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O30" s="4" t="e">
+        <f t="shared" si="60"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P30" s="4" t="e">
+        <f t="shared" si="60"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q30" s="4" t="e">
+        <f t="shared" si="60"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R30" s="4" t="e">
+        <f t="shared" ref="R30:T30" si="61">R12/R6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S30" s="4" t="e">
+        <f t="shared" si="61"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T30" s="4" t="e">
+        <f t="shared" si="61"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U30" s="7" t="e">
+        <f t="shared" ref="U30:X30" si="62">U12/U6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V30" s="4" t="e">
+        <f t="shared" si="62"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W30" s="4" t="e">
+        <f t="shared" si="62"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X30" s="4" t="e">
+        <f t="shared" si="62"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" s="4" t="e">
+        <f t="shared" ref="C31" si="63">C13/C6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="4" t="e">
+        <f>D13/D6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="7" t="e">
+        <f t="shared" ref="E31:G31" si="64">E13/E6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="4" t="e">
         <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J30" s="146" t="e">
+      <c r="G31" s="4" t="e">
         <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N30" s="4" t="e">
-        <f t="shared" ref="N30:T30" si="65">N12/N6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O30" s="4" t="e">
+      <c r="K31" s="4" t="e">
+        <f t="shared" ref="K31:M31" si="65">K13/K6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L31" s="4" t="e">
         <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P30" s="4" t="e">
+      <c r="M31" s="4" t="e">
         <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q30" s="4" t="e">
-        <f t="shared" si="65"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R30" s="4" t="e">
-        <f t="shared" si="65"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S30" s="4" t="e">
-        <f t="shared" si="65"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T30" s="4" t="e">
-        <f t="shared" si="65"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U30" s="4" t="e">
-        <f t="shared" ref="U30:Y30" si="66">U12/U6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V30" s="4" t="e">
+      <c r="N31" s="4" t="e">
+        <f t="shared" ref="N31:Q31" si="66">N13/N6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O31" s="4" t="e">
         <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W30" s="146" t="e">
+      <c r="P31" s="4" t="e">
         <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X30" s="4" t="e">
+      <c r="Q31" s="4" t="e">
         <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y30" s="7" t="e">
-        <f t="shared" ref="Y30:AA30" si="67">Y12/Y6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z30" s="4" t="e">
+      <c r="R31" s="4" t="e">
+        <f t="shared" ref="R31:T31" si="67">R13/R6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S31" s="4" t="e">
         <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA30" s="4" t="e">
+      <c r="T31" s="4" t="e">
         <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>156</v>
-      </c>
-      <c r="C31" s="4" t="e">
-        <f t="shared" ref="C31:F31" si="68">C13/C6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D31" s="4" t="e">
+      <c r="U31" s="7" t="e">
+        <f t="shared" ref="U31:X31" si="68">U13/U6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V31" s="4" t="e">
         <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E31" s="4" t="e">
+      <c r="W31" s="4" t="e">
         <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F31" s="4" t="e">
+      <c r="X31" s="4" t="e">
         <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G31" s="146" t="e">
-        <f>G13/G6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H31" s="7" t="e">
-        <f t="shared" ref="H31:J31" si="69">H13/H6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I31" s="146" t="e">
-        <f t="shared" si="69"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J31" s="146" t="e">
-        <f t="shared" si="69"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N31" s="4" t="e">
-        <f t="shared" ref="N31:T31" si="70">N13/N6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O31" s="4" t="e">
-        <f t="shared" si="70"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P31" s="4" t="e">
-        <f t="shared" si="70"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q31" s="4" t="e">
-        <f t="shared" si="70"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R31" s="4" t="e">
-        <f t="shared" si="70"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S31" s="4" t="e">
-        <f t="shared" si="70"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T31" s="4" t="e">
-        <f t="shared" si="70"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U31" s="4" t="e">
-        <f t="shared" ref="U31:Y31" si="71">U13/U6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V31" s="4" t="e">
-        <f t="shared" si="71"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W31" s="146" t="e">
-        <f t="shared" si="71"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X31" s="4" t="e">
-        <f t="shared" si="71"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y31" s="7" t="e">
-        <f t="shared" ref="Y31:AA31" si="72">Y13/Y6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z31" s="4" t="e">
-        <f t="shared" si="72"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA31" s="4" t="e">
-        <f t="shared" si="72"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C32" s="4" t="e">
         <f>C15/C6</f>
@@ -18199,117 +17782,99 @@
         <f>D15/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E32" s="4" t="e">
-        <f>E15/E6</f>
+      <c r="E32" s="7" t="e">
+        <f t="shared" ref="E32:G32" si="69">E15/E6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F32" s="4" t="e">
-        <f>F15/F6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G32" s="146" t="e">
-        <f>G15/G6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H32" s="7" t="e">
-        <f t="shared" ref="H32:J32" si="73">H15/H6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I32" s="146" t="e">
+        <f t="shared" si="69"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G32" s="4" t="e">
+        <f t="shared" si="69"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K32" s="4" t="e">
+        <f t="shared" ref="K32:M32" si="70">K15/K6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L32" s="4" t="e">
+        <f t="shared" si="70"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M32" s="4" t="e">
+        <f t="shared" si="70"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N32" s="4" t="e">
+        <f t="shared" ref="N32:Q32" si="71">N15/N6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O32" s="4" t="e">
+        <f t="shared" si="71"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P32" s="4" t="e">
+        <f t="shared" si="71"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q32" s="4" t="e">
+        <f t="shared" si="71"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R32" s="4" t="e">
+        <f t="shared" ref="R32:T32" si="72">R15/R6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S32" s="4" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T32" s="4" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U32" s="7" t="e">
+        <f t="shared" ref="U32:X32" si="73">U15/U6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V32" s="4" t="e">
         <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J32" s="146" t="e">
+      <c r="W32" s="4" t="e">
         <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N32" s="4" t="e">
-        <f t="shared" ref="N32:T32" si="74">N15/N6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O32" s="4" t="e">
-        <f t="shared" si="74"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P32" s="4" t="e">
-        <f t="shared" si="74"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q32" s="4" t="e">
-        <f t="shared" si="74"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R32" s="4" t="e">
-        <f t="shared" si="74"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S32" s="4" t="e">
-        <f t="shared" si="74"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T32" s="4" t="e">
-        <f t="shared" si="74"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U32" s="4" t="e">
-        <f t="shared" ref="U32:Y32" si="75">U15/U6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V32" s="4" t="e">
-        <f t="shared" si="75"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W32" s="146" t="e">
-        <f t="shared" si="75"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="X32" s="4" t="e">
-        <f t="shared" si="75"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y32" s="7" t="e">
-        <f t="shared" ref="Y32:AA32" si="76">Y15/Y6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z32" s="4" t="e">
-        <f t="shared" si="76"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA32" s="4" t="e">
-        <f t="shared" si="76"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="73"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4" t="e">
-        <f t="shared" ref="E33:G34" si="77">E3/D3-1</f>
+      <c r="D33" s="4" t="e">
+        <f t="shared" ref="D33:D34" si="74">D3/C3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E33" s="7" t="e">
+        <f t="shared" ref="E33:E34" si="75">E3/D3-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F33" s="4" t="e">
-        <f t="shared" si="77"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G33" s="146" t="e">
-        <f t="shared" si="77"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H33" s="7" t="e">
-        <f t="shared" ref="H33:H34" si="78">H3/G3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I33" s="146" t="e">
-        <f t="shared" ref="I33:I34" si="79">I3/H3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J33" s="146" t="e">
-        <f t="shared" ref="J33:J34" si="80">J3/I3-1</f>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" ref="F33:F34" si="76">F3/E3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G33" s="4" t="e">
+        <f t="shared" ref="G33:G34" si="77">G3/F3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
@@ -18317,44 +17882,35 @@
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
+      <c r="U33" s="7"/>
       <c r="V33" s="4"/>
-      <c r="W33" s="146"/>
+      <c r="W33" s="4"/>
       <c r="X33" s="4"/>
-      <c r="Y33" s="7"/>
-      <c r="Z33" s="4"/>
-      <c r="AA33" s="4"/>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4" t="e">
+      <c r="D34" s="4" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E34" s="7" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F34" s="4" t="e">
+        <f t="shared" si="76"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G34" s="4" t="e">
         <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F34" s="4" t="e">
-        <f t="shared" si="77"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G34" s="146" t="e">
-        <f t="shared" si="77"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H34" s="7" t="e">
-        <f t="shared" si="78"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I34" s="146" t="e">
-        <f t="shared" si="79"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J34" s="146" t="e">
-        <f t="shared" si="80"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
@@ -18362,107 +17918,83 @@
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
+      <c r="U34" s="7"/>
       <c r="V34" s="4"/>
-      <c r="W34" s="146"/>
+      <c r="W34" s="4"/>
       <c r="X34" s="4"/>
-      <c r="Y34" s="7"/>
-      <c r="Z34" s="4"/>
-      <c r="AA34" s="4"/>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>162</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3" t="e">
-        <f>-(D23/C23-1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E35" s="3" t="e">
-        <f>-(E23/D23-1)</f>
+        <v>155</v>
+      </c>
+      <c r="C35" s="39" t="e">
+        <f>C25/#REF!-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D35" s="39" t="e">
+        <f>D25/C25-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E35" s="6" t="e">
+        <f t="shared" ref="E35:G35" si="78">E25/D25-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F35" s="39" t="e">
-        <f>F25/E25-1</f>
+        <f t="shared" si="78"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G35" s="39" t="e">
-        <f>G25/F25-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H35" s="6" t="e">
-        <f t="shared" ref="H35:J35" si="81">H25/G25-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I35" s="39" t="e">
-        <f t="shared" si="81"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J35" s="39" t="e">
-        <f t="shared" si="81"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N35" s="4" t="e">
-        <f>N23/#REF!-1</f>
-        <v>#REF!</v>
-      </c>
+        <f t="shared" si="78"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
       <c r="O35" s="4" t="e">
-        <f>O23/#REF!-1</f>
-        <v>#REF!</v>
+        <f t="shared" ref="O35" si="79">O23/K23-1</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="P35" s="4" t="e">
-        <f>P23/#REF!-1</f>
-        <v>#REF!</v>
+        <f t="shared" ref="P35" si="80">P23/L23-1</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q35" s="4" t="e">
-        <f>Q23/#REF!-1</f>
-        <v>#REF!</v>
+        <f t="shared" ref="Q35" si="81">Q23/M23-1</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="R35" s="4" t="e">
-        <f t="shared" ref="R35:T35" si="82">R23/N23-1</f>
+        <f t="shared" ref="R35" si="82">R23/N23-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S35" s="4" t="e">
-        <f>S23/O23-1</f>
+        <f t="shared" ref="S35" si="83">S23/O23-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T35" s="4" t="e">
-        <f t="shared" si="82"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U35" s="4" t="e">
-        <f t="shared" ref="U35" si="83">U23/Q23-1</f>
+        <f t="shared" ref="T35" si="84">T23/P23-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U35" s="7" t="e">
+        <f t="shared" ref="U35" si="85">U23/Q23-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V35" s="4" t="e">
-        <f t="shared" ref="V35" si="84">V23/R23-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W35" s="146" t="e">
-        <f t="shared" ref="W35" si="85">W23/S23-1</f>
+        <f t="shared" ref="V35" si="86">V23/R23-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W35" s="4" t="e">
+        <f t="shared" ref="W35" si="87">W23/S23-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="X35" s="4" t="e">
-        <f t="shared" ref="X35" si="86">X23/T23-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y35" s="7" t="e">
-        <f t="shared" ref="Y35" si="87">Y23/U23-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z35" s="4" t="e">
-        <f t="shared" ref="Z35" si="88">Z23/V23-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA35" s="4" t="e">
-        <f t="shared" ref="AA35" si="89">AA23/W23-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
+        <f t="shared" ref="X35" si="88">X23/T23-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C36" s="47" t="e">
         <f>C17/C6</f>
@@ -18472,30 +18004,21 @@
         <f>D17/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E36" s="47" t="e">
-        <f>E17/E6</f>
+      <c r="E36" s="48" t="e">
+        <f t="shared" ref="E36:G36" si="89">E17/E6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F36" s="47" t="e">
-        <f>F17/F6</f>
+        <f t="shared" si="89"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G36" s="47" t="e">
-        <f>G17/G6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H36" s="48" t="e">
-        <f t="shared" ref="H36:J36" si="90">H17/H6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I36" s="47" t="e">
-        <f t="shared" si="90"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J36" s="47" t="e">
-        <f t="shared" si="90"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="89"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
@@ -18503,31 +18026,28 @@
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
+      <c r="U36" s="7"/>
       <c r="V36" s="4"/>
-      <c r="W36" s="146"/>
+      <c r="W36" s="4"/>
       <c r="X36" s="4"/>
-      <c r="Y36" s="7"/>
-      <c r="Z36" s="4"/>
-      <c r="AA36" s="4"/>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C37" s="49" t="e">
-        <f>-C17/C16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D37" s="49" t="e">
-        <f t="shared" ref="D37:I37" si="91">-D17/D16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E37" s="49" t="e">
-        <f t="shared" si="91"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F37" s="49" t="e">
+        <f t="shared" ref="C37:D37" si="90">-C17/C16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D37" s="47" t="e">
+        <f t="shared" si="90"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E37" s="48" t="e">
+        <f t="shared" ref="E37:G37" si="91">-E17/E16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F37" s="47" t="e">
         <f t="shared" si="91"/>
         <v>#DIV/0!</v>
       </c>
@@ -18535,18 +18055,9 @@
         <f t="shared" si="91"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H37" s="48" t="e">
-        <f t="shared" ref="H37:J37" si="92">-H17/H16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I37" s="47" t="e">
-        <f t="shared" si="92"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J37" s="47" t="e">
-        <f t="shared" si="92"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
@@ -18554,116 +18065,101 @@
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
+      <c r="U37" s="7"/>
       <c r="V37" s="4"/>
-      <c r="W37" s="146"/>
+      <c r="W37" s="4"/>
       <c r="X37" s="4"/>
-      <c r="Y37" s="7"/>
-      <c r="Z37" s="4"/>
-      <c r="AA37" s="4"/>
-    </row>
-    <row r="40" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C40" s="11">
-        <f t="shared" ref="C40" si="93">C41+C42-C64-C55</f>
+        <f t="shared" ref="C40" si="92">C41+C42-C64-C55</f>
         <v>0</v>
       </c>
       <c r="D40" s="11">
-        <f t="shared" ref="D40" si="94">D41+D42-D64-D55</f>
+        <f t="shared" ref="D40:G40" si="93">D41+D42-D64-D55</f>
         <v>0</v>
       </c>
-      <c r="E40" s="11">
-        <f t="shared" ref="E40" si="95">E41+E42-E64-E55</f>
+      <c r="E40" s="14">
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="F40" s="11">
-        <f t="shared" ref="F40" si="96">F41+F42-F64-F55</f>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
-      <c r="G40" s="142">
-        <f t="shared" ref="G40:J40" si="97">G41+G42-G64-G55</f>
+      <c r="G40" s="11">
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
-      <c r="H40" s="14">
-        <f t="shared" si="97"/>
+      <c r="K40" s="11">
+        <f t="shared" ref="K40:Q40" si="94">K41+K42-K64-K55</f>
         <v>0</v>
       </c>
-      <c r="I40" s="142">
-        <f t="shared" si="97"/>
+      <c r="L40" s="11">
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
-      <c r="J40" s="142">
-        <f t="shared" si="97"/>
+      <c r="M40" s="11">
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="N40" s="11">
-        <f t="shared" ref="N40:Y40" si="98">N41+N42-N64-N55</f>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="O40" s="11">
-        <f t="shared" si="98"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="P40" s="11">
-        <f t="shared" si="98"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="Q40" s="11">
-        <f t="shared" si="98"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="R40" s="11">
-        <f t="shared" si="98"/>
+        <f t="shared" ref="R40:T40" si="95">R41+R42-R64-R55</f>
         <v>0</v>
       </c>
       <c r="S40" s="11">
-        <f t="shared" si="98"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="T40" s="11">
-        <f t="shared" si="98"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="U40" s="11">
-        <f t="shared" si="98"/>
+      <c r="U40" s="14">
+        <f t="shared" ref="U40:X40" si="96">U41+U42-U64-U55</f>
         <v>0</v>
       </c>
       <c r="V40" s="11">
-        <f t="shared" si="98"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="W40" s="142">
-        <f t="shared" si="98"/>
+      <c r="W40" s="11">
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="X40" s="11">
-        <f t="shared" si="98"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="Y40" s="14">
-        <f t="shared" ref="Y40:AA40" si="99">Y41+Y42-Y64-Y55</f>
-        <v>0</v>
-      </c>
-      <c r="Z40" s="11">
-        <f t="shared" si="99"/>
-        <v>0</v>
-      </c>
-      <c r="AA40" s="11">
-        <f t="shared" si="99"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="143"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
@@ -18671,23 +18167,20 @@
       <c r="R41" s="10"/>
       <c r="S41" s="10"/>
       <c r="T41" s="10"/>
-      <c r="U41" s="10"/>
+      <c r="U41" s="15"/>
       <c r="V41" s="10"/>
-      <c r="W41" s="143"/>
+      <c r="W41" s="10"/>
       <c r="X41" s="10"/>
-      <c r="Y41" s="15"/>
-      <c r="Z41" s="10"/>
-      <c r="AA41" s="10"/>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="143"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
       <c r="N42" s="10"/>
       <c r="O42" s="10"/>
       <c r="P42" s="10"/>
@@ -18695,23 +18188,20 @@
       <c r="R42" s="10"/>
       <c r="S42" s="10"/>
       <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
+      <c r="U42" s="15"/>
       <c r="V42" s="10"/>
-      <c r="W42" s="143"/>
+      <c r="W42" s="10"/>
       <c r="X42" s="10"/>
-      <c r="Y42" s="15"/>
-      <c r="Z42" s="10"/>
-      <c r="AA42" s="10"/>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="143"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
       <c r="N43" s="10"/>
       <c r="O43" s="10"/>
       <c r="P43" s="10"/>
@@ -18719,23 +18209,20 @@
       <c r="R43" s="10"/>
       <c r="S43" s="10"/>
       <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
+      <c r="U43" s="15"/>
       <c r="V43" s="10"/>
-      <c r="W43" s="143"/>
+      <c r="W43" s="10"/>
       <c r="X43" s="10"/>
-      <c r="Y43" s="15"/>
-      <c r="Z43" s="10"/>
-      <c r="AA43" s="10"/>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="143"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
       <c r="P44" s="10"/>
@@ -18743,23 +18230,20 @@
       <c r="R44" s="10"/>
       <c r="S44" s="10"/>
       <c r="T44" s="10"/>
-      <c r="U44" s="10"/>
+      <c r="U44" s="15"/>
       <c r="V44" s="10"/>
-      <c r="W44" s="143"/>
+      <c r="W44" s="10"/>
       <c r="X44" s="10"/>
-      <c r="Y44" s="15"/>
-      <c r="Z44" s="10"/>
-      <c r="AA44" s="10"/>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="143"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
@@ -18767,23 +18251,20 @@
       <c r="R45" s="10"/>
       <c r="S45" s="10"/>
       <c r="T45" s="10"/>
-      <c r="U45" s="10"/>
+      <c r="U45" s="15"/>
       <c r="V45" s="10"/>
-      <c r="W45" s="143"/>
+      <c r="W45" s="10"/>
       <c r="X45" s="10"/>
-      <c r="Y45" s="15"/>
-      <c r="Z45" s="10"/>
-      <c r="AA45" s="10"/>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="143"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
       <c r="P46" s="10"/>
@@ -18791,119 +18272,104 @@
       <c r="R46" s="10"/>
       <c r="S46" s="10"/>
       <c r="T46" s="10"/>
-      <c r="U46" s="10"/>
+      <c r="U46" s="15"/>
       <c r="V46" s="10"/>
-      <c r="W46" s="143"/>
+      <c r="W46" s="10"/>
       <c r="X46" s="10"/>
-      <c r="Y46" s="15"/>
-      <c r="Z46" s="10"/>
-      <c r="AA46" s="10"/>
-    </row>
-    <row r="47" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C47" s="11">
-        <f t="shared" ref="C47:D47" si="100">SUM(C41:C46)</f>
+        <f t="shared" ref="C47:D47" si="97">SUM(C41:C46)</f>
         <v>0</v>
       </c>
       <c r="D47" s="11">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="14">
+        <f t="shared" ref="E47:G47" si="98">SUM(E41:E46)</f>
+        <v>0</v>
+      </c>
+      <c r="F47" s="11">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="11">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="11">
+        <f t="shared" ref="K47:M47" si="99">SUM(K41:K46)</f>
+        <v>0</v>
+      </c>
+      <c r="L47" s="11">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="11">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="N47" s="11">
+        <f t="shared" ref="N47:Q47" si="100">SUM(N41:N46)</f>
+        <v>0</v>
+      </c>
+      <c r="O47" s="11">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="E47" s="11">
-        <f>SUM(E41:E46)</f>
+      <c r="P47" s="11">
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="F47" s="11">
-        <f t="shared" ref="F47:G47" si="101">SUM(F41:F46)</f>
+      <c r="Q47" s="11">
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="G47" s="142">
+      <c r="R47" s="11">
+        <f t="shared" ref="R47:T47" si="101">SUM(R41:R46)</f>
+        <v>0</v>
+      </c>
+      <c r="S47" s="11">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
-      <c r="H47" s="14">
-        <f t="shared" ref="H47:J47" si="102">SUM(H41:H46)</f>
+      <c r="T47" s="11">
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
-      <c r="I47" s="142">
+      <c r="U47" s="14">
+        <f t="shared" ref="U47:X47" si="102">SUM(U41:U46)</f>
+        <v>0</v>
+      </c>
+      <c r="V47" s="11">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="J47" s="142">
+      <c r="W47" s="11">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="N47" s="11">
-        <f t="shared" ref="N47:T47" si="103">SUM(N41:N46)</f>
+      <c r="X47" s="11">
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="O47" s="11">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
-      <c r="P47" s="11">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
-      <c r="Q47" s="11">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
-      <c r="R47" s="11">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
-      <c r="S47" s="11">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
-      <c r="T47" s="11">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
-      <c r="U47" s="11">
-        <f t="shared" ref="U47:Y47" si="104">SUM(U41:U46)</f>
-        <v>0</v>
-      </c>
-      <c r="V47" s="11">
-        <f t="shared" si="104"/>
-        <v>0</v>
-      </c>
-      <c r="W47" s="142">
-        <f t="shared" si="104"/>
-        <v>0</v>
-      </c>
-      <c r="X47" s="11">
-        <f t="shared" si="104"/>
-        <v>0</v>
-      </c>
-      <c r="Y47" s="14">
-        <f t="shared" ref="Y47:AA47" si="105">SUM(Y41:Y46)</f>
-        <v>0</v>
-      </c>
-      <c r="Z47" s="11">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="AA47" s="11">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
+      <c r="E48" s="15"/>
       <c r="F48" s="10"/>
-      <c r="G48" s="143"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="143"/>
-      <c r="J48" s="143"/>
+      <c r="G48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
       <c r="P48" s="10"/>
@@ -18911,26 +18377,23 @@
       <c r="R48" s="10"/>
       <c r="S48" s="10"/>
       <c r="T48" s="10"/>
-      <c r="U48" s="10"/>
+      <c r="U48" s="15"/>
       <c r="V48" s="10"/>
-      <c r="W48" s="143"/>
+      <c r="W48" s="10"/>
       <c r="X48" s="10"/>
-      <c r="Y48" s="15"/>
-      <c r="Z48" s="10"/>
-      <c r="AA48" s="10"/>
-    </row>
-    <row r="49" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
+      <c r="E49" s="15"/>
       <c r="F49" s="10"/>
-      <c r="G49" s="143"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="143"/>
-      <c r="J49" s="143"/>
+      <c r="G49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
       <c r="P49" s="10"/>
@@ -18938,26 +18401,23 @@
       <c r="R49" s="10"/>
       <c r="S49" s="10"/>
       <c r="T49" s="10"/>
-      <c r="U49" s="10"/>
+      <c r="U49" s="15"/>
       <c r="V49" s="10"/>
-      <c r="W49" s="143"/>
+      <c r="W49" s="10"/>
       <c r="X49" s="10"/>
-      <c r="Y49" s="15"/>
-      <c r="Z49" s="10"/>
-      <c r="AA49" s="10"/>
-    </row>
-    <row r="50" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
+      <c r="E50" s="15"/>
       <c r="F50" s="10"/>
-      <c r="G50" s="143"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="143"/>
-      <c r="J50" s="143"/>
+      <c r="G50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
       <c r="P50" s="10"/>
@@ -18965,26 +18425,23 @@
       <c r="R50" s="10"/>
       <c r="S50" s="10"/>
       <c r="T50" s="10"/>
-      <c r="U50" s="10"/>
+      <c r="U50" s="15"/>
       <c r="V50" s="10"/>
-      <c r="W50" s="143"/>
+      <c r="W50" s="10"/>
       <c r="X50" s="10"/>
-      <c r="Y50" s="15"/>
-      <c r="Z50" s="10"/>
-      <c r="AA50" s="10"/>
-    </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
+      <c r="E51" s="15"/>
       <c r="F51" s="10"/>
-      <c r="G51" s="143"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="143"/>
-      <c r="J51" s="143"/>
+      <c r="G51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
       <c r="P51" s="10"/>
@@ -18992,26 +18449,23 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
       <c r="T51" s="10"/>
-      <c r="U51" s="10"/>
+      <c r="U51" s="15"/>
       <c r="V51" s="10"/>
-      <c r="W51" s="143"/>
+      <c r="W51" s="10"/>
       <c r="X51" s="10"/>
-      <c r="Y51" s="15"/>
-      <c r="Z51" s="10"/>
-      <c r="AA51" s="10"/>
-    </row>
-    <row r="52" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
+      <c r="E52" s="15"/>
       <c r="F52" s="10"/>
-      <c r="G52" s="143"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="143"/>
-      <c r="J52" s="143"/>
+      <c r="G52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
       <c r="N52" s="10"/>
       <c r="O52" s="10"/>
       <c r="P52" s="10"/>
@@ -19019,26 +18473,23 @@
       <c r="R52" s="10"/>
       <c r="S52" s="10"/>
       <c r="T52" s="10"/>
-      <c r="U52" s="10"/>
+      <c r="U52" s="15"/>
       <c r="V52" s="10"/>
-      <c r="W52" s="143"/>
+      <c r="W52" s="10"/>
       <c r="X52" s="10"/>
-      <c r="Y52" s="15"/>
-      <c r="Z52" s="10"/>
-      <c r="AA52" s="10"/>
-    </row>
-    <row r="53" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
+      <c r="E53" s="15"/>
       <c r="F53" s="10"/>
-      <c r="G53" s="143"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="143"/>
-      <c r="J53" s="143"/>
+      <c r="G53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
       <c r="N53" s="10"/>
       <c r="O53" s="10"/>
       <c r="P53" s="10"/>
@@ -19046,17 +18497,14 @@
       <c r="R53" s="10"/>
       <c r="S53" s="10"/>
       <c r="T53" s="10"/>
-      <c r="U53" s="10"/>
+      <c r="U53" s="15"/>
       <c r="V53" s="10"/>
-      <c r="W53" s="143"/>
+      <c r="W53" s="10"/>
       <c r="X53" s="10"/>
-      <c r="Y53" s="15"/>
-      <c r="Z53" s="10"/>
-      <c r="AA53" s="10"/>
-    </row>
-    <row r="54" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C54" s="11">
         <f>SUM(C47:C53)</f>
@@ -19066,99 +18514,87 @@
         <f>SUM(D47:D53)</f>
         <v>0</v>
       </c>
-      <c r="E54" s="11">
-        <f>SUM(E47:E53)</f>
+      <c r="E54" s="14">
+        <f t="shared" ref="E54:G54" si="103">SUM(E47:E53)</f>
         <v>0</v>
       </c>
       <c r="F54" s="11">
-        <f>SUM(F47:F53)</f>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="G54" s="142">
-        <f>SUM(G47:G53)</f>
+      <c r="G54" s="11">
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="H54" s="14">
-        <f t="shared" ref="H54:J54" si="106">SUM(H47:H53)</f>
+      <c r="K54" s="11">
+        <f t="shared" ref="K54:M54" si="104">SUM(K47:K53)</f>
         <v>0</v>
       </c>
-      <c r="I54" s="142">
+      <c r="L54" s="11">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="11">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="N54" s="11">
+        <f t="shared" ref="N54:Q54" si="105">SUM(N47:N53)</f>
+        <v>0</v>
+      </c>
+      <c r="O54" s="11">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="P54" s="11">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="11">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="R54" s="11">
+        <f t="shared" ref="R54:T54" si="106">SUM(R47:R53)</f>
+        <v>0</v>
+      </c>
+      <c r="S54" s="11">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="J54" s="142">
+      <c r="T54" s="11">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="N54" s="11">
-        <f t="shared" ref="N54:T54" si="107">SUM(N47:N53)</f>
+      <c r="U54" s="14">
+        <f t="shared" ref="U54:X54" si="107">SUM(U47:U53)</f>
         <v>0</v>
       </c>
-      <c r="O54" s="11">
+      <c r="V54" s="11">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="P54" s="11">
+      <c r="W54" s="11">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="Q54" s="11">
+      <c r="X54" s="11">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="R54" s="11">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="S54" s="11">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="T54" s="11">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="U54" s="11">
-        <f t="shared" ref="U54:Y54" si="108">SUM(U47:U53)</f>
-        <v>0</v>
-      </c>
-      <c r="V54" s="11">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="W54" s="142">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="X54" s="11">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="Y54" s="14">
-        <f t="shared" ref="Y54:AA54" si="109">SUM(Y47:Y53)</f>
-        <v>0</v>
-      </c>
-      <c r="Z54" s="11">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="AA54" s="11">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
+      <c r="E55" s="15"/>
       <c r="F55" s="10"/>
-      <c r="G55" s="143"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="143"/>
-      <c r="J55" s="143"/>
+      <c r="G55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
       <c r="N55" s="10"/>
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
@@ -19166,26 +18602,23 @@
       <c r="R55" s="10"/>
       <c r="S55" s="10"/>
       <c r="T55" s="10"/>
-      <c r="U55" s="10"/>
+      <c r="U55" s="15"/>
       <c r="V55" s="10"/>
-      <c r="W55" s="143"/>
+      <c r="W55" s="10"/>
       <c r="X55" s="10"/>
-      <c r="Y55" s="15"/>
-      <c r="Z55" s="10"/>
-      <c r="AA55" s="10"/>
-    </row>
-    <row r="56" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
+      <c r="E56" s="15"/>
       <c r="F56" s="10"/>
-      <c r="G56" s="143"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="143"/>
-      <c r="J56" s="143"/>
+      <c r="G56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
       <c r="N56" s="10"/>
       <c r="O56" s="10"/>
       <c r="P56" s="10"/>
@@ -19193,26 +18626,23 @@
       <c r="R56" s="10"/>
       <c r="S56" s="10"/>
       <c r="T56" s="10"/>
-      <c r="U56" s="10"/>
+      <c r="U56" s="15"/>
       <c r="V56" s="10"/>
-      <c r="W56" s="143"/>
+      <c r="W56" s="10"/>
       <c r="X56" s="10"/>
-      <c r="Y56" s="15"/>
-      <c r="Z56" s="10"/>
-      <c r="AA56" s="10"/>
-    </row>
-    <row r="57" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
+      <c r="E57" s="15"/>
       <c r="F57" s="10"/>
-      <c r="G57" s="143"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="143"/>
-      <c r="J57" s="143"/>
+      <c r="G57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
       <c r="N57" s="10"/>
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
@@ -19220,26 +18650,23 @@
       <c r="R57" s="10"/>
       <c r="S57" s="10"/>
       <c r="T57" s="10"/>
-      <c r="U57" s="10"/>
+      <c r="U57" s="15"/>
       <c r="V57" s="10"/>
-      <c r="W57" s="143"/>
+      <c r="W57" s="10"/>
       <c r="X57" s="10"/>
-      <c r="Y57" s="15"/>
-      <c r="Z57" s="10"/>
-      <c r="AA57" s="10"/>
-    </row>
-    <row r="58" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
+      <c r="E58" s="15"/>
       <c r="F58" s="10"/>
-      <c r="G58" s="143"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="143"/>
-      <c r="J58" s="143"/>
+      <c r="G58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
       <c r="N58" s="10"/>
       <c r="O58" s="10"/>
       <c r="P58" s="10"/>
@@ -19247,26 +18674,23 @@
       <c r="R58" s="10"/>
       <c r="S58" s="10"/>
       <c r="T58" s="10"/>
-      <c r="U58" s="10"/>
+      <c r="U58" s="15"/>
       <c r="V58" s="10"/>
-      <c r="W58" s="143"/>
+      <c r="W58" s="10"/>
       <c r="X58" s="10"/>
-      <c r="Y58" s="15"/>
-      <c r="Z58" s="10"/>
-      <c r="AA58" s="10"/>
-    </row>
-    <row r="59" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
+      <c r="E59" s="15"/>
       <c r="F59" s="10"/>
-      <c r="G59" s="143"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="143"/>
-      <c r="J59" s="143"/>
+      <c r="G59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
       <c r="N59" s="10"/>
       <c r="O59" s="10"/>
       <c r="P59" s="10"/>
@@ -19274,17 +18698,14 @@
       <c r="R59" s="10"/>
       <c r="S59" s="10"/>
       <c r="T59" s="10"/>
-      <c r="U59" s="10"/>
+      <c r="U59" s="15"/>
       <c r="V59" s="10"/>
-      <c r="W59" s="143"/>
+      <c r="W59" s="10"/>
       <c r="X59" s="10"/>
-      <c r="Y59" s="15"/>
-      <c r="Z59" s="10"/>
-      <c r="AA59" s="10"/>
-    </row>
-    <row r="60" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C60" s="11">
         <f>SUM(C55:C59)</f>
@@ -19294,48 +18715,48 @@
         <f>SUM(D55:D59)</f>
         <v>0</v>
       </c>
-      <c r="E60" s="11">
-        <f>SUM(E55:E59)</f>
+      <c r="E60" s="14">
+        <f t="shared" ref="E60:G60" si="108">SUM(E55:E59)</f>
         <v>0</v>
       </c>
       <c r="F60" s="11">
-        <f>SUM(F55:F59)</f>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="G60" s="142">
-        <f>SUM(G55:G59)</f>
+      <c r="G60" s="11">
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="H60" s="14">
-        <f t="shared" ref="H60:J60" si="110">SUM(H55:H59)</f>
+      <c r="K60" s="11">
+        <f t="shared" ref="K60:M60" si="109">SUM(K55:K59)</f>
         <v>0</v>
       </c>
-      <c r="I60" s="142">
+      <c r="L60" s="11">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="11">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="N60" s="11">
+        <f t="shared" ref="N60:Q60" si="110">SUM(N55:N59)</f>
+        <v>0</v>
+      </c>
+      <c r="O60" s="11">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="J60" s="142">
+      <c r="P60" s="11">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="N60" s="11">
-        <f t="shared" ref="N60:T60" si="111">SUM(N55:N59)</f>
+      <c r="Q60" s="11">
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="O60" s="11">
-        <f t="shared" si="111"/>
-        <v>0</v>
-      </c>
-      <c r="P60" s="11">
-        <f t="shared" si="111"/>
-        <v>0</v>
-      </c>
-      <c r="Q60" s="11">
-        <f t="shared" si="111"/>
-        <v>0</v>
-      </c>
       <c r="R60" s="11">
-        <f t="shared" si="111"/>
+        <f t="shared" ref="R60:T60" si="111">SUM(R55:R59)</f>
         <v>0</v>
       </c>
       <c r="S60" s="11">
@@ -19346,15 +18767,15 @@
         <f t="shared" si="111"/>
         <v>0</v>
       </c>
-      <c r="U60" s="11">
-        <f t="shared" ref="U60:Y60" si="112">SUM(U55:U59)</f>
+      <c r="U60" s="14">
+        <f t="shared" ref="U60:X60" si="112">SUM(U55:U59)</f>
         <v>0</v>
       </c>
       <c r="V60" s="11">
         <f t="shared" si="112"/>
         <v>0</v>
       </c>
-      <c r="W60" s="142">
+      <c r="W60" s="11">
         <f t="shared" si="112"/>
         <v>0</v>
       </c>
@@ -19362,31 +18783,19 @@
         <f t="shared" si="112"/>
         <v>0</v>
       </c>
-      <c r="Y60" s="14">
-        <f t="shared" ref="Y60:AA60" si="113">SUM(Y55:Y59)</f>
-        <v>0</v>
-      </c>
-      <c r="Z60" s="11">
-        <f t="shared" si="113"/>
-        <v>0</v>
-      </c>
-      <c r="AA60" s="11">
-        <f t="shared" si="113"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
+      <c r="E61" s="15"/>
       <c r="F61" s="10"/>
-      <c r="G61" s="143"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="143"/>
-      <c r="J61" s="143"/>
+      <c r="G61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
       <c r="N61" s="10"/>
       <c r="O61" s="10"/>
       <c r="P61" s="10"/>
@@ -19394,26 +18803,23 @@
       <c r="R61" s="10"/>
       <c r="S61" s="10"/>
       <c r="T61" s="10"/>
-      <c r="U61" s="10"/>
+      <c r="U61" s="15"/>
       <c r="V61" s="10"/>
-      <c r="W61" s="143"/>
+      <c r="W61" s="10"/>
       <c r="X61" s="10"/>
-      <c r="Y61" s="15"/>
-      <c r="Z61" s="10"/>
-      <c r="AA61" s="10"/>
-    </row>
-    <row r="62" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
+      <c r="E62" s="15"/>
       <c r="F62" s="10"/>
-      <c r="G62" s="143"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="143"/>
-      <c r="J62" s="143"/>
+      <c r="G62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
       <c r="N62" s="10"/>
       <c r="O62" s="10"/>
       <c r="P62" s="10"/>
@@ -19421,26 +18827,23 @@
       <c r="R62" s="10"/>
       <c r="S62" s="10"/>
       <c r="T62" s="10"/>
-      <c r="U62" s="10"/>
+      <c r="U62" s="15"/>
       <c r="V62" s="10"/>
-      <c r="W62" s="143"/>
+      <c r="W62" s="10"/>
       <c r="X62" s="10"/>
-      <c r="Y62" s="15"/>
-      <c r="Z62" s="10"/>
-      <c r="AA62" s="10"/>
-    </row>
-    <row r="63" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
+      <c r="E63" s="15"/>
       <c r="F63" s="10"/>
-      <c r="G63" s="143"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="143"/>
-      <c r="J63" s="143"/>
+      <c r="G63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
       <c r="N63" s="10"/>
       <c r="O63" s="10"/>
       <c r="P63" s="10"/>
@@ -19448,26 +18851,23 @@
       <c r="R63" s="10"/>
       <c r="S63" s="10"/>
       <c r="T63" s="10"/>
-      <c r="U63" s="10"/>
+      <c r="U63" s="15"/>
       <c r="V63" s="10"/>
-      <c r="W63" s="143"/>
+      <c r="W63" s="10"/>
       <c r="X63" s="10"/>
-      <c r="Y63" s="15"/>
-      <c r="Z63" s="10"/>
-      <c r="AA63" s="10"/>
-    </row>
-    <row r="64" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
+      <c r="E64" s="15"/>
       <c r="F64" s="10"/>
-      <c r="G64" s="143"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="143"/>
-      <c r="J64" s="143"/>
+      <c r="G64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
       <c r="N64" s="10"/>
       <c r="O64" s="10"/>
       <c r="P64" s="10"/>
@@ -19475,17 +18875,14 @@
       <c r="R64" s="10"/>
       <c r="S64" s="10"/>
       <c r="T64" s="10"/>
-      <c r="U64" s="10"/>
+      <c r="U64" s="15"/>
       <c r="V64" s="10"/>
-      <c r="W64" s="143"/>
+      <c r="W64" s="10"/>
       <c r="X64" s="10"/>
-      <c r="Y64" s="15"/>
-      <c r="Z64" s="10"/>
-      <c r="AA64" s="10"/>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C65" s="11">
         <f>SUM(C60:C64)</f>
@@ -19495,32 +18892,32 @@
         <f>SUM(D60:D64)</f>
         <v>0</v>
       </c>
-      <c r="E65" s="11">
-        <f>SUM(E60:E64)</f>
+      <c r="E65" s="14">
+        <f t="shared" ref="E65:G65" si="113">SUM(E60:E64)</f>
         <v>0</v>
       </c>
       <c r="F65" s="11">
-        <f>SUM(F60:F64)</f>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
-      <c r="G65" s="142">
-        <f>SUM(G60:G64)</f>
+      <c r="G65" s="11">
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
-      <c r="H65" s="14">
-        <f t="shared" ref="H65:J65" si="114">SUM(H60:H64)</f>
+      <c r="K65" s="11">
+        <f t="shared" ref="K65:M65" si="114">SUM(K60:K64)</f>
         <v>0</v>
       </c>
-      <c r="I65" s="142">
+      <c r="L65" s="11">
         <f t="shared" si="114"/>
         <v>0</v>
       </c>
-      <c r="J65" s="142">
+      <c r="M65" s="11">
         <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="N65" s="11">
-        <f t="shared" ref="N65:T65" si="115">SUM(N60:N64)</f>
+        <f t="shared" ref="N65:Q65" si="115">SUM(N60:N64)</f>
         <v>0</v>
       </c>
       <c r="O65" s="11">
@@ -19536,84 +18933,72 @@
         <v>0</v>
       </c>
       <c r="R65" s="11">
-        <f t="shared" si="115"/>
+        <f t="shared" ref="R65:T65" si="116">SUM(R60:R64)</f>
         <v>0</v>
       </c>
       <c r="S65" s="11">
-        <f t="shared" si="115"/>
-        <v>0</v>
-      </c>
-      <c r="T65" s="11">
-        <f t="shared" si="115"/>
-        <v>0</v>
-      </c>
-      <c r="U65" s="11">
-        <f t="shared" ref="U65:Y65" si="116">SUM(U60:U64)</f>
-        <v>0</v>
-      </c>
-      <c r="V65" s="11">
         <f t="shared" si="116"/>
         <v>0</v>
       </c>
-      <c r="W65" s="142">
+      <c r="T65" s="11">
         <f t="shared" si="116"/>
         <v>0</v>
       </c>
-      <c r="X65" s="11">
-        <f t="shared" si="116"/>
+      <c r="U65" s="14">
+        <f t="shared" ref="U65:X65" si="117">SUM(U60:U64)</f>
         <v>0</v>
       </c>
-      <c r="Y65" s="14">
-        <f t="shared" ref="Y65:AA65" si="117">SUM(Y60:Y64)</f>
-        <v>0</v>
-      </c>
-      <c r="Z65" s="11">
+      <c r="V65" s="11">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="AA65" s="11">
+      <c r="W65" s="11">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="X65" s="11">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C66" s="10">
-        <f t="shared" ref="C66:E66" si="118">C54-C65</f>
+        <f>C54-C65</f>
         <v>0</v>
       </c>
       <c r="D66" s="10">
+        <f>D54-D65</f>
+        <v>0</v>
+      </c>
+      <c r="E66" s="15">
+        <f t="shared" ref="E66:G66" si="118">E54-E65</f>
+        <v>0</v>
+      </c>
+      <c r="F66" s="10">
         <f t="shared" si="118"/>
         <v>0</v>
       </c>
-      <c r="E66" s="10">
+      <c r="G66" s="10">
         <f t="shared" si="118"/>
         <v>0</v>
       </c>
-      <c r="F66" s="10">
-        <f>F54-F65</f>
+      <c r="K66" s="10">
+        <f t="shared" ref="K66:M66" si="119">K54-K65</f>
         <v>0</v>
       </c>
-      <c r="G66" s="143">
-        <f>G54-G65</f>
-        <v>0</v>
-      </c>
-      <c r="H66" s="15">
-        <f t="shared" ref="H66:J66" si="119">H54-H65</f>
-        <v>0</v>
-      </c>
-      <c r="I66" s="143">
+      <c r="L66" s="10">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="J66" s="143">
+      <c r="M66" s="10">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="N66" s="10">
-        <f t="shared" ref="N66:T66" si="120">N54-N65</f>
+        <f t="shared" ref="N66:Q66" si="120">N54-N65</f>
         <v>0</v>
       </c>
       <c r="O66" s="10">
@@ -19629,70 +19014,50 @@
         <v>0</v>
       </c>
       <c r="R66" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" ref="R66:T66" si="121">R54-R65</f>
         <v>0</v>
       </c>
       <c r="S66" s="10">
-        <f t="shared" si="120"/>
-        <v>0</v>
-      </c>
-      <c r="T66" s="10">
-        <f t="shared" si="120"/>
-        <v>0</v>
-      </c>
-      <c r="U66" s="10">
-        <f t="shared" ref="U66:Y66" si="121">U54-U65</f>
-        <v>0</v>
-      </c>
-      <c r="V66" s="10">
         <f t="shared" si="121"/>
         <v>0</v>
       </c>
-      <c r="W66" s="143">
+      <c r="T66" s="10">
         <f t="shared" si="121"/>
         <v>0</v>
       </c>
-      <c r="X66" s="10">
-        <f t="shared" si="121"/>
+      <c r="U66" s="15">
+        <f t="shared" ref="U66:X66" si="122">U54-U65</f>
         <v>0</v>
       </c>
-      <c r="Y66" s="15">
-        <f t="shared" ref="Y66:AA66" si="122">Y54-Y65</f>
-        <v>0</v>
-      </c>
-      <c r="Z66" s="10">
+      <c r="V66" s="10">
         <f t="shared" si="122"/>
         <v>0</v>
       </c>
-      <c r="AA66" s="10">
+      <c r="W66" s="10">
         <f t="shared" si="122"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X66" s="10">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C68" s="50"/>
-      <c r="D68" s="50"/>
-      <c r="E68" s="50"/>
-      <c r="F68" s="50"/>
-      <c r="G68" s="147"/>
-      <c r="H68" s="16"/>
-      <c r="W68" s="149"/>
-      <c r="Y68" s="16"/>
-    </row>
-    <row r="86" spans="7:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G86" s="148"/>
-      <c r="H86" s="41"/>
-      <c r="W86" s="148"/>
-      <c r="Y86" s="41"/>
-    </row>
-    <row r="87" spans="7:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G87" s="149"/>
-      <c r="H87" s="16"/>
-      <c r="W87" s="149"/>
-      <c r="Y87" s="16"/>
+      <c r="D68" s="122"/>
+      <c r="E68" s="16"/>
+      <c r="U68" s="16"/>
+    </row>
+    <row r="86" spans="5:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E86" s="41"/>
+      <c r="U86" s="41"/>
+    </row>
+    <row r="87" spans="5:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E87" s="16"/>
+      <c r="U87" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -19701,18 +19066,15 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="C60" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A670AE-D1F2-4470-937E-18BA568AD24E}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19720,7 +19082,7 @@
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B1" s="120">
         <v>45413</v>
       </c>
@@ -19754,10 +19116,40 @@
       <c r="L1" s="120">
         <v>45717</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="120">
+        <v>45748</v>
+      </c>
+      <c r="N1" s="120">
+        <v>45778</v>
+      </c>
+      <c r="O1" s="120">
+        <v>45809</v>
+      </c>
+      <c r="P1" s="120">
+        <v>45839</v>
+      </c>
+      <c r="Q1" s="120">
+        <v>45870</v>
+      </c>
+      <c r="R1" s="120">
+        <v>45901</v>
+      </c>
+      <c r="S1" s="120">
+        <v>45931</v>
+      </c>
+      <c r="T1" s="120">
+        <v>45962</v>
+      </c>
+      <c r="U1" s="120">
+        <v>45992</v>
+      </c>
+      <c r="V1" s="120">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -19769,9 +19161,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -19783,9 +19175,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -19797,9 +19189,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -19811,9 +19203,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -19825,14 +19217,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="I10">
         <v>80</v>
@@ -19844,9 +19236,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="I11">
         <v>90</v>
@@ -19858,9 +19250,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="I12">
         <v>40</v>
@@ -19882,15 +19274,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48E03BE-2423-4BDB-9A98-002F9CED8953}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X56" sqref="X56"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="X58" sqref="X58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -19938,26 +19330,26 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="12"/>
       <c r="C2" s="18"/>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="M2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -19967,7 +19359,7 @@
         <v>45328</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="M3" s="12"/>
     </row>
@@ -19978,7 +19370,7 @@
         <v>45302</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="M4" s="12"/>
     </row>
@@ -28273,25 +27665,25 @@
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H1" s="130" t="s">
-        <v>109</v>
-      </c>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="132"/>
+        <v>101</v>
+      </c>
+      <c r="H1" s="134" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="136"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" t="e">
@@ -28311,22 +27703,22 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H3" s="59" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="I3" s="60" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="J3" s="61" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="K3" s="62" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L3" s="62" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="M3" s="63" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -28666,7 +28058,7 @@
       </c>
       <c r="H15" s="75"/>
       <c r="I15" s="76" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J15" s="76">
         <f>COUNTIF(D:D,"&gt;"&amp;H14)</f>
@@ -28698,10 +28090,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="133" t="s">
-        <v>147</v>
-      </c>
-      <c r="I17" s="134"/>
+      <c r="H17" s="137" t="s">
+        <v>140</v>
+      </c>
+      <c r="I17" s="138"/>
       <c r="M17" s="79"/>
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.25">
@@ -28709,8 +28101,8 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="135"/>
-      <c r="I18" s="136"/>
+      <c r="H18" s="139"/>
+      <c r="I18" s="140"/>
       <c r="M18" s="79"/>
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.25">
@@ -28719,7 +28111,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H19" s="80" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="I19" s="116" t="e">
         <f>AVERAGE(D:D)</f>
@@ -28733,7 +28125,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H20" s="80" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="I20" s="116" t="e">
         <f>_xlfn.STDEV.S(D:D)/SQRT(COUNT(D:D))</f>
@@ -28747,7 +28139,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H21" s="80" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="I21" s="116" t="e">
         <f>MEDIAN(D:D)</f>
@@ -28761,7 +28153,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H22" s="80" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="I22" s="116" t="e">
         <f>MODE(D:D)</f>
@@ -28775,7 +28167,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H23" s="80" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I23" s="116" t="e">
         <f>_xlfn.STDEV.S(D:D)</f>
@@ -28789,7 +28181,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H24" s="80" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="I24" s="116" t="e">
         <f>_xlfn.VAR.S(D:D)</f>
@@ -28803,7 +28195,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H25" s="80" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="I25" s="117" t="e">
         <f>KURT(D:D)</f>
@@ -28817,7 +28209,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H26" s="80" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="I26" s="117" t="e">
         <f>SKEW(D:D)</f>
@@ -28831,7 +28223,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H27" s="80" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="I27" s="116" t="e">
         <f>I29-I28</f>
@@ -28845,7 +28237,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H28" s="80" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="I28" s="116" t="e">
         <f>MIN(D:D)</f>
@@ -28859,7 +28251,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H29" s="80" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="I29" s="116" t="e">
         <f>MAX(D:D)</f>
@@ -28873,7 +28265,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H30" s="80" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="I30" s="117" t="e">
         <f>SUM(D:D)</f>
@@ -28887,7 +28279,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H31" s="81" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="I31" s="58">
         <f>COUNT(D:D)</f>
@@ -28910,16 +28302,16 @@
       </c>
       <c r="H33" s="84"/>
       <c r="I33" s="85" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="J33" s="85" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="K33" s="85" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="L33" s="86" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="M33" s="79"/>
     </row>
@@ -28929,7 +28321,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H34" s="87" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I34" s="73" t="e">
         <f>AVERAGEIF(D:D,"&gt;0")</f>
@@ -28955,7 +28347,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H35" s="87" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="I35" s="73" t="e">
         <f>AVERAGEIF(D:D,"&lt;0")</f>
@@ -28981,7 +28373,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H36" s="88" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="I36" s="76">
         <v>0</v>
@@ -29018,22 +28410,22 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H38" s="64" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="I38" s="85" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="J38" s="85" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="K38" s="85" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="L38" s="85" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M38" s="86" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="4:13" x14ac:dyDescent="0.25">
@@ -29133,14 +28525,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H43" s="137" t="s">
-        <v>141</v>
-      </c>
-      <c r="I43" s="138"/>
-      <c r="J43" s="138"/>
-      <c r="K43" s="138"/>
-      <c r="L43" s="138"/>
-      <c r="M43" s="139"/>
+      <c r="H43" s="141" t="s">
+        <v>134</v>
+      </c>
+      <c r="I43" s="142"/>
+      <c r="J43" s="142"/>
+      <c r="K43" s="142"/>
+      <c r="L43" s="142"/>
+      <c r="M43" s="143"/>
     </row>
     <row r="44" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D44" t="e">
@@ -29549,7 +28941,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H60" s="106" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I60" s="107"/>
     </row>
@@ -29559,7 +28951,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H61" s="108" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="I61" s="109"/>
     </row>
@@ -29576,7 +28968,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H63" s="106" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="I63" s="111"/>
     </row>
@@ -29586,7 +28978,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H64" s="112" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="I64" s="113">
         <f>I63*(1-I60)</f>
@@ -29599,7 +28991,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H65" s="108" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="I65" s="114">
         <f>I63*(1+I61)</f>

--- a/x_template.xlsx
+++ b/x_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B3338B-EBD8-475E-A95E-C3DB0670CA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6701F33B-CBC8-4E1B-95B7-8B0F477A2ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="765" windowWidth="13995" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -319,7 +319,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="172">
   <si>
     <t>Price</t>
   </si>
@@ -793,9 +793,6 @@
   </si>
   <si>
     <t>Sell</t>
-  </si>
-  <si>
-    <t>Underperform</t>
   </si>
   <si>
     <t>Hold</t>
@@ -2049,159 +2046,11 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Analysts!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Underperform</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>Analysts!$B$1:$L$1</c:f>
-              <c:numCache>
-                <c:formatCode>[$-407]mmm/\ yy;@</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>45413</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45444</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45474</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45505</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45536</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45566</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45597</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45627</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45658</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45689</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45717</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Analysts!$B$3:$L$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-579C-4350-B83D-5F2E75DDA864}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Analysts!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2322,7 +2171,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Analysts!$B$4:$L$4</c:f>
+              <c:f>Analysts!$B$3:$L$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2346,10 +2195,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Analysts!$A$5</c:f>
+              <c:f>Analysts!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2470,7 +2319,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Analysts!$B$5:$L$5</c:f>
+              <c:f>Analysts!$B$4:$L$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2494,10 +2343,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Analysts!$A$6</c:f>
+              <c:f>Analysts!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2618,7 +2467,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Analysts!$B$6:$L$6</c:f>
+              <c:f>Analysts!$B$5:$L$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3259,7 +3108,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Analysts!$A$10</c:f>
+              <c:f>Analysts!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3336,7 +3185,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Analysts!$B$10:$L$10</c:f>
+              <c:f>Analysts!$B$9:$L$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3364,7 +3213,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Analysts!$A$11</c:f>
+              <c:f>Analysts!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3441,7 +3290,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Analysts!$B$11:$L$11</c:f>
+              <c:f>Analysts!$B$10:$L$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3469,7 +3318,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Analysts!$A$12</c:f>
+              <c:f>Analysts!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3546,7 +3395,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Analysts!$B$12:$L$12</c:f>
+              <c:f>Analysts!$B$11:$L$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -15073,13 +14922,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15111,13 +14960,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>109536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15884,7 +15733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -16474,7 +16323,7 @@
         <v>63</v>
       </c>
       <c r="G2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K2" t="s">
         <v>6</v>
@@ -16501,22 +16350,22 @@
         <v>154</v>
       </c>
       <c r="S2" t="s">
+        <v>166</v>
+      </c>
+      <c r="T2" t="s">
         <v>167</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="V2" t="s">
         <v>169</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>170</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>171</v>
-      </c>
-      <c r="X2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -19071,10 +18920,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A670AE-D1F2-4470-937E-18BA568AD24E}">
-  <dimension ref="A1:V12"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19166,13 +19015,13 @@
         <v>158</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -19194,32 +19043,32 @@
         <v>160</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>161</v>
       </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>165</v>
+      <c r="I9">
+        <v>80</v>
+      </c>
+      <c r="J9">
+        <v>80</v>
+      </c>
+      <c r="K9">
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -19227,13 +19076,13 @@
         <v>162</v>
       </c>
       <c r="I10">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J10">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K10">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -19241,26 +19090,12 @@
         <v>163</v>
       </c>
       <c r="I11">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="J11">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="K11">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>164</v>
-      </c>
-      <c r="I12">
-        <v>40</v>
-      </c>
-      <c r="J12">
-        <v>40</v>
-      </c>
-      <c r="K12">
         <v>60</v>
       </c>
     </row>
